--- a/premise/data/additional_inventories/lci-germanium.xlsx
+++ b/premise/data/additional_inventories/lci-germanium.xlsx
@@ -1,27 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07E7432-DB0A-410E-A812-9EC516D9B47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Allocation" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet1 (2)" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4310" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4314" uniqueCount="536">
   <si>
     <t>Allocation</t>
   </si>
@@ -1626,12 +1638,15 @@
   </si>
   <si>
     <t>Zinc II</t>
+  </si>
+  <si>
+    <t>Germanium</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1747,7 +1762,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2035,11 +2056,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q670"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
-      <selection activeCell="A270" sqref="A270"/>
+    <sheetView tabSelected="1" topLeftCell="A259" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B277" sqref="B277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8094,6 +8115,24 @@
         <v>2.9430163779185699E-4</v>
       </c>
     </row>
+    <row r="276" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>535</v>
+      </c>
+      <c r="B276" s="2">
+        <f>B11</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C276" t="s">
+        <v>36</v>
+      </c>
+      <c r="D276" t="s">
+        <v>296</v>
+      </c>
+      <c r="F276" t="s">
+        <v>294</v>
+      </c>
+    </row>
     <row r="278" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A278" s="3"/>
       <c r="B278" s="3"/>
@@ -9521,7 +9560,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T71"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
@@ -10916,8 +10955,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1"/>
-    <hyperlink ref="Q13" r:id="rId2"/>
+    <hyperlink ref="B14" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="Q13" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
@@ -10925,7 +10964,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K659"/>
   <sheetViews>
     <sheetView topLeftCell="A268" workbookViewId="0">
@@ -11060,7 +11099,7 @@
         <v>103</v>
       </c>
       <c r="B14" s="2">
-        <f>H14*0.24/0.69</f>
+        <f t="shared" ref="B14:B77" si="0">H14*0.24/0.69</f>
         <v>4.9690306693738087E-6</v>
       </c>
       <c r="C14" t="s">
@@ -11084,7 +11123,7 @@
         <v>104</v>
       </c>
       <c r="B15" s="2">
-        <f>H15*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>7.7569968014510251E-7</v>
       </c>
       <c r="C15" t="s">
@@ -11108,7 +11147,7 @@
         <v>104</v>
       </c>
       <c r="B16" s="2">
-        <f>H16*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>3.6823444586198613E-6</v>
       </c>
       <c r="C16" t="s">
@@ -11132,7 +11171,7 @@
         <v>105</v>
       </c>
       <c r="B17" s="2">
-        <f>H17*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>2.9130811840968172E-8</v>
       </c>
       <c r="C17" t="s">
@@ -11156,7 +11195,7 @@
         <v>106</v>
       </c>
       <c r="B18" s="2">
-        <f>H18*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>-2.5374035975555479E-7</v>
       </c>
       <c r="C18" t="s">
@@ -11180,7 +11219,7 @@
         <v>106</v>
       </c>
       <c r="B19" s="2">
-        <f>H19*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>-6.6326197824014613E-9</v>
       </c>
       <c r="C19" t="s">
@@ -11204,7 +11243,7 @@
         <v>106</v>
       </c>
       <c r="B20" s="2">
-        <f>H20*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>-5.2764056007556868E-7</v>
       </c>
       <c r="C20" t="s">
@@ -11228,7 +11267,7 @@
         <v>107</v>
       </c>
       <c r="B21" s="2">
-        <f>H21*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>3.766433510841217E-4</v>
       </c>
       <c r="C21" t="s">
@@ -11252,7 +11291,7 @@
         <v>108</v>
       </c>
       <c r="B22" s="2">
-        <f>H22*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>1.6261376763025878E-6</v>
       </c>
       <c r="C22" t="s">
@@ -11276,7 +11315,7 @@
         <v>108</v>
       </c>
       <c r="B23" s="2">
-        <f>H23*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>5.6318716188164165E-6</v>
       </c>
       <c r="C23" t="s">
@@ -11300,7 +11339,7 @@
         <v>109</v>
       </c>
       <c r="B24" s="2">
-        <f>H24*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>5.0470766309828177E-5</v>
       </c>
       <c r="C24" t="s">
@@ -11324,7 +11363,7 @@
         <v>110</v>
       </c>
       <c r="B25" s="2">
-        <f>H25*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>3.5352072851130784E-5</v>
       </c>
       <c r="C25" t="s">
@@ -11348,7 +11387,7 @@
         <v>111</v>
       </c>
       <c r="B26" s="2">
-        <f>H26*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>6.9261717497650082E-4</v>
       </c>
       <c r="C26" t="s">
@@ -11372,7 +11411,7 @@
         <v>112</v>
       </c>
       <c r="B27" s="2">
-        <f>H27*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>1.8923971519837181E-8</v>
       </c>
       <c r="C27" t="s">
@@ -11396,7 +11435,7 @@
         <v>112</v>
       </c>
       <c r="B28" s="2">
-        <f>H28*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>1.1833542973412661E-10</v>
       </c>
       <c r="C28" t="s">
@@ -11420,7 +11459,7 @@
         <v>112</v>
       </c>
       <c r="B29" s="2">
-        <f>H29*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>7.5637037200542613E-10</v>
       </c>
       <c r="C29" t="s">
@@ -11444,7 +11483,7 @@
         <v>112</v>
       </c>
       <c r="B30" s="2">
-        <f>H30*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>1.5615712417974991E-7</v>
       </c>
       <c r="C30" t="s">
@@ -11468,7 +11507,7 @@
         <v>113</v>
       </c>
       <c r="B31" s="2">
-        <f>H31*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>8.3386493948037213E-7</v>
       </c>
       <c r="C31" t="s">
@@ -11492,7 +11531,7 @@
         <v>114</v>
       </c>
       <c r="B32" s="2">
-        <f>H32*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>3.5577678225022263E-8</v>
       </c>
       <c r="C32" t="s">
@@ -11516,7 +11555,7 @@
         <v>115</v>
       </c>
       <c r="B33" s="2">
-        <f>H33*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>2.5924564186503652E-3</v>
       </c>
       <c r="C33" t="s">
@@ -11540,7 +11579,7 @@
         <v>116</v>
       </c>
       <c r="B34" s="2">
-        <f>H34*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>1.7893735970115271E-5</v>
       </c>
       <c r="C34" t="s">
@@ -11564,7 +11603,7 @@
         <v>117</v>
       </c>
       <c r="B35" s="2">
-        <f>H35*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>1.4706136913704175E-3</v>
       </c>
       <c r="C35" t="s">
@@ -11588,7 +11627,7 @@
         <v>117</v>
       </c>
       <c r="B36" s="2">
-        <f>H36*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>5.4357043034293914E-3</v>
       </c>
       <c r="C36" t="s">
@@ -11612,7 +11651,7 @@
         <v>118</v>
       </c>
       <c r="B37" s="2">
-        <f>H37*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>2.0279590170091063E-2</v>
       </c>
       <c r="C37" t="s">
@@ -11636,7 +11675,7 @@
         <v>42</v>
       </c>
       <c r="B38" s="2">
-        <f>H38*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>4.3003401976616701E-2</v>
       </c>
       <c r="C38" t="s">
@@ -11660,7 +11699,7 @@
         <v>42</v>
       </c>
       <c r="B39" s="2">
-        <f>H39*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>3.3313301190411898E-2</v>
       </c>
       <c r="C39" t="s">
@@ -11684,7 +11723,7 @@
         <v>42</v>
       </c>
       <c r="B40" s="2">
-        <f>H40*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>4.1737052017449044E-3</v>
       </c>
       <c r="C40" t="s">
@@ -11708,7 +11747,7 @@
         <v>42</v>
       </c>
       <c r="B41" s="2">
-        <f>H41*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>1.9728804296595128E-6</v>
       </c>
       <c r="C41" t="s">
@@ -11732,7 +11771,7 @@
         <v>119</v>
       </c>
       <c r="B42" s="2">
-        <f>H42*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>3.3572966467913634E-2</v>
       </c>
       <c r="C42" t="s">
@@ -11756,7 +11795,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="2">
-        <f>H43*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>5.2652011138598961E-3</v>
       </c>
       <c r="C43" t="s">
@@ -11780,7 +11819,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="2">
-        <f>H44*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>1.381247690888727E-2</v>
       </c>
       <c r="C44" t="s">
@@ -11804,7 +11843,7 @@
         <v>120</v>
       </c>
       <c r="B45" s="2">
-        <f>H45*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>-2.3542871489756943E-4</v>
       </c>
       <c r="C45" t="s">
@@ -11828,7 +11867,7 @@
         <v>120</v>
       </c>
       <c r="B46" s="2">
-        <f>H46*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>-6.1539644433359999E-6</v>
       </c>
       <c r="C46" t="s">
@@ -11852,7 +11891,7 @@
         <v>120</v>
       </c>
       <c r="B47" s="2">
-        <f>H47*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>-4.8956239798073737E-4</v>
       </c>
       <c r="C47" t="s">
@@ -11876,7 +11915,7 @@
         <v>121</v>
       </c>
       <c r="B48" s="2">
-        <f>H48*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>-1.1767441689457252E-6</v>
       </c>
       <c r="C48" t="s">
@@ -11900,7 +11939,7 @@
         <v>121</v>
       </c>
       <c r="B49" s="2">
-        <f>H49*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>-1.8268872356511516E-5</v>
       </c>
       <c r="C49" t="s">
@@ -11924,7 +11963,7 @@
         <v>122</v>
       </c>
       <c r="B50" s="2">
-        <f>H50*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>9.8614340878551299E-3</v>
       </c>
       <c r="C50" t="s">
@@ -11948,7 +11987,7 @@
         <v>123</v>
       </c>
       <c r="B51" s="2">
-        <f>H51*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>4.4594421207826785E-4</v>
       </c>
       <c r="C51" t="s">
@@ -11972,7 +12011,7 @@
         <v>124</v>
       </c>
       <c r="B52" s="2">
-        <f>H52*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>2.3119923021331794E-4</v>
       </c>
       <c r="C52" t="s">
@@ -11996,7 +12035,7 @@
         <v>125</v>
       </c>
       <c r="B53" s="2">
-        <f>H53*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>1.3247856075075096E-4</v>
       </c>
       <c r="C53" t="s">
@@ -12020,7 +12059,7 @@
         <v>126</v>
       </c>
       <c r="B54" s="2">
-        <f>H54*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>3.3470822911790157E-6</v>
       </c>
       <c r="C54" t="s">
@@ -12044,7 +12083,7 @@
         <v>126</v>
       </c>
       <c r="B55" s="2">
-        <f>H55*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>7.3635810405938437E-6</v>
       </c>
       <c r="C55" t="s">
@@ -12068,7 +12107,7 @@
         <v>127</v>
       </c>
       <c r="B56" s="2">
-        <f>H56*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>-2.2406612572108038E-5</v>
       </c>
       <c r="C56" t="s">
@@ -12092,7 +12131,7 @@
         <v>127</v>
       </c>
       <c r="B57" s="2">
-        <f>H57*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>-1.9298119697789948E-7</v>
       </c>
       <c r="C57" t="s">
@@ -12116,7 +12155,7 @@
         <v>127</v>
       </c>
       <c r="B58" s="2">
-        <f>H58*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>-7.8980430982449049E-5</v>
       </c>
       <c r="C58" t="s">
@@ -12140,7 +12179,7 @@
         <v>128</v>
       </c>
       <c r="B59" s="2">
-        <f>H59*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>-1.7231622762765078E-5</v>
       </c>
       <c r="C59" t="s">
@@ -12164,7 +12203,7 @@
         <v>129</v>
       </c>
       <c r="B60" s="2">
-        <f>H60*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>3.9501079736111306E-6</v>
       </c>
       <c r="C60" t="s">
@@ -12188,7 +12227,7 @@
         <v>129</v>
       </c>
       <c r="B61" s="2">
-        <f>H61*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>7.998468434838086E-6</v>
       </c>
       <c r="C61" t="s">
@@ -12212,7 +12251,7 @@
         <v>130</v>
       </c>
       <c r="B62" s="2">
-        <f>H62*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>3.3889373907262888E-4</v>
       </c>
       <c r="C62" t="s">
@@ -12236,7 +12275,7 @@
         <v>131</v>
       </c>
       <c r="B63" s="2">
-        <f>H63*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>5.3895044820149914E-6</v>
       </c>
       <c r="C63" t="s">
@@ -12260,7 +12299,7 @@
         <v>131</v>
       </c>
       <c r="B64" s="2">
-        <f>H64*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>6.2401294901628861E-5</v>
       </c>
       <c r="C64" t="s">
@@ -12284,7 +12323,7 @@
         <v>132</v>
       </c>
       <c r="B65" s="2">
-        <f>H65*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>1.3784291046547652E-7</v>
       </c>
       <c r="C65" t="s">
@@ -12308,7 +12347,7 @@
         <v>132</v>
       </c>
       <c r="B66" s="2">
-        <f>H66*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>1.6239106673579863E-5</v>
       </c>
       <c r="C66" t="s">
@@ -12332,7 +12371,7 @@
         <v>133</v>
       </c>
       <c r="B67" s="2">
-        <f>H67*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>2.087173581663527E-9</v>
       </c>
       <c r="C67" t="s">
@@ -12356,7 +12395,7 @@
         <v>133</v>
       </c>
       <c r="B68" s="2">
-        <f>H68*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>2.4478439917563897E-7</v>
       </c>
       <c r="C68" t="s">
@@ -12380,7 +12419,7 @@
         <v>134</v>
       </c>
       <c r="B69" s="2">
-        <f>H69*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>2.3264698195070789E-5</v>
       </c>
       <c r="C69" t="s">
@@ -12404,7 +12443,7 @@
         <v>134</v>
       </c>
       <c r="B70" s="2">
-        <f>H70*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>2.4084796366208972E-7</v>
       </c>
       <c r="C70" t="s">
@@ -12428,7 +12467,7 @@
         <v>134</v>
       </c>
       <c r="B71" s="2">
-        <f>H71*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>5.8901473117621919E-4</v>
       </c>
       <c r="C71" t="s">
@@ -12452,7 +12491,7 @@
         <v>135</v>
       </c>
       <c r="B72" s="2">
-        <f>H72*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>2.7059339934665181E-5</v>
       </c>
       <c r="C72" t="s">
@@ -12476,7 +12515,7 @@
         <v>135</v>
       </c>
       <c r="B73" s="2">
-        <f>H73*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>1.2845410796571998E-4</v>
       </c>
       <c r="C73" t="s">
@@ -12500,7 +12539,7 @@
         <v>136</v>
       </c>
       <c r="B74" s="2">
-        <f>H74*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>1.7797443932861391E-5</v>
       </c>
       <c r="C74" t="s">
@@ -12524,7 +12563,7 @@
         <v>137</v>
       </c>
       <c r="B75" s="2">
-        <f>H75*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>5.2238731499458436E-11</v>
       </c>
       <c r="C75" t="s">
@@ -12548,7 +12587,7 @@
         <v>138</v>
       </c>
       <c r="B76" s="2">
-        <f>H76*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>-2.2781361268503307E-5</v>
       </c>
       <c r="C76" t="s">
@@ -12572,7 +12611,7 @@
         <v>139</v>
       </c>
       <c r="B77" s="2">
-        <f>H77*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>-1.3963335715438784E-7</v>
       </c>
       <c r="C77" t="s">
@@ -12596,7 +12635,7 @@
         <v>139</v>
       </c>
       <c r="B78" s="2">
-        <f>H78*0.24/0.69</f>
+        <f t="shared" ref="B78:B141" si="1">H78*0.24/0.69</f>
         <v>-9.7709957189095654E-8</v>
       </c>
       <c r="C78" t="s">
@@ -12620,7 +12659,7 @@
         <v>139</v>
       </c>
       <c r="B79" s="2">
-        <f>H79*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>-3.8777645334319302E-7</v>
       </c>
       <c r="C79" t="s">
@@ -12644,7 +12683,7 @@
         <v>139</v>
       </c>
       <c r="B80" s="2">
-        <f>H80*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>-2.742508860476887E-4</v>
       </c>
       <c r="C80" t="s">
@@ -12668,7 +12707,7 @@
         <v>140</v>
       </c>
       <c r="B81" s="2">
-        <f>H81*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>1.0324434644674923E-5</v>
       </c>
       <c r="C81" t="s">
@@ -12692,7 +12731,7 @@
         <v>141</v>
       </c>
       <c r="B82" s="2">
-        <f>H82*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>-3.7057297571931831</v>
       </c>
       <c r="C82" t="s">
@@ -12716,7 +12755,7 @@
         <v>142</v>
       </c>
       <c r="B83" s="2">
-        <f>H83*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>9.6891500595936355E-7</v>
       </c>
       <c r="C83" t="s">
@@ -12740,7 +12779,7 @@
         <v>142</v>
       </c>
       <c r="B84" s="2">
-        <f>H84*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>1.9619301910175791E-6</v>
       </c>
       <c r="C84" t="s">
@@ -12764,7 +12803,7 @@
         <v>143</v>
       </c>
       <c r="B85" s="2">
-        <f>H85*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>3.9014946977122787E-8</v>
       </c>
       <c r="C85" t="s">
@@ -12788,7 +12827,7 @@
         <v>143</v>
       </c>
       <c r="B86" s="2">
-        <f>H86*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>1.4218858978100384E-7</v>
       </c>
       <c r="C86" t="s">
@@ -12812,7 +12851,7 @@
         <v>144</v>
       </c>
       <c r="B87" s="2">
-        <f>H87*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>1.7749437218414468E-6</v>
       </c>
       <c r="C87" t="s">
@@ -12836,7 +12875,7 @@
         <v>144</v>
       </c>
       <c r="B88" s="2">
-        <f>H88*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>7.8788873572130781E-8</v>
       </c>
       <c r="C88" t="s">
@@ -12860,7 +12899,7 @@
         <v>144</v>
       </c>
       <c r="B89" s="2">
-        <f>H89*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>3.2561709334200873E-7</v>
       </c>
       <c r="C89" t="s">
@@ -12884,7 +12923,7 @@
         <v>144</v>
       </c>
       <c r="B90" s="2">
-        <f>H90*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>7.8532927663687655E-8</v>
       </c>
       <c r="C90" t="s">
@@ -12908,7 +12947,7 @@
         <v>144</v>
       </c>
       <c r="B91" s="2">
-        <f>H91*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>2.9379135211552245E-7</v>
       </c>
       <c r="C91" t="s">
@@ -12932,7 +12971,7 @@
         <v>144</v>
       </c>
       <c r="B92" s="2">
-        <f>H92*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>1.6177156876319479E-8</v>
       </c>
       <c r="C92" t="s">
@@ -12956,7 +12995,7 @@
         <v>144</v>
       </c>
       <c r="B93" s="2">
-        <f>H93*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>9.042726975550922E-6</v>
       </c>
       <c r="C93" t="s">
@@ -12980,7 +13019,7 @@
         <v>145</v>
       </c>
       <c r="B94" s="2">
-        <f>H94*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>7.8239356516709564E-6</v>
       </c>
       <c r="C94" t="s">
@@ -13004,7 +13043,7 @@
         <v>145</v>
       </c>
       <c r="B95" s="2">
-        <f>H95*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>8.4471319219872349E-5</v>
       </c>
       <c r="C95" t="s">
@@ -13028,7 +13067,7 @@
         <v>146</v>
       </c>
       <c r="B96" s="2">
-        <f>H96*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>1.2423793881915409E-5</v>
       </c>
       <c r="C96" t="s">
@@ -13052,7 +13091,7 @@
         <v>147</v>
       </c>
       <c r="B97" s="2">
-        <f>H97*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>5.7426198585875136E-6</v>
       </c>
       <c r="C97" t="s">
@@ -13076,7 +13115,7 @@
         <v>147</v>
       </c>
       <c r="B98" s="2">
-        <f>H98*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>1.1628078011800802E-5</v>
       </c>
       <c r="C98" t="s">
@@ -13100,7 +13139,7 @@
         <v>148</v>
       </c>
       <c r="B99" s="2">
-        <f>H99*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>3.0131766965643794E-4</v>
       </c>
       <c r="C99" t="s">
@@ -13124,7 +13163,7 @@
         <v>149</v>
       </c>
       <c r="B100" s="2">
-        <f>H100*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>1.9102860201751999E-8</v>
       </c>
       <c r="C100" t="s">
@@ -13148,7 +13187,7 @@
         <v>149</v>
       </c>
       <c r="B101" s="2">
-        <f>H101*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>1.1543192343584975E-3</v>
       </c>
       <c r="C101" t="s">
@@ -13172,7 +13211,7 @@
         <v>150</v>
       </c>
       <c r="B102" s="2">
-        <f>H102*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>2.3938686345253882E-7</v>
       </c>
       <c r="C102" t="s">
@@ -13196,7 +13235,7 @@
         <v>150</v>
       </c>
       <c r="B103" s="2">
-        <f>H103*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>2.8644608841976281E-5</v>
       </c>
       <c r="C103" t="s">
@@ -13220,7 +13259,7 @@
         <v>151</v>
       </c>
       <c r="B104" s="2">
-        <f>H104*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>-3.8418662399078614E-6</v>
       </c>
       <c r="C104" t="s">
@@ -13244,7 +13283,7 @@
         <v>151</v>
       </c>
       <c r="B105" s="2">
-        <f>H105*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>-1.802520083056449E-7</v>
       </c>
       <c r="C105" t="s">
@@ -13268,7 +13307,7 @@
         <v>151</v>
       </c>
       <c r="B106" s="2">
-        <f>H106*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>-8.0893953747128345E-6</v>
       </c>
       <c r="C106" t="s">
@@ -13292,7 +13331,7 @@
         <v>152</v>
       </c>
       <c r="B107" s="2">
-        <f>H107*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>4.5487779923415657E-4</v>
       </c>
       <c r="C107" t="s">
@@ -13316,7 +13355,7 @@
         <v>153</v>
       </c>
       <c r="B108" s="2">
-        <f>H108*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>8.6357390609766967E-6</v>
       </c>
       <c r="C108" t="s">
@@ -13340,7 +13379,7 @@
         <v>153</v>
       </c>
       <c r="B109" s="2">
-        <f>H109*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>1.7486278033958471E-5</v>
       </c>
       <c r="C109" t="s">
@@ -13364,7 +13403,7 @@
         <v>154</v>
       </c>
       <c r="B110" s="2">
-        <f>H110*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>1.2787944094388904E-6</v>
       </c>
       <c r="C110" t="s">
@@ -13388,7 +13427,7 @@
         <v>155</v>
       </c>
       <c r="B111" s="2">
-        <f>H111*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>9.0083309875601061E-6</v>
       </c>
       <c r="C111" t="s">
@@ -13412,7 +13451,7 @@
         <v>156</v>
       </c>
       <c r="B112" s="2">
-        <f>H112*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>2.3726791835844489E-5</v>
       </c>
       <c r="C112" t="s">
@@ -13436,7 +13475,7 @@
         <v>157</v>
       </c>
       <c r="B113" s="2">
-        <f>H113*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>5.4805908546726612E-4</v>
       </c>
       <c r="C113" t="s">
@@ -13460,7 +13499,7 @@
         <v>158</v>
       </c>
       <c r="B114" s="2">
-        <f>H114*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>-0.47231121526087999</v>
       </c>
       <c r="C114" t="s">
@@ -13484,7 +13523,7 @@
         <v>158</v>
       </c>
       <c r="B115" s="2">
-        <f>H115*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>-6.6490413798861572E-2</v>
       </c>
       <c r="C115" t="s">
@@ -13508,7 +13547,7 @@
         <v>158</v>
       </c>
       <c r="B116" s="2">
-        <f>H116*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>-5.8236431396244522E-2</v>
       </c>
       <c r="C116" t="s">
@@ -13532,7 +13571,7 @@
         <v>158</v>
       </c>
       <c r="B117" s="2">
-        <f>H117*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>-0.12335118146133635</v>
       </c>
       <c r="C117" t="s">
@@ -13556,7 +13595,7 @@
         <v>158</v>
       </c>
       <c r="B118" s="2">
-        <f>H118*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>-2.411997079875948E-2</v>
       </c>
       <c r="C118" t="s">
@@ -13580,7 +13619,7 @@
         <v>158</v>
       </c>
       <c r="B119" s="2">
-        <f>H119*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>-0.16003554769519129</v>
       </c>
       <c r="C119" t="s">
@@ -13604,7 +13643,7 @@
         <v>158</v>
       </c>
       <c r="B120" s="2">
-        <f>H120*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>-8.4832596915788885E-2</v>
       </c>
       <c r="C120" t="s">
@@ -13628,7 +13667,7 @@
         <v>158</v>
       </c>
       <c r="B121" s="2">
-        <f>H121*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>-0.27164773196169428</v>
       </c>
       <c r="C121" t="s">
@@ -13652,7 +13691,7 @@
         <v>159</v>
       </c>
       <c r="B122" s="2">
-        <f>H122*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>3.7570151843961397E-5</v>
       </c>
       <c r="C122" t="s">
@@ -13676,7 +13715,7 @@
         <v>159</v>
       </c>
       <c r="B123" s="2">
-        <f>H123*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>9.3518621956086617E-5</v>
       </c>
       <c r="C123" t="s">
@@ -13700,7 +13739,7 @@
         <v>160</v>
       </c>
       <c r="B124" s="2">
-        <f>H124*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>1.2563193026452662E-5</v>
       </c>
       <c r="C124" t="s">
@@ -13724,7 +13763,7 @@
         <v>160</v>
       </c>
       <c r="B125" s="2">
-        <f>H125*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>9.603349629704176E-5</v>
       </c>
       <c r="C125" t="s">
@@ -13748,7 +13787,7 @@
         <v>161</v>
       </c>
       <c r="B126" s="2">
-        <f>H126*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>1.2929610301424139</v>
       </c>
       <c r="C126" t="s">
@@ -13772,7 +13811,7 @@
         <v>162</v>
       </c>
       <c r="B127" s="2">
-        <f>H127*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>4.7752280961577394E-5</v>
       </c>
       <c r="C127" t="s">
@@ -13796,7 +13835,7 @@
         <v>162</v>
       </c>
       <c r="B128" s="2">
-        <f>H128*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>4.0197308321915126E-5</v>
       </c>
       <c r="C128" t="s">
@@ -13820,7 +13859,7 @@
         <v>162</v>
       </c>
       <c r="B129" s="2">
-        <f>H129*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>3.7269850124442431E-4</v>
       </c>
       <c r="C129" t="s">
@@ -13844,7 +13883,7 @@
         <v>163</v>
       </c>
       <c r="B130" s="2">
-        <f>H130*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>5.2249095848899829E-5</v>
       </c>
       <c r="C130" t="s">
@@ -13868,7 +13907,7 @@
         <v>164</v>
       </c>
       <c r="B131" s="2">
-        <f>H131*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>-3.3377784798198164E-7</v>
       </c>
       <c r="C131" t="s">
@@ -13892,7 +13931,7 @@
         <v>165</v>
       </c>
       <c r="B132" s="2">
-        <f>H132*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>-5.8425125948943653E-6</v>
       </c>
       <c r="C132" t="s">
@@ -13916,7 +13955,7 @@
         <v>165</v>
       </c>
       <c r="B133" s="2">
-        <f>H133*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>-1.4463737155091271E-7</v>
       </c>
       <c r="C133" t="s">
@@ -13940,7 +13979,7 @@
         <v>165</v>
       </c>
       <c r="B134" s="2">
-        <f>H134*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>-1.5297728831544903E-5</v>
       </c>
       <c r="C134" t="s">
@@ -13964,7 +14003,7 @@
         <v>166</v>
       </c>
       <c r="B135" s="2">
-        <f>H135*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>-4.9374314551460526E-8</v>
       </c>
       <c r="C135" t="s">
@@ -13988,7 +14027,7 @@
         <v>167</v>
       </c>
       <c r="B136" s="2">
-        <f>H136*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>-4.2985338370265391E-8</v>
       </c>
       <c r="C136" t="s">
@@ -14012,7 +14051,7 @@
         <v>167</v>
       </c>
       <c r="B137" s="2">
-        <f>H137*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>-1.8045166175656903E-9</v>
       </c>
       <c r="C137" t="s">
@@ -14036,7 +14075,7 @@
         <v>167</v>
       </c>
       <c r="B138" s="2">
-        <f>H138*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>-4.2985338370265391E-8</v>
       </c>
       <c r="C138" t="s">
@@ -14060,7 +14099,7 @@
         <v>168</v>
       </c>
       <c r="B139" s="2">
-        <f>H139*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>-5.8557851250860179E-6</v>
       </c>
       <c r="C139" t="s">
@@ -14084,7 +14123,7 @@
         <v>169</v>
       </c>
       <c r="B140" s="2">
-        <f>H140*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>9.4940963516495995E-5</v>
       </c>
       <c r="C140" t="s">
@@ -14108,7 +14147,7 @@
         <v>169</v>
       </c>
       <c r="B141" s="2">
-        <f>H141*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>5.0154301388710264E-4</v>
       </c>
       <c r="C141" t="s">
@@ -14132,7 +14171,7 @@
         <v>170</v>
       </c>
       <c r="B142" s="2">
-        <f>H142*0.24/0.69</f>
+        <f t="shared" ref="B142:B205" si="2">H142*0.24/0.69</f>
         <v>-2.3949769967668173E-5</v>
       </c>
       <c r="C142" t="s">
@@ -14156,7 +14195,7 @@
         <v>195</v>
       </c>
       <c r="B143" s="2">
-        <f>H143*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>1.4126897526551689E-8</v>
       </c>
       <c r="C143" t="s">
@@ -14177,7 +14216,7 @@
         <v>196</v>
       </c>
       <c r="B144" s="2">
-        <f>H144*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>1.2149765303307307E-8</v>
       </c>
       <c r="C144" t="s">
@@ -14198,7 +14237,7 @@
         <v>197</v>
       </c>
       <c r="B145" s="2">
-        <f>H145*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>5.1163635121568001E-4</v>
       </c>
       <c r="C145" t="s">
@@ -14219,7 +14258,7 @@
         <v>198</v>
       </c>
       <c r="B146" s="2">
-        <f>H146*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>1.3037604400240174E-7</v>
       </c>
       <c r="C146" t="s">
@@ -14240,7 +14279,7 @@
         <v>198</v>
       </c>
       <c r="B147" s="2">
-        <f>H147*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>3.0256669427984138E-7</v>
       </c>
       <c r="C147" t="s">
@@ -14261,7 +14300,7 @@
         <v>199</v>
       </c>
       <c r="B148" s="2">
-        <f>H148*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>7.6504565918818787E-7</v>
       </c>
       <c r="C148" t="s">
@@ -14282,7 +14321,7 @@
         <v>200</v>
       </c>
       <c r="B149" s="2">
-        <f>H149*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>2.09840716328016E-8</v>
       </c>
       <c r="C149" t="s">
@@ -14303,7 +14342,7 @@
         <v>200</v>
       </c>
       <c r="B150" s="2">
-        <f>H150*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>8.768143215035721E-8</v>
       </c>
       <c r="C150" t="s">
@@ -14324,7 +14363,7 @@
         <v>201</v>
       </c>
       <c r="B151" s="2">
-        <f>H151*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>5.7471522810551652E-10</v>
       </c>
       <c r="C151" t="s">
@@ -14345,7 +14384,7 @@
         <v>201</v>
       </c>
       <c r="B152" s="2">
-        <f>H152*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>7.708665670722435E-7</v>
       </c>
       <c r="C152" t="s">
@@ -14366,7 +14405,7 @@
         <v>202</v>
       </c>
       <c r="B153" s="2">
-        <f>H153*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>5.9921847843650431E-6</v>
       </c>
       <c r="C153" t="s">
@@ -14387,7 +14426,7 @@
         <v>202</v>
       </c>
       <c r="B154" s="2">
-        <f>H154*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>3.6290166991286264E-11</v>
       </c>
       <c r="C154" t="s">
@@ -14408,7 +14447,7 @@
         <v>203</v>
       </c>
       <c r="B155" s="2">
-        <f>H155*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>2.7196052934743133E-6</v>
       </c>
       <c r="C155" t="s">
@@ -14429,7 +14468,7 @@
         <v>204</v>
       </c>
       <c r="B156" s="2">
-        <f>H156*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>2.4653653913581848E-7</v>
       </c>
       <c r="C156" t="s">
@@ -14450,7 +14489,7 @@
         <v>205</v>
       </c>
       <c r="B157" s="2">
-        <f>H157*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>1.5800691755092696E-11</v>
       </c>
       <c r="C157" t="s">
@@ -14471,7 +14510,7 @@
         <v>206</v>
       </c>
       <c r="B158" s="2">
-        <f>H158*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>5.8101096781282782E-9</v>
       </c>
       <c r="C158" t="s">
@@ -14492,7 +14531,7 @@
         <v>207</v>
       </c>
       <c r="B159" s="2">
-        <f>H159*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>2.6522852283804242E-7</v>
       </c>
       <c r="C159" t="s">
@@ -14513,7 +14552,7 @@
         <v>207</v>
       </c>
       <c r="B160" s="2">
-        <f>H160*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>3.6254976409461219E-10</v>
       </c>
       <c r="C160" t="s">
@@ -14534,7 +14573,7 @@
         <v>208</v>
       </c>
       <c r="B161" s="2">
-        <f>H161*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>1.4529058388023791E-7</v>
       </c>
       <c r="C161" t="s">
@@ -14555,7 +14594,7 @@
         <v>208</v>
       </c>
       <c r="B162" s="2">
-        <f>H162*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>2.0702619287616729E-9</v>
       </c>
       <c r="C162" t="s">
@@ -14576,7 +14615,7 @@
         <v>209</v>
       </c>
       <c r="B163" s="2">
-        <f>H163*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>1.6826280287045775E-5</v>
       </c>
       <c r="C163" t="s">
@@ -14597,7 +14636,7 @@
         <v>210</v>
       </c>
       <c r="B164" s="2">
-        <f>H164*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>1.12800758694664E-8</v>
       </c>
       <c r="C164" t="s">
@@ -14618,7 +14657,7 @@
         <v>210</v>
       </c>
       <c r="B165" s="2">
-        <f>H165*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>5.1962750566653214E-7</v>
       </c>
       <c r="C165" t="s">
@@ -14639,7 +14678,7 @@
         <v>211</v>
       </c>
       <c r="B166" s="2">
-        <f>H166*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>5.946340615439653E-9</v>
       </c>
       <c r="C166" t="s">
@@ -14660,7 +14699,7 @@
         <v>212</v>
       </c>
       <c r="B167" s="2">
-        <f>H167*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>1.7781072599308556E-2</v>
       </c>
       <c r="C167" t="s">
@@ -14681,7 +14720,7 @@
         <v>213</v>
       </c>
       <c r="B168" s="2">
-        <f>H168*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>3.5170720839041049E-4</v>
       </c>
       <c r="C168" t="s">
@@ -14702,7 +14741,7 @@
         <v>214</v>
       </c>
       <c r="B169" s="2">
-        <f>H169*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>2.8637199816525568E-2</v>
       </c>
       <c r="C169" t="s">
@@ -14723,7 +14762,7 @@
         <v>215</v>
       </c>
       <c r="B170" s="2">
-        <f>H170*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>4.168722118945948E-4</v>
       </c>
       <c r="C170" t="s">
@@ -14744,7 +14783,7 @@
         <v>216</v>
       </c>
       <c r="B171" s="2">
-        <f>H171*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>5.6607184273398958E-5</v>
       </c>
       <c r="C171" t="s">
@@ -14765,7 +14804,7 @@
         <v>217</v>
       </c>
       <c r="B172" s="2">
-        <f>H172*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>4.888044124899931E-6</v>
       </c>
       <c r="C172" t="s">
@@ -14786,7 +14825,7 @@
         <v>218</v>
       </c>
       <c r="B173" s="2">
-        <f>H173*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>1.5664340302090124E-5</v>
       </c>
       <c r="C173" t="s">
@@ -14807,7 +14846,7 @@
         <v>219</v>
       </c>
       <c r="B174" s="2">
-        <f>H174*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>8.8873573367523138E-12</v>
       </c>
       <c r="C174" t="s">
@@ -14828,7 +14867,7 @@
         <v>219</v>
       </c>
       <c r="B175" s="2">
-        <f>H175*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>2.6388597803828245E-8</v>
       </c>
       <c r="C175" t="s">
@@ -14849,7 +14888,7 @@
         <v>220</v>
       </c>
       <c r="B176" s="2">
-        <f>H176*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>2.1724664658249078E-9</v>
       </c>
       <c r="C176" t="s">
@@ -14870,7 +14909,7 @@
         <v>220</v>
       </c>
       <c r="B177" s="2">
-        <f>H177*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>2.7103978946680597E-5</v>
       </c>
       <c r="C177" t="s">
@@ -14891,7 +14930,7 @@
         <v>221</v>
       </c>
       <c r="B178" s="2">
-        <f>H178*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>6.3196259173046954E-7</v>
       </c>
       <c r="C178" t="s">
@@ -14912,7 +14951,7 @@
         <v>222</v>
       </c>
       <c r="B179" s="2">
-        <f>H179*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>1.8810113182719861E-7</v>
       </c>
       <c r="C179" t="s">
@@ -14933,7 +14972,7 @@
         <v>223</v>
       </c>
       <c r="B180" s="2">
-        <f>H180*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>1.8127488204730574E-9</v>
       </c>
       <c r="C180" t="s">
@@ -14954,7 +14993,7 @@
         <v>223</v>
       </c>
       <c r="B181" s="2">
-        <f>H181*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>1.7255870519830751E-6</v>
       </c>
       <c r="C181" t="s">
@@ -14975,7 +15014,7 @@
         <v>224</v>
       </c>
       <c r="B182" s="2">
-        <f>H182*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>5.3596461276307133E-7</v>
       </c>
       <c r="C182" t="s">
@@ -14996,7 +15035,7 @@
         <v>224</v>
       </c>
       <c r="B183" s="2">
-        <f>H183*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>1.4867876202210993E-5</v>
       </c>
       <c r="C183" t="s">
@@ -15017,7 +15056,7 @@
         <v>225</v>
       </c>
       <c r="B184" s="2">
-        <f>H184*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>3.9598766211957218E-3</v>
       </c>
       <c r="C184" t="s">
@@ -15038,7 +15077,7 @@
         <v>226</v>
       </c>
       <c r="B185" s="2">
-        <f>H185*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>2.6760750258196172E-11</v>
       </c>
       <c r="C185" t="s">
@@ -15059,7 +15098,7 @@
         <v>226</v>
       </c>
       <c r="B186" s="2">
-        <f>H186*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>2.170914223722494E-6</v>
       </c>
       <c r="C186" t="s">
@@ -15080,7 +15119,7 @@
         <v>227</v>
       </c>
       <c r="B187" s="2">
-        <f>H187*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>9.521631419439617E-9</v>
       </c>
       <c r="C187" t="s">
@@ -15101,7 +15140,7 @@
         <v>228</v>
       </c>
       <c r="B188" s="2">
-        <f>H188*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C188" t="s">
@@ -15122,7 +15161,7 @@
         <v>229</v>
       </c>
       <c r="B189" s="2">
-        <f>H189*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>1.0895818819076175E-3</v>
       </c>
       <c r="C189" t="s">
@@ -15143,7 +15182,7 @@
         <v>230</v>
       </c>
       <c r="B190" s="2">
-        <f>H190*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>6.7138845202705739E-10</v>
       </c>
       <c r="C190" t="s">
@@ -15164,7 +15203,7 @@
         <v>230</v>
       </c>
       <c r="B191" s="2">
-        <f>H191*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>4.5918165559762436E-8</v>
       </c>
       <c r="C191" t="s">
@@ -15185,7 +15224,7 @@
         <v>231</v>
       </c>
       <c r="B192" s="2">
-        <f>H192*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>5.431160138777705E-7</v>
       </c>
       <c r="C192" t="s">
@@ -15206,7 +15245,7 @@
         <v>232</v>
       </c>
       <c r="B193" s="2">
-        <f>H193*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>2.2237699955608003E-8</v>
       </c>
       <c r="C193" t="s">
@@ -15227,7 +15266,7 @@
         <v>232</v>
       </c>
       <c r="B194" s="2">
-        <f>H194*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>3.1609337545803342E-7</v>
       </c>
       <c r="C194" t="s">
@@ -15248,7 +15287,7 @@
         <v>232</v>
       </c>
       <c r="B195" s="2">
-        <f>H195*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>4.4924634201663657E-7</v>
       </c>
       <c r="C195" t="s">
@@ -15269,7 +15308,7 @@
         <v>233</v>
       </c>
       <c r="B196" s="2">
-        <f>H196*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>5.673227956084522E-7</v>
       </c>
       <c r="C196" t="s">
@@ -15290,7 +15329,7 @@
         <v>234</v>
       </c>
       <c r="B197" s="2">
-        <f>H197*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>1.0645874096193775E-6</v>
       </c>
       <c r="C197" t="s">
@@ -15311,7 +15350,7 @@
         <v>235</v>
       </c>
       <c r="B198" s="2">
-        <f>H198*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>4.7898403279543302</v>
       </c>
       <c r="C198" t="s">
@@ -15332,7 +15371,7 @@
         <v>236</v>
       </c>
       <c r="B199" s="2">
-        <f>H199*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>2.5067263765716177E-7</v>
       </c>
       <c r="C199" t="s">
@@ -15353,7 +15392,7 @@
         <v>237</v>
       </c>
       <c r="B200" s="2">
-        <f>H200*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>1.5727852071342713E-7</v>
       </c>
       <c r="C200" t="s">
@@ -15374,7 +15413,7 @@
         <v>238</v>
       </c>
       <c r="B201" s="2">
-        <f>H201*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>4.9307066795781221E-8</v>
       </c>
       <c r="C201" t="s">
@@ -15395,7 +15434,7 @@
         <v>239</v>
       </c>
       <c r="B202" s="2">
-        <f>H202*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>3.7919539136057738E-8</v>
       </c>
       <c r="C202" t="s">
@@ -15416,7 +15455,7 @@
         <v>240</v>
       </c>
       <c r="B203" s="2">
-        <f>H203*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>6.4174653760333566E-4</v>
       </c>
       <c r="C203" t="s">
@@ -15437,7 +15476,7 @@
         <v>241</v>
       </c>
       <c r="B204" s="2">
-        <f>H204*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>2.98030483663776E-5</v>
       </c>
       <c r="C204" t="s">
@@ -15458,7 +15497,7 @@
         <v>242</v>
       </c>
       <c r="B205" s="2">
-        <f>H205*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>6.9527912556331483E-7</v>
       </c>
       <c r="C205" t="s">
@@ -15479,7 +15518,7 @@
         <v>242</v>
       </c>
       <c r="B206" s="2">
-        <f>H206*0.24/0.69</f>
+        <f t="shared" ref="B206:B269" si="3">H206*0.24/0.69</f>
         <v>2.3064196565729562E-7</v>
       </c>
       <c r="C206" t="s">
@@ -15500,7 +15539,7 @@
         <v>242</v>
       </c>
       <c r="B207" s="2">
-        <f>H207*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>4.8238574677767656E-9</v>
       </c>
       <c r="C207" t="s">
@@ -15521,7 +15560,7 @@
         <v>242</v>
       </c>
       <c r="B208" s="2">
-        <f>H208*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>1.402000010847388E-5</v>
       </c>
       <c r="C208" t="s">
@@ -15542,7 +15581,7 @@
         <v>243</v>
       </c>
       <c r="B209" s="2">
-        <f>H209*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>3.0610637510741112E-2</v>
       </c>
       <c r="C209" t="s">
@@ -15563,7 +15602,7 @@
         <v>244</v>
       </c>
       <c r="B210" s="2">
-        <f>H210*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>2.4318138229333009E-5</v>
       </c>
       <c r="C210" t="s">
@@ -15584,7 +15623,7 @@
         <v>245</v>
       </c>
       <c r="B211" s="2">
-        <f>H211*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>1.0164246393113599E-2</v>
       </c>
       <c r="C211" t="s">
@@ -15605,7 +15644,7 @@
         <v>246</v>
       </c>
       <c r="B212" s="2">
-        <f>H212*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>1.0101962678754191E-6</v>
       </c>
       <c r="C212" t="s">
@@ -15626,7 +15665,7 @@
         <v>246</v>
       </c>
       <c r="B213" s="2">
-        <f>H213*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>3.5627089658406612E-6</v>
       </c>
       <c r="C213" t="s">
@@ -15647,7 +15686,7 @@
         <v>246</v>
       </c>
       <c r="B214" s="2">
-        <f>H214*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>2.9915851053323343E-7</v>
       </c>
       <c r="C214" t="s">
@@ -15668,7 +15707,7 @@
         <v>246</v>
       </c>
       <c r="B215" s="2">
-        <f>H215*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>2.3995903374252381E-9</v>
       </c>
       <c r="C215" t="s">
@@ -15689,7 +15728,7 @@
         <v>247</v>
       </c>
       <c r="B216" s="2">
-        <f>H216*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>3.7010850824550611E-5</v>
       </c>
       <c r="C216" t="s">
@@ -15710,7 +15749,7 @@
         <v>248</v>
       </c>
       <c r="B217" s="2">
-        <f>H217*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>8.2936970419930785E-9</v>
       </c>
       <c r="C217" t="s">
@@ -15731,7 +15770,7 @@
         <v>248</v>
       </c>
       <c r="B218" s="2">
-        <f>H218*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>2.1352126553669357E-12</v>
       </c>
       <c r="C218" t="s">
@@ -15752,7 +15791,7 @@
         <v>248</v>
       </c>
       <c r="B219" s="2">
-        <f>H219*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>3.3833816173628319E-8</v>
       </c>
       <c r="C219" t="s">
@@ -15773,7 +15812,7 @@
         <v>248</v>
       </c>
       <c r="B220" s="2">
-        <f>H220*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>8.3936286531206263E-11</v>
       </c>
       <c r="C220" t="s">
@@ -15794,7 +15833,7 @@
         <v>249</v>
       </c>
       <c r="B221" s="2">
-        <f>H221*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>5.2141836883748527E-9</v>
       </c>
       <c r="C221" t="s">
@@ -15815,7 +15854,7 @@
         <v>250</v>
       </c>
       <c r="B222" s="2">
-        <f>H222*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>1.6453091397733705E-6</v>
       </c>
       <c r="C222" t="s">
@@ -15836,7 +15875,7 @@
         <v>251</v>
       </c>
       <c r="B223" s="2">
-        <f>H223*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>6.405167954905217E-6</v>
       </c>
       <c r="C223" t="s">
@@ -15857,7 +15896,7 @@
         <v>252</v>
       </c>
       <c r="B224" s="2">
-        <f>H224*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>2.067793767406278E-9</v>
       </c>
       <c r="C224" t="s">
@@ -15878,7 +15917,7 @@
         <v>252</v>
       </c>
       <c r="B225" s="2">
-        <f>H225*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>1.4877879004579025E-7</v>
       </c>
       <c r="C225" t="s">
@@ -15899,7 +15938,7 @@
         <v>253</v>
       </c>
       <c r="B226" s="2">
-        <f>H226*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>3.8543810416377048E-7</v>
       </c>
       <c r="C226" t="s">
@@ -15920,7 +15959,7 @@
         <v>254</v>
       </c>
       <c r="B227" s="2">
-        <f>H227*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>6.5659117838028531E-8</v>
       </c>
       <c r="C227" t="s">
@@ -15941,7 +15980,7 @@
         <v>254</v>
       </c>
       <c r="B228" s="2">
-        <f>H228*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>1.9107835146214225E-11</v>
       </c>
       <c r="C228" t="s">
@@ -15962,7 +16001,7 @@
         <v>255</v>
       </c>
       <c r="B229" s="2">
-        <f>H229*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>3.09139620076871E-5</v>
       </c>
       <c r="C229" t="s">
@@ -15983,7 +16022,7 @@
         <v>256</v>
       </c>
       <c r="B230" s="2">
-        <f>H230*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>1.0545725556822086E-8</v>
       </c>
       <c r="C230" t="s">
@@ -16004,7 +16043,7 @@
         <v>257</v>
       </c>
       <c r="B231" s="2">
-        <f>H231*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>2.4609063107844764E-6</v>
       </c>
       <c r="C231" t="s">
@@ -16025,7 +16064,7 @@
         <v>257</v>
       </c>
       <c r="B232" s="2">
-        <f>H232*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>4.009195498529217E-7</v>
       </c>
       <c r="C232" t="s">
@@ -16046,7 +16085,7 @@
         <v>258</v>
       </c>
       <c r="B233" s="2">
-        <f>H233*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>3.0498014151143863E-4</v>
       </c>
       <c r="C233" t="s">
@@ -16067,7 +16106,7 @@
         <v>259</v>
       </c>
       <c r="B234" s="2">
-        <f>H234*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>4.888044124899931E-6</v>
       </c>
       <c r="C234" t="s">
@@ -16088,7 +16127,7 @@
         <v>260</v>
       </c>
       <c r="B235" s="2">
-        <f>H235*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>1.4088886877553115E-5</v>
       </c>
       <c r="C235" t="s">
@@ -16109,7 +16148,7 @@
         <v>261</v>
       </c>
       <c r="B236" s="2">
-        <f>H236*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>2.2106337852220352E-10</v>
       </c>
       <c r="C236" t="s">
@@ -16130,7 +16169,7 @@
         <v>262</v>
       </c>
       <c r="B237" s="2">
-        <f>H237*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>3.1392891364441707E-6</v>
       </c>
       <c r="C237" t="s">
@@ -16151,7 +16190,7 @@
         <v>263</v>
       </c>
       <c r="B238" s="2">
-        <f>H238*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>2.5630240765500624E-4</v>
       </c>
       <c r="C238" t="s">
@@ -16172,7 +16211,7 @@
         <v>264</v>
       </c>
       <c r="B239" s="2">
-        <f>H239*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>7.03006591681861E-5</v>
       </c>
       <c r="C239" t="s">
@@ -16193,7 +16232,7 @@
         <v>265</v>
       </c>
       <c r="B240" s="2">
-        <f>H240*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>3.0964819629365599E-7</v>
       </c>
       <c r="C240" t="s">
@@ -16214,7 +16253,7 @@
         <v>266</v>
       </c>
       <c r="B241" s="2">
-        <f>H241*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>4.372887751376243E-6</v>
       </c>
       <c r="C241" t="s">
@@ -16235,7 +16274,7 @@
         <v>267</v>
       </c>
       <c r="B242" s="2">
-        <f>H242*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>6.4076819122232346E-4</v>
       </c>
       <c r="C242" t="s">
@@ -16256,7 +16295,7 @@
         <v>268</v>
       </c>
       <c r="B243" s="2">
-        <f>H243*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>1.3057826933220381E-5</v>
       </c>
       <c r="C243" t="s">
@@ -16277,7 +16316,7 @@
         <v>269</v>
       </c>
       <c r="B244" s="2">
-        <f>H244*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>2.5724074282654399E-5</v>
       </c>
       <c r="C244" t="s">
@@ -16298,7 +16337,7 @@
         <v>270</v>
       </c>
       <c r="B245" s="2">
-        <f>H245*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>7.6307884310810776E-9</v>
       </c>
       <c r="C245" t="s">
@@ -16319,7 +16358,7 @@
         <v>270</v>
       </c>
       <c r="B246" s="2">
-        <f>H246*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>8.7974526311310268E-10</v>
       </c>
       <c r="C246" t="s">
@@ -16340,7 +16379,7 @@
         <v>271</v>
       </c>
       <c r="B247" s="2">
-        <f>H247*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>5.2282358179666087E-5</v>
       </c>
       <c r="C247" t="s">
@@ -16361,7 +16400,7 @@
         <v>272</v>
       </c>
       <c r="B248" s="2">
-        <f>H248*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>1.9790050370853463E-10</v>
       </c>
       <c r="C248" t="s">
@@ -16382,7 +16421,7 @@
         <v>273</v>
       </c>
       <c r="B249" s="2">
-        <f>H249*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>1.9565433225629707E-5</v>
       </c>
       <c r="C249" t="s">
@@ -16403,7 +16442,7 @@
         <v>274</v>
       </c>
       <c r="B250" s="2">
-        <f>H250*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>3.164597431592247E-5</v>
       </c>
       <c r="C250" t="s">
@@ -16424,7 +16463,7 @@
         <v>275</v>
       </c>
       <c r="B251" s="2">
-        <f>H251*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>6.8968237686485566E-6</v>
       </c>
       <c r="C251" t="s">
@@ -16445,7 +16484,7 @@
         <v>276</v>
       </c>
       <c r="B252" s="2">
-        <f>H252*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>1.0026828376244103E-3</v>
       </c>
       <c r="C252" t="s">
@@ -16466,7 +16505,7 @@
         <v>276</v>
       </c>
       <c r="B253" s="2">
-        <f>H253*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>3.370004375641701E-9</v>
       </c>
       <c r="C253" t="s">
@@ -16487,7 +16526,7 @@
         <v>277</v>
       </c>
       <c r="B254" s="2">
-        <f>H254*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>1.9270844670106086E-5</v>
       </c>
       <c r="C254" t="s">
@@ -16508,7 +16547,7 @@
         <v>278</v>
       </c>
       <c r="B255" s="2">
-        <f>H255*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>4.6430598278665394E-7</v>
       </c>
       <c r="C255" t="s">
@@ -16529,7 +16568,7 @@
         <v>279</v>
       </c>
       <c r="B256" s="2">
-        <f>H256*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>1.6845844804352177E-3</v>
       </c>
       <c r="C256" t="s">
@@ -16550,7 +16589,7 @@
         <v>280</v>
       </c>
       <c r="B257" s="2">
-        <f>H257*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>3.4485324000154545E-5</v>
       </c>
       <c r="C257" t="s">
@@ -16571,7 +16610,7 @@
         <v>280</v>
       </c>
       <c r="B258" s="2">
-        <f>H258*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>5.8937957740845915E-5</v>
       </c>
       <c r="C258" t="s">
@@ -16592,7 +16631,7 @@
         <v>281</v>
       </c>
       <c r="B259" s="2">
-        <f>H259*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>2.4163396081856212E-5</v>
       </c>
       <c r="C259" t="s">
@@ -16613,7 +16652,7 @@
         <v>282</v>
       </c>
       <c r="B260" s="2">
-        <f>H260*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>4.5918165559762436E-8</v>
       </c>
       <c r="C260" t="s">
@@ -16634,7 +16673,7 @@
         <v>282</v>
       </c>
       <c r="B261" s="2">
-        <f>H261*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>6.7138845202705739E-10</v>
       </c>
       <c r="C261" t="s">
@@ -16655,7 +16694,7 @@
         <v>283</v>
       </c>
       <c r="B262" s="2">
-        <f>H262*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>6.5446287127402441E-7</v>
       </c>
       <c r="C262" t="s">
@@ -16676,7 +16715,7 @@
         <v>284</v>
       </c>
       <c r="B263" s="2">
-        <f>H263*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>6.8061718657419482E-7</v>
       </c>
       <c r="C263" t="s">
@@ -16697,7 +16736,7 @@
         <v>285</v>
       </c>
       <c r="B264" s="2">
-        <f>H264*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>1.1740447612968628E-2</v>
       </c>
       <c r="C264" t="s">
@@ -16718,7 +16757,7 @@
         <v>285</v>
       </c>
       <c r="B265" s="2">
-        <f>H265*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>3.9045637754455999E-5</v>
       </c>
       <c r="C265" t="s">
@@ -16739,7 +16778,7 @@
         <v>285</v>
       </c>
       <c r="B266" s="2">
-        <f>H266*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>2.0718436964062294E-3</v>
       </c>
       <c r="C266" t="s">
@@ -16760,7 +16799,7 @@
         <v>286</v>
       </c>
       <c r="B267" s="2">
-        <f>H267*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>9.8828916656386085E-4</v>
       </c>
       <c r="C267" t="s">
@@ -16781,7 +16820,7 @@
         <v>287</v>
       </c>
       <c r="B268" s="2">
-        <f>H268*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>1.7490538673699027E-4</v>
       </c>
       <c r="C268" t="s">
@@ -16802,7 +16841,7 @@
         <v>288</v>
       </c>
       <c r="B269" s="2">
-        <f>H269*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>1.974970171744595E-5</v>
       </c>
       <c r="C269" t="s">
@@ -16823,7 +16862,7 @@
         <v>289</v>
       </c>
       <c r="B270" s="2">
-        <f>H270*0.24/0.69</f>
+        <f t="shared" ref="B270:B276" si="4">H270*0.24/0.69</f>
         <v>1.0857908921195444E-2</v>
       </c>
       <c r="C270" t="s">
@@ -16844,7 +16883,7 @@
         <v>290</v>
       </c>
       <c r="B271" s="2">
-        <f>H271*0.24/0.69</f>
+        <f t="shared" si="4"/>
         <v>4.7833473233430606E-4</v>
       </c>
       <c r="C271" t="s">
@@ -16865,7 +16904,7 @@
         <v>291</v>
       </c>
       <c r="B272" s="2">
-        <f>H272*0.24/0.69</f>
+        <f t="shared" si="4"/>
         <v>1.384448105583739E-6</v>
       </c>
       <c r="C272" t="s">
@@ -16886,7 +16925,7 @@
         <v>291</v>
       </c>
       <c r="B273" s="2">
-        <f>H273*0.24/0.69</f>
+        <f t="shared" si="4"/>
         <v>1.3872970965232662E-5</v>
       </c>
       <c r="C273" t="s">
@@ -16907,7 +16946,7 @@
         <v>292</v>
       </c>
       <c r="B274" s="2">
-        <f>H274*0.24/0.69</f>
+        <f t="shared" si="4"/>
         <v>0.14316541259226018</v>
       </c>
       <c r="C274" t="s">
@@ -16928,7 +16967,7 @@
         <v>293</v>
       </c>
       <c r="B275" s="2">
-        <f>H275*0.24/0.69</f>
+        <f t="shared" si="4"/>
         <v>1.0236578705803722E-4</v>
       </c>
       <c r="C275" t="s">
@@ -16949,7 +16988,7 @@
         <v>293</v>
       </c>
       <c r="B276" s="2">
-        <f>H276*0.24/0.69</f>
+        <f t="shared" si="4"/>
         <v>1.2741087593657602E-6</v>
       </c>
       <c r="C276" t="s">
@@ -17115,7 +17154,7 @@
         <v>103</v>
       </c>
       <c r="B290" s="2">
-        <f>H290*0.15/0.73</f>
+        <f t="shared" ref="B290:B353" si="5">H290*0.15/0.73</f>
         <v>1.0016990186071438E-5</v>
       </c>
       <c r="C290" t="s">
@@ -17140,7 +17179,7 @@
         <v>386</v>
       </c>
       <c r="B291" s="2">
-        <f>H291*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>5.348673447226459E-4</v>
       </c>
       <c r="C291" t="s">
@@ -17165,7 +17204,7 @@
         <v>387</v>
       </c>
       <c r="B292" s="2">
-        <f>H292*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>-6.6167278603737537E-6</v>
       </c>
       <c r="C292" t="s">
@@ -17190,7 +17229,7 @@
         <v>388</v>
       </c>
       <c r="B293" s="2">
-        <f>H293*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>-1.0218917227107165E-6</v>
       </c>
       <c r="C293" t="s">
@@ -17215,7 +17254,7 @@
         <v>389</v>
       </c>
       <c r="B294" s="2">
-        <f>H294*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>1.5603141473489423E-6</v>
       </c>
       <c r="C294" t="s">
@@ -17240,7 +17279,7 @@
         <v>389</v>
       </c>
       <c r="B295" s="2">
-        <f>H295*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>7.4070085385645142E-6</v>
       </c>
       <c r="C295" t="s">
@@ -17265,7 +17304,7 @@
         <v>390</v>
       </c>
       <c r="B296" s="2">
-        <f>H296*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>2.4091641414995339E-5</v>
       </c>
       <c r="C296" t="s">
@@ -17290,7 +17329,7 @@
         <v>391</v>
       </c>
       <c r="B297" s="2">
-        <f>H297*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>2.3233644831405204E-4</v>
       </c>
       <c r="C297" t="s">
@@ -17314,7 +17353,7 @@
         <v>392</v>
       </c>
       <c r="B298" s="2">
-        <f>H298*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>7.3560228944372053E-4</v>
       </c>
       <c r="C298" t="s">
@@ -17338,7 +17377,7 @@
         <v>392</v>
       </c>
       <c r="B299" s="2">
-        <f>H299*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>6.3233836682542811E-5</v>
       </c>
       <c r="C299" t="s">
@@ -17362,7 +17401,7 @@
         <v>392</v>
       </c>
       <c r="B300" s="2">
-        <f>H300*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>4.2263316012630615E-4</v>
       </c>
       <c r="C300" t="s">
@@ -17386,7 +17425,7 @@
         <v>392</v>
       </c>
       <c r="B301" s="2">
-        <f>H301*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>9.8375562835046913E-5</v>
       </c>
       <c r="C301" t="s">
@@ -17410,7 +17449,7 @@
         <v>392</v>
       </c>
       <c r="B302" s="2">
-        <f>H302*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>1.9096707171487991E-4</v>
       </c>
       <c r="C302" t="s">
@@ -17434,7 +17473,7 @@
         <v>392</v>
       </c>
       <c r="B303" s="2">
-        <f>H303*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>2.0015403298936704E-5</v>
       </c>
       <c r="C303" t="s">
@@ -17458,7 +17497,7 @@
         <v>392</v>
       </c>
       <c r="B304" s="2">
-        <f>H304*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>8.9476249405106914E-5</v>
       </c>
       <c r="C304" t="s">
@@ -17482,7 +17521,7 @@
         <v>392</v>
       </c>
       <c r="B305" s="2">
-        <f>H305*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>2.1167475489708904E-3</v>
       </c>
       <c r="C305" t="s">
@@ -17506,7 +17545,7 @@
         <v>393</v>
       </c>
       <c r="B306" s="2">
-        <f>H306*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>1.4391451439894692E-4</v>
       </c>
       <c r="C306" t="s">
@@ -17530,7 +17569,7 @@
         <v>394</v>
       </c>
       <c r="B307" s="2">
-        <f>H307*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>9.8790216375474037E-6</v>
       </c>
       <c r="C307" t="s">
@@ -17554,7 +17593,7 @@
         <v>395</v>
       </c>
       <c r="B308" s="2">
-        <f>H308*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>6.7972006355389313E-7</v>
       </c>
       <c r="C308" t="s">
@@ -17578,7 +17617,7 @@
         <v>396</v>
       </c>
       <c r="B309" s="2">
-        <f>H309*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>1.7502203688568253E-5</v>
       </c>
       <c r="C309" t="s">
@@ -17602,7 +17641,7 @@
         <v>397</v>
       </c>
       <c r="B310" s="2">
-        <f>H310*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>-2.9844257787753699E-5</v>
       </c>
       <c r="C310" t="s">
@@ -17626,7 +17665,7 @@
         <v>397</v>
       </c>
       <c r="B311" s="2">
-        <f>H311*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>-1.7455687114125473E-5</v>
       </c>
       <c r="C311" t="s">
@@ -17650,7 +17689,7 @@
         <v>397</v>
       </c>
       <c r="B312" s="2">
-        <f>H312*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>-4.4345952446161639E-6</v>
       </c>
       <c r="C312" t="s">
@@ -17674,7 +17713,7 @@
         <v>397</v>
       </c>
       <c r="B313" s="2">
-        <f>H313*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>-1.9650582309966739E-4</v>
       </c>
       <c r="C313" t="s">
@@ -17698,7 +17737,7 @@
         <v>398</v>
       </c>
       <c r="B314" s="2">
-        <f>H314*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>5.471553123348719E-6</v>
       </c>
       <c r="C314" t="s">
@@ -17722,7 +17761,7 @@
         <v>108</v>
       </c>
       <c r="B315" s="2">
-        <f>H315*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>1.4648696719149737E-5</v>
       </c>
       <c r="C315" t="s">
@@ -17746,7 +17785,7 @@
         <v>108</v>
       </c>
       <c r="B316" s="2">
-        <f>H316*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>5.0733452958799317E-5</v>
       </c>
       <c r="C316" t="s">
@@ -17770,7 +17809,7 @@
         <v>399</v>
       </c>
       <c r="B317" s="2">
-        <f>H317*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>1.0718936719388239E-4</v>
       </c>
       <c r="C317" t="s">
@@ -17794,7 +17833,7 @@
         <v>399</v>
       </c>
       <c r="B318" s="2">
-        <f>H318*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>2.2302924598904791E-5</v>
       </c>
       <c r="C318" t="s">
@@ -17818,7 +17857,7 @@
         <v>399</v>
       </c>
       <c r="B319" s="2">
-        <f>H319*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>1.8487954658105217E-6</v>
       </c>
       <c r="C319" t="s">
@@ -17842,7 +17881,7 @@
         <v>399</v>
       </c>
       <c r="B320" s="2">
-        <f>H320*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>4.6561123369497129E-6</v>
       </c>
       <c r="C320" t="s">
@@ -17866,7 +17905,7 @@
         <v>399</v>
       </c>
       <c r="B321" s="2">
-        <f>H321*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>1.0529951051547267E-4</v>
       </c>
       <c r="C321" t="s">
@@ -17890,7 +17929,7 @@
         <v>399</v>
       </c>
       <c r="B322" s="2">
-        <f>H322*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>3.0992716743185137E-6</v>
       </c>
       <c r="C322" t="s">
@@ -17914,7 +17953,7 @@
         <v>399</v>
       </c>
       <c r="B323" s="2">
-        <f>H323*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>3.4039185141754728E-5</v>
       </c>
       <c r="C323" t="s">
@@ -17938,7 +17977,7 @@
         <v>399</v>
       </c>
       <c r="B324" s="2">
-        <f>H324*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>4.1183600269012395E-6</v>
       </c>
       <c r="C324" t="s">
@@ -17962,7 +18001,7 @@
         <v>399</v>
       </c>
       <c r="B325" s="2">
-        <f>H325*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>4.5999224599431785E-4</v>
       </c>
       <c r="C325" t="s">
@@ -17986,7 +18025,7 @@
         <v>110</v>
       </c>
       <c r="B326" s="2">
-        <f>H326*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>3.8151306399266298E-5</v>
       </c>
       <c r="C326" t="s">
@@ -18010,7 +18049,7 @@
         <v>111</v>
       </c>
       <c r="B327" s="2">
-        <f>H327*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>2.8947121441855887E-6</v>
       </c>
       <c r="C327" t="s">
@@ -18034,7 +18073,7 @@
         <v>400</v>
       </c>
       <c r="B328" s="2">
-        <f>H328*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>6.3175026048149174E-8</v>
       </c>
       <c r="C328" t="s">
@@ -18058,7 +18097,7 @@
         <v>400</v>
       </c>
       <c r="B329" s="2">
-        <f>H329*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>3.1581594592833497E-7</v>
       </c>
       <c r="C329" t="s">
@@ -18082,7 +18121,7 @@
         <v>401</v>
       </c>
       <c r="B330" s="2">
-        <f>H330*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>2.2876298178305343E-4</v>
       </c>
       <c r="C330" t="s">
@@ -18106,7 +18145,7 @@
         <v>401</v>
       </c>
       <c r="B331" s="2">
-        <f>H331*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>4.8185759426681094E-5</v>
       </c>
       <c r="C331" t="s">
@@ -18130,7 +18169,7 @@
         <v>401</v>
       </c>
       <c r="B332" s="2">
-        <f>H332*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>3.4882697664902262E-6</v>
       </c>
       <c r="C332" t="s">
@@ -18154,7 +18193,7 @@
         <v>401</v>
       </c>
       <c r="B333" s="2">
-        <f>H333*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>1.1176885560380732E-5</v>
       </c>
       <c r="C333" t="s">
@@ -18178,7 +18217,7 @@
         <v>401</v>
       </c>
       <c r="B334" s="2">
-        <f>H334*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>2.1379717923649931E-4</v>
       </c>
       <c r="C334" t="s">
@@ -18202,7 +18241,7 @@
         <v>401</v>
       </c>
       <c r="B335" s="2">
-        <f>H335*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>8.5754836265577754E-6</v>
       </c>
       <c r="C335" t="s">
@@ -18226,7 +18265,7 @@
         <v>401</v>
       </c>
       <c r="B336" s="2">
-        <f>H336*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>1.4328332499211912E-5</v>
       </c>
       <c r="C336" t="s">
@@ -18250,7 +18289,7 @@
         <v>401</v>
       </c>
       <c r="B337" s="2">
-        <f>H337*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>6.8595045462322606E-4</v>
       </c>
       <c r="C337" t="s">
@@ -18274,7 +18313,7 @@
         <v>402</v>
       </c>
       <c r="B338" s="2">
-        <f>H338*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>0.10188144719597549</v>
       </c>
       <c r="C338" t="s">
@@ -18298,7 +18337,7 @@
         <v>403</v>
       </c>
       <c r="B339" s="2">
-        <f>H339*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>-2.0454579361436894E-6</v>
       </c>
       <c r="C339" t="s">
@@ -18322,7 +18361,7 @@
         <v>115</v>
       </c>
       <c r="B340" s="2">
-        <f>H340*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>1.4965356993430931E-5</v>
       </c>
       <c r="C340" t="s">
@@ -18346,7 +18385,7 @@
         <v>116</v>
       </c>
       <c r="B341" s="2">
-        <f>H341*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>2.3310601686014386E-6</v>
       </c>
       <c r="C341" t="s">
@@ -18370,7 +18409,7 @@
         <v>404</v>
       </c>
       <c r="B342" s="2">
-        <f>H342*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>6.9420355477530817E-5</v>
       </c>
       <c r="C342" t="s">
@@ -18394,7 +18433,7 @@
         <v>404</v>
       </c>
       <c r="B343" s="2">
-        <f>H343*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>7.9166779442927052E-5</v>
       </c>
       <c r="C343" t="s">
@@ -18418,7 +18457,7 @@
         <v>404</v>
       </c>
       <c r="B344" s="2">
-        <f>H344*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>3.8058741624827668E-6</v>
       </c>
       <c r="C344" t="s">
@@ -18442,7 +18481,7 @@
         <v>404</v>
       </c>
       <c r="B345" s="2">
-        <f>H345*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>1.5977666524407574E-4</v>
       </c>
       <c r="C345" t="s">
@@ -18466,7 +18505,7 @@
         <v>404</v>
       </c>
       <c r="B346" s="2">
-        <f>H346*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>1.1191701858027204E-5</v>
       </c>
       <c r="C346" t="s">
@@ -18490,7 +18529,7 @@
         <v>404</v>
       </c>
       <c r="B347" s="2">
-        <f>H347*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>1.6176284663882834E-5</v>
       </c>
       <c r="C347" t="s">
@@ -18514,7 +18553,7 @@
         <v>404</v>
       </c>
       <c r="B348" s="2">
-        <f>H348*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>1.5777140807255879E-3</v>
       </c>
       <c r="C348" t="s">
@@ -18538,7 +18577,7 @@
         <v>117</v>
       </c>
       <c r="B349" s="2">
-        <f>H349*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>3.3386891967157394E-4</v>
       </c>
       <c r="C349" t="s">
@@ -18562,7 +18601,7 @@
         <v>405</v>
       </c>
       <c r="B350" s="2">
-        <f>H350*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>3.7093470409404042E-5</v>
       </c>
       <c r="C350" t="s">
@@ -18586,7 +18625,7 @@
         <v>42</v>
       </c>
       <c r="B351" s="2">
-        <f>H351*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>4.6655843335435689E-2</v>
       </c>
       <c r="C351" t="s">
@@ -18610,7 +18649,7 @@
         <v>42</v>
       </c>
       <c r="B352" s="2">
-        <f>H352*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>6.4366924249892044E-2</v>
       </c>
       <c r="C352" t="s">
@@ -18634,7 +18673,7 @@
         <v>42</v>
       </c>
       <c r="B353" s="2">
-        <f>H353*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>4.7520185600486098E-2</v>
       </c>
       <c r="C353" t="s">
@@ -18658,7 +18697,7 @@
         <v>42</v>
       </c>
       <c r="B354" s="2">
-        <f>H354*0.15/0.73</f>
+        <f t="shared" ref="B354:B417" si="6">H354*0.15/0.73</f>
         <v>1.8909530170657315E-2</v>
       </c>
       <c r="C354" t="s">
@@ -18682,7 +18721,7 @@
         <v>42</v>
       </c>
       <c r="B355" s="2">
-        <f>H355*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>7.681982878683391E-2</v>
       </c>
       <c r="C355" t="s">
@@ -18706,7 +18745,7 @@
         <v>42</v>
       </c>
       <c r="B356" s="2">
-        <f>H356*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>1.8784546756579354E-2</v>
       </c>
       <c r="C356" t="s">
@@ -18730,7 +18769,7 @@
         <v>42</v>
       </c>
       <c r="B357" s="2">
-        <f>H357*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>2.7107087928923217E-3</v>
       </c>
       <c r="C357" t="s">
@@ -18754,7 +18793,7 @@
         <v>42</v>
       </c>
       <c r="B358" s="2">
-        <f>H358*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>3.6142792394426096E-2</v>
       </c>
       <c r="C358" t="s">
@@ -18778,7 +18817,7 @@
         <v>42</v>
       </c>
       <c r="B359" s="2">
-        <f>H359*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>2.2159440602143355E-2</v>
       </c>
       <c r="C359" t="s">
@@ -18802,7 +18841,7 @@
         <v>42</v>
       </c>
       <c r="B360" s="2">
-        <f>H360*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>7.7770887201006375E-2</v>
       </c>
       <c r="C360" t="s">
@@ -18826,7 +18865,7 @@
         <v>42</v>
       </c>
       <c r="B361" s="2">
-        <f>H361*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>5.5531232434975063E-2</v>
       </c>
       <c r="C361" t="s">
@@ -18850,7 +18889,7 @@
         <v>119</v>
       </c>
       <c r="B362" s="2">
-        <f>H362*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>0.11981400002669856</v>
       </c>
       <c r="C362" t="s">
@@ -18874,7 +18913,7 @@
         <v>119</v>
       </c>
       <c r="B363" s="2">
-        <f>H363*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>1.9181172767281394E-2</v>
       </c>
       <c r="C363" t="s">
@@ -18898,7 +18937,7 @@
         <v>119</v>
       </c>
       <c r="B364" s="2">
-        <f>H364*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>7.7392895160763161E-3</v>
       </c>
       <c r="C364" t="s">
@@ -18922,7 +18961,7 @@
         <v>406</v>
       </c>
       <c r="B365" s="2">
-        <f>H365*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>6.3592707090007192E-8</v>
       </c>
       <c r="C365" t="s">
@@ -18946,7 +18985,7 @@
         <v>406</v>
       </c>
       <c r="B366" s="2">
-        <f>H366*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>1.2659108981468733E-7</v>
       </c>
       <c r="C366" t="s">
@@ -18970,7 +19009,7 @@
         <v>407</v>
       </c>
       <c r="B367" s="2">
-        <f>H367*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>5.118973476047856E-6</v>
       </c>
       <c r="C367" t="s">
@@ -18994,7 +19033,7 @@
         <v>407</v>
       </c>
       <c r="B368" s="2">
-        <f>H368*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>1.1398370462029973E-5</v>
       </c>
       <c r="C368" t="s">
@@ -19018,7 +19057,7 @@
         <v>408</v>
       </c>
       <c r="B369" s="2">
-        <f>H369*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>1.031794704007087E-6</v>
       </c>
       <c r="C369" t="s">
@@ -19042,7 +19081,7 @@
         <v>409</v>
       </c>
       <c r="B370" s="2">
-        <f>H370*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>1.0620337198223199E-6</v>
       </c>
       <c r="C370" t="s">
@@ -19066,7 +19105,7 @@
         <v>410</v>
       </c>
       <c r="B371" s="2">
-        <f>H371*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>1.1814536583461115E-4</v>
       </c>
       <c r="C371" t="s">
@@ -19090,7 +19129,7 @@
         <v>411</v>
       </c>
       <c r="B372" s="2">
-        <f>H372*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>1.761992524407785E-3</v>
       </c>
       <c r="C372" t="s">
@@ -19114,7 +19153,7 @@
         <v>411</v>
       </c>
       <c r="B373" s="2">
-        <f>H373*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>2.2442205198561164E-4</v>
       </c>
       <c r="C373" t="s">
@@ -19138,7 +19177,7 @@
         <v>411</v>
       </c>
       <c r="B374" s="2">
-        <f>H374*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>1.3583395515829604E-4</v>
       </c>
       <c r="C374" t="s">
@@ -19162,7 +19201,7 @@
         <v>411</v>
       </c>
       <c r="B375" s="2">
-        <f>H375*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>2.1991889620774109E-4</v>
       </c>
       <c r="C375" t="s">
@@ -19186,7 +19225,7 @@
         <v>411</v>
       </c>
       <c r="B376" s="2">
-        <f>H376*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>3.6552304600253016E-4</v>
       </c>
       <c r="C376" t="s">
@@ -19210,7 +19249,7 @@
         <v>411</v>
       </c>
       <c r="B377" s="2">
-        <f>H377*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>5.2185150029867052E-5</v>
       </c>
       <c r="C377" t="s">
@@ -19234,7 +19273,7 @@
         <v>411</v>
       </c>
       <c r="B378" s="2">
-        <f>H378*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>1.7122604403432327E-4</v>
       </c>
       <c r="C378" t="s">
@@ -19258,7 +19297,7 @@
         <v>411</v>
       </c>
       <c r="B379" s="2">
-        <f>H379*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>9.5437881223544996E-5</v>
       </c>
       <c r="C379" t="s">
@@ -19282,7 +19321,7 @@
         <v>411</v>
       </c>
       <c r="B380" s="2">
-        <f>H380*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>4.8500668775034865E-4</v>
       </c>
       <c r="C380" t="s">
@@ -19306,7 +19345,7 @@
         <v>120</v>
       </c>
       <c r="B381" s="2">
-        <f>H381*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>-4.7812390428084862E-6</v>
       </c>
       <c r="C381" t="s">
@@ -19330,7 +19369,7 @@
         <v>120</v>
       </c>
       <c r="B382" s="2">
-        <f>H382*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>-1.8291314059921436E-4</v>
       </c>
       <c r="C382" t="s">
@@ -19354,7 +19393,7 @@
         <v>120</v>
       </c>
       <c r="B383" s="2">
-        <f>H383*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>-3.8035885203255613E-4</v>
       </c>
       <c r="C383" t="s">
@@ -19378,7 +19417,7 @@
         <v>121</v>
       </c>
       <c r="B384" s="2">
-        <f>H384*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>-1.8346608076013485E-3</v>
       </c>
       <c r="C384" t="s">
@@ -19402,7 +19441,7 @@
         <v>412</v>
       </c>
       <c r="B385" s="2">
-        <f>H385*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>2.1285076033956987E-2</v>
       </c>
       <c r="C385" t="s">
@@ -19426,7 +19465,7 @@
         <v>124</v>
       </c>
       <c r="B386" s="2">
-        <f>H386*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>1.1815992053914601E-3</v>
       </c>
       <c r="C386" t="s">
@@ -19450,7 +19489,7 @@
         <v>123</v>
       </c>
       <c r="B387" s="2">
-        <f>H387*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>3.4683752618771714E-5</v>
       </c>
       <c r="C387" t="s">
@@ -19474,7 +19513,7 @@
         <v>125</v>
       </c>
       <c r="B388" s="2">
-        <f>H388*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>6.9810013788336162E-6</v>
       </c>
       <c r="C388" t="s">
@@ -19498,7 +19537,7 @@
         <v>125</v>
       </c>
       <c r="B389" s="2">
-        <f>H389*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>1.8186446417846609E-6</v>
       </c>
       <c r="C389" t="s">
@@ -19522,7 +19561,7 @@
         <v>125</v>
       </c>
       <c r="B390" s="2">
-        <f>H390*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>5.3838587518377327E-6</v>
       </c>
       <c r="C390" t="s">
@@ -19546,7 +19585,7 @@
         <v>125</v>
       </c>
       <c r="B391" s="2">
-        <f>H391*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>1.0590205487878645E-6</v>
       </c>
       <c r="C391" t="s">
@@ -19570,7 +19609,7 @@
         <v>125</v>
       </c>
       <c r="B392" s="2">
-        <f>H392*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>1.3585675367855074E-6</v>
       </c>
       <c r="C392" t="s">
@@ -19594,7 +19633,7 @@
         <v>125</v>
       </c>
       <c r="B393" s="2">
-        <f>H393*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>1.2585575397587177E-4</v>
       </c>
       <c r="C393" t="s">
@@ -19618,7 +19657,7 @@
         <v>413</v>
       </c>
       <c r="B394" s="2">
-        <f>H394*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>2.5929102328792807E-5</v>
       </c>
       <c r="C394" t="s">
@@ -19642,7 +19681,7 @@
         <v>414</v>
       </c>
       <c r="B395" s="2">
-        <f>H395*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>6.8979579431653979E-6</v>
       </c>
       <c r="C395" t="s">
@@ -19666,7 +19705,7 @@
         <v>414</v>
       </c>
       <c r="B396" s="2">
-        <f>H396*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>3.085317691641267E-5</v>
       </c>
       <c r="C396" t="s">
@@ -19690,7 +19729,7 @@
         <v>415</v>
       </c>
       <c r="B397" s="2">
-        <f>H397*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>9.36941181895387E-6</v>
       </c>
       <c r="C397" t="s">
@@ -19714,7 +19753,7 @@
         <v>416</v>
       </c>
       <c r="B398" s="2">
-        <f>H398*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>7.6526358365963212E-5</v>
       </c>
       <c r="C398" t="s">
@@ -19738,7 +19777,7 @@
         <v>127</v>
       </c>
       <c r="B399" s="2">
-        <f>H399*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>-6.8913472854167045E-7</v>
       </c>
       <c r="C399" t="s">
@@ -19762,7 +19801,7 @@
         <v>127</v>
       </c>
       <c r="B400" s="2">
-        <f>H400*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>-8.0013882773182402E-5</v>
       </c>
       <c r="C400" t="s">
@@ -19786,7 +19825,7 @@
         <v>127</v>
       </c>
       <c r="B401" s="2">
-        <f>H401*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>-2.8203865826071847E-4</v>
       </c>
       <c r="C401" t="s">
@@ -19810,7 +19849,7 @@
         <v>128</v>
       </c>
       <c r="B402" s="2">
-        <f>H402*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>-1.6396496461100753E-4</v>
       </c>
       <c r="C402" t="s">
@@ -19834,7 +19873,7 @@
         <v>129</v>
       </c>
       <c r="B403" s="2">
-        <f>H403*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>2.3433025260462536E-5</v>
       </c>
       <c r="C403" t="s">
@@ -19858,7 +19897,7 @@
         <v>129</v>
       </c>
       <c r="B404" s="2">
-        <f>H404*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>4.7448908771784655E-5</v>
       </c>
       <c r="C404" t="s">
@@ -19882,7 +19921,7 @@
         <v>417</v>
       </c>
       <c r="B405" s="2">
-        <f>H405*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>1.0267337519676514E-5</v>
       </c>
       <c r="C405" t="s">
@@ -19906,7 +19945,7 @@
         <v>418</v>
       </c>
       <c r="B406" s="2">
-        <f>H406*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>4.2783164572055758E-5</v>
       </c>
       <c r="C406" t="s">
@@ -19930,7 +19969,7 @@
         <v>419</v>
       </c>
       <c r="B407" s="2">
-        <f>H407*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>5.8449011375930548E-5</v>
       </c>
       <c r="C407" t="s">
@@ -19954,7 +19993,7 @@
         <v>420</v>
       </c>
       <c r="B408" s="2">
-        <f>H408*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>3.0546106016698768E-3</v>
       </c>
       <c r="C408" t="s">
@@ -19978,7 +20017,7 @@
         <v>130</v>
       </c>
       <c r="B409" s="2">
-        <f>H409*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>1.7911554798637666E-4</v>
       </c>
       <c r="C409" t="s">
@@ -20002,7 +20041,7 @@
         <v>130</v>
       </c>
       <c r="B410" s="2">
-        <f>H410*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>4.0715578423015889E-6</v>
       </c>
       <c r="C410" t="s">
@@ -20026,7 +20065,7 @@
         <v>130</v>
       </c>
       <c r="B411" s="2">
-        <f>H411*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>5.8718408054800684E-7</v>
       </c>
       <c r="C411" t="s">
@@ -20050,7 +20089,7 @@
         <v>130</v>
       </c>
       <c r="B412" s="2">
-        <f>H412*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>8.2173733341130284E-6</v>
       </c>
       <c r="C412" t="s">
@@ -20074,7 +20113,7 @@
         <v>130</v>
       </c>
       <c r="B413" s="2">
-        <f>H413*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>5.4529498916168019E-7</v>
       </c>
       <c r="C413" t="s">
@@ -20098,7 +20137,7 @@
         <v>130</v>
       </c>
       <c r="B414" s="2">
-        <f>H414*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>7.9011239812677324E-7</v>
       </c>
       <c r="C414" t="s">
@@ -20122,7 +20161,7 @@
         <v>130</v>
       </c>
       <c r="B415" s="2">
-        <f>H415*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>8.2788091636181913E-5</v>
       </c>
       <c r="C415" t="s">
@@ -20146,7 +20185,7 @@
         <v>421</v>
       </c>
       <c r="B416" s="2">
-        <f>H416*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>1.7774231755681499E-5</v>
       </c>
       <c r="C416" t="s">
@@ -20170,7 +20209,7 @@
         <v>132</v>
       </c>
       <c r="B417" s="2">
-        <f>H417*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>4.4259307728889108E-6</v>
       </c>
       <c r="C417" t="s">
@@ -20194,7 +20233,7 @@
         <v>132</v>
       </c>
       <c r="B418" s="2">
-        <f>H418*0.15/0.73</f>
+        <f t="shared" ref="B418:B481" si="7">H418*0.15/0.73</f>
         <v>5.2141355480754667E-4</v>
       </c>
       <c r="C418" t="s">
@@ -20218,7 +20257,7 @@
         <v>134</v>
       </c>
       <c r="B419" s="2">
-        <f>H419*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>1.695901697160906E-6</v>
       </c>
       <c r="C419" t="s">
@@ -20242,7 +20281,7 @@
         <v>134</v>
       </c>
       <c r="B420" s="2">
-        <f>H420*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>1.6381554800401683E-4</v>
       </c>
       <c r="C420" t="s">
@@ -20266,7 +20305,7 @@
         <v>134</v>
       </c>
       <c r="B421" s="2">
-        <f>H421*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>4.1474757231329384E-3</v>
       </c>
       <c r="C421" t="s">
@@ -20290,7 +20329,7 @@
         <v>422</v>
       </c>
       <c r="B422" s="2">
-        <f>H422*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>1.2443265263617624E-7</v>
       </c>
       <c r="C422" t="s">
@@ -20314,7 +20353,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="2">
-        <f>H423*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>1.1949915751178856E-6</v>
       </c>
       <c r="C423" t="s">
@@ -20338,7 +20377,7 @@
         <v>422</v>
       </c>
       <c r="B424" s="2">
-        <f>H424*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>5.2958912080211297E-8</v>
       </c>
       <c r="C424" t="s">
@@ -20362,7 +20401,7 @@
         <v>422</v>
       </c>
       <c r="B425" s="2">
-        <f>H425*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>1.0413098676168926E-5</v>
       </c>
       <c r="C425" t="s">
@@ -20386,7 +20425,7 @@
         <v>422</v>
       </c>
       <c r="B426" s="2">
-        <f>H426*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>4.2444099683396917E-6</v>
       </c>
       <c r="C426" t="s">
@@ -20410,7 +20449,7 @@
         <v>422</v>
       </c>
       <c r="B427" s="2">
-        <f>H427*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>3.7513685571560338E-7</v>
       </c>
       <c r="C427" t="s">
@@ -20434,7 +20473,7 @@
         <v>422</v>
       </c>
       <c r="B428" s="2">
-        <f>H428*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>8.3496678737569523E-8</v>
       </c>
       <c r="C428" t="s">
@@ -20458,7 +20497,7 @@
         <v>422</v>
       </c>
       <c r="B429" s="2">
-        <f>H429*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>1.7763287299731944E-5</v>
       </c>
       <c r="C429" t="s">
@@ -20482,7 +20521,7 @@
         <v>135</v>
       </c>
       <c r="B430" s="2">
-        <f>H430*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>8.3872293541468564E-6</v>
       </c>
       <c r="C430" t="s">
@@ -20506,7 +20545,7 @@
         <v>423</v>
       </c>
       <c r="B431" s="2">
-        <f>H431*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>1.0477208065836699E-6</v>
       </c>
       <c r="C431" t="s">
@@ -20530,7 +20569,7 @@
         <v>424</v>
       </c>
       <c r="B432" s="2">
-        <f>H432*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>2.098953682477685E-4</v>
       </c>
       <c r="C432" t="s">
@@ -20554,7 +20593,7 @@
         <v>425</v>
       </c>
       <c r="B433" s="2">
-        <f>H433*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>6.3427567689121236E-7</v>
       </c>
       <c r="C433" t="s">
@@ -20578,7 +20617,7 @@
         <v>426</v>
       </c>
       <c r="B434" s="2">
-        <f>H434*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>8.4451472912549999E-10</v>
       </c>
       <c r="C434" t="s">
@@ -20602,7 +20641,7 @@
         <v>426</v>
       </c>
       <c r="B435" s="2">
-        <f>H435*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>5.0088532434316435E-7</v>
       </c>
       <c r="C435" t="s">
@@ -20626,7 +20665,7 @@
         <v>139</v>
       </c>
       <c r="B436" s="2">
-        <f>H436*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>-7.3859408661702943E-8</v>
       </c>
       <c r="C436" t="s">
@@ -20650,7 +20689,7 @@
         <v>139</v>
       </c>
       <c r="B437" s="2">
-        <f>H437*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>-1.0554950064006802E-7</v>
       </c>
       <c r="C437" t="s">
@@ -20674,7 +20713,7 @@
         <v>139</v>
       </c>
       <c r="B438" s="2">
-        <f>H438*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>-2.0730751349352737E-4</v>
       </c>
       <c r="C438" t="s">
@@ -20698,7 +20737,7 @@
         <v>138</v>
       </c>
       <c r="B439" s="2">
-        <f>H439*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>-1.7220536373216798E-5</v>
       </c>
       <c r="C439" t="s">
@@ -20722,7 +20761,7 @@
         <v>427</v>
       </c>
       <c r="B440" s="2">
-        <f>H440*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>-2.1907236100479042E-2</v>
       </c>
       <c r="C440" t="s">
@@ -20746,7 +20785,7 @@
         <v>428</v>
       </c>
       <c r="B441" s="2">
-        <f>H441*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>-4.8617232468244932E-3</v>
       </c>
       <c r="C441" t="s">
@@ -20770,7 +20809,7 @@
         <v>429</v>
       </c>
       <c r="B442" s="2">
-        <f>H442*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>1.8007832171732546E-4</v>
       </c>
       <c r="C442" t="s">
@@ -20794,7 +20833,7 @@
         <v>429</v>
       </c>
       <c r="B443" s="2">
-        <f>H443*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>5.0851985944923494E-3</v>
       </c>
       <c r="C443" t="s">
@@ -20818,7 +20857,7 @@
         <v>429</v>
       </c>
       <c r="B444" s="2">
-        <f>H444*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>7.3908442327886515E-5</v>
       </c>
       <c r="C444" t="s">
@@ -20842,7 +20881,7 @@
         <v>429</v>
       </c>
       <c r="B445" s="2">
-        <f>H445*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>5.4203184281702663E-6</v>
       </c>
       <c r="C445" t="s">
@@ -20866,7 +20905,7 @@
         <v>429</v>
       </c>
       <c r="B446" s="2">
-        <f>H446*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>5.3965282689171158E-7</v>
       </c>
       <c r="C446" t="s">
@@ -20890,7 +20929,7 @@
         <v>429</v>
       </c>
       <c r="B447" s="2">
-        <f>H447*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>8.0993739344491854E-6</v>
       </c>
       <c r="C447" t="s">
@@ -20914,7 +20953,7 @@
         <v>429</v>
       </c>
       <c r="B448" s="2">
-        <f>H448*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>1.3483167186354843E-5</v>
       </c>
       <c r="C448" t="s">
@@ -20938,7 +20977,7 @@
         <v>429</v>
       </c>
       <c r="B449" s="2">
-        <f>H449*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>7.6002327121614446E-5</v>
       </c>
       <c r="C449" t="s">
@@ -20962,7 +21001,7 @@
         <v>429</v>
       </c>
       <c r="B450" s="2">
-        <f>H450*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>2.5272491785195889E-4</v>
       </c>
       <c r="C450" t="s">
@@ -20986,7 +21025,7 @@
         <v>140</v>
       </c>
       <c r="B451" s="2">
-        <f>H451*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>8.3581836971211357E-5</v>
       </c>
       <c r="C451" t="s">
@@ -21010,7 +21049,7 @@
         <v>430</v>
       </c>
       <c r="B452" s="2">
-        <f>H452*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>9.1222295679167461E-4</v>
       </c>
       <c r="C452" t="s">
@@ -21034,7 +21073,7 @@
         <v>143</v>
       </c>
       <c r="B453" s="2">
-        <f>H453*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>2.3774218518657738E-2</v>
       </c>
       <c r="C453" t="s">
@@ -21058,7 +21097,7 @@
         <v>144</v>
       </c>
       <c r="B454" s="2">
-        <f>H454*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>3.8896528781239723E-6</v>
       </c>
       <c r="C454" t="s">
@@ -21082,7 +21121,7 @@
         <v>144</v>
       </c>
       <c r="B455" s="2">
-        <f>H455*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>3.3327237626300554E-7</v>
       </c>
       <c r="C455" t="s">
@@ -21106,7 +21145,7 @@
         <v>144</v>
       </c>
       <c r="B456" s="2">
-        <f>H456*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>8.9376882366995132E-8</v>
       </c>
       <c r="C456" t="s">
@@ -21130,7 +21169,7 @@
         <v>144</v>
       </c>
       <c r="B457" s="2">
-        <f>H457*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>3.6937500599838283E-7</v>
       </c>
       <c r="C457" t="s">
@@ -21154,7 +21193,7 @@
         <v>144</v>
       </c>
       <c r="B458" s="2">
-        <f>H458*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>1.8351117126246923E-8</v>
       </c>
       <c r="C458" t="s">
@@ -21178,7 +21217,7 @@
         <v>144</v>
       </c>
       <c r="B459" s="2">
-        <f>H459*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>8.9086541278030265E-8</v>
       </c>
       <c r="C459" t="s">
@@ -21202,7 +21241,7 @@
         <v>144</v>
       </c>
       <c r="B460" s="2">
-        <f>H460*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>1.0257929940206055E-5</v>
       </c>
       <c r="C460" t="s">
@@ -21226,7 +21265,7 @@
         <v>431</v>
       </c>
       <c r="B461" s="2">
-        <f>H461*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>5.8742848599038621E-6</v>
       </c>
       <c r="C461" t="s">
@@ -21250,7 +21289,7 @@
         <v>432</v>
       </c>
       <c r="B462" s="2">
-        <f>H462*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>2.3665713336657946E-6</v>
       </c>
       <c r="C462" t="s">
@@ -21274,7 +21313,7 @@
         <v>145</v>
       </c>
       <c r="B463" s="2">
-        <f>H463*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>1.2200595921971979E-5</v>
       </c>
       <c r="C463" t="s">
@@ -21298,7 +21337,7 @@
         <v>145</v>
       </c>
       <c r="B464" s="2">
-        <f>H464*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>1.3172404256385514E-4</v>
       </c>
       <c r="C464" t="s">
@@ -21322,7 +21361,7 @@
         <v>146</v>
       </c>
       <c r="B465" s="2">
-        <f>H465*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>1.3455680800364815E-4</v>
       </c>
       <c r="C465" t="s">
@@ -21346,7 +21385,7 @@
         <v>433</v>
       </c>
       <c r="B466" s="2">
-        <f>H466*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>2.3343896906124863E-6</v>
       </c>
       <c r="C466" t="s">
@@ -21370,7 +21409,7 @@
         <v>148</v>
       </c>
       <c r="B467" s="2">
-        <f>H467*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>1.2504513654204433E-4</v>
       </c>
       <c r="C467" t="s">
@@ -21394,7 +21433,7 @@
         <v>149</v>
       </c>
       <c r="B468" s="2">
-        <f>H468*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>1.7906122059814582E-8</v>
       </c>
       <c r="C468" t="s">
@@ -21418,7 +21457,7 @@
         <v>149</v>
       </c>
       <c r="B469" s="2">
-        <f>H469*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>1.0820045212140165E-3</v>
       </c>
       <c r="C469" t="s">
@@ -21442,7 +21481,7 @@
         <v>150</v>
       </c>
       <c r="B470" s="2">
-        <f>H470*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>8.3008519684910152E-4</v>
       </c>
       <c r="C470" t="s">
@@ -21466,7 +21505,7 @@
         <v>434</v>
       </c>
       <c r="B471" s="2">
-        <f>H471*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>3.3422151203163085E-3</v>
       </c>
       <c r="C471" t="s">
@@ -21490,7 +21529,7 @@
         <v>435</v>
       </c>
       <c r="B472" s="2">
-        <f>H472*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>1.4613462660695652E-7</v>
       </c>
       <c r="C472" t="s">
@@ -21514,7 +21553,7 @@
         <v>152</v>
       </c>
       <c r="B473" s="2">
-        <f>H473*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>6.3810330723802192E-4</v>
       </c>
       <c r="C473" t="s">
@@ -21538,7 +21577,7 @@
         <v>436</v>
       </c>
       <c r="B474" s="2">
-        <f>H474*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>3.9310596131344112E-5</v>
       </c>
       <c r="C474" t="s">
@@ -21562,7 +21601,7 @@
         <v>154</v>
       </c>
       <c r="B475" s="2">
-        <f>H475*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>1.7113265828822199E-6</v>
       </c>
       <c r="C475" t="s">
@@ -21586,7 +21625,7 @@
         <v>155</v>
       </c>
       <c r="B476" s="2">
-        <f>H476*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>1.5075206627962254E-7</v>
       </c>
       <c r="C476" t="s">
@@ -21610,7 +21649,7 @@
         <v>437</v>
       </c>
       <c r="B477" s="2">
-        <f>H477*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>1.7479055960998048E-4</v>
       </c>
       <c r="C477" t="s">
@@ -21634,7 +21673,7 @@
         <v>438</v>
       </c>
       <c r="B478" s="2">
-        <f>H478*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>6.2784396344495131E-4</v>
       </c>
       <c r="C478" t="s">
@@ -21658,7 +21697,7 @@
         <v>439</v>
       </c>
       <c r="B479" s="2">
-        <f>H479*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>5.6806188392037744E-7</v>
       </c>
       <c r="C479" t="s">
@@ -21682,7 +21721,7 @@
         <v>439</v>
       </c>
       <c r="B480" s="2">
-        <f>H480*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>2.6966615868863833E-6</v>
       </c>
       <c r="C480" t="s">
@@ -21706,7 +21745,7 @@
         <v>440</v>
       </c>
       <c r="B481" s="2">
-        <f>H481*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>2.8504234824718153E-6</v>
       </c>
       <c r="C481" t="s">
@@ -21730,7 +21769,7 @@
         <v>156</v>
       </c>
       <c r="B482" s="2">
-        <f>H482*0.15/0.73</f>
+        <f t="shared" ref="B482:B545" si="8">H482*0.15/0.73</f>
         <v>4.9613148952829181E-6</v>
       </c>
       <c r="C482" t="s">
@@ -21754,7 +21793,7 @@
         <v>441</v>
       </c>
       <c r="B483" s="2">
-        <f>H483*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>2.343033360496274E-7</v>
       </c>
       <c r="C483" t="s">
@@ -21778,7 +21817,7 @@
         <v>441</v>
       </c>
       <c r="B484" s="2">
-        <f>H484*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>1.3289093920698699E-6</v>
       </c>
       <c r="C484" t="s">
@@ -21802,7 +21841,7 @@
         <v>442</v>
       </c>
       <c r="B485" s="2">
-        <f>H485*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>6.1741138855329243E-5</v>
       </c>
       <c r="C485" t="s">
@@ -21826,7 +21865,7 @@
         <v>443</v>
       </c>
       <c r="B486" s="2">
-        <f>H486*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>3.88937331758926E-8</v>
       </c>
       <c r="C486" t="s">
@@ -21850,7 +21889,7 @@
         <v>158</v>
       </c>
       <c r="B487" s="2">
-        <f>H487*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-5.6179241322078084E-6</v>
       </c>
       <c r="C487" t="s">
@@ -21874,7 +21913,7 @@
         <v>158</v>
       </c>
       <c r="B488" s="2">
-        <f>H488*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-1.658011993173078E-5</v>
       </c>
       <c r="C488" t="s">
@@ -21898,7 +21937,7 @@
         <v>158</v>
       </c>
       <c r="B489" s="2">
-        <f>H489*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-2.0443448847862209E-6</v>
       </c>
       <c r="C489" t="s">
@@ -21922,7 +21961,7 @@
         <v>158</v>
       </c>
       <c r="B490" s="2">
-        <f>H490*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-8.4671292078547392E-7</v>
       </c>
       <c r="C490" t="s">
@@ -21946,7 +21985,7 @@
         <v>158</v>
       </c>
       <c r="B491" s="2">
-        <f>H491*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-2.3340945534960821E-6</v>
       </c>
       <c r="C491" t="s">
@@ -21970,7 +22009,7 @@
         <v>158</v>
       </c>
       <c r="B492" s="2">
-        <f>H492*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-4.3301478268306639E-6</v>
       </c>
       <c r="C492" t="s">
@@ -21994,7 +22033,7 @@
         <v>158</v>
       </c>
       <c r="B493" s="2">
-        <f>H493*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-2.9779827061846441E-6</v>
       </c>
       <c r="C493" t="s">
@@ -22018,7 +22057,7 @@
         <v>158</v>
       </c>
       <c r="B494" s="2">
-        <f>H494*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-9.5359835413177807E-6</v>
       </c>
       <c r="C494" t="s">
@@ -22042,7 +22081,7 @@
         <v>444</v>
       </c>
       <c r="B495" s="2">
-        <f>H495*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>7.9398887050819315E-5</v>
       </c>
       <c r="C495" t="s">
@@ -22066,7 +22105,7 @@
         <v>160</v>
       </c>
       <c r="B496" s="2">
-        <f>H496*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>3.7077295936628016E-4</v>
       </c>
       <c r="C496" t="s">
@@ -22090,7 +22129,7 @@
         <v>160</v>
       </c>
       <c r="B497" s="2">
-        <f>H497*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>2.8342017467512192E-3</v>
       </c>
       <c r="C497" t="s">
@@ -22114,7 +22153,7 @@
         <v>445</v>
       </c>
       <c r="B498" s="2">
-        <f>H498*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>1.3768320404239191E-4</v>
       </c>
       <c r="C498" t="s">
@@ -22138,7 +22177,7 @@
         <v>445</v>
       </c>
       <c r="B499" s="2">
-        <f>H499*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>2.7390200482754594E-5</v>
       </c>
       <c r="C499" t="s">
@@ -22162,7 +22201,7 @@
         <v>445</v>
       </c>
       <c r="B500" s="2">
-        <f>H500*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>6.9067258622221024E-4</v>
       </c>
       <c r="C500" t="s">
@@ -22186,7 +22225,7 @@
         <v>445</v>
       </c>
       <c r="B501" s="2">
-        <f>H501*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>1.7967673667795609E-5</v>
       </c>
       <c r="C501" t="s">
@@ -22210,7 +22249,7 @@
         <v>445</v>
       </c>
       <c r="B502" s="2">
-        <f>H502*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>5.1108742879008904E-5</v>
       </c>
       <c r="C502" t="s">
@@ -22234,7 +22273,7 @@
         <v>445</v>
       </c>
       <c r="B503" s="2">
-        <f>H503*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>7.9037171399301363E-3</v>
       </c>
       <c r="C503" t="s">
@@ -22258,7 +22297,7 @@
         <v>161</v>
       </c>
       <c r="B504" s="2">
-        <f>H504*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>5.9018984838643766E-3</v>
       </c>
       <c r="C504" t="s">
@@ -22282,7 +22321,7 @@
         <v>377</v>
       </c>
       <c r="B505" s="2">
-        <f>H505*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>1.1519015659593843E-3</v>
       </c>
       <c r="C505" t="s">
@@ -22306,7 +22345,7 @@
         <v>446</v>
       </c>
       <c r="B506" s="2">
-        <f>H506*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>1.5348096219682829E-3</v>
       </c>
       <c r="C506" t="s">
@@ -22330,7 +22369,7 @@
         <v>162</v>
       </c>
       <c r="B507" s="2">
-        <f>H507*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>3.3642827848030478E-3</v>
       </c>
       <c r="C507" t="s">
@@ -22354,7 +22393,7 @@
         <v>162</v>
       </c>
       <c r="B508" s="2">
-        <f>H508*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>8.1390538465375467E-4</v>
       </c>
       <c r="C508" t="s">
@@ -22378,7 +22417,7 @@
         <v>162</v>
       </c>
       <c r="B509" s="2">
-        <f>H509*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>7.5463091853303294E-3</v>
       </c>
       <c r="C509" t="s">
@@ -22402,7 +22441,7 @@
         <v>447</v>
       </c>
       <c r="B510" s="2">
-        <f>H510*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>4.7999584600343631E-5</v>
       </c>
       <c r="C510" t="s">
@@ -22426,7 +22465,7 @@
         <v>448</v>
       </c>
       <c r="B511" s="2">
-        <f>H511*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>6.5978788366014448E-8</v>
       </c>
       <c r="C511" t="s">
@@ -22450,7 +22489,7 @@
         <v>449</v>
       </c>
       <c r="B512" s="2">
-        <f>H512*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>4.2499845451836777E-4</v>
       </c>
       <c r="C512" t="s">
@@ -22474,7 +22513,7 @@
         <v>450</v>
       </c>
       <c r="B513" s="2">
-        <f>H513*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>5.2439809551873898E-3</v>
       </c>
       <c r="C513" t="s">
@@ -22498,7 +22537,7 @@
         <v>451</v>
       </c>
       <c r="B514" s="2">
-        <f>H514*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>1.3949279803594416E-6</v>
       </c>
       <c r="C514" t="s">
@@ -22522,7 +22561,7 @@
         <v>451</v>
       </c>
       <c r="B515" s="2">
-        <f>H515*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>2.5611180303712605E-7</v>
       </c>
       <c r="C515" t="s">
@@ -22546,7 +22585,7 @@
         <v>451</v>
       </c>
       <c r="B516" s="2">
-        <f>H516*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>1.6335411088654868E-6</v>
       </c>
       <c r="C516" t="s">
@@ -22570,7 +22609,7 @@
         <v>453</v>
       </c>
       <c r="B517" s="2">
-        <f>H517*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-8.4855232768937458E-7</v>
       </c>
       <c r="C517" t="s">
@@ -22594,7 +22633,7 @@
         <v>453</v>
       </c>
       <c r="B518" s="2">
-        <f>H518*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-7.8209228835022194E-8</v>
       </c>
       <c r="C518" t="s">
@@ -22618,7 +22657,7 @@
         <v>453</v>
       </c>
       <c r="B519" s="2">
-        <f>H519*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-1.7743040797764798E-9</v>
       </c>
       <c r="C519" t="s">
@@ -22642,7 +22681,7 @@
         <v>453</v>
       </c>
       <c r="B520" s="2">
-        <f>H520*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-7.2968081866900891E-9</v>
       </c>
       <c r="C520" t="s">
@@ -22666,7 +22705,7 @@
         <v>453</v>
       </c>
       <c r="B521" s="2">
-        <f>H521*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-1.1080610414813774E-8</v>
       </c>
       <c r="C521" t="s">
@@ -22690,7 +22729,7 @@
         <v>453</v>
       </c>
       <c r="B522" s="2">
-        <f>H522*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-3.2650534875944593E-8</v>
       </c>
       <c r="C522" t="s">
@@ -22714,7 +22753,7 @@
         <v>454</v>
       </c>
       <c r="B523" s="2">
-        <f>H523*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-1.6118487483170465E-6</v>
       </c>
       <c r="C523" t="s">
@@ -22738,7 +22777,7 @@
         <v>452</v>
       </c>
       <c r="B524" s="2">
-        <f>H524*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-1.0256380660590697E-6</v>
       </c>
       <c r="C524" t="s">
@@ -22762,7 +22801,7 @@
         <v>455</v>
       </c>
       <c r="B525" s="2">
-        <f>H525*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-1.3245028097215868E-6</v>
       </c>
       <c r="C525" t="s">
@@ -22786,7 +22825,7 @@
         <v>455</v>
       </c>
       <c r="B526" s="2">
-        <f>H526*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-2.8019382981341096E-5</v>
       </c>
       <c r="C526" t="s">
@@ -22810,7 +22849,7 @@
         <v>455</v>
       </c>
       <c r="B527" s="2">
-        <f>H527*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-9.1226850730185202E-5</v>
       </c>
       <c r="C527" t="s">
@@ -22834,7 +22873,7 @@
         <v>165</v>
       </c>
       <c r="B528" s="2">
-        <f>H528*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-4.7569632383740068E-6</v>
       </c>
       <c r="C528" t="s">
@@ -22858,7 +22897,7 @@
         <v>165</v>
       </c>
       <c r="B529" s="2">
-        <f>H529*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-1.9215377972951159E-4</v>
       </c>
       <c r="C529" t="s">
@@ -22882,7 +22921,7 @@
         <v>165</v>
       </c>
       <c r="B530" s="2">
-        <f>H530*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-5.0312538800981914E-4</v>
       </c>
       <c r="C530" t="s">
@@ -22906,7 +22945,7 @@
         <v>166</v>
       </c>
       <c r="B531" s="2">
-        <f>H531*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-1.1768698212111143E-6</v>
       </c>
       <c r="C531" t="s">
@@ -22930,7 +22969,7 @@
         <v>456</v>
       </c>
       <c r="B532" s="2">
-        <f>H532*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-4.9847617284397603E-8</v>
       </c>
       <c r="C532" t="s">
@@ -22954,7 +22993,7 @@
         <v>456</v>
       </c>
       <c r="B533" s="2">
-        <f>H533*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-7.611957736402214E-9</v>
       </c>
       <c r="C533" t="s">
@@ -22978,7 +23017,7 @@
         <v>456</v>
       </c>
       <c r="B534" s="2">
-        <f>H534*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-6.6559670590082881E-10</v>
       </c>
       <c r="C534" t="s">
@@ -23002,7 +23041,7 @@
         <v>456</v>
       </c>
       <c r="B535" s="2">
-        <f>H535*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-2.7505212903496639E-8</v>
       </c>
       <c r="C535" t="s">
@@ -23026,7 +23065,7 @@
         <v>456</v>
       </c>
       <c r="B536" s="2">
-        <f>H536*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-2.6819868577125617E-9</v>
       </c>
       <c r="C536" t="s">
@@ -23050,7 +23089,7 @@
         <v>456</v>
       </c>
       <c r="B537" s="2">
-        <f>H537*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-4.9646338579451095E-9</v>
       </c>
       <c r="C537" t="s">
@@ -23074,7 +23113,7 @@
         <v>456</v>
       </c>
       <c r="B538" s="2">
-        <f>H538*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-9.2600023877223297E-7</v>
       </c>
       <c r="C538" t="s">
@@ -23098,7 +23137,7 @@
         <v>457</v>
       </c>
       <c r="B539" s="2">
-        <f>H539*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-1.224189742860945E-7</v>
       </c>
       <c r="C539" t="s">
@@ -23122,7 +23161,7 @@
         <v>458</v>
       </c>
       <c r="B540" s="2">
-        <f>H540*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-1.65140171545763E-6</v>
       </c>
       <c r="C540" t="s">
@@ -23146,7 +23185,7 @@
         <v>459</v>
       </c>
       <c r="B541" s="2">
-        <f>H541*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-7.516076245291767E-9</v>
       </c>
       <c r="C541" t="s">
@@ -23170,7 +23209,7 @@
         <v>459</v>
       </c>
       <c r="B542" s="2">
-        <f>H542*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-5.0219524195030057E-10</v>
       </c>
       <c r="C542" t="s">
@@ -23194,7 +23233,7 @@
         <v>459</v>
       </c>
       <c r="B543" s="2">
-        <f>H543*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-3.7980209058441576E-11</v>
       </c>
       <c r="C543" t="s">
@@ -23218,7 +23257,7 @@
         <v>459</v>
       </c>
       <c r="B544" s="2">
-        <f>H544*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-2.0742462079220754E-10</v>
       </c>
       <c r="C544" t="s">
@@ -23242,7 +23281,7 @@
         <v>459</v>
       </c>
       <c r="B545" s="2">
-        <f>H545*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-8.3797177738531437E-11</v>
       </c>
       <c r="C545" t="s">
@@ -23266,7 +23305,7 @@
         <v>459</v>
       </c>
       <c r="B546" s="2">
-        <f>H546*0.15/0.73</f>
+        <f t="shared" ref="B546:B609" si="9">H546*0.15/0.73</f>
         <v>-1.9696906933982711E-10</v>
       </c>
       <c r="C546" t="s">
@@ -23290,7 +23329,7 @@
         <v>459</v>
       </c>
       <c r="B547" s="2">
-        <f>H547*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>-5.2616691462178569E-8</v>
       </c>
       <c r="C547" t="s">
@@ -23314,7 +23353,7 @@
         <v>460</v>
       </c>
       <c r="B548" s="2">
-        <f>H548*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>-6.5140535694475482E-9</v>
       </c>
       <c r="C548" t="s">
@@ -23338,7 +23377,7 @@
         <v>461</v>
       </c>
       <c r="B549" s="2">
-        <f>H549*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>-7.998226715083644E-6</v>
       </c>
       <c r="C549" t="s">
@@ -23362,7 +23401,7 @@
         <v>461</v>
       </c>
       <c r="B550" s="2">
-        <f>H550*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>-5.3437561870066028E-4</v>
       </c>
       <c r="C550" t="s">
@@ -23386,7 +23425,7 @@
         <v>462</v>
       </c>
       <c r="B551" s="2">
-        <f>H551*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>-1.6133185962305921E-5</v>
       </c>
       <c r="C551" t="s">
@@ -23410,7 +23449,7 @@
         <v>462</v>
       </c>
       <c r="B552" s="2">
-        <f>H552*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>-2.0031783075917363E-6</v>
       </c>
       <c r="C552" t="s">
@@ -23434,7 +23473,7 @@
         <v>462</v>
       </c>
       <c r="B553" s="2">
-        <f>H553*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>-1.4645490050509562E-7</v>
       </c>
       <c r="C553" t="s">
@@ -23458,7 +23497,7 @@
         <v>462</v>
       </c>
       <c r="B554" s="2">
-        <f>H554*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>-5.6263230051489052E-6</v>
       </c>
       <c r="C554" t="s">
@@ -23482,7 +23521,7 @@
         <v>462</v>
       </c>
       <c r="B555" s="2">
-        <f>H555*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>-8.5000213106120958E-7</v>
       </c>
       <c r="C555" t="s">
@@ -23506,7 +23545,7 @@
         <v>462</v>
       </c>
       <c r="B556" s="2">
-        <f>H556*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>-1.3437824393198425E-6</v>
       </c>
       <c r="C556" t="s">
@@ -23530,7 +23569,7 @@
         <v>463</v>
       </c>
       <c r="B557" s="2">
-        <f>H557*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>-2.5461014043342324E-5</v>
       </c>
       <c r="C557" t="s">
@@ -23554,7 +23593,7 @@
         <v>464</v>
       </c>
       <c r="B558" s="2">
-        <f>H558*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>-2.6155145268687329E-7</v>
       </c>
       <c r="C558" t="s">
@@ -23578,7 +23617,7 @@
         <v>464</v>
       </c>
       <c r="B559" s="2">
-        <f>H559*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>-2.4177151131083629E-6</v>
       </c>
       <c r="C559" t="s">
@@ -23602,7 +23641,7 @@
         <v>464</v>
       </c>
       <c r="B560" s="2">
-        <f>H560*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>-5.0583798973488284E-6</v>
       </c>
       <c r="C560" t="s">
@@ -23626,7 +23665,7 @@
         <v>465</v>
       </c>
       <c r="B561" s="2">
-        <f>H561*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>7.9825572567657948E-4</v>
       </c>
       <c r="C561" t="s">
@@ -23650,7 +23689,7 @@
         <v>465</v>
       </c>
       <c r="B562" s="2">
-        <f>H562*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>0.22175288200139381</v>
       </c>
       <c r="C562" t="s">
@@ -23674,7 +23713,7 @@
         <v>465</v>
       </c>
       <c r="B563" s="2">
-        <f>H563*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>0.71987998025779731</v>
       </c>
       <c r="C563" t="s">
@@ -23698,7 +23737,7 @@
         <v>466</v>
       </c>
       <c r="B564" s="2">
-        <f>H564*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>4.2456456769868835E-4</v>
       </c>
       <c r="C564" t="s">
@@ -23722,7 +23761,7 @@
         <v>467</v>
       </c>
       <c r="B565" s="2">
-        <f>H565*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>0.272628504245437</v>
       </c>
       <c r="C565" t="s">
@@ -23746,7 +23785,7 @@
         <v>468</v>
       </c>
       <c r="B566" s="2">
-        <f>H566*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>7.0001604643974667E-3</v>
       </c>
       <c r="C566" t="s">
@@ -23770,7 +23809,7 @@
         <v>170</v>
       </c>
       <c r="B567" s="2">
-        <f>H567*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>-3.418104598966952E-2</v>
       </c>
       <c r="C567" t="s">
@@ -23794,7 +23833,7 @@
         <v>487</v>
       </c>
       <c r="B568" s="2">
-        <f>H568*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>5.7482048515646706E-8</v>
       </c>
       <c r="C568" t="s">
@@ -23815,7 +23854,7 @@
         <v>196</v>
       </c>
       <c r="B569" s="2">
-        <f>H569*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>5.7462385751748493E-8</v>
       </c>
       <c r="C569" t="s">
@@ -23836,7 +23875,7 @@
         <v>198</v>
       </c>
       <c r="B570" s="2">
-        <f>H570*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>5.7336659098580136E-6</v>
       </c>
       <c r="C570" t="s">
@@ -23857,7 +23896,7 @@
         <v>199</v>
       </c>
       <c r="B571" s="2">
-        <f>H571*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>3.6101940508429519E-6</v>
       </c>
       <c r="C571" t="s">
@@ -23878,7 +23917,7 @@
         <v>199</v>
       </c>
       <c r="B572" s="2">
-        <f>H572*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>8.269539521763022E-7</v>
       </c>
       <c r="C572" t="s">
@@ -23899,7 +23938,7 @@
         <v>200</v>
       </c>
       <c r="B573" s="2">
-        <f>H573*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>1.174437349195019E-8</v>
       </c>
       <c r="C573" t="s">
@@ -23920,7 +23959,7 @@
         <v>200</v>
       </c>
       <c r="B574" s="2">
-        <f>H574*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>1.4019381835901054E-7</v>
       </c>
       <c r="C574" t="s">
@@ -23941,7 +23980,7 @@
         <v>201</v>
       </c>
       <c r="B575" s="2">
-        <f>H575*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>3.1139631569430198E-8</v>
       </c>
       <c r="C575" t="s">
@@ -23962,7 +24001,7 @@
         <v>202</v>
       </c>
       <c r="B576" s="2">
-        <f>H576*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>1.8499716853518926E-8</v>
       </c>
       <c r="C576" t="s">
@@ -23983,7 +24022,7 @@
         <v>202</v>
       </c>
       <c r="B577" s="2">
-        <f>H577*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>2.2657600882615685E-8</v>
       </c>
       <c r="C577" t="s">
@@ -24004,7 +24043,7 @@
         <v>204</v>
       </c>
       <c r="B578" s="2">
-        <f>H578*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>2.0131433788666332E-9</v>
       </c>
       <c r="C578" t="s">
@@ -24025,7 +24064,7 @@
         <v>205</v>
       </c>
       <c r="B579" s="2">
-        <f>H579*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>1.2902418928190712E-13</v>
       </c>
       <c r="C579" t="s">
@@ -24046,7 +24085,7 @@
         <v>207</v>
       </c>
       <c r="B580" s="2">
-        <f>H580*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>1.1546463183089773E-6</v>
       </c>
       <c r="C580" t="s">
@@ -24067,7 +24106,7 @@
         <v>208</v>
       </c>
       <c r="B581" s="2">
-        <f>H581*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>8.4407241775427066E-7</v>
       </c>
       <c r="C581" t="s">
@@ -24088,7 +24127,7 @@
         <v>210</v>
       </c>
       <c r="B582" s="2">
-        <f>H582*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>1.5044841323650008E-8</v>
       </c>
       <c r="C582" t="s">
@@ -24109,7 +24148,7 @@
         <v>210</v>
       </c>
       <c r="B583" s="2">
-        <f>H583*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>1.78447164911783E-8</v>
       </c>
       <c r="C583" t="s">
@@ -24130,7 +24169,7 @@
         <v>213</v>
       </c>
       <c r="B584" s="2">
-        <f>H584*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>9.1018559633889047E-6</v>
       </c>
       <c r="C584" t="s">
@@ -24151,7 +24190,7 @@
         <v>214</v>
       </c>
       <c r="B585" s="2">
-        <f>H585*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>3.4220077281874109E-2</v>
       </c>
       <c r="C585" t="s">
@@ -24172,7 +24211,7 @@
         <v>215</v>
       </c>
       <c r="B586" s="2">
-        <f>H586*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>3.4040638707267536E-6</v>
       </c>
       <c r="C586" t="s">
@@ -24193,7 +24232,7 @@
         <v>216</v>
       </c>
       <c r="B587" s="2">
-        <f>H587*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>8.850153054657061E-6</v>
       </c>
       <c r="C587" t="s">
@@ -24214,7 +24253,7 @@
         <v>217</v>
       </c>
       <c r="B588" s="2">
-        <f>H588*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>2.7634598397553974E-5</v>
       </c>
       <c r="C588" t="s">
@@ -24235,7 +24274,7 @@
         <v>218</v>
       </c>
       <c r="B589" s="2">
-        <f>H589*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>1.3962869164879973E-8</v>
       </c>
       <c r="C589" t="s">
@@ -24256,7 +24295,7 @@
         <v>219</v>
       </c>
       <c r="B590" s="2">
-        <f>H590*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>7.7960337975964307E-10</v>
       </c>
       <c r="C590" t="s">
@@ -24277,7 +24316,7 @@
         <v>220</v>
       </c>
       <c r="B591" s="2">
-        <f>H591*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>6.3427567689121227E-11</v>
       </c>
       <c r="C591" t="s">
@@ -24298,7 +24337,7 @@
         <v>222</v>
       </c>
       <c r="B592" s="2">
-        <f>H592*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>3.9642229805700825E-11</v>
       </c>
       <c r="C592" t="s">
@@ -24319,7 +24358,7 @@
         <v>222</v>
       </c>
       <c r="B593" s="2">
-        <f>H593*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>3.7105989393918699E-10</v>
       </c>
       <c r="C593" t="s">
@@ -24340,7 +24379,7 @@
         <v>223</v>
       </c>
       <c r="B594" s="2">
-        <f>H594*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>3.0312755403348286E-6</v>
       </c>
       <c r="C594" t="s">
@@ -24361,7 +24400,7 @@
         <v>223</v>
       </c>
       <c r="B595" s="2">
-        <f>H595*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>1.7638249251196028E-6</v>
       </c>
       <c r="C595" t="s">
@@ -24382,7 +24421,7 @@
         <v>224</v>
       </c>
       <c r="B596" s="2">
-        <f>H596*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>8.0892158592415887E-8</v>
       </c>
       <c r="C596" t="s">
@@ -24403,7 +24442,7 @@
         <v>226</v>
       </c>
       <c r="B597" s="2">
-        <f>H597*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>5.3942571190834936E-8</v>
       </c>
       <c r="C597" t="s">
@@ -24424,7 +24463,7 @@
         <v>226</v>
       </c>
       <c r="B598" s="2">
-        <f>H598*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>5.8621773869906717E-9</v>
       </c>
       <c r="C598" t="s">
@@ -24445,7 +24484,7 @@
         <v>227</v>
       </c>
       <c r="B599" s="2">
-        <f>H599*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>4.5813572346745065E-10</v>
       </c>
       <c r="C599" t="s">
@@ -24466,7 +24505,7 @@
         <v>227</v>
       </c>
       <c r="B600" s="2">
-        <f>H600*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>1.9446892987298116E-10</v>
       </c>
       <c r="C600" t="s">
@@ -24487,7 +24526,7 @@
         <v>228</v>
       </c>
       <c r="B601" s="2">
-        <f>H601*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>6.9748012422850066E-16</v>
       </c>
       <c r="C601" t="s">
@@ -24508,7 +24547,7 @@
         <v>229</v>
       </c>
       <c r="B602" s="2">
-        <f>H602*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>5.668838862215219E-7</v>
       </c>
       <c r="C602" t="s">
@@ -24529,7 +24568,7 @@
         <v>230</v>
       </c>
       <c r="B603" s="2">
-        <f>H603*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>1.1901498508226403E-7</v>
       </c>
       <c r="C603" t="s">
@@ -24550,7 +24589,7 @@
         <v>232</v>
       </c>
       <c r="B604" s="2">
-        <f>H604*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>7.2061416413856777E-7</v>
       </c>
       <c r="C604" t="s">
@@ -24571,7 +24610,7 @@
         <v>232</v>
       </c>
       <c r="B605" s="2">
-        <f>H605*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>9.6574155838421913E-7</v>
       </c>
       <c r="C605" t="s">
@@ -24592,7 +24631,7 @@
         <v>234</v>
       </c>
       <c r="B606" s="2">
-        <f>H606*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>8.6931191360150141E-9</v>
       </c>
       <c r="C606" t="s">
@@ -24613,7 +24652,7 @@
         <v>237</v>
       </c>
       <c r="B607" s="2">
-        <f>H607*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>4.3606452786271032E-7</v>
       </c>
       <c r="C607" t="s">
@@ -24634,7 +24673,7 @@
         <v>238</v>
       </c>
       <c r="B608" s="2">
-        <f>H608*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>1.5653270487250828E-7</v>
       </c>
       <c r="C608" t="s">
@@ -24655,7 +24694,7 @@
         <v>241</v>
       </c>
       <c r="B609" s="2">
-        <f>H609*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>3.5479373334625273E-7</v>
       </c>
       <c r="C609" t="s">
@@ -24676,7 +24715,7 @@
         <v>241</v>
       </c>
       <c r="B610" s="2">
-        <f>H610*0.15/0.73</f>
+        <f t="shared" ref="B610:B659" si="10">H610*0.15/0.73</f>
         <v>7.9343323388176239E-8</v>
       </c>
       <c r="C610" t="s">
@@ -24697,7 +24736,7 @@
         <v>242</v>
       </c>
       <c r="B611" s="2">
-        <f>H611*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>7.7809598337538346E-7</v>
       </c>
       <c r="C611" t="s">
@@ -24718,7 +24757,7 @@
         <v>242</v>
       </c>
       <c r="B612" s="2">
-        <f>H612*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>8.6774101919225144E-8</v>
       </c>
       <c r="C612" t="s">
@@ -24739,7 +24778,7 @@
         <v>242</v>
       </c>
       <c r="B613" s="2">
-        <f>H613*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>1.0545071430986754E-8</v>
       </c>
       <c r="C613" t="s">
@@ -24760,7 +24799,7 @@
         <v>244</v>
       </c>
       <c r="B614" s="2">
-        <f>H614*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>2.2356770961843493E-5</v>
       </c>
       <c r="C614" t="s">
@@ -24781,7 +24820,7 @@
         <v>246</v>
       </c>
       <c r="B615" s="2">
-        <f>H615*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>2.1715027287249044E-6</v>
       </c>
       <c r="C615" t="s">
@@ -24802,7 +24841,7 @@
         <v>246</v>
       </c>
       <c r="B616" s="2">
-        <f>H616*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>6.1481811952783965E-9</v>
       </c>
       <c r="C616" t="s">
@@ -24823,7 +24862,7 @@
         <v>248</v>
       </c>
       <c r="B617" s="2">
-        <f>H617*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>1.6602690568065041E-9</v>
       </c>
       <c r="C617" t="s">
@@ -24844,7 +24883,7 @@
         <v>248</v>
       </c>
       <c r="B618" s="2">
-        <f>H618*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>2.170076770954089E-9</v>
       </c>
       <c r="C618" t="s">
@@ -24865,7 +24904,7 @@
         <v>248</v>
       </c>
       <c r="B619" s="2">
-        <f>H619*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>6.2656423250605473E-9</v>
       </c>
       <c r="C619" t="s">
@@ -24886,7 +24925,7 @@
         <v>250</v>
       </c>
       <c r="B620" s="2">
-        <f>H620*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>5.2645420805056434E-7</v>
       </c>
       <c r="C620" t="s">
@@ -24907,7 +24946,7 @@
         <v>488</v>
       </c>
       <c r="B621" s="2">
-        <f>H621*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>4.4100576846959171E-11</v>
       </c>
       <c r="C621" t="s">
@@ -24928,7 +24967,7 @@
         <v>252</v>
       </c>
       <c r="B622" s="2">
-        <f>H622*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>1.517368844387168E-9</v>
       </c>
       <c r="C622" t="s">
@@ -24949,7 +24988,7 @@
         <v>254</v>
       </c>
       <c r="B623" s="2">
-        <f>H623*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>1.516857653009246E-9</v>
       </c>
       <c r="C623" t="s">
@@ -24970,7 +25009,7 @@
         <v>254</v>
       </c>
       <c r="B624" s="2">
-        <f>H624*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>7.5320236630831638E-11</v>
       </c>
       <c r="C624" t="s">
@@ -24991,7 +25030,7 @@
         <v>255</v>
       </c>
       <c r="B625" s="2">
-        <f>H625*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>5.1198124649368972E-6</v>
       </c>
       <c r="C625" t="s">
@@ -25012,7 +25051,7 @@
         <v>255</v>
       </c>
       <c r="B626" s="2">
-        <f>H626*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>1.0308053778017671E-7</v>
       </c>
       <c r="C626" t="s">
@@ -25033,7 +25072,7 @@
         <v>257</v>
       </c>
       <c r="B627" s="2">
-        <f>H627*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>2.3283325220858631E-10</v>
       </c>
       <c r="C627" t="s">
@@ -25054,7 +25093,7 @@
         <v>257</v>
       </c>
       <c r="B628" s="2">
-        <f>H628*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>2.0023687833301396E-6</v>
       </c>
       <c r="C628" t="s">
@@ -25075,7 +25114,7 @@
         <v>489</v>
       </c>
       <c r="B629" s="2">
-        <f>H629*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>5.8340678961894242E-9</v>
       </c>
       <c r="C629" t="s">
@@ -25096,7 +25135,7 @@
         <v>258</v>
       </c>
       <c r="B630" s="2">
-        <f>H630*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>1.4134689139217054E-3</v>
       </c>
       <c r="C630" t="s">
@@ -25117,7 +25156,7 @@
         <v>260</v>
       </c>
       <c r="B631" s="2">
-        <f>H631*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>1.3554379900762829E-6</v>
       </c>
       <c r="C631" t="s">
@@ -25138,7 +25177,7 @@
         <v>261</v>
       </c>
       <c r="B632" s="2">
-        <f>H632*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>2.6667751533512668E-11</v>
       </c>
       <c r="C632" t="s">
@@ -25159,7 +25198,7 @@
         <v>262</v>
       </c>
       <c r="B633" s="2">
-        <f>H633*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>9.4416578001832392E-7</v>
       </c>
       <c r="C633" t="s">
@@ -25180,7 +25219,7 @@
         <v>263</v>
       </c>
       <c r="B634" s="2">
-        <f>H634*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>3.6171833688338013E-5</v>
       </c>
       <c r="C634" t="s">
@@ -25201,7 +25240,7 @@
         <v>264</v>
       </c>
       <c r="B635" s="2">
-        <f>H635*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>2.6604788504842602E-7</v>
       </c>
       <c r="C635" t="s">
@@ -25222,7 +25261,7 @@
         <v>490</v>
       </c>
       <c r="B636" s="2">
-        <f>H636*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>3.5004407377136508E-10</v>
       </c>
       <c r="C636" t="s">
@@ -25243,7 +25282,7 @@
         <v>265</v>
       </c>
       <c r="B637" s="2">
-        <f>H637*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>5.5499121727981019E-8</v>
       </c>
       <c r="C637" t="s">
@@ -25264,7 +25303,7 @@
         <v>270</v>
       </c>
       <c r="B638" s="2">
-        <f>H638*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>6.3411853223932398E-9</v>
       </c>
       <c r="C638" t="s">
@@ -25285,7 +25324,7 @@
         <v>274</v>
       </c>
       <c r="B639" s="2">
-        <f>H639*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>3.5749362838781094E-5</v>
       </c>
       <c r="C639" t="s">
@@ -25306,7 +25345,7 @@
         <v>276</v>
       </c>
       <c r="B640" s="2">
-        <f>H640*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>1.8914541724920697E-4</v>
       </c>
       <c r="C640" t="s">
@@ -25327,7 +25366,7 @@
         <v>491</v>
       </c>
       <c r="B641" s="2">
-        <f>H641*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>2.7329096922891986E-3</v>
       </c>
       <c r="C641" t="s">
@@ -25348,7 +25387,7 @@
         <v>277</v>
       </c>
       <c r="B642" s="2">
-        <f>H642*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>6.4267920358050006E-4</v>
       </c>
       <c r="C642" t="s">
@@ -25369,7 +25408,7 @@
         <v>278</v>
       </c>
       <c r="B643" s="2">
-        <f>H643*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>4.128942402772809E-6</v>
       </c>
       <c r="C643" t="s">
@@ -25390,7 +25429,7 @@
         <v>492</v>
       </c>
       <c r="B644" s="2">
-        <f>H644*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>1.6345502488458616E-4</v>
       </c>
       <c r="C644" t="s">
@@ -25411,7 +25450,7 @@
         <v>492</v>
       </c>
       <c r="B645" s="2">
-        <f>H645*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>5.1237187964331368E-6</v>
       </c>
       <c r="C645" t="s">
@@ -25432,7 +25471,7 @@
         <v>280</v>
       </c>
       <c r="B646" s="2">
-        <f>H646*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>2.9195657292603699E-6</v>
       </c>
       <c r="C646" t="s">
@@ -25453,7 +25492,7 @@
         <v>493</v>
       </c>
       <c r="B647" s="2">
-        <f>H647*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>4.7454032350962534E-9</v>
       </c>
       <c r="C647" t="s">
@@ -25474,7 +25513,7 @@
         <v>282</v>
       </c>
       <c r="B648" s="2">
-        <f>H648*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>1.1901498508226403E-7</v>
       </c>
       <c r="C648" t="s">
@@ -25495,7 +25534,7 @@
         <v>284</v>
       </c>
       <c r="B649" s="2">
-        <f>H649*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>1.2057073652124782E-8</v>
       </c>
       <c r="C649" t="s">
@@ -25516,7 +25555,7 @@
         <v>285</v>
       </c>
       <c r="B650" s="2">
-        <f>H650*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>5.0317523840835827E-2</v>
       </c>
       <c r="C650" t="s">
@@ -25537,7 +25576,7 @@
         <v>285</v>
       </c>
       <c r="B651" s="2">
-        <f>H651*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>8.8795630307357265E-3</v>
       </c>
       <c r="C651" t="s">
@@ -25558,7 +25597,7 @@
         <v>285</v>
       </c>
       <c r="B652" s="2">
-        <f>H652*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>5.3398801490784046E-5</v>
       </c>
       <c r="C652" t="s">
@@ -25579,7 +25618,7 @@
         <v>286</v>
       </c>
       <c r="B653" s="2">
-        <f>H653*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>7.5092454619788687E-3</v>
       </c>
       <c r="C653" t="s">
@@ -25600,7 +25639,7 @@
         <v>288</v>
       </c>
       <c r="B654" s="2">
-        <f>H654*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>3.3079492386173222E-3</v>
       </c>
       <c r="C654" t="s">
@@ -25621,7 +25660,7 @@
         <v>289</v>
       </c>
       <c r="B655" s="2">
-        <f>H655*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>4.7373015138927541E-2</v>
       </c>
       <c r="C655" t="s">
@@ -25642,7 +25681,7 @@
         <v>290</v>
       </c>
       <c r="B656" s="2">
-        <f>H656*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>1.1085192398574946E-4</v>
       </c>
       <c r="C656" t="s">
@@ -25663,7 +25702,7 @@
         <v>291</v>
       </c>
       <c r="B657" s="2">
-        <f>H657*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>8.3335753384035818E-6</v>
       </c>
       <c r="C657" t="s">
@@ -25684,7 +25723,7 @@
         <v>293</v>
       </c>
       <c r="B658" s="2">
-        <f>H658*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>4.1063075435806026E-7</v>
       </c>
       <c r="C658" t="s">
@@ -25705,7 +25744,7 @@
         <v>293</v>
       </c>
       <c r="B659" s="2">
-        <f>H659*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>7.558709511502788E-7</v>
       </c>
       <c r="C659" t="s">

--- a/premise/data/additional_inventories/lci-germanium.xlsx
+++ b/premise/data/additional_inventories/lci-germanium.xlsx
@@ -1,39 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07E7432-DB0A-410E-A812-9EC516D9B47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Allocation" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet1 (2)" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4314" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4310" uniqueCount="535">
   <si>
     <t>Allocation</t>
   </si>
@@ -1638,15 +1626,12 @@
   </si>
   <si>
     <t>Zinc II</t>
-  </si>
-  <si>
-    <t>Germanium</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1762,13 +1747,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2056,11 +2035,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q670"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A259" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B277" sqref="B277"/>
+    <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
+      <selection activeCell="A270" sqref="A270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8115,24 +8094,6 @@
         <v>2.9430163779185699E-4</v>
       </c>
     </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>535</v>
-      </c>
-      <c r="B276" s="2">
-        <f>B11</f>
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="C276" t="s">
-        <v>36</v>
-      </c>
-      <c r="D276" t="s">
-        <v>296</v>
-      </c>
-      <c r="F276" t="s">
-        <v>294</v>
-      </c>
-    </row>
     <row r="278" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A278" s="3"/>
       <c r="B278" s="3"/>
@@ -9560,7 +9521,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T71"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
@@ -10955,8 +10916,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="Q13" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B14" r:id="rId1"/>
+    <hyperlink ref="Q13" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
@@ -10964,7 +10925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K659"/>
   <sheetViews>
     <sheetView topLeftCell="A268" workbookViewId="0">
@@ -11099,7 +11060,7 @@
         <v>103</v>
       </c>
       <c r="B14" s="2">
-        <f t="shared" ref="B14:B77" si="0">H14*0.24/0.69</f>
+        <f>H14*0.24/0.69</f>
         <v>4.9690306693738087E-6</v>
       </c>
       <c r="C14" t="s">
@@ -11123,7 +11084,7 @@
         <v>104</v>
       </c>
       <c r="B15" s="2">
-        <f t="shared" si="0"/>
+        <f>H15*0.24/0.69</f>
         <v>7.7569968014510251E-7</v>
       </c>
       <c r="C15" t="s">
@@ -11147,7 +11108,7 @@
         <v>104</v>
       </c>
       <c r="B16" s="2">
-        <f t="shared" si="0"/>
+        <f>H16*0.24/0.69</f>
         <v>3.6823444586198613E-6</v>
       </c>
       <c r="C16" t="s">
@@ -11171,7 +11132,7 @@
         <v>105</v>
       </c>
       <c r="B17" s="2">
-        <f t="shared" si="0"/>
+        <f>H17*0.24/0.69</f>
         <v>2.9130811840968172E-8</v>
       </c>
       <c r="C17" t="s">
@@ -11195,7 +11156,7 @@
         <v>106</v>
       </c>
       <c r="B18" s="2">
-        <f t="shared" si="0"/>
+        <f>H18*0.24/0.69</f>
         <v>-2.5374035975555479E-7</v>
       </c>
       <c r="C18" t="s">
@@ -11219,7 +11180,7 @@
         <v>106</v>
       </c>
       <c r="B19" s="2">
-        <f t="shared" si="0"/>
+        <f>H19*0.24/0.69</f>
         <v>-6.6326197824014613E-9</v>
       </c>
       <c r="C19" t="s">
@@ -11243,7 +11204,7 @@
         <v>106</v>
       </c>
       <c r="B20" s="2">
-        <f t="shared" si="0"/>
+        <f>H20*0.24/0.69</f>
         <v>-5.2764056007556868E-7</v>
       </c>
       <c r="C20" t="s">
@@ -11267,7 +11228,7 @@
         <v>107</v>
       </c>
       <c r="B21" s="2">
-        <f t="shared" si="0"/>
+        <f>H21*0.24/0.69</f>
         <v>3.766433510841217E-4</v>
       </c>
       <c r="C21" t="s">
@@ -11291,7 +11252,7 @@
         <v>108</v>
       </c>
       <c r="B22" s="2">
-        <f t="shared" si="0"/>
+        <f>H22*0.24/0.69</f>
         <v>1.6261376763025878E-6</v>
       </c>
       <c r="C22" t="s">
@@ -11315,7 +11276,7 @@
         <v>108</v>
       </c>
       <c r="B23" s="2">
-        <f t="shared" si="0"/>
+        <f>H23*0.24/0.69</f>
         <v>5.6318716188164165E-6</v>
       </c>
       <c r="C23" t="s">
@@ -11339,7 +11300,7 @@
         <v>109</v>
       </c>
       <c r="B24" s="2">
-        <f t="shared" si="0"/>
+        <f>H24*0.24/0.69</f>
         <v>5.0470766309828177E-5</v>
       </c>
       <c r="C24" t="s">
@@ -11363,7 +11324,7 @@
         <v>110</v>
       </c>
       <c r="B25" s="2">
-        <f t="shared" si="0"/>
+        <f>H25*0.24/0.69</f>
         <v>3.5352072851130784E-5</v>
       </c>
       <c r="C25" t="s">
@@ -11387,7 +11348,7 @@
         <v>111</v>
       </c>
       <c r="B26" s="2">
-        <f t="shared" si="0"/>
+        <f>H26*0.24/0.69</f>
         <v>6.9261717497650082E-4</v>
       </c>
       <c r="C26" t="s">
@@ -11411,7 +11372,7 @@
         <v>112</v>
       </c>
       <c r="B27" s="2">
-        <f t="shared" si="0"/>
+        <f>H27*0.24/0.69</f>
         <v>1.8923971519837181E-8</v>
       </c>
       <c r="C27" t="s">
@@ -11435,7 +11396,7 @@
         <v>112</v>
       </c>
       <c r="B28" s="2">
-        <f t="shared" si="0"/>
+        <f>H28*0.24/0.69</f>
         <v>1.1833542973412661E-10</v>
       </c>
       <c r="C28" t="s">
@@ -11459,7 +11420,7 @@
         <v>112</v>
       </c>
       <c r="B29" s="2">
-        <f t="shared" si="0"/>
+        <f>H29*0.24/0.69</f>
         <v>7.5637037200542613E-10</v>
       </c>
       <c r="C29" t="s">
@@ -11483,7 +11444,7 @@
         <v>112</v>
       </c>
       <c r="B30" s="2">
-        <f t="shared" si="0"/>
+        <f>H30*0.24/0.69</f>
         <v>1.5615712417974991E-7</v>
       </c>
       <c r="C30" t="s">
@@ -11507,7 +11468,7 @@
         <v>113</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" si="0"/>
+        <f>H31*0.24/0.69</f>
         <v>8.3386493948037213E-7</v>
       </c>
       <c r="C31" t="s">
@@ -11531,7 +11492,7 @@
         <v>114</v>
       </c>
       <c r="B32" s="2">
-        <f t="shared" si="0"/>
+        <f>H32*0.24/0.69</f>
         <v>3.5577678225022263E-8</v>
       </c>
       <c r="C32" t="s">
@@ -11555,7 +11516,7 @@
         <v>115</v>
       </c>
       <c r="B33" s="2">
-        <f t="shared" si="0"/>
+        <f>H33*0.24/0.69</f>
         <v>2.5924564186503652E-3</v>
       </c>
       <c r="C33" t="s">
@@ -11579,7 +11540,7 @@
         <v>116</v>
       </c>
       <c r="B34" s="2">
-        <f t="shared" si="0"/>
+        <f>H34*0.24/0.69</f>
         <v>1.7893735970115271E-5</v>
       </c>
       <c r="C34" t="s">
@@ -11603,7 +11564,7 @@
         <v>117</v>
       </c>
       <c r="B35" s="2">
-        <f t="shared" si="0"/>
+        <f>H35*0.24/0.69</f>
         <v>1.4706136913704175E-3</v>
       </c>
       <c r="C35" t="s">
@@ -11627,7 +11588,7 @@
         <v>117</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" si="0"/>
+        <f>H36*0.24/0.69</f>
         <v>5.4357043034293914E-3</v>
       </c>
       <c r="C36" t="s">
@@ -11651,7 +11612,7 @@
         <v>118</v>
       </c>
       <c r="B37" s="2">
-        <f t="shared" si="0"/>
+        <f>H37*0.24/0.69</f>
         <v>2.0279590170091063E-2</v>
       </c>
       <c r="C37" t="s">
@@ -11675,7 +11636,7 @@
         <v>42</v>
       </c>
       <c r="B38" s="2">
-        <f t="shared" si="0"/>
+        <f>H38*0.24/0.69</f>
         <v>4.3003401976616701E-2</v>
       </c>
       <c r="C38" t="s">
@@ -11699,7 +11660,7 @@
         <v>42</v>
       </c>
       <c r="B39" s="2">
-        <f t="shared" si="0"/>
+        <f>H39*0.24/0.69</f>
         <v>3.3313301190411898E-2</v>
       </c>
       <c r="C39" t="s">
@@ -11723,7 +11684,7 @@
         <v>42</v>
       </c>
       <c r="B40" s="2">
-        <f t="shared" si="0"/>
+        <f>H40*0.24/0.69</f>
         <v>4.1737052017449044E-3</v>
       </c>
       <c r="C40" t="s">
@@ -11747,7 +11708,7 @@
         <v>42</v>
       </c>
       <c r="B41" s="2">
-        <f t="shared" si="0"/>
+        <f>H41*0.24/0.69</f>
         <v>1.9728804296595128E-6</v>
       </c>
       <c r="C41" t="s">
@@ -11771,7 +11732,7 @@
         <v>119</v>
       </c>
       <c r="B42" s="2">
-        <f t="shared" si="0"/>
+        <f>H42*0.24/0.69</f>
         <v>3.3572966467913634E-2</v>
       </c>
       <c r="C42" t="s">
@@ -11795,7 +11756,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="2">
-        <f t="shared" si="0"/>
+        <f>H43*0.24/0.69</f>
         <v>5.2652011138598961E-3</v>
       </c>
       <c r="C43" t="s">
@@ -11819,7 +11780,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="2">
-        <f t="shared" si="0"/>
+        <f>H44*0.24/0.69</f>
         <v>1.381247690888727E-2</v>
       </c>
       <c r="C44" t="s">
@@ -11843,7 +11804,7 @@
         <v>120</v>
       </c>
       <c r="B45" s="2">
-        <f t="shared" si="0"/>
+        <f>H45*0.24/0.69</f>
         <v>-2.3542871489756943E-4</v>
       </c>
       <c r="C45" t="s">
@@ -11867,7 +11828,7 @@
         <v>120</v>
       </c>
       <c r="B46" s="2">
-        <f t="shared" si="0"/>
+        <f>H46*0.24/0.69</f>
         <v>-6.1539644433359999E-6</v>
       </c>
       <c r="C46" t="s">
@@ -11891,7 +11852,7 @@
         <v>120</v>
       </c>
       <c r="B47" s="2">
-        <f t="shared" si="0"/>
+        <f>H47*0.24/0.69</f>
         <v>-4.8956239798073737E-4</v>
       </c>
       <c r="C47" t="s">
@@ -11915,7 +11876,7 @@
         <v>121</v>
       </c>
       <c r="B48" s="2">
-        <f t="shared" si="0"/>
+        <f>H48*0.24/0.69</f>
         <v>-1.1767441689457252E-6</v>
       </c>
       <c r="C48" t="s">
@@ -11939,7 +11900,7 @@
         <v>121</v>
       </c>
       <c r="B49" s="2">
-        <f t="shared" si="0"/>
+        <f>H49*0.24/0.69</f>
         <v>-1.8268872356511516E-5</v>
       </c>
       <c r="C49" t="s">
@@ -11963,7 +11924,7 @@
         <v>122</v>
       </c>
       <c r="B50" s="2">
-        <f t="shared" si="0"/>
+        <f>H50*0.24/0.69</f>
         <v>9.8614340878551299E-3</v>
       </c>
       <c r="C50" t="s">
@@ -11987,7 +11948,7 @@
         <v>123</v>
       </c>
       <c r="B51" s="2">
-        <f t="shared" si="0"/>
+        <f>H51*0.24/0.69</f>
         <v>4.4594421207826785E-4</v>
       </c>
       <c r="C51" t="s">
@@ -12011,7 +11972,7 @@
         <v>124</v>
       </c>
       <c r="B52" s="2">
-        <f t="shared" si="0"/>
+        <f>H52*0.24/0.69</f>
         <v>2.3119923021331794E-4</v>
       </c>
       <c r="C52" t="s">
@@ -12035,7 +11996,7 @@
         <v>125</v>
       </c>
       <c r="B53" s="2">
-        <f t="shared" si="0"/>
+        <f>H53*0.24/0.69</f>
         <v>1.3247856075075096E-4</v>
       </c>
       <c r="C53" t="s">
@@ -12059,7 +12020,7 @@
         <v>126</v>
       </c>
       <c r="B54" s="2">
-        <f t="shared" si="0"/>
+        <f>H54*0.24/0.69</f>
         <v>3.3470822911790157E-6</v>
       </c>
       <c r="C54" t="s">
@@ -12083,7 +12044,7 @@
         <v>126</v>
       </c>
       <c r="B55" s="2">
-        <f t="shared" si="0"/>
+        <f>H55*0.24/0.69</f>
         <v>7.3635810405938437E-6</v>
       </c>
       <c r="C55" t="s">
@@ -12107,7 +12068,7 @@
         <v>127</v>
       </c>
       <c r="B56" s="2">
-        <f t="shared" si="0"/>
+        <f>H56*0.24/0.69</f>
         <v>-2.2406612572108038E-5</v>
       </c>
       <c r="C56" t="s">
@@ -12131,7 +12092,7 @@
         <v>127</v>
       </c>
       <c r="B57" s="2">
-        <f t="shared" si="0"/>
+        <f>H57*0.24/0.69</f>
         <v>-1.9298119697789948E-7</v>
       </c>
       <c r="C57" t="s">
@@ -12155,7 +12116,7 @@
         <v>127</v>
       </c>
       <c r="B58" s="2">
-        <f t="shared" si="0"/>
+        <f>H58*0.24/0.69</f>
         <v>-7.8980430982449049E-5</v>
       </c>
       <c r="C58" t="s">
@@ -12179,7 +12140,7 @@
         <v>128</v>
       </c>
       <c r="B59" s="2">
-        <f t="shared" si="0"/>
+        <f>H59*0.24/0.69</f>
         <v>-1.7231622762765078E-5</v>
       </c>
       <c r="C59" t="s">
@@ -12203,7 +12164,7 @@
         <v>129</v>
       </c>
       <c r="B60" s="2">
-        <f t="shared" si="0"/>
+        <f>H60*0.24/0.69</f>
         <v>3.9501079736111306E-6</v>
       </c>
       <c r="C60" t="s">
@@ -12227,7 +12188,7 @@
         <v>129</v>
       </c>
       <c r="B61" s="2">
-        <f t="shared" si="0"/>
+        <f>H61*0.24/0.69</f>
         <v>7.998468434838086E-6</v>
       </c>
       <c r="C61" t="s">
@@ -12251,7 +12212,7 @@
         <v>130</v>
       </c>
       <c r="B62" s="2">
-        <f t="shared" si="0"/>
+        <f>H62*0.24/0.69</f>
         <v>3.3889373907262888E-4</v>
       </c>
       <c r="C62" t="s">
@@ -12275,7 +12236,7 @@
         <v>131</v>
       </c>
       <c r="B63" s="2">
-        <f t="shared" si="0"/>
+        <f>H63*0.24/0.69</f>
         <v>5.3895044820149914E-6</v>
       </c>
       <c r="C63" t="s">
@@ -12299,7 +12260,7 @@
         <v>131</v>
       </c>
       <c r="B64" s="2">
-        <f t="shared" si="0"/>
+        <f>H64*0.24/0.69</f>
         <v>6.2401294901628861E-5</v>
       </c>
       <c r="C64" t="s">
@@ -12323,7 +12284,7 @@
         <v>132</v>
       </c>
       <c r="B65" s="2">
-        <f t="shared" si="0"/>
+        <f>H65*0.24/0.69</f>
         <v>1.3784291046547652E-7</v>
       </c>
       <c r="C65" t="s">
@@ -12347,7 +12308,7 @@
         <v>132</v>
       </c>
       <c r="B66" s="2">
-        <f t="shared" si="0"/>
+        <f>H66*0.24/0.69</f>
         <v>1.6239106673579863E-5</v>
       </c>
       <c r="C66" t="s">
@@ -12371,7 +12332,7 @@
         <v>133</v>
       </c>
       <c r="B67" s="2">
-        <f t="shared" si="0"/>
+        <f>H67*0.24/0.69</f>
         <v>2.087173581663527E-9</v>
       </c>
       <c r="C67" t="s">
@@ -12395,7 +12356,7 @@
         <v>133</v>
       </c>
       <c r="B68" s="2">
-        <f t="shared" si="0"/>
+        <f>H68*0.24/0.69</f>
         <v>2.4478439917563897E-7</v>
       </c>
       <c r="C68" t="s">
@@ -12419,7 +12380,7 @@
         <v>134</v>
       </c>
       <c r="B69" s="2">
-        <f t="shared" si="0"/>
+        <f>H69*0.24/0.69</f>
         <v>2.3264698195070789E-5</v>
       </c>
       <c r="C69" t="s">
@@ -12443,7 +12404,7 @@
         <v>134</v>
       </c>
       <c r="B70" s="2">
-        <f t="shared" si="0"/>
+        <f>H70*0.24/0.69</f>
         <v>2.4084796366208972E-7</v>
       </c>
       <c r="C70" t="s">
@@ -12467,7 +12428,7 @@
         <v>134</v>
       </c>
       <c r="B71" s="2">
-        <f t="shared" si="0"/>
+        <f>H71*0.24/0.69</f>
         <v>5.8901473117621919E-4</v>
       </c>
       <c r="C71" t="s">
@@ -12491,7 +12452,7 @@
         <v>135</v>
       </c>
       <c r="B72" s="2">
-        <f t="shared" si="0"/>
+        <f>H72*0.24/0.69</f>
         <v>2.7059339934665181E-5</v>
       </c>
       <c r="C72" t="s">
@@ -12515,7 +12476,7 @@
         <v>135</v>
       </c>
       <c r="B73" s="2">
-        <f t="shared" si="0"/>
+        <f>H73*0.24/0.69</f>
         <v>1.2845410796571998E-4</v>
       </c>
       <c r="C73" t="s">
@@ -12539,7 +12500,7 @@
         <v>136</v>
       </c>
       <c r="B74" s="2">
-        <f t="shared" si="0"/>
+        <f>H74*0.24/0.69</f>
         <v>1.7797443932861391E-5</v>
       </c>
       <c r="C74" t="s">
@@ -12563,7 +12524,7 @@
         <v>137</v>
       </c>
       <c r="B75" s="2">
-        <f t="shared" si="0"/>
+        <f>H75*0.24/0.69</f>
         <v>5.2238731499458436E-11</v>
       </c>
       <c r="C75" t="s">
@@ -12587,7 +12548,7 @@
         <v>138</v>
       </c>
       <c r="B76" s="2">
-        <f t="shared" si="0"/>
+        <f>H76*0.24/0.69</f>
         <v>-2.2781361268503307E-5</v>
       </c>
       <c r="C76" t="s">
@@ -12611,7 +12572,7 @@
         <v>139</v>
       </c>
       <c r="B77" s="2">
-        <f t="shared" si="0"/>
+        <f>H77*0.24/0.69</f>
         <v>-1.3963335715438784E-7</v>
       </c>
       <c r="C77" t="s">
@@ -12635,7 +12596,7 @@
         <v>139</v>
       </c>
       <c r="B78" s="2">
-        <f t="shared" ref="B78:B141" si="1">H78*0.24/0.69</f>
+        <f>H78*0.24/0.69</f>
         <v>-9.7709957189095654E-8</v>
       </c>
       <c r="C78" t="s">
@@ -12659,7 +12620,7 @@
         <v>139</v>
       </c>
       <c r="B79" s="2">
-        <f t="shared" si="1"/>
+        <f>H79*0.24/0.69</f>
         <v>-3.8777645334319302E-7</v>
       </c>
       <c r="C79" t="s">
@@ -12683,7 +12644,7 @@
         <v>139</v>
       </c>
       <c r="B80" s="2">
-        <f t="shared" si="1"/>
+        <f>H80*0.24/0.69</f>
         <v>-2.742508860476887E-4</v>
       </c>
       <c r="C80" t="s">
@@ -12707,7 +12668,7 @@
         <v>140</v>
       </c>
       <c r="B81" s="2">
-        <f t="shared" si="1"/>
+        <f>H81*0.24/0.69</f>
         <v>1.0324434644674923E-5</v>
       </c>
       <c r="C81" t="s">
@@ -12731,7 +12692,7 @@
         <v>141</v>
       </c>
       <c r="B82" s="2">
-        <f t="shared" si="1"/>
+        <f>H82*0.24/0.69</f>
         <v>-3.7057297571931831</v>
       </c>
       <c r="C82" t="s">
@@ -12755,7 +12716,7 @@
         <v>142</v>
       </c>
       <c r="B83" s="2">
-        <f t="shared" si="1"/>
+        <f>H83*0.24/0.69</f>
         <v>9.6891500595936355E-7</v>
       </c>
       <c r="C83" t="s">
@@ -12779,7 +12740,7 @@
         <v>142</v>
       </c>
       <c r="B84" s="2">
-        <f t="shared" si="1"/>
+        <f>H84*0.24/0.69</f>
         <v>1.9619301910175791E-6</v>
       </c>
       <c r="C84" t="s">
@@ -12803,7 +12764,7 @@
         <v>143</v>
       </c>
       <c r="B85" s="2">
-        <f t="shared" si="1"/>
+        <f>H85*0.24/0.69</f>
         <v>3.9014946977122787E-8</v>
       </c>
       <c r="C85" t="s">
@@ -12827,7 +12788,7 @@
         <v>143</v>
       </c>
       <c r="B86" s="2">
-        <f t="shared" si="1"/>
+        <f>H86*0.24/0.69</f>
         <v>1.4218858978100384E-7</v>
       </c>
       <c r="C86" t="s">
@@ -12851,7 +12812,7 @@
         <v>144</v>
       </c>
       <c r="B87" s="2">
-        <f t="shared" si="1"/>
+        <f>H87*0.24/0.69</f>
         <v>1.7749437218414468E-6</v>
       </c>
       <c r="C87" t="s">
@@ -12875,7 +12836,7 @@
         <v>144</v>
       </c>
       <c r="B88" s="2">
-        <f t="shared" si="1"/>
+        <f>H88*0.24/0.69</f>
         <v>7.8788873572130781E-8</v>
       </c>
       <c r="C88" t="s">
@@ -12899,7 +12860,7 @@
         <v>144</v>
       </c>
       <c r="B89" s="2">
-        <f t="shared" si="1"/>
+        <f>H89*0.24/0.69</f>
         <v>3.2561709334200873E-7</v>
       </c>
       <c r="C89" t="s">
@@ -12923,7 +12884,7 @@
         <v>144</v>
       </c>
       <c r="B90" s="2">
-        <f t="shared" si="1"/>
+        <f>H90*0.24/0.69</f>
         <v>7.8532927663687655E-8</v>
       </c>
       <c r="C90" t="s">
@@ -12947,7 +12908,7 @@
         <v>144</v>
       </c>
       <c r="B91" s="2">
-        <f t="shared" si="1"/>
+        <f>H91*0.24/0.69</f>
         <v>2.9379135211552245E-7</v>
       </c>
       <c r="C91" t="s">
@@ -12971,7 +12932,7 @@
         <v>144</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" si="1"/>
+        <f>H92*0.24/0.69</f>
         <v>1.6177156876319479E-8</v>
       </c>
       <c r="C92" t="s">
@@ -12995,7 +12956,7 @@
         <v>144</v>
       </c>
       <c r="B93" s="2">
-        <f t="shared" si="1"/>
+        <f>H93*0.24/0.69</f>
         <v>9.042726975550922E-6</v>
       </c>
       <c r="C93" t="s">
@@ -13019,7 +12980,7 @@
         <v>145</v>
       </c>
       <c r="B94" s="2">
-        <f t="shared" si="1"/>
+        <f>H94*0.24/0.69</f>
         <v>7.8239356516709564E-6</v>
       </c>
       <c r="C94" t="s">
@@ -13043,7 +13004,7 @@
         <v>145</v>
       </c>
       <c r="B95" s="2">
-        <f t="shared" si="1"/>
+        <f>H95*0.24/0.69</f>
         <v>8.4471319219872349E-5</v>
       </c>
       <c r="C95" t="s">
@@ -13067,7 +13028,7 @@
         <v>146</v>
       </c>
       <c r="B96" s="2">
-        <f t="shared" si="1"/>
+        <f>H96*0.24/0.69</f>
         <v>1.2423793881915409E-5</v>
       </c>
       <c r="C96" t="s">
@@ -13091,7 +13052,7 @@
         <v>147</v>
       </c>
       <c r="B97" s="2">
-        <f t="shared" si="1"/>
+        <f>H97*0.24/0.69</f>
         <v>5.7426198585875136E-6</v>
       </c>
       <c r="C97" t="s">
@@ -13115,7 +13076,7 @@
         <v>147</v>
       </c>
       <c r="B98" s="2">
-        <f t="shared" si="1"/>
+        <f>H98*0.24/0.69</f>
         <v>1.1628078011800802E-5</v>
       </c>
       <c r="C98" t="s">
@@ -13139,7 +13100,7 @@
         <v>148</v>
       </c>
       <c r="B99" s="2">
-        <f t="shared" si="1"/>
+        <f>H99*0.24/0.69</f>
         <v>3.0131766965643794E-4</v>
       </c>
       <c r="C99" t="s">
@@ -13163,7 +13124,7 @@
         <v>149</v>
       </c>
       <c r="B100" s="2">
-        <f t="shared" si="1"/>
+        <f>H100*0.24/0.69</f>
         <v>1.9102860201751999E-8</v>
       </c>
       <c r="C100" t="s">
@@ -13187,7 +13148,7 @@
         <v>149</v>
       </c>
       <c r="B101" s="2">
-        <f t="shared" si="1"/>
+        <f>H101*0.24/0.69</f>
         <v>1.1543192343584975E-3</v>
       </c>
       <c r="C101" t="s">
@@ -13211,7 +13172,7 @@
         <v>150</v>
       </c>
       <c r="B102" s="2">
-        <f t="shared" si="1"/>
+        <f>H102*0.24/0.69</f>
         <v>2.3938686345253882E-7</v>
       </c>
       <c r="C102" t="s">
@@ -13235,7 +13196,7 @@
         <v>150</v>
       </c>
       <c r="B103" s="2">
-        <f t="shared" si="1"/>
+        <f>H103*0.24/0.69</f>
         <v>2.8644608841976281E-5</v>
       </c>
       <c r="C103" t="s">
@@ -13259,7 +13220,7 @@
         <v>151</v>
       </c>
       <c r="B104" s="2">
-        <f t="shared" si="1"/>
+        <f>H104*0.24/0.69</f>
         <v>-3.8418662399078614E-6</v>
       </c>
       <c r="C104" t="s">
@@ -13283,7 +13244,7 @@
         <v>151</v>
       </c>
       <c r="B105" s="2">
-        <f t="shared" si="1"/>
+        <f>H105*0.24/0.69</f>
         <v>-1.802520083056449E-7</v>
       </c>
       <c r="C105" t="s">
@@ -13307,7 +13268,7 @@
         <v>151</v>
       </c>
       <c r="B106" s="2">
-        <f t="shared" si="1"/>
+        <f>H106*0.24/0.69</f>
         <v>-8.0893953747128345E-6</v>
       </c>
       <c r="C106" t="s">
@@ -13331,7 +13292,7 @@
         <v>152</v>
       </c>
       <c r="B107" s="2">
-        <f t="shared" si="1"/>
+        <f>H107*0.24/0.69</f>
         <v>4.5487779923415657E-4</v>
       </c>
       <c r="C107" t="s">
@@ -13355,7 +13316,7 @@
         <v>153</v>
       </c>
       <c r="B108" s="2">
-        <f t="shared" si="1"/>
+        <f>H108*0.24/0.69</f>
         <v>8.6357390609766967E-6</v>
       </c>
       <c r="C108" t="s">
@@ -13379,7 +13340,7 @@
         <v>153</v>
       </c>
       <c r="B109" s="2">
-        <f t="shared" si="1"/>
+        <f>H109*0.24/0.69</f>
         <v>1.7486278033958471E-5</v>
       </c>
       <c r="C109" t="s">
@@ -13403,7 +13364,7 @@
         <v>154</v>
       </c>
       <c r="B110" s="2">
-        <f t="shared" si="1"/>
+        <f>H110*0.24/0.69</f>
         <v>1.2787944094388904E-6</v>
       </c>
       <c r="C110" t="s">
@@ -13427,7 +13388,7 @@
         <v>155</v>
       </c>
       <c r="B111" s="2">
-        <f t="shared" si="1"/>
+        <f>H111*0.24/0.69</f>
         <v>9.0083309875601061E-6</v>
       </c>
       <c r="C111" t="s">
@@ -13451,7 +13412,7 @@
         <v>156</v>
       </c>
       <c r="B112" s="2">
-        <f t="shared" si="1"/>
+        <f>H112*0.24/0.69</f>
         <v>2.3726791835844489E-5</v>
       </c>
       <c r="C112" t="s">
@@ -13475,7 +13436,7 @@
         <v>157</v>
       </c>
       <c r="B113" s="2">
-        <f t="shared" si="1"/>
+        <f>H113*0.24/0.69</f>
         <v>5.4805908546726612E-4</v>
       </c>
       <c r="C113" t="s">
@@ -13499,7 +13460,7 @@
         <v>158</v>
       </c>
       <c r="B114" s="2">
-        <f t="shared" si="1"/>
+        <f>H114*0.24/0.69</f>
         <v>-0.47231121526087999</v>
       </c>
       <c r="C114" t="s">
@@ -13523,7 +13484,7 @@
         <v>158</v>
       </c>
       <c r="B115" s="2">
-        <f t="shared" si="1"/>
+        <f>H115*0.24/0.69</f>
         <v>-6.6490413798861572E-2</v>
       </c>
       <c r="C115" t="s">
@@ -13547,7 +13508,7 @@
         <v>158</v>
       </c>
       <c r="B116" s="2">
-        <f t="shared" si="1"/>
+        <f>H116*0.24/0.69</f>
         <v>-5.8236431396244522E-2</v>
       </c>
       <c r="C116" t="s">
@@ -13571,7 +13532,7 @@
         <v>158</v>
       </c>
       <c r="B117" s="2">
-        <f t="shared" si="1"/>
+        <f>H117*0.24/0.69</f>
         <v>-0.12335118146133635</v>
       </c>
       <c r="C117" t="s">
@@ -13595,7 +13556,7 @@
         <v>158</v>
       </c>
       <c r="B118" s="2">
-        <f t="shared" si="1"/>
+        <f>H118*0.24/0.69</f>
         <v>-2.411997079875948E-2</v>
       </c>
       <c r="C118" t="s">
@@ -13619,7 +13580,7 @@
         <v>158</v>
       </c>
       <c r="B119" s="2">
-        <f t="shared" si="1"/>
+        <f>H119*0.24/0.69</f>
         <v>-0.16003554769519129</v>
       </c>
       <c r="C119" t="s">
@@ -13643,7 +13604,7 @@
         <v>158</v>
       </c>
       <c r="B120" s="2">
-        <f t="shared" si="1"/>
+        <f>H120*0.24/0.69</f>
         <v>-8.4832596915788885E-2</v>
       </c>
       <c r="C120" t="s">
@@ -13667,7 +13628,7 @@
         <v>158</v>
       </c>
       <c r="B121" s="2">
-        <f t="shared" si="1"/>
+        <f>H121*0.24/0.69</f>
         <v>-0.27164773196169428</v>
       </c>
       <c r="C121" t="s">
@@ -13691,7 +13652,7 @@
         <v>159</v>
       </c>
       <c r="B122" s="2">
-        <f t="shared" si="1"/>
+        <f>H122*0.24/0.69</f>
         <v>3.7570151843961397E-5</v>
       </c>
       <c r="C122" t="s">
@@ -13715,7 +13676,7 @@
         <v>159</v>
       </c>
       <c r="B123" s="2">
-        <f t="shared" si="1"/>
+        <f>H123*0.24/0.69</f>
         <v>9.3518621956086617E-5</v>
       </c>
       <c r="C123" t="s">
@@ -13739,7 +13700,7 @@
         <v>160</v>
       </c>
       <c r="B124" s="2">
-        <f t="shared" si="1"/>
+        <f>H124*0.24/0.69</f>
         <v>1.2563193026452662E-5</v>
       </c>
       <c r="C124" t="s">
@@ -13763,7 +13724,7 @@
         <v>160</v>
       </c>
       <c r="B125" s="2">
-        <f t="shared" si="1"/>
+        <f>H125*0.24/0.69</f>
         <v>9.603349629704176E-5</v>
       </c>
       <c r="C125" t="s">
@@ -13787,7 +13748,7 @@
         <v>161</v>
       </c>
       <c r="B126" s="2">
-        <f t="shared" si="1"/>
+        <f>H126*0.24/0.69</f>
         <v>1.2929610301424139</v>
       </c>
       <c r="C126" t="s">
@@ -13811,7 +13772,7 @@
         <v>162</v>
       </c>
       <c r="B127" s="2">
-        <f t="shared" si="1"/>
+        <f>H127*0.24/0.69</f>
         <v>4.7752280961577394E-5</v>
       </c>
       <c r="C127" t="s">
@@ -13835,7 +13796,7 @@
         <v>162</v>
       </c>
       <c r="B128" s="2">
-        <f t="shared" si="1"/>
+        <f>H128*0.24/0.69</f>
         <v>4.0197308321915126E-5</v>
       </c>
       <c r="C128" t="s">
@@ -13859,7 +13820,7 @@
         <v>162</v>
       </c>
       <c r="B129" s="2">
-        <f t="shared" si="1"/>
+        <f>H129*0.24/0.69</f>
         <v>3.7269850124442431E-4</v>
       </c>
       <c r="C129" t="s">
@@ -13883,7 +13844,7 @@
         <v>163</v>
       </c>
       <c r="B130" s="2">
-        <f t="shared" si="1"/>
+        <f>H130*0.24/0.69</f>
         <v>5.2249095848899829E-5</v>
       </c>
       <c r="C130" t="s">
@@ -13907,7 +13868,7 @@
         <v>164</v>
       </c>
       <c r="B131" s="2">
-        <f t="shared" si="1"/>
+        <f>H131*0.24/0.69</f>
         <v>-3.3377784798198164E-7</v>
       </c>
       <c r="C131" t="s">
@@ -13931,7 +13892,7 @@
         <v>165</v>
       </c>
       <c r="B132" s="2">
-        <f t="shared" si="1"/>
+        <f>H132*0.24/0.69</f>
         <v>-5.8425125948943653E-6</v>
       </c>
       <c r="C132" t="s">
@@ -13955,7 +13916,7 @@
         <v>165</v>
       </c>
       <c r="B133" s="2">
-        <f t="shared" si="1"/>
+        <f>H133*0.24/0.69</f>
         <v>-1.4463737155091271E-7</v>
       </c>
       <c r="C133" t="s">
@@ -13979,7 +13940,7 @@
         <v>165</v>
       </c>
       <c r="B134" s="2">
-        <f t="shared" si="1"/>
+        <f>H134*0.24/0.69</f>
         <v>-1.5297728831544903E-5</v>
       </c>
       <c r="C134" t="s">
@@ -14003,7 +13964,7 @@
         <v>166</v>
       </c>
       <c r="B135" s="2">
-        <f t="shared" si="1"/>
+        <f>H135*0.24/0.69</f>
         <v>-4.9374314551460526E-8</v>
       </c>
       <c r="C135" t="s">
@@ -14027,7 +13988,7 @@
         <v>167</v>
       </c>
       <c r="B136" s="2">
-        <f t="shared" si="1"/>
+        <f>H136*0.24/0.69</f>
         <v>-4.2985338370265391E-8</v>
       </c>
       <c r="C136" t="s">
@@ -14051,7 +14012,7 @@
         <v>167</v>
       </c>
       <c r="B137" s="2">
-        <f t="shared" si="1"/>
+        <f>H137*0.24/0.69</f>
         <v>-1.8045166175656903E-9</v>
       </c>
       <c r="C137" t="s">
@@ -14075,7 +14036,7 @@
         <v>167</v>
       </c>
       <c r="B138" s="2">
-        <f t="shared" si="1"/>
+        <f>H138*0.24/0.69</f>
         <v>-4.2985338370265391E-8</v>
       </c>
       <c r="C138" t="s">
@@ -14099,7 +14060,7 @@
         <v>168</v>
       </c>
       <c r="B139" s="2">
-        <f t="shared" si="1"/>
+        <f>H139*0.24/0.69</f>
         <v>-5.8557851250860179E-6</v>
       </c>
       <c r="C139" t="s">
@@ -14123,7 +14084,7 @@
         <v>169</v>
       </c>
       <c r="B140" s="2">
-        <f t="shared" si="1"/>
+        <f>H140*0.24/0.69</f>
         <v>9.4940963516495995E-5</v>
       </c>
       <c r="C140" t="s">
@@ -14147,7 +14108,7 @@
         <v>169</v>
       </c>
       <c r="B141" s="2">
-        <f t="shared" si="1"/>
+        <f>H141*0.24/0.69</f>
         <v>5.0154301388710264E-4</v>
       </c>
       <c r="C141" t="s">
@@ -14171,7 +14132,7 @@
         <v>170</v>
       </c>
       <c r="B142" s="2">
-        <f t="shared" ref="B142:B205" si="2">H142*0.24/0.69</f>
+        <f>H142*0.24/0.69</f>
         <v>-2.3949769967668173E-5</v>
       </c>
       <c r="C142" t="s">
@@ -14195,7 +14156,7 @@
         <v>195</v>
       </c>
       <c r="B143" s="2">
-        <f t="shared" si="2"/>
+        <f>H143*0.24/0.69</f>
         <v>1.4126897526551689E-8</v>
       </c>
       <c r="C143" t="s">
@@ -14216,7 +14177,7 @@
         <v>196</v>
       </c>
       <c r="B144" s="2">
-        <f t="shared" si="2"/>
+        <f>H144*0.24/0.69</f>
         <v>1.2149765303307307E-8</v>
       </c>
       <c r="C144" t="s">
@@ -14237,7 +14198,7 @@
         <v>197</v>
       </c>
       <c r="B145" s="2">
-        <f t="shared" si="2"/>
+        <f>H145*0.24/0.69</f>
         <v>5.1163635121568001E-4</v>
       </c>
       <c r="C145" t="s">
@@ -14258,7 +14219,7 @@
         <v>198</v>
       </c>
       <c r="B146" s="2">
-        <f t="shared" si="2"/>
+        <f>H146*0.24/0.69</f>
         <v>1.3037604400240174E-7</v>
       </c>
       <c r="C146" t="s">
@@ -14279,7 +14240,7 @@
         <v>198</v>
       </c>
       <c r="B147" s="2">
-        <f t="shared" si="2"/>
+        <f>H147*0.24/0.69</f>
         <v>3.0256669427984138E-7</v>
       </c>
       <c r="C147" t="s">
@@ -14300,7 +14261,7 @@
         <v>199</v>
       </c>
       <c r="B148" s="2">
-        <f t="shared" si="2"/>
+        <f>H148*0.24/0.69</f>
         <v>7.6504565918818787E-7</v>
       </c>
       <c r="C148" t="s">
@@ -14321,7 +14282,7 @@
         <v>200</v>
       </c>
       <c r="B149" s="2">
-        <f t="shared" si="2"/>
+        <f>H149*0.24/0.69</f>
         <v>2.09840716328016E-8</v>
       </c>
       <c r="C149" t="s">
@@ -14342,7 +14303,7 @@
         <v>200</v>
       </c>
       <c r="B150" s="2">
-        <f t="shared" si="2"/>
+        <f>H150*0.24/0.69</f>
         <v>8.768143215035721E-8</v>
       </c>
       <c r="C150" t="s">
@@ -14363,7 +14324,7 @@
         <v>201</v>
       </c>
       <c r="B151" s="2">
-        <f t="shared" si="2"/>
+        <f>H151*0.24/0.69</f>
         <v>5.7471522810551652E-10</v>
       </c>
       <c r="C151" t="s">
@@ -14384,7 +14345,7 @@
         <v>201</v>
       </c>
       <c r="B152" s="2">
-        <f t="shared" si="2"/>
+        <f>H152*0.24/0.69</f>
         <v>7.708665670722435E-7</v>
       </c>
       <c r="C152" t="s">
@@ -14405,7 +14366,7 @@
         <v>202</v>
       </c>
       <c r="B153" s="2">
-        <f t="shared" si="2"/>
+        <f>H153*0.24/0.69</f>
         <v>5.9921847843650431E-6</v>
       </c>
       <c r="C153" t="s">
@@ -14426,7 +14387,7 @@
         <v>202</v>
       </c>
       <c r="B154" s="2">
-        <f t="shared" si="2"/>
+        <f>H154*0.24/0.69</f>
         <v>3.6290166991286264E-11</v>
       </c>
       <c r="C154" t="s">
@@ -14447,7 +14408,7 @@
         <v>203</v>
       </c>
       <c r="B155" s="2">
-        <f t="shared" si="2"/>
+        <f>H155*0.24/0.69</f>
         <v>2.7196052934743133E-6</v>
       </c>
       <c r="C155" t="s">
@@ -14468,7 +14429,7 @@
         <v>204</v>
       </c>
       <c r="B156" s="2">
-        <f t="shared" si="2"/>
+        <f>H156*0.24/0.69</f>
         <v>2.4653653913581848E-7</v>
       </c>
       <c r="C156" t="s">
@@ -14489,7 +14450,7 @@
         <v>205</v>
       </c>
       <c r="B157" s="2">
-        <f t="shared" si="2"/>
+        <f>H157*0.24/0.69</f>
         <v>1.5800691755092696E-11</v>
       </c>
       <c r="C157" t="s">
@@ -14510,7 +14471,7 @@
         <v>206</v>
       </c>
       <c r="B158" s="2">
-        <f t="shared" si="2"/>
+        <f>H158*0.24/0.69</f>
         <v>5.8101096781282782E-9</v>
       </c>
       <c r="C158" t="s">
@@ -14531,7 +14492,7 @@
         <v>207</v>
       </c>
       <c r="B159" s="2">
-        <f t="shared" si="2"/>
+        <f>H159*0.24/0.69</f>
         <v>2.6522852283804242E-7</v>
       </c>
       <c r="C159" t="s">
@@ -14552,7 +14513,7 @@
         <v>207</v>
       </c>
       <c r="B160" s="2">
-        <f t="shared" si="2"/>
+        <f>H160*0.24/0.69</f>
         <v>3.6254976409461219E-10</v>
       </c>
       <c r="C160" t="s">
@@ -14573,7 +14534,7 @@
         <v>208</v>
       </c>
       <c r="B161" s="2">
-        <f t="shared" si="2"/>
+        <f>H161*0.24/0.69</f>
         <v>1.4529058388023791E-7</v>
       </c>
       <c r="C161" t="s">
@@ -14594,7 +14555,7 @@
         <v>208</v>
       </c>
       <c r="B162" s="2">
-        <f t="shared" si="2"/>
+        <f>H162*0.24/0.69</f>
         <v>2.0702619287616729E-9</v>
       </c>
       <c r="C162" t="s">
@@ -14615,7 +14576,7 @@
         <v>209</v>
       </c>
       <c r="B163" s="2">
-        <f t="shared" si="2"/>
+        <f>H163*0.24/0.69</f>
         <v>1.6826280287045775E-5</v>
       </c>
       <c r="C163" t="s">
@@ -14636,7 +14597,7 @@
         <v>210</v>
       </c>
       <c r="B164" s="2">
-        <f t="shared" si="2"/>
+        <f>H164*0.24/0.69</f>
         <v>1.12800758694664E-8</v>
       </c>
       <c r="C164" t="s">
@@ -14657,7 +14618,7 @@
         <v>210</v>
       </c>
       <c r="B165" s="2">
-        <f t="shared" si="2"/>
+        <f>H165*0.24/0.69</f>
         <v>5.1962750566653214E-7</v>
       </c>
       <c r="C165" t="s">
@@ -14678,7 +14639,7 @@
         <v>211</v>
       </c>
       <c r="B166" s="2">
-        <f t="shared" si="2"/>
+        <f>H166*0.24/0.69</f>
         <v>5.946340615439653E-9</v>
       </c>
       <c r="C166" t="s">
@@ -14699,7 +14660,7 @@
         <v>212</v>
       </c>
       <c r="B167" s="2">
-        <f t="shared" si="2"/>
+        <f>H167*0.24/0.69</f>
         <v>1.7781072599308556E-2</v>
       </c>
       <c r="C167" t="s">
@@ -14720,7 +14681,7 @@
         <v>213</v>
       </c>
       <c r="B168" s="2">
-        <f t="shared" si="2"/>
+        <f>H168*0.24/0.69</f>
         <v>3.5170720839041049E-4</v>
       </c>
       <c r="C168" t="s">
@@ -14741,7 +14702,7 @@
         <v>214</v>
       </c>
       <c r="B169" s="2">
-        <f t="shared" si="2"/>
+        <f>H169*0.24/0.69</f>
         <v>2.8637199816525568E-2</v>
       </c>
       <c r="C169" t="s">
@@ -14762,7 +14723,7 @@
         <v>215</v>
       </c>
       <c r="B170" s="2">
-        <f t="shared" si="2"/>
+        <f>H170*0.24/0.69</f>
         <v>4.168722118945948E-4</v>
       </c>
       <c r="C170" t="s">
@@ -14783,7 +14744,7 @@
         <v>216</v>
       </c>
       <c r="B171" s="2">
-        <f t="shared" si="2"/>
+        <f>H171*0.24/0.69</f>
         <v>5.6607184273398958E-5</v>
       </c>
       <c r="C171" t="s">
@@ -14804,7 +14765,7 @@
         <v>217</v>
       </c>
       <c r="B172" s="2">
-        <f t="shared" si="2"/>
+        <f>H172*0.24/0.69</f>
         <v>4.888044124899931E-6</v>
       </c>
       <c r="C172" t="s">
@@ -14825,7 +14786,7 @@
         <v>218</v>
       </c>
       <c r="B173" s="2">
-        <f t="shared" si="2"/>
+        <f>H173*0.24/0.69</f>
         <v>1.5664340302090124E-5</v>
       </c>
       <c r="C173" t="s">
@@ -14846,7 +14807,7 @@
         <v>219</v>
       </c>
       <c r="B174" s="2">
-        <f t="shared" si="2"/>
+        <f>H174*0.24/0.69</f>
         <v>8.8873573367523138E-12</v>
       </c>
       <c r="C174" t="s">
@@ -14867,7 +14828,7 @@
         <v>219</v>
       </c>
       <c r="B175" s="2">
-        <f t="shared" si="2"/>
+        <f>H175*0.24/0.69</f>
         <v>2.6388597803828245E-8</v>
       </c>
       <c r="C175" t="s">
@@ -14888,7 +14849,7 @@
         <v>220</v>
       </c>
       <c r="B176" s="2">
-        <f t="shared" si="2"/>
+        <f>H176*0.24/0.69</f>
         <v>2.1724664658249078E-9</v>
       </c>
       <c r="C176" t="s">
@@ -14909,7 +14870,7 @@
         <v>220</v>
       </c>
       <c r="B177" s="2">
-        <f t="shared" si="2"/>
+        <f>H177*0.24/0.69</f>
         <v>2.7103978946680597E-5</v>
       </c>
       <c r="C177" t="s">
@@ -14930,7 +14891,7 @@
         <v>221</v>
       </c>
       <c r="B178" s="2">
-        <f t="shared" si="2"/>
+        <f>H178*0.24/0.69</f>
         <v>6.3196259173046954E-7</v>
       </c>
       <c r="C178" t="s">
@@ -14951,7 +14912,7 @@
         <v>222</v>
       </c>
       <c r="B179" s="2">
-        <f t="shared" si="2"/>
+        <f>H179*0.24/0.69</f>
         <v>1.8810113182719861E-7</v>
       </c>
       <c r="C179" t="s">
@@ -14972,7 +14933,7 @@
         <v>223</v>
       </c>
       <c r="B180" s="2">
-        <f t="shared" si="2"/>
+        <f>H180*0.24/0.69</f>
         <v>1.8127488204730574E-9</v>
       </c>
       <c r="C180" t="s">
@@ -14993,7 +14954,7 @@
         <v>223</v>
       </c>
       <c r="B181" s="2">
-        <f t="shared" si="2"/>
+        <f>H181*0.24/0.69</f>
         <v>1.7255870519830751E-6</v>
       </c>
       <c r="C181" t="s">
@@ -15014,7 +14975,7 @@
         <v>224</v>
       </c>
       <c r="B182" s="2">
-        <f t="shared" si="2"/>
+        <f>H182*0.24/0.69</f>
         <v>5.3596461276307133E-7</v>
       </c>
       <c r="C182" t="s">
@@ -15035,7 +14996,7 @@
         <v>224</v>
       </c>
       <c r="B183" s="2">
-        <f t="shared" si="2"/>
+        <f>H183*0.24/0.69</f>
         <v>1.4867876202210993E-5</v>
       </c>
       <c r="C183" t="s">
@@ -15056,7 +15017,7 @@
         <v>225</v>
       </c>
       <c r="B184" s="2">
-        <f t="shared" si="2"/>
+        <f>H184*0.24/0.69</f>
         <v>3.9598766211957218E-3</v>
       </c>
       <c r="C184" t="s">
@@ -15077,7 +15038,7 @@
         <v>226</v>
       </c>
       <c r="B185" s="2">
-        <f t="shared" si="2"/>
+        <f>H185*0.24/0.69</f>
         <v>2.6760750258196172E-11</v>
       </c>
       <c r="C185" t="s">
@@ -15098,7 +15059,7 @@
         <v>226</v>
       </c>
       <c r="B186" s="2">
-        <f t="shared" si="2"/>
+        <f>H186*0.24/0.69</f>
         <v>2.170914223722494E-6</v>
       </c>
       <c r="C186" t="s">
@@ -15119,7 +15080,7 @@
         <v>227</v>
       </c>
       <c r="B187" s="2">
-        <f t="shared" si="2"/>
+        <f>H187*0.24/0.69</f>
         <v>9.521631419439617E-9</v>
       </c>
       <c r="C187" t="s">
@@ -15140,7 +15101,7 @@
         <v>228</v>
       </c>
       <c r="B188" s="2">
-        <f t="shared" si="2"/>
+        <f>H188*0.24/0.69</f>
         <v>0</v>
       </c>
       <c r="C188" t="s">
@@ -15161,7 +15122,7 @@
         <v>229</v>
       </c>
       <c r="B189" s="2">
-        <f t="shared" si="2"/>
+        <f>H189*0.24/0.69</f>
         <v>1.0895818819076175E-3</v>
       </c>
       <c r="C189" t="s">
@@ -15182,7 +15143,7 @@
         <v>230</v>
       </c>
       <c r="B190" s="2">
-        <f t="shared" si="2"/>
+        <f>H190*0.24/0.69</f>
         <v>6.7138845202705739E-10</v>
       </c>
       <c r="C190" t="s">
@@ -15203,7 +15164,7 @@
         <v>230</v>
       </c>
       <c r="B191" s="2">
-        <f t="shared" si="2"/>
+        <f>H191*0.24/0.69</f>
         <v>4.5918165559762436E-8</v>
       </c>
       <c r="C191" t="s">
@@ -15224,7 +15185,7 @@
         <v>231</v>
       </c>
       <c r="B192" s="2">
-        <f t="shared" si="2"/>
+        <f>H192*0.24/0.69</f>
         <v>5.431160138777705E-7</v>
       </c>
       <c r="C192" t="s">
@@ -15245,7 +15206,7 @@
         <v>232</v>
       </c>
       <c r="B193" s="2">
-        <f t="shared" si="2"/>
+        <f>H193*0.24/0.69</f>
         <v>2.2237699955608003E-8</v>
       </c>
       <c r="C193" t="s">
@@ -15266,7 +15227,7 @@
         <v>232</v>
       </c>
       <c r="B194" s="2">
-        <f t="shared" si="2"/>
+        <f>H194*0.24/0.69</f>
         <v>3.1609337545803342E-7</v>
       </c>
       <c r="C194" t="s">
@@ -15287,7 +15248,7 @@
         <v>232</v>
       </c>
       <c r="B195" s="2">
-        <f t="shared" si="2"/>
+        <f>H195*0.24/0.69</f>
         <v>4.4924634201663657E-7</v>
       </c>
       <c r="C195" t="s">
@@ -15308,7 +15269,7 @@
         <v>233</v>
       </c>
       <c r="B196" s="2">
-        <f t="shared" si="2"/>
+        <f>H196*0.24/0.69</f>
         <v>5.673227956084522E-7</v>
       </c>
       <c r="C196" t="s">
@@ -15329,7 +15290,7 @@
         <v>234</v>
       </c>
       <c r="B197" s="2">
-        <f t="shared" si="2"/>
+        <f>H197*0.24/0.69</f>
         <v>1.0645874096193775E-6</v>
       </c>
       <c r="C197" t="s">
@@ -15350,7 +15311,7 @@
         <v>235</v>
       </c>
       <c r="B198" s="2">
-        <f t="shared" si="2"/>
+        <f>H198*0.24/0.69</f>
         <v>4.7898403279543302</v>
       </c>
       <c r="C198" t="s">
@@ -15371,7 +15332,7 @@
         <v>236</v>
       </c>
       <c r="B199" s="2">
-        <f t="shared" si="2"/>
+        <f>H199*0.24/0.69</f>
         <v>2.5067263765716177E-7</v>
       </c>
       <c r="C199" t="s">
@@ -15392,7 +15353,7 @@
         <v>237</v>
       </c>
       <c r="B200" s="2">
-        <f t="shared" si="2"/>
+        <f>H200*0.24/0.69</f>
         <v>1.5727852071342713E-7</v>
       </c>
       <c r="C200" t="s">
@@ -15413,7 +15374,7 @@
         <v>238</v>
       </c>
       <c r="B201" s="2">
-        <f t="shared" si="2"/>
+        <f>H201*0.24/0.69</f>
         <v>4.9307066795781221E-8</v>
       </c>
       <c r="C201" t="s">
@@ -15434,7 +15395,7 @@
         <v>239</v>
       </c>
       <c r="B202" s="2">
-        <f t="shared" si="2"/>
+        <f>H202*0.24/0.69</f>
         <v>3.7919539136057738E-8</v>
       </c>
       <c r="C202" t="s">
@@ -15455,7 +15416,7 @@
         <v>240</v>
       </c>
       <c r="B203" s="2">
-        <f t="shared" si="2"/>
+        <f>H203*0.24/0.69</f>
         <v>6.4174653760333566E-4</v>
       </c>
       <c r="C203" t="s">
@@ -15476,7 +15437,7 @@
         <v>241</v>
       </c>
       <c r="B204" s="2">
-        <f t="shared" si="2"/>
+        <f>H204*0.24/0.69</f>
         <v>2.98030483663776E-5</v>
       </c>
       <c r="C204" t="s">
@@ -15497,7 +15458,7 @@
         <v>242</v>
       </c>
       <c r="B205" s="2">
-        <f t="shared" si="2"/>
+        <f>H205*0.24/0.69</f>
         <v>6.9527912556331483E-7</v>
       </c>
       <c r="C205" t="s">
@@ -15518,7 +15479,7 @@
         <v>242</v>
       </c>
       <c r="B206" s="2">
-        <f t="shared" ref="B206:B269" si="3">H206*0.24/0.69</f>
+        <f>H206*0.24/0.69</f>
         <v>2.3064196565729562E-7</v>
       </c>
       <c r="C206" t="s">
@@ -15539,7 +15500,7 @@
         <v>242</v>
       </c>
       <c r="B207" s="2">
-        <f t="shared" si="3"/>
+        <f>H207*0.24/0.69</f>
         <v>4.8238574677767656E-9</v>
       </c>
       <c r="C207" t="s">
@@ -15560,7 +15521,7 @@
         <v>242</v>
       </c>
       <c r="B208" s="2">
-        <f t="shared" si="3"/>
+        <f>H208*0.24/0.69</f>
         <v>1.402000010847388E-5</v>
       </c>
       <c r="C208" t="s">
@@ -15581,7 +15542,7 @@
         <v>243</v>
       </c>
       <c r="B209" s="2">
-        <f t="shared" si="3"/>
+        <f>H209*0.24/0.69</f>
         <v>3.0610637510741112E-2</v>
       </c>
       <c r="C209" t="s">
@@ -15602,7 +15563,7 @@
         <v>244</v>
       </c>
       <c r="B210" s="2">
-        <f t="shared" si="3"/>
+        <f>H210*0.24/0.69</f>
         <v>2.4318138229333009E-5</v>
       </c>
       <c r="C210" t="s">
@@ -15623,7 +15584,7 @@
         <v>245</v>
       </c>
       <c r="B211" s="2">
-        <f t="shared" si="3"/>
+        <f>H211*0.24/0.69</f>
         <v>1.0164246393113599E-2</v>
       </c>
       <c r="C211" t="s">
@@ -15644,7 +15605,7 @@
         <v>246</v>
       </c>
       <c r="B212" s="2">
-        <f t="shared" si="3"/>
+        <f>H212*0.24/0.69</f>
         <v>1.0101962678754191E-6</v>
       </c>
       <c r="C212" t="s">
@@ -15665,7 +15626,7 @@
         <v>246</v>
       </c>
       <c r="B213" s="2">
-        <f t="shared" si="3"/>
+        <f>H213*0.24/0.69</f>
         <v>3.5627089658406612E-6</v>
       </c>
       <c r="C213" t="s">
@@ -15686,7 +15647,7 @@
         <v>246</v>
       </c>
       <c r="B214" s="2">
-        <f t="shared" si="3"/>
+        <f>H214*0.24/0.69</f>
         <v>2.9915851053323343E-7</v>
       </c>
       <c r="C214" t="s">
@@ -15707,7 +15668,7 @@
         <v>246</v>
       </c>
       <c r="B215" s="2">
-        <f t="shared" si="3"/>
+        <f>H215*0.24/0.69</f>
         <v>2.3995903374252381E-9</v>
       </c>
       <c r="C215" t="s">
@@ -15728,7 +15689,7 @@
         <v>247</v>
       </c>
       <c r="B216" s="2">
-        <f t="shared" si="3"/>
+        <f>H216*0.24/0.69</f>
         <v>3.7010850824550611E-5</v>
       </c>
       <c r="C216" t="s">
@@ -15749,7 +15710,7 @@
         <v>248</v>
       </c>
       <c r="B217" s="2">
-        <f t="shared" si="3"/>
+        <f>H217*0.24/0.69</f>
         <v>8.2936970419930785E-9</v>
       </c>
       <c r="C217" t="s">
@@ -15770,7 +15731,7 @@
         <v>248</v>
       </c>
       <c r="B218" s="2">
-        <f t="shared" si="3"/>
+        <f>H218*0.24/0.69</f>
         <v>2.1352126553669357E-12</v>
       </c>
       <c r="C218" t="s">
@@ -15791,7 +15752,7 @@
         <v>248</v>
       </c>
       <c r="B219" s="2">
-        <f t="shared" si="3"/>
+        <f>H219*0.24/0.69</f>
         <v>3.3833816173628319E-8</v>
       </c>
       <c r="C219" t="s">
@@ -15812,7 +15773,7 @@
         <v>248</v>
       </c>
       <c r="B220" s="2">
-        <f t="shared" si="3"/>
+        <f>H220*0.24/0.69</f>
         <v>8.3936286531206263E-11</v>
       </c>
       <c r="C220" t="s">
@@ -15833,7 +15794,7 @@
         <v>249</v>
       </c>
       <c r="B221" s="2">
-        <f t="shared" si="3"/>
+        <f>H221*0.24/0.69</f>
         <v>5.2141836883748527E-9</v>
       </c>
       <c r="C221" t="s">
@@ -15854,7 +15815,7 @@
         <v>250</v>
       </c>
       <c r="B222" s="2">
-        <f t="shared" si="3"/>
+        <f>H222*0.24/0.69</f>
         <v>1.6453091397733705E-6</v>
       </c>
       <c r="C222" t="s">
@@ -15875,7 +15836,7 @@
         <v>251</v>
       </c>
       <c r="B223" s="2">
-        <f t="shared" si="3"/>
+        <f>H223*0.24/0.69</f>
         <v>6.405167954905217E-6</v>
       </c>
       <c r="C223" t="s">
@@ -15896,7 +15857,7 @@
         <v>252</v>
       </c>
       <c r="B224" s="2">
-        <f t="shared" si="3"/>
+        <f>H224*0.24/0.69</f>
         <v>2.067793767406278E-9</v>
       </c>
       <c r="C224" t="s">
@@ -15917,7 +15878,7 @@
         <v>252</v>
       </c>
       <c r="B225" s="2">
-        <f t="shared" si="3"/>
+        <f>H225*0.24/0.69</f>
         <v>1.4877879004579025E-7</v>
       </c>
       <c r="C225" t="s">
@@ -15938,7 +15899,7 @@
         <v>253</v>
       </c>
       <c r="B226" s="2">
-        <f t="shared" si="3"/>
+        <f>H226*0.24/0.69</f>
         <v>3.8543810416377048E-7</v>
       </c>
       <c r="C226" t="s">
@@ -15959,7 +15920,7 @@
         <v>254</v>
       </c>
       <c r="B227" s="2">
-        <f t="shared" si="3"/>
+        <f>H227*0.24/0.69</f>
         <v>6.5659117838028531E-8</v>
       </c>
       <c r="C227" t="s">
@@ -15980,7 +15941,7 @@
         <v>254</v>
       </c>
       <c r="B228" s="2">
-        <f t="shared" si="3"/>
+        <f>H228*0.24/0.69</f>
         <v>1.9107835146214225E-11</v>
       </c>
       <c r="C228" t="s">
@@ -16001,7 +15962,7 @@
         <v>255</v>
       </c>
       <c r="B229" s="2">
-        <f t="shared" si="3"/>
+        <f>H229*0.24/0.69</f>
         <v>3.09139620076871E-5</v>
       </c>
       <c r="C229" t="s">
@@ -16022,7 +15983,7 @@
         <v>256</v>
       </c>
       <c r="B230" s="2">
-        <f t="shared" si="3"/>
+        <f>H230*0.24/0.69</f>
         <v>1.0545725556822086E-8</v>
       </c>
       <c r="C230" t="s">
@@ -16043,7 +16004,7 @@
         <v>257</v>
       </c>
       <c r="B231" s="2">
-        <f t="shared" si="3"/>
+        <f>H231*0.24/0.69</f>
         <v>2.4609063107844764E-6</v>
       </c>
       <c r="C231" t="s">
@@ -16064,7 +16025,7 @@
         <v>257</v>
       </c>
       <c r="B232" s="2">
-        <f t="shared" si="3"/>
+        <f>H232*0.24/0.69</f>
         <v>4.009195498529217E-7</v>
       </c>
       <c r="C232" t="s">
@@ -16085,7 +16046,7 @@
         <v>258</v>
       </c>
       <c r="B233" s="2">
-        <f t="shared" si="3"/>
+        <f>H233*0.24/0.69</f>
         <v>3.0498014151143863E-4</v>
       </c>
       <c r="C233" t="s">
@@ -16106,7 +16067,7 @@
         <v>259</v>
       </c>
       <c r="B234" s="2">
-        <f t="shared" si="3"/>
+        <f>H234*0.24/0.69</f>
         <v>4.888044124899931E-6</v>
       </c>
       <c r="C234" t="s">
@@ -16127,7 +16088,7 @@
         <v>260</v>
       </c>
       <c r="B235" s="2">
-        <f t="shared" si="3"/>
+        <f>H235*0.24/0.69</f>
         <v>1.4088886877553115E-5</v>
       </c>
       <c r="C235" t="s">
@@ -16148,7 +16109,7 @@
         <v>261</v>
       </c>
       <c r="B236" s="2">
-        <f t="shared" si="3"/>
+        <f>H236*0.24/0.69</f>
         <v>2.2106337852220352E-10</v>
       </c>
       <c r="C236" t="s">
@@ -16169,7 +16130,7 @@
         <v>262</v>
       </c>
       <c r="B237" s="2">
-        <f t="shared" si="3"/>
+        <f>H237*0.24/0.69</f>
         <v>3.1392891364441707E-6</v>
       </c>
       <c r="C237" t="s">
@@ -16190,7 +16151,7 @@
         <v>263</v>
       </c>
       <c r="B238" s="2">
-        <f t="shared" si="3"/>
+        <f>H238*0.24/0.69</f>
         <v>2.5630240765500624E-4</v>
       </c>
       <c r="C238" t="s">
@@ -16211,7 +16172,7 @@
         <v>264</v>
       </c>
       <c r="B239" s="2">
-        <f t="shared" si="3"/>
+        <f>H239*0.24/0.69</f>
         <v>7.03006591681861E-5</v>
       </c>
       <c r="C239" t="s">
@@ -16232,7 +16193,7 @@
         <v>265</v>
       </c>
       <c r="B240" s="2">
-        <f t="shared" si="3"/>
+        <f>H240*0.24/0.69</f>
         <v>3.0964819629365599E-7</v>
       </c>
       <c r="C240" t="s">
@@ -16253,7 +16214,7 @@
         <v>266</v>
       </c>
       <c r="B241" s="2">
-        <f t="shared" si="3"/>
+        <f>H241*0.24/0.69</f>
         <v>4.372887751376243E-6</v>
       </c>
       <c r="C241" t="s">
@@ -16274,7 +16235,7 @@
         <v>267</v>
       </c>
       <c r="B242" s="2">
-        <f t="shared" si="3"/>
+        <f>H242*0.24/0.69</f>
         <v>6.4076819122232346E-4</v>
       </c>
       <c r="C242" t="s">
@@ -16295,7 +16256,7 @@
         <v>268</v>
       </c>
       <c r="B243" s="2">
-        <f t="shared" si="3"/>
+        <f>H243*0.24/0.69</f>
         <v>1.3057826933220381E-5</v>
       </c>
       <c r="C243" t="s">
@@ -16316,7 +16277,7 @@
         <v>269</v>
       </c>
       <c r="B244" s="2">
-        <f t="shared" si="3"/>
+        <f>H244*0.24/0.69</f>
         <v>2.5724074282654399E-5</v>
       </c>
       <c r="C244" t="s">
@@ -16337,7 +16298,7 @@
         <v>270</v>
       </c>
       <c r="B245" s="2">
-        <f t="shared" si="3"/>
+        <f>H245*0.24/0.69</f>
         <v>7.6307884310810776E-9</v>
       </c>
       <c r="C245" t="s">
@@ -16358,7 +16319,7 @@
         <v>270</v>
       </c>
       <c r="B246" s="2">
-        <f t="shared" si="3"/>
+        <f>H246*0.24/0.69</f>
         <v>8.7974526311310268E-10</v>
       </c>
       <c r="C246" t="s">
@@ -16379,7 +16340,7 @@
         <v>271</v>
       </c>
       <c r="B247" s="2">
-        <f t="shared" si="3"/>
+        <f>H247*0.24/0.69</f>
         <v>5.2282358179666087E-5</v>
       </c>
       <c r="C247" t="s">
@@ -16400,7 +16361,7 @@
         <v>272</v>
       </c>
       <c r="B248" s="2">
-        <f t="shared" si="3"/>
+        <f>H248*0.24/0.69</f>
         <v>1.9790050370853463E-10</v>
       </c>
       <c r="C248" t="s">
@@ -16421,7 +16382,7 @@
         <v>273</v>
       </c>
       <c r="B249" s="2">
-        <f t="shared" si="3"/>
+        <f>H249*0.24/0.69</f>
         <v>1.9565433225629707E-5</v>
       </c>
       <c r="C249" t="s">
@@ -16442,7 +16403,7 @@
         <v>274</v>
       </c>
       <c r="B250" s="2">
-        <f t="shared" si="3"/>
+        <f>H250*0.24/0.69</f>
         <v>3.164597431592247E-5</v>
       </c>
       <c r="C250" t="s">
@@ -16463,7 +16424,7 @@
         <v>275</v>
       </c>
       <c r="B251" s="2">
-        <f t="shared" si="3"/>
+        <f>H251*0.24/0.69</f>
         <v>6.8968237686485566E-6</v>
       </c>
       <c r="C251" t="s">
@@ -16484,7 +16445,7 @@
         <v>276</v>
       </c>
       <c r="B252" s="2">
-        <f t="shared" si="3"/>
+        <f>H252*0.24/0.69</f>
         <v>1.0026828376244103E-3</v>
       </c>
       <c r="C252" t="s">
@@ -16505,7 +16466,7 @@
         <v>276</v>
       </c>
       <c r="B253" s="2">
-        <f t="shared" si="3"/>
+        <f>H253*0.24/0.69</f>
         <v>3.370004375641701E-9</v>
       </c>
       <c r="C253" t="s">
@@ -16526,7 +16487,7 @@
         <v>277</v>
       </c>
       <c r="B254" s="2">
-        <f t="shared" si="3"/>
+        <f>H254*0.24/0.69</f>
         <v>1.9270844670106086E-5</v>
       </c>
       <c r="C254" t="s">
@@ -16547,7 +16508,7 @@
         <v>278</v>
       </c>
       <c r="B255" s="2">
-        <f t="shared" si="3"/>
+        <f>H255*0.24/0.69</f>
         <v>4.6430598278665394E-7</v>
       </c>
       <c r="C255" t="s">
@@ -16568,7 +16529,7 @@
         <v>279</v>
       </c>
       <c r="B256" s="2">
-        <f t="shared" si="3"/>
+        <f>H256*0.24/0.69</f>
         <v>1.6845844804352177E-3</v>
       </c>
       <c r="C256" t="s">
@@ -16589,7 +16550,7 @@
         <v>280</v>
       </c>
       <c r="B257" s="2">
-        <f t="shared" si="3"/>
+        <f>H257*0.24/0.69</f>
         <v>3.4485324000154545E-5</v>
       </c>
       <c r="C257" t="s">
@@ -16610,7 +16571,7 @@
         <v>280</v>
       </c>
       <c r="B258" s="2">
-        <f t="shared" si="3"/>
+        <f>H258*0.24/0.69</f>
         <v>5.8937957740845915E-5</v>
       </c>
       <c r="C258" t="s">
@@ -16631,7 +16592,7 @@
         <v>281</v>
       </c>
       <c r="B259" s="2">
-        <f t="shared" si="3"/>
+        <f>H259*0.24/0.69</f>
         <v>2.4163396081856212E-5</v>
       </c>
       <c r="C259" t="s">
@@ -16652,7 +16613,7 @@
         <v>282</v>
       </c>
       <c r="B260" s="2">
-        <f t="shared" si="3"/>
+        <f>H260*0.24/0.69</f>
         <v>4.5918165559762436E-8</v>
       </c>
       <c r="C260" t="s">
@@ -16673,7 +16634,7 @@
         <v>282</v>
       </c>
       <c r="B261" s="2">
-        <f t="shared" si="3"/>
+        <f>H261*0.24/0.69</f>
         <v>6.7138845202705739E-10</v>
       </c>
       <c r="C261" t="s">
@@ -16694,7 +16655,7 @@
         <v>283</v>
       </c>
       <c r="B262" s="2">
-        <f t="shared" si="3"/>
+        <f>H262*0.24/0.69</f>
         <v>6.5446287127402441E-7</v>
       </c>
       <c r="C262" t="s">
@@ -16715,7 +16676,7 @@
         <v>284</v>
       </c>
       <c r="B263" s="2">
-        <f t="shared" si="3"/>
+        <f>H263*0.24/0.69</f>
         <v>6.8061718657419482E-7</v>
       </c>
       <c r="C263" t="s">
@@ -16736,7 +16697,7 @@
         <v>285</v>
       </c>
       <c r="B264" s="2">
-        <f t="shared" si="3"/>
+        <f>H264*0.24/0.69</f>
         <v>1.1740447612968628E-2</v>
       </c>
       <c r="C264" t="s">
@@ -16757,7 +16718,7 @@
         <v>285</v>
       </c>
       <c r="B265" s="2">
-        <f t="shared" si="3"/>
+        <f>H265*0.24/0.69</f>
         <v>3.9045637754455999E-5</v>
       </c>
       <c r="C265" t="s">
@@ -16778,7 +16739,7 @@
         <v>285</v>
       </c>
       <c r="B266" s="2">
-        <f t="shared" si="3"/>
+        <f>H266*0.24/0.69</f>
         <v>2.0718436964062294E-3</v>
       </c>
       <c r="C266" t="s">
@@ -16799,7 +16760,7 @@
         <v>286</v>
       </c>
       <c r="B267" s="2">
-        <f t="shared" si="3"/>
+        <f>H267*0.24/0.69</f>
         <v>9.8828916656386085E-4</v>
       </c>
       <c r="C267" t="s">
@@ -16820,7 +16781,7 @@
         <v>287</v>
       </c>
       <c r="B268" s="2">
-        <f t="shared" si="3"/>
+        <f>H268*0.24/0.69</f>
         <v>1.7490538673699027E-4</v>
       </c>
       <c r="C268" t="s">
@@ -16841,7 +16802,7 @@
         <v>288</v>
       </c>
       <c r="B269" s="2">
-        <f t="shared" si="3"/>
+        <f>H269*0.24/0.69</f>
         <v>1.974970171744595E-5</v>
       </c>
       <c r="C269" t="s">
@@ -16862,7 +16823,7 @@
         <v>289</v>
       </c>
       <c r="B270" s="2">
-        <f t="shared" ref="B270:B276" si="4">H270*0.24/0.69</f>
+        <f>H270*0.24/0.69</f>
         <v>1.0857908921195444E-2</v>
       </c>
       <c r="C270" t="s">
@@ -16883,7 +16844,7 @@
         <v>290</v>
       </c>
       <c r="B271" s="2">
-        <f t="shared" si="4"/>
+        <f>H271*0.24/0.69</f>
         <v>4.7833473233430606E-4</v>
       </c>
       <c r="C271" t="s">
@@ -16904,7 +16865,7 @@
         <v>291</v>
       </c>
       <c r="B272" s="2">
-        <f t="shared" si="4"/>
+        <f>H272*0.24/0.69</f>
         <v>1.384448105583739E-6</v>
       </c>
       <c r="C272" t="s">
@@ -16925,7 +16886,7 @@
         <v>291</v>
       </c>
       <c r="B273" s="2">
-        <f t="shared" si="4"/>
+        <f>H273*0.24/0.69</f>
         <v>1.3872970965232662E-5</v>
       </c>
       <c r="C273" t="s">
@@ -16946,7 +16907,7 @@
         <v>292</v>
       </c>
       <c r="B274" s="2">
-        <f t="shared" si="4"/>
+        <f>H274*0.24/0.69</f>
         <v>0.14316541259226018</v>
       </c>
       <c r="C274" t="s">
@@ -16967,7 +16928,7 @@
         <v>293</v>
       </c>
       <c r="B275" s="2">
-        <f t="shared" si="4"/>
+        <f>H275*0.24/0.69</f>
         <v>1.0236578705803722E-4</v>
       </c>
       <c r="C275" t="s">
@@ -16988,7 +16949,7 @@
         <v>293</v>
       </c>
       <c r="B276" s="2">
-        <f t="shared" si="4"/>
+        <f>H276*0.24/0.69</f>
         <v>1.2741087593657602E-6</v>
       </c>
       <c r="C276" t="s">
@@ -17154,7 +17115,7 @@
         <v>103</v>
       </c>
       <c r="B290" s="2">
-        <f t="shared" ref="B290:B353" si="5">H290*0.15/0.73</f>
+        <f>H290*0.15/0.73</f>
         <v>1.0016990186071438E-5</v>
       </c>
       <c r="C290" t="s">
@@ -17179,7 +17140,7 @@
         <v>386</v>
       </c>
       <c r="B291" s="2">
-        <f t="shared" si="5"/>
+        <f>H291*0.15/0.73</f>
         <v>5.348673447226459E-4</v>
       </c>
       <c r="C291" t="s">
@@ -17204,7 +17165,7 @@
         <v>387</v>
       </c>
       <c r="B292" s="2">
-        <f t="shared" si="5"/>
+        <f>H292*0.15/0.73</f>
         <v>-6.6167278603737537E-6</v>
       </c>
       <c r="C292" t="s">
@@ -17229,7 +17190,7 @@
         <v>388</v>
       </c>
       <c r="B293" s="2">
-        <f t="shared" si="5"/>
+        <f>H293*0.15/0.73</f>
         <v>-1.0218917227107165E-6</v>
       </c>
       <c r="C293" t="s">
@@ -17254,7 +17215,7 @@
         <v>389</v>
       </c>
       <c r="B294" s="2">
-        <f t="shared" si="5"/>
+        <f>H294*0.15/0.73</f>
         <v>1.5603141473489423E-6</v>
       </c>
       <c r="C294" t="s">
@@ -17279,7 +17240,7 @@
         <v>389</v>
       </c>
       <c r="B295" s="2">
-        <f t="shared" si="5"/>
+        <f>H295*0.15/0.73</f>
         <v>7.4070085385645142E-6</v>
       </c>
       <c r="C295" t="s">
@@ -17304,7 +17265,7 @@
         <v>390</v>
       </c>
       <c r="B296" s="2">
-        <f t="shared" si="5"/>
+        <f>H296*0.15/0.73</f>
         <v>2.4091641414995339E-5</v>
       </c>
       <c r="C296" t="s">
@@ -17329,7 +17290,7 @@
         <v>391</v>
       </c>
       <c r="B297" s="2">
-        <f t="shared" si="5"/>
+        <f>H297*0.15/0.73</f>
         <v>2.3233644831405204E-4</v>
       </c>
       <c r="C297" t="s">
@@ -17353,7 +17314,7 @@
         <v>392</v>
       </c>
       <c r="B298" s="2">
-        <f t="shared" si="5"/>
+        <f>H298*0.15/0.73</f>
         <v>7.3560228944372053E-4</v>
       </c>
       <c r="C298" t="s">
@@ -17377,7 +17338,7 @@
         <v>392</v>
       </c>
       <c r="B299" s="2">
-        <f t="shared" si="5"/>
+        <f>H299*0.15/0.73</f>
         <v>6.3233836682542811E-5</v>
       </c>
       <c r="C299" t="s">
@@ -17401,7 +17362,7 @@
         <v>392</v>
       </c>
       <c r="B300" s="2">
-        <f t="shared" si="5"/>
+        <f>H300*0.15/0.73</f>
         <v>4.2263316012630615E-4</v>
       </c>
       <c r="C300" t="s">
@@ -17425,7 +17386,7 @@
         <v>392</v>
       </c>
       <c r="B301" s="2">
-        <f t="shared" si="5"/>
+        <f>H301*0.15/0.73</f>
         <v>9.8375562835046913E-5</v>
       </c>
       <c r="C301" t="s">
@@ -17449,7 +17410,7 @@
         <v>392</v>
       </c>
       <c r="B302" s="2">
-        <f t="shared" si="5"/>
+        <f>H302*0.15/0.73</f>
         <v>1.9096707171487991E-4</v>
       </c>
       <c r="C302" t="s">
@@ -17473,7 +17434,7 @@
         <v>392</v>
       </c>
       <c r="B303" s="2">
-        <f t="shared" si="5"/>
+        <f>H303*0.15/0.73</f>
         <v>2.0015403298936704E-5</v>
       </c>
       <c r="C303" t="s">
@@ -17497,7 +17458,7 @@
         <v>392</v>
       </c>
       <c r="B304" s="2">
-        <f t="shared" si="5"/>
+        <f>H304*0.15/0.73</f>
         <v>8.9476249405106914E-5</v>
       </c>
       <c r="C304" t="s">
@@ -17521,7 +17482,7 @@
         <v>392</v>
       </c>
       <c r="B305" s="2">
-        <f t="shared" si="5"/>
+        <f>H305*0.15/0.73</f>
         <v>2.1167475489708904E-3</v>
       </c>
       <c r="C305" t="s">
@@ -17545,7 +17506,7 @@
         <v>393</v>
       </c>
       <c r="B306" s="2">
-        <f t="shared" si="5"/>
+        <f>H306*0.15/0.73</f>
         <v>1.4391451439894692E-4</v>
       </c>
       <c r="C306" t="s">
@@ -17569,7 +17530,7 @@
         <v>394</v>
       </c>
       <c r="B307" s="2">
-        <f t="shared" si="5"/>
+        <f>H307*0.15/0.73</f>
         <v>9.8790216375474037E-6</v>
       </c>
       <c r="C307" t="s">
@@ -17593,7 +17554,7 @@
         <v>395</v>
       </c>
       <c r="B308" s="2">
-        <f t="shared" si="5"/>
+        <f>H308*0.15/0.73</f>
         <v>6.7972006355389313E-7</v>
       </c>
       <c r="C308" t="s">
@@ -17617,7 +17578,7 @@
         <v>396</v>
       </c>
       <c r="B309" s="2">
-        <f t="shared" si="5"/>
+        <f>H309*0.15/0.73</f>
         <v>1.7502203688568253E-5</v>
       </c>
       <c r="C309" t="s">
@@ -17641,7 +17602,7 @@
         <v>397</v>
       </c>
       <c r="B310" s="2">
-        <f t="shared" si="5"/>
+        <f>H310*0.15/0.73</f>
         <v>-2.9844257787753699E-5</v>
       </c>
       <c r="C310" t="s">
@@ -17665,7 +17626,7 @@
         <v>397</v>
       </c>
       <c r="B311" s="2">
-        <f t="shared" si="5"/>
+        <f>H311*0.15/0.73</f>
         <v>-1.7455687114125473E-5</v>
       </c>
       <c r="C311" t="s">
@@ -17689,7 +17650,7 @@
         <v>397</v>
       </c>
       <c r="B312" s="2">
-        <f t="shared" si="5"/>
+        <f>H312*0.15/0.73</f>
         <v>-4.4345952446161639E-6</v>
       </c>
       <c r="C312" t="s">
@@ -17713,7 +17674,7 @@
         <v>397</v>
       </c>
       <c r="B313" s="2">
-        <f t="shared" si="5"/>
+        <f>H313*0.15/0.73</f>
         <v>-1.9650582309966739E-4</v>
       </c>
       <c r="C313" t="s">
@@ -17737,7 +17698,7 @@
         <v>398</v>
       </c>
       <c r="B314" s="2">
-        <f t="shared" si="5"/>
+        <f>H314*0.15/0.73</f>
         <v>5.471553123348719E-6</v>
       </c>
       <c r="C314" t="s">
@@ -17761,7 +17722,7 @@
         <v>108</v>
       </c>
       <c r="B315" s="2">
-        <f t="shared" si="5"/>
+        <f>H315*0.15/0.73</f>
         <v>1.4648696719149737E-5</v>
       </c>
       <c r="C315" t="s">
@@ -17785,7 +17746,7 @@
         <v>108</v>
       </c>
       <c r="B316" s="2">
-        <f t="shared" si="5"/>
+        <f>H316*0.15/0.73</f>
         <v>5.0733452958799317E-5</v>
       </c>
       <c r="C316" t="s">
@@ -17809,7 +17770,7 @@
         <v>399</v>
       </c>
       <c r="B317" s="2">
-        <f t="shared" si="5"/>
+        <f>H317*0.15/0.73</f>
         <v>1.0718936719388239E-4</v>
       </c>
       <c r="C317" t="s">
@@ -17833,7 +17794,7 @@
         <v>399</v>
       </c>
       <c r="B318" s="2">
-        <f t="shared" si="5"/>
+        <f>H318*0.15/0.73</f>
         <v>2.2302924598904791E-5</v>
       </c>
       <c r="C318" t="s">
@@ -17857,7 +17818,7 @@
         <v>399</v>
       </c>
       <c r="B319" s="2">
-        <f t="shared" si="5"/>
+        <f>H319*0.15/0.73</f>
         <v>1.8487954658105217E-6</v>
       </c>
       <c r="C319" t="s">
@@ -17881,7 +17842,7 @@
         <v>399</v>
       </c>
       <c r="B320" s="2">
-        <f t="shared" si="5"/>
+        <f>H320*0.15/0.73</f>
         <v>4.6561123369497129E-6</v>
       </c>
       <c r="C320" t="s">
@@ -17905,7 +17866,7 @@
         <v>399</v>
       </c>
       <c r="B321" s="2">
-        <f t="shared" si="5"/>
+        <f>H321*0.15/0.73</f>
         <v>1.0529951051547267E-4</v>
       </c>
       <c r="C321" t="s">
@@ -17929,7 +17890,7 @@
         <v>399</v>
       </c>
       <c r="B322" s="2">
-        <f t="shared" si="5"/>
+        <f>H322*0.15/0.73</f>
         <v>3.0992716743185137E-6</v>
       </c>
       <c r="C322" t="s">
@@ -17953,7 +17914,7 @@
         <v>399</v>
       </c>
       <c r="B323" s="2">
-        <f t="shared" si="5"/>
+        <f>H323*0.15/0.73</f>
         <v>3.4039185141754728E-5</v>
       </c>
       <c r="C323" t="s">
@@ -17977,7 +17938,7 @@
         <v>399</v>
       </c>
       <c r="B324" s="2">
-        <f t="shared" si="5"/>
+        <f>H324*0.15/0.73</f>
         <v>4.1183600269012395E-6</v>
       </c>
       <c r="C324" t="s">
@@ -18001,7 +17962,7 @@
         <v>399</v>
       </c>
       <c r="B325" s="2">
-        <f t="shared" si="5"/>
+        <f>H325*0.15/0.73</f>
         <v>4.5999224599431785E-4</v>
       </c>
       <c r="C325" t="s">
@@ -18025,7 +17986,7 @@
         <v>110</v>
       </c>
       <c r="B326" s="2">
-        <f t="shared" si="5"/>
+        <f>H326*0.15/0.73</f>
         <v>3.8151306399266298E-5</v>
       </c>
       <c r="C326" t="s">
@@ -18049,7 +18010,7 @@
         <v>111</v>
       </c>
       <c r="B327" s="2">
-        <f t="shared" si="5"/>
+        <f>H327*0.15/0.73</f>
         <v>2.8947121441855887E-6</v>
       </c>
       <c r="C327" t="s">
@@ -18073,7 +18034,7 @@
         <v>400</v>
       </c>
       <c r="B328" s="2">
-        <f t="shared" si="5"/>
+        <f>H328*0.15/0.73</f>
         <v>6.3175026048149174E-8</v>
       </c>
       <c r="C328" t="s">
@@ -18097,7 +18058,7 @@
         <v>400</v>
       </c>
       <c r="B329" s="2">
-        <f t="shared" si="5"/>
+        <f>H329*0.15/0.73</f>
         <v>3.1581594592833497E-7</v>
       </c>
       <c r="C329" t="s">
@@ -18121,7 +18082,7 @@
         <v>401</v>
       </c>
       <c r="B330" s="2">
-        <f t="shared" si="5"/>
+        <f>H330*0.15/0.73</f>
         <v>2.2876298178305343E-4</v>
       </c>
       <c r="C330" t="s">
@@ -18145,7 +18106,7 @@
         <v>401</v>
       </c>
       <c r="B331" s="2">
-        <f t="shared" si="5"/>
+        <f>H331*0.15/0.73</f>
         <v>4.8185759426681094E-5</v>
       </c>
       <c r="C331" t="s">
@@ -18169,7 +18130,7 @@
         <v>401</v>
       </c>
       <c r="B332" s="2">
-        <f t="shared" si="5"/>
+        <f>H332*0.15/0.73</f>
         <v>3.4882697664902262E-6</v>
       </c>
       <c r="C332" t="s">
@@ -18193,7 +18154,7 @@
         <v>401</v>
       </c>
       <c r="B333" s="2">
-        <f t="shared" si="5"/>
+        <f>H333*0.15/0.73</f>
         <v>1.1176885560380732E-5</v>
       </c>
       <c r="C333" t="s">
@@ -18217,7 +18178,7 @@
         <v>401</v>
       </c>
       <c r="B334" s="2">
-        <f t="shared" si="5"/>
+        <f>H334*0.15/0.73</f>
         <v>2.1379717923649931E-4</v>
       </c>
       <c r="C334" t="s">
@@ -18241,7 +18202,7 @@
         <v>401</v>
       </c>
       <c r="B335" s="2">
-        <f t="shared" si="5"/>
+        <f>H335*0.15/0.73</f>
         <v>8.5754836265577754E-6</v>
       </c>
       <c r="C335" t="s">
@@ -18265,7 +18226,7 @@
         <v>401</v>
       </c>
       <c r="B336" s="2">
-        <f t="shared" si="5"/>
+        <f>H336*0.15/0.73</f>
         <v>1.4328332499211912E-5</v>
       </c>
       <c r="C336" t="s">
@@ -18289,7 +18250,7 @@
         <v>401</v>
       </c>
       <c r="B337" s="2">
-        <f t="shared" si="5"/>
+        <f>H337*0.15/0.73</f>
         <v>6.8595045462322606E-4</v>
       </c>
       <c r="C337" t="s">
@@ -18313,7 +18274,7 @@
         <v>402</v>
       </c>
       <c r="B338" s="2">
-        <f t="shared" si="5"/>
+        <f>H338*0.15/0.73</f>
         <v>0.10188144719597549</v>
       </c>
       <c r="C338" t="s">
@@ -18337,7 +18298,7 @@
         <v>403</v>
       </c>
       <c r="B339" s="2">
-        <f t="shared" si="5"/>
+        <f>H339*0.15/0.73</f>
         <v>-2.0454579361436894E-6</v>
       </c>
       <c r="C339" t="s">
@@ -18361,7 +18322,7 @@
         <v>115</v>
       </c>
       <c r="B340" s="2">
-        <f t="shared" si="5"/>
+        <f>H340*0.15/0.73</f>
         <v>1.4965356993430931E-5</v>
       </c>
       <c r="C340" t="s">
@@ -18385,7 +18346,7 @@
         <v>116</v>
       </c>
       <c r="B341" s="2">
-        <f t="shared" si="5"/>
+        <f>H341*0.15/0.73</f>
         <v>2.3310601686014386E-6</v>
       </c>
       <c r="C341" t="s">
@@ -18409,7 +18370,7 @@
         <v>404</v>
       </c>
       <c r="B342" s="2">
-        <f t="shared" si="5"/>
+        <f>H342*0.15/0.73</f>
         <v>6.9420355477530817E-5</v>
       </c>
       <c r="C342" t="s">
@@ -18433,7 +18394,7 @@
         <v>404</v>
       </c>
       <c r="B343" s="2">
-        <f t="shared" si="5"/>
+        <f>H343*0.15/0.73</f>
         <v>7.9166779442927052E-5</v>
       </c>
       <c r="C343" t="s">
@@ -18457,7 +18418,7 @@
         <v>404</v>
       </c>
       <c r="B344" s="2">
-        <f t="shared" si="5"/>
+        <f>H344*0.15/0.73</f>
         <v>3.8058741624827668E-6</v>
       </c>
       <c r="C344" t="s">
@@ -18481,7 +18442,7 @@
         <v>404</v>
       </c>
       <c r="B345" s="2">
-        <f t="shared" si="5"/>
+        <f>H345*0.15/0.73</f>
         <v>1.5977666524407574E-4</v>
       </c>
       <c r="C345" t="s">
@@ -18505,7 +18466,7 @@
         <v>404</v>
       </c>
       <c r="B346" s="2">
-        <f t="shared" si="5"/>
+        <f>H346*0.15/0.73</f>
         <v>1.1191701858027204E-5</v>
       </c>
       <c r="C346" t="s">
@@ -18529,7 +18490,7 @@
         <v>404</v>
       </c>
       <c r="B347" s="2">
-        <f t="shared" si="5"/>
+        <f>H347*0.15/0.73</f>
         <v>1.6176284663882834E-5</v>
       </c>
       <c r="C347" t="s">
@@ -18553,7 +18514,7 @@
         <v>404</v>
       </c>
       <c r="B348" s="2">
-        <f t="shared" si="5"/>
+        <f>H348*0.15/0.73</f>
         <v>1.5777140807255879E-3</v>
       </c>
       <c r="C348" t="s">
@@ -18577,7 +18538,7 @@
         <v>117</v>
       </c>
       <c r="B349" s="2">
-        <f t="shared" si="5"/>
+        <f>H349*0.15/0.73</f>
         <v>3.3386891967157394E-4</v>
       </c>
       <c r="C349" t="s">
@@ -18601,7 +18562,7 @@
         <v>405</v>
       </c>
       <c r="B350" s="2">
-        <f t="shared" si="5"/>
+        <f>H350*0.15/0.73</f>
         <v>3.7093470409404042E-5</v>
       </c>
       <c r="C350" t="s">
@@ -18625,7 +18586,7 @@
         <v>42</v>
       </c>
       <c r="B351" s="2">
-        <f t="shared" si="5"/>
+        <f>H351*0.15/0.73</f>
         <v>4.6655843335435689E-2</v>
       </c>
       <c r="C351" t="s">
@@ -18649,7 +18610,7 @@
         <v>42</v>
       </c>
       <c r="B352" s="2">
-        <f t="shared" si="5"/>
+        <f>H352*0.15/0.73</f>
         <v>6.4366924249892044E-2</v>
       </c>
       <c r="C352" t="s">
@@ -18673,7 +18634,7 @@
         <v>42</v>
       </c>
       <c r="B353" s="2">
-        <f t="shared" si="5"/>
+        <f>H353*0.15/0.73</f>
         <v>4.7520185600486098E-2</v>
       </c>
       <c r="C353" t="s">
@@ -18697,7 +18658,7 @@
         <v>42</v>
       </c>
       <c r="B354" s="2">
-        <f t="shared" ref="B354:B417" si="6">H354*0.15/0.73</f>
+        <f>H354*0.15/0.73</f>
         <v>1.8909530170657315E-2</v>
       </c>
       <c r="C354" t="s">
@@ -18721,7 +18682,7 @@
         <v>42</v>
       </c>
       <c r="B355" s="2">
-        <f t="shared" si="6"/>
+        <f>H355*0.15/0.73</f>
         <v>7.681982878683391E-2</v>
       </c>
       <c r="C355" t="s">
@@ -18745,7 +18706,7 @@
         <v>42</v>
       </c>
       <c r="B356" s="2">
-        <f t="shared" si="6"/>
+        <f>H356*0.15/0.73</f>
         <v>1.8784546756579354E-2</v>
       </c>
       <c r="C356" t="s">
@@ -18769,7 +18730,7 @@
         <v>42</v>
       </c>
       <c r="B357" s="2">
-        <f t="shared" si="6"/>
+        <f>H357*0.15/0.73</f>
         <v>2.7107087928923217E-3</v>
       </c>
       <c r="C357" t="s">
@@ -18793,7 +18754,7 @@
         <v>42</v>
       </c>
       <c r="B358" s="2">
-        <f t="shared" si="6"/>
+        <f>H358*0.15/0.73</f>
         <v>3.6142792394426096E-2</v>
       </c>
       <c r="C358" t="s">
@@ -18817,7 +18778,7 @@
         <v>42</v>
       </c>
       <c r="B359" s="2">
-        <f t="shared" si="6"/>
+        <f>H359*0.15/0.73</f>
         <v>2.2159440602143355E-2</v>
       </c>
       <c r="C359" t="s">
@@ -18841,7 +18802,7 @@
         <v>42</v>
       </c>
       <c r="B360" s="2">
-        <f t="shared" si="6"/>
+        <f>H360*0.15/0.73</f>
         <v>7.7770887201006375E-2</v>
       </c>
       <c r="C360" t="s">
@@ -18865,7 +18826,7 @@
         <v>42</v>
       </c>
       <c r="B361" s="2">
-        <f t="shared" si="6"/>
+        <f>H361*0.15/0.73</f>
         <v>5.5531232434975063E-2</v>
       </c>
       <c r="C361" t="s">
@@ -18889,7 +18850,7 @@
         <v>119</v>
       </c>
       <c r="B362" s="2">
-        <f t="shared" si="6"/>
+        <f>H362*0.15/0.73</f>
         <v>0.11981400002669856</v>
       </c>
       <c r="C362" t="s">
@@ -18913,7 +18874,7 @@
         <v>119</v>
       </c>
       <c r="B363" s="2">
-        <f t="shared" si="6"/>
+        <f>H363*0.15/0.73</f>
         <v>1.9181172767281394E-2</v>
       </c>
       <c r="C363" t="s">
@@ -18937,7 +18898,7 @@
         <v>119</v>
       </c>
       <c r="B364" s="2">
-        <f t="shared" si="6"/>
+        <f>H364*0.15/0.73</f>
         <v>7.7392895160763161E-3</v>
       </c>
       <c r="C364" t="s">
@@ -18961,7 +18922,7 @@
         <v>406</v>
       </c>
       <c r="B365" s="2">
-        <f t="shared" si="6"/>
+        <f>H365*0.15/0.73</f>
         <v>6.3592707090007192E-8</v>
       </c>
       <c r="C365" t="s">
@@ -18985,7 +18946,7 @@
         <v>406</v>
       </c>
       <c r="B366" s="2">
-        <f t="shared" si="6"/>
+        <f>H366*0.15/0.73</f>
         <v>1.2659108981468733E-7</v>
       </c>
       <c r="C366" t="s">
@@ -19009,7 +18970,7 @@
         <v>407</v>
       </c>
       <c r="B367" s="2">
-        <f t="shared" si="6"/>
+        <f>H367*0.15/0.73</f>
         <v>5.118973476047856E-6</v>
       </c>
       <c r="C367" t="s">
@@ -19033,7 +18994,7 @@
         <v>407</v>
       </c>
       <c r="B368" s="2">
-        <f t="shared" si="6"/>
+        <f>H368*0.15/0.73</f>
         <v>1.1398370462029973E-5</v>
       </c>
       <c r="C368" t="s">
@@ -19057,7 +19018,7 @@
         <v>408</v>
       </c>
       <c r="B369" s="2">
-        <f t="shared" si="6"/>
+        <f>H369*0.15/0.73</f>
         <v>1.031794704007087E-6</v>
       </c>
       <c r="C369" t="s">
@@ -19081,7 +19042,7 @@
         <v>409</v>
       </c>
       <c r="B370" s="2">
-        <f t="shared" si="6"/>
+        <f>H370*0.15/0.73</f>
         <v>1.0620337198223199E-6</v>
       </c>
       <c r="C370" t="s">
@@ -19105,7 +19066,7 @@
         <v>410</v>
       </c>
       <c r="B371" s="2">
-        <f t="shared" si="6"/>
+        <f>H371*0.15/0.73</f>
         <v>1.1814536583461115E-4</v>
       </c>
       <c r="C371" t="s">
@@ -19129,7 +19090,7 @@
         <v>411</v>
       </c>
       <c r="B372" s="2">
-        <f t="shared" si="6"/>
+        <f>H372*0.15/0.73</f>
         <v>1.761992524407785E-3</v>
       </c>
       <c r="C372" t="s">
@@ -19153,7 +19114,7 @@
         <v>411</v>
       </c>
       <c r="B373" s="2">
-        <f t="shared" si="6"/>
+        <f>H373*0.15/0.73</f>
         <v>2.2442205198561164E-4</v>
       </c>
       <c r="C373" t="s">
@@ -19177,7 +19138,7 @@
         <v>411</v>
       </c>
       <c r="B374" s="2">
-        <f t="shared" si="6"/>
+        <f>H374*0.15/0.73</f>
         <v>1.3583395515829604E-4</v>
       </c>
       <c r="C374" t="s">
@@ -19201,7 +19162,7 @@
         <v>411</v>
       </c>
       <c r="B375" s="2">
-        <f t="shared" si="6"/>
+        <f>H375*0.15/0.73</f>
         <v>2.1991889620774109E-4</v>
       </c>
       <c r="C375" t="s">
@@ -19225,7 +19186,7 @@
         <v>411</v>
       </c>
       <c r="B376" s="2">
-        <f t="shared" si="6"/>
+        <f>H376*0.15/0.73</f>
         <v>3.6552304600253016E-4</v>
       </c>
       <c r="C376" t="s">
@@ -19249,7 +19210,7 @@
         <v>411</v>
       </c>
       <c r="B377" s="2">
-        <f t="shared" si="6"/>
+        <f>H377*0.15/0.73</f>
         <v>5.2185150029867052E-5</v>
       </c>
       <c r="C377" t="s">
@@ -19273,7 +19234,7 @@
         <v>411</v>
       </c>
       <c r="B378" s="2">
-        <f t="shared" si="6"/>
+        <f>H378*0.15/0.73</f>
         <v>1.7122604403432327E-4</v>
       </c>
       <c r="C378" t="s">
@@ -19297,7 +19258,7 @@
         <v>411</v>
       </c>
       <c r="B379" s="2">
-        <f t="shared" si="6"/>
+        <f>H379*0.15/0.73</f>
         <v>9.5437881223544996E-5</v>
       </c>
       <c r="C379" t="s">
@@ -19321,7 +19282,7 @@
         <v>411</v>
       </c>
       <c r="B380" s="2">
-        <f t="shared" si="6"/>
+        <f>H380*0.15/0.73</f>
         <v>4.8500668775034865E-4</v>
       </c>
       <c r="C380" t="s">
@@ -19345,7 +19306,7 @@
         <v>120</v>
       </c>
       <c r="B381" s="2">
-        <f t="shared" si="6"/>
+        <f>H381*0.15/0.73</f>
         <v>-4.7812390428084862E-6</v>
       </c>
       <c r="C381" t="s">
@@ -19369,7 +19330,7 @@
         <v>120</v>
       </c>
       <c r="B382" s="2">
-        <f t="shared" si="6"/>
+        <f>H382*0.15/0.73</f>
         <v>-1.8291314059921436E-4</v>
       </c>
       <c r="C382" t="s">
@@ -19393,7 +19354,7 @@
         <v>120</v>
       </c>
       <c r="B383" s="2">
-        <f t="shared" si="6"/>
+        <f>H383*0.15/0.73</f>
         <v>-3.8035885203255613E-4</v>
       </c>
       <c r="C383" t="s">
@@ -19417,7 +19378,7 @@
         <v>121</v>
       </c>
       <c r="B384" s="2">
-        <f t="shared" si="6"/>
+        <f>H384*0.15/0.73</f>
         <v>-1.8346608076013485E-3</v>
       </c>
       <c r="C384" t="s">
@@ -19441,7 +19402,7 @@
         <v>412</v>
       </c>
       <c r="B385" s="2">
-        <f t="shared" si="6"/>
+        <f>H385*0.15/0.73</f>
         <v>2.1285076033956987E-2</v>
       </c>
       <c r="C385" t="s">
@@ -19465,7 +19426,7 @@
         <v>124</v>
       </c>
       <c r="B386" s="2">
-        <f t="shared" si="6"/>
+        <f>H386*0.15/0.73</f>
         <v>1.1815992053914601E-3</v>
       </c>
       <c r="C386" t="s">
@@ -19489,7 +19450,7 @@
         <v>123</v>
       </c>
       <c r="B387" s="2">
-        <f t="shared" si="6"/>
+        <f>H387*0.15/0.73</f>
         <v>3.4683752618771714E-5</v>
       </c>
       <c r="C387" t="s">
@@ -19513,7 +19474,7 @@
         <v>125</v>
       </c>
       <c r="B388" s="2">
-        <f t="shared" si="6"/>
+        <f>H388*0.15/0.73</f>
         <v>6.9810013788336162E-6</v>
       </c>
       <c r="C388" t="s">
@@ -19537,7 +19498,7 @@
         <v>125</v>
       </c>
       <c r="B389" s="2">
-        <f t="shared" si="6"/>
+        <f>H389*0.15/0.73</f>
         <v>1.8186446417846609E-6</v>
       </c>
       <c r="C389" t="s">
@@ -19561,7 +19522,7 @@
         <v>125</v>
       </c>
       <c r="B390" s="2">
-        <f t="shared" si="6"/>
+        <f>H390*0.15/0.73</f>
         <v>5.3838587518377327E-6</v>
       </c>
       <c r="C390" t="s">
@@ -19585,7 +19546,7 @@
         <v>125</v>
       </c>
       <c r="B391" s="2">
-        <f t="shared" si="6"/>
+        <f>H391*0.15/0.73</f>
         <v>1.0590205487878645E-6</v>
       </c>
       <c r="C391" t="s">
@@ -19609,7 +19570,7 @@
         <v>125</v>
       </c>
       <c r="B392" s="2">
-        <f t="shared" si="6"/>
+        <f>H392*0.15/0.73</f>
         <v>1.3585675367855074E-6</v>
       </c>
       <c r="C392" t="s">
@@ -19633,7 +19594,7 @@
         <v>125</v>
       </c>
       <c r="B393" s="2">
-        <f t="shared" si="6"/>
+        <f>H393*0.15/0.73</f>
         <v>1.2585575397587177E-4</v>
       </c>
       <c r="C393" t="s">
@@ -19657,7 +19618,7 @@
         <v>413</v>
       </c>
       <c r="B394" s="2">
-        <f t="shared" si="6"/>
+        <f>H394*0.15/0.73</f>
         <v>2.5929102328792807E-5</v>
       </c>
       <c r="C394" t="s">
@@ -19681,7 +19642,7 @@
         <v>414</v>
       </c>
       <c r="B395" s="2">
-        <f t="shared" si="6"/>
+        <f>H395*0.15/0.73</f>
         <v>6.8979579431653979E-6</v>
       </c>
       <c r="C395" t="s">
@@ -19705,7 +19666,7 @@
         <v>414</v>
       </c>
       <c r="B396" s="2">
-        <f t="shared" si="6"/>
+        <f>H396*0.15/0.73</f>
         <v>3.085317691641267E-5</v>
       </c>
       <c r="C396" t="s">
@@ -19729,7 +19690,7 @@
         <v>415</v>
       </c>
       <c r="B397" s="2">
-        <f t="shared" si="6"/>
+        <f>H397*0.15/0.73</f>
         <v>9.36941181895387E-6</v>
       </c>
       <c r="C397" t="s">
@@ -19753,7 +19714,7 @@
         <v>416</v>
       </c>
       <c r="B398" s="2">
-        <f t="shared" si="6"/>
+        <f>H398*0.15/0.73</f>
         <v>7.6526358365963212E-5</v>
       </c>
       <c r="C398" t="s">
@@ -19777,7 +19738,7 @@
         <v>127</v>
       </c>
       <c r="B399" s="2">
-        <f t="shared" si="6"/>
+        <f>H399*0.15/0.73</f>
         <v>-6.8913472854167045E-7</v>
       </c>
       <c r="C399" t="s">
@@ -19801,7 +19762,7 @@
         <v>127</v>
       </c>
       <c r="B400" s="2">
-        <f t="shared" si="6"/>
+        <f>H400*0.15/0.73</f>
         <v>-8.0013882773182402E-5</v>
       </c>
       <c r="C400" t="s">
@@ -19825,7 +19786,7 @@
         <v>127</v>
       </c>
       <c r="B401" s="2">
-        <f t="shared" si="6"/>
+        <f>H401*0.15/0.73</f>
         <v>-2.8203865826071847E-4</v>
       </c>
       <c r="C401" t="s">
@@ -19849,7 +19810,7 @@
         <v>128</v>
       </c>
       <c r="B402" s="2">
-        <f t="shared" si="6"/>
+        <f>H402*0.15/0.73</f>
         <v>-1.6396496461100753E-4</v>
       </c>
       <c r="C402" t="s">
@@ -19873,7 +19834,7 @@
         <v>129</v>
       </c>
       <c r="B403" s="2">
-        <f t="shared" si="6"/>
+        <f>H403*0.15/0.73</f>
         <v>2.3433025260462536E-5</v>
       </c>
       <c r="C403" t="s">
@@ -19897,7 +19858,7 @@
         <v>129</v>
       </c>
       <c r="B404" s="2">
-        <f t="shared" si="6"/>
+        <f>H404*0.15/0.73</f>
         <v>4.7448908771784655E-5</v>
       </c>
       <c r="C404" t="s">
@@ -19921,7 +19882,7 @@
         <v>417</v>
       </c>
       <c r="B405" s="2">
-        <f t="shared" si="6"/>
+        <f>H405*0.15/0.73</f>
         <v>1.0267337519676514E-5</v>
       </c>
       <c r="C405" t="s">
@@ -19945,7 +19906,7 @@
         <v>418</v>
       </c>
       <c r="B406" s="2">
-        <f t="shared" si="6"/>
+        <f>H406*0.15/0.73</f>
         <v>4.2783164572055758E-5</v>
       </c>
       <c r="C406" t="s">
@@ -19969,7 +19930,7 @@
         <v>419</v>
       </c>
       <c r="B407" s="2">
-        <f t="shared" si="6"/>
+        <f>H407*0.15/0.73</f>
         <v>5.8449011375930548E-5</v>
       </c>
       <c r="C407" t="s">
@@ -19993,7 +19954,7 @@
         <v>420</v>
       </c>
       <c r="B408" s="2">
-        <f t="shared" si="6"/>
+        <f>H408*0.15/0.73</f>
         <v>3.0546106016698768E-3</v>
       </c>
       <c r="C408" t="s">
@@ -20017,7 +19978,7 @@
         <v>130</v>
       </c>
       <c r="B409" s="2">
-        <f t="shared" si="6"/>
+        <f>H409*0.15/0.73</f>
         <v>1.7911554798637666E-4</v>
       </c>
       <c r="C409" t="s">
@@ -20041,7 +20002,7 @@
         <v>130</v>
       </c>
       <c r="B410" s="2">
-        <f t="shared" si="6"/>
+        <f>H410*0.15/0.73</f>
         <v>4.0715578423015889E-6</v>
       </c>
       <c r="C410" t="s">
@@ -20065,7 +20026,7 @@
         <v>130</v>
       </c>
       <c r="B411" s="2">
-        <f t="shared" si="6"/>
+        <f>H411*0.15/0.73</f>
         <v>5.8718408054800684E-7</v>
       </c>
       <c r="C411" t="s">
@@ -20089,7 +20050,7 @@
         <v>130</v>
       </c>
       <c r="B412" s="2">
-        <f t="shared" si="6"/>
+        <f>H412*0.15/0.73</f>
         <v>8.2173733341130284E-6</v>
       </c>
       <c r="C412" t="s">
@@ -20113,7 +20074,7 @@
         <v>130</v>
       </c>
       <c r="B413" s="2">
-        <f t="shared" si="6"/>
+        <f>H413*0.15/0.73</f>
         <v>5.4529498916168019E-7</v>
       </c>
       <c r="C413" t="s">
@@ -20137,7 +20098,7 @@
         <v>130</v>
       </c>
       <c r="B414" s="2">
-        <f t="shared" si="6"/>
+        <f>H414*0.15/0.73</f>
         <v>7.9011239812677324E-7</v>
       </c>
       <c r="C414" t="s">
@@ -20161,7 +20122,7 @@
         <v>130</v>
       </c>
       <c r="B415" s="2">
-        <f t="shared" si="6"/>
+        <f>H415*0.15/0.73</f>
         <v>8.2788091636181913E-5</v>
       </c>
       <c r="C415" t="s">
@@ -20185,7 +20146,7 @@
         <v>421</v>
       </c>
       <c r="B416" s="2">
-        <f t="shared" si="6"/>
+        <f>H416*0.15/0.73</f>
         <v>1.7774231755681499E-5</v>
       </c>
       <c r="C416" t="s">
@@ -20209,7 +20170,7 @@
         <v>132</v>
       </c>
       <c r="B417" s="2">
-        <f t="shared" si="6"/>
+        <f>H417*0.15/0.73</f>
         <v>4.4259307728889108E-6</v>
       </c>
       <c r="C417" t="s">
@@ -20233,7 +20194,7 @@
         <v>132</v>
       </c>
       <c r="B418" s="2">
-        <f t="shared" ref="B418:B481" si="7">H418*0.15/0.73</f>
+        <f>H418*0.15/0.73</f>
         <v>5.2141355480754667E-4</v>
       </c>
       <c r="C418" t="s">
@@ -20257,7 +20218,7 @@
         <v>134</v>
       </c>
       <c r="B419" s="2">
-        <f t="shared" si="7"/>
+        <f>H419*0.15/0.73</f>
         <v>1.695901697160906E-6</v>
       </c>
       <c r="C419" t="s">
@@ -20281,7 +20242,7 @@
         <v>134</v>
       </c>
       <c r="B420" s="2">
-        <f t="shared" si="7"/>
+        <f>H420*0.15/0.73</f>
         <v>1.6381554800401683E-4</v>
       </c>
       <c r="C420" t="s">
@@ -20305,7 +20266,7 @@
         <v>134</v>
       </c>
       <c r="B421" s="2">
-        <f t="shared" si="7"/>
+        <f>H421*0.15/0.73</f>
         <v>4.1474757231329384E-3</v>
       </c>
       <c r="C421" t="s">
@@ -20329,7 +20290,7 @@
         <v>422</v>
       </c>
       <c r="B422" s="2">
-        <f t="shared" si="7"/>
+        <f>H422*0.15/0.73</f>
         <v>1.2443265263617624E-7</v>
       </c>
       <c r="C422" t="s">
@@ -20353,7 +20314,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="2">
-        <f t="shared" si="7"/>
+        <f>H423*0.15/0.73</f>
         <v>1.1949915751178856E-6</v>
       </c>
       <c r="C423" t="s">
@@ -20377,7 +20338,7 @@
         <v>422</v>
       </c>
       <c r="B424" s="2">
-        <f t="shared" si="7"/>
+        <f>H424*0.15/0.73</f>
         <v>5.2958912080211297E-8</v>
       </c>
       <c r="C424" t="s">
@@ -20401,7 +20362,7 @@
         <v>422</v>
       </c>
       <c r="B425" s="2">
-        <f t="shared" si="7"/>
+        <f>H425*0.15/0.73</f>
         <v>1.0413098676168926E-5</v>
       </c>
       <c r="C425" t="s">
@@ -20425,7 +20386,7 @@
         <v>422</v>
       </c>
       <c r="B426" s="2">
-        <f t="shared" si="7"/>
+        <f>H426*0.15/0.73</f>
         <v>4.2444099683396917E-6</v>
       </c>
       <c r="C426" t="s">
@@ -20449,7 +20410,7 @@
         <v>422</v>
       </c>
       <c r="B427" s="2">
-        <f t="shared" si="7"/>
+        <f>H427*0.15/0.73</f>
         <v>3.7513685571560338E-7</v>
       </c>
       <c r="C427" t="s">
@@ -20473,7 +20434,7 @@
         <v>422</v>
       </c>
       <c r="B428" s="2">
-        <f t="shared" si="7"/>
+        <f>H428*0.15/0.73</f>
         <v>8.3496678737569523E-8</v>
       </c>
       <c r="C428" t="s">
@@ -20497,7 +20458,7 @@
         <v>422</v>
       </c>
       <c r="B429" s="2">
-        <f t="shared" si="7"/>
+        <f>H429*0.15/0.73</f>
         <v>1.7763287299731944E-5</v>
       </c>
       <c r="C429" t="s">
@@ -20521,7 +20482,7 @@
         <v>135</v>
       </c>
       <c r="B430" s="2">
-        <f t="shared" si="7"/>
+        <f>H430*0.15/0.73</f>
         <v>8.3872293541468564E-6</v>
       </c>
       <c r="C430" t="s">
@@ -20545,7 +20506,7 @@
         <v>423</v>
       </c>
       <c r="B431" s="2">
-        <f t="shared" si="7"/>
+        <f>H431*0.15/0.73</f>
         <v>1.0477208065836699E-6</v>
       </c>
       <c r="C431" t="s">
@@ -20569,7 +20530,7 @@
         <v>424</v>
       </c>
       <c r="B432" s="2">
-        <f t="shared" si="7"/>
+        <f>H432*0.15/0.73</f>
         <v>2.098953682477685E-4</v>
       </c>
       <c r="C432" t="s">
@@ -20593,7 +20554,7 @@
         <v>425</v>
       </c>
       <c r="B433" s="2">
-        <f t="shared" si="7"/>
+        <f>H433*0.15/0.73</f>
         <v>6.3427567689121236E-7</v>
       </c>
       <c r="C433" t="s">
@@ -20617,7 +20578,7 @@
         <v>426</v>
       </c>
       <c r="B434" s="2">
-        <f t="shared" si="7"/>
+        <f>H434*0.15/0.73</f>
         <v>8.4451472912549999E-10</v>
       </c>
       <c r="C434" t="s">
@@ -20641,7 +20602,7 @@
         <v>426</v>
       </c>
       <c r="B435" s="2">
-        <f t="shared" si="7"/>
+        <f>H435*0.15/0.73</f>
         <v>5.0088532434316435E-7</v>
       </c>
       <c r="C435" t="s">
@@ -20665,7 +20626,7 @@
         <v>139</v>
       </c>
       <c r="B436" s="2">
-        <f t="shared" si="7"/>
+        <f>H436*0.15/0.73</f>
         <v>-7.3859408661702943E-8</v>
       </c>
       <c r="C436" t="s">
@@ -20689,7 +20650,7 @@
         <v>139</v>
       </c>
       <c r="B437" s="2">
-        <f t="shared" si="7"/>
+        <f>H437*0.15/0.73</f>
         <v>-1.0554950064006802E-7</v>
       </c>
       <c r="C437" t="s">
@@ -20713,7 +20674,7 @@
         <v>139</v>
       </c>
       <c r="B438" s="2">
-        <f t="shared" si="7"/>
+        <f>H438*0.15/0.73</f>
         <v>-2.0730751349352737E-4</v>
       </c>
       <c r="C438" t="s">
@@ -20737,7 +20698,7 @@
         <v>138</v>
       </c>
       <c r="B439" s="2">
-        <f t="shared" si="7"/>
+        <f>H439*0.15/0.73</f>
         <v>-1.7220536373216798E-5</v>
       </c>
       <c r="C439" t="s">
@@ -20761,7 +20722,7 @@
         <v>427</v>
       </c>
       <c r="B440" s="2">
-        <f t="shared" si="7"/>
+        <f>H440*0.15/0.73</f>
         <v>-2.1907236100479042E-2</v>
       </c>
       <c r="C440" t="s">
@@ -20785,7 +20746,7 @@
         <v>428</v>
       </c>
       <c r="B441" s="2">
-        <f t="shared" si="7"/>
+        <f>H441*0.15/0.73</f>
         <v>-4.8617232468244932E-3</v>
       </c>
       <c r="C441" t="s">
@@ -20809,7 +20770,7 @@
         <v>429</v>
       </c>
       <c r="B442" s="2">
-        <f t="shared" si="7"/>
+        <f>H442*0.15/0.73</f>
         <v>1.8007832171732546E-4</v>
       </c>
       <c r="C442" t="s">
@@ -20833,7 +20794,7 @@
         <v>429</v>
       </c>
       <c r="B443" s="2">
-        <f t="shared" si="7"/>
+        <f>H443*0.15/0.73</f>
         <v>5.0851985944923494E-3</v>
       </c>
       <c r="C443" t="s">
@@ -20857,7 +20818,7 @@
         <v>429</v>
       </c>
       <c r="B444" s="2">
-        <f t="shared" si="7"/>
+        <f>H444*0.15/0.73</f>
         <v>7.3908442327886515E-5</v>
       </c>
       <c r="C444" t="s">
@@ -20881,7 +20842,7 @@
         <v>429</v>
       </c>
       <c r="B445" s="2">
-        <f t="shared" si="7"/>
+        <f>H445*0.15/0.73</f>
         <v>5.4203184281702663E-6</v>
       </c>
       <c r="C445" t="s">
@@ -20905,7 +20866,7 @@
         <v>429</v>
       </c>
       <c r="B446" s="2">
-        <f t="shared" si="7"/>
+        <f>H446*0.15/0.73</f>
         <v>5.3965282689171158E-7</v>
       </c>
       <c r="C446" t="s">
@@ -20929,7 +20890,7 @@
         <v>429</v>
       </c>
       <c r="B447" s="2">
-        <f t="shared" si="7"/>
+        <f>H447*0.15/0.73</f>
         <v>8.0993739344491854E-6</v>
       </c>
       <c r="C447" t="s">
@@ -20953,7 +20914,7 @@
         <v>429</v>
       </c>
       <c r="B448" s="2">
-        <f t="shared" si="7"/>
+        <f>H448*0.15/0.73</f>
         <v>1.3483167186354843E-5</v>
       </c>
       <c r="C448" t="s">
@@ -20977,7 +20938,7 @@
         <v>429</v>
       </c>
       <c r="B449" s="2">
-        <f t="shared" si="7"/>
+        <f>H449*0.15/0.73</f>
         <v>7.6002327121614446E-5</v>
       </c>
       <c r="C449" t="s">
@@ -21001,7 +20962,7 @@
         <v>429</v>
       </c>
       <c r="B450" s="2">
-        <f t="shared" si="7"/>
+        <f>H450*0.15/0.73</f>
         <v>2.5272491785195889E-4</v>
       </c>
       <c r="C450" t="s">
@@ -21025,7 +20986,7 @@
         <v>140</v>
       </c>
       <c r="B451" s="2">
-        <f t="shared" si="7"/>
+        <f>H451*0.15/0.73</f>
         <v>8.3581836971211357E-5</v>
       </c>
       <c r="C451" t="s">
@@ -21049,7 +21010,7 @@
         <v>430</v>
       </c>
       <c r="B452" s="2">
-        <f t="shared" si="7"/>
+        <f>H452*0.15/0.73</f>
         <v>9.1222295679167461E-4</v>
       </c>
       <c r="C452" t="s">
@@ -21073,7 +21034,7 @@
         <v>143</v>
       </c>
       <c r="B453" s="2">
-        <f t="shared" si="7"/>
+        <f>H453*0.15/0.73</f>
         <v>2.3774218518657738E-2</v>
       </c>
       <c r="C453" t="s">
@@ -21097,7 +21058,7 @@
         <v>144</v>
       </c>
       <c r="B454" s="2">
-        <f t="shared" si="7"/>
+        <f>H454*0.15/0.73</f>
         <v>3.8896528781239723E-6</v>
       </c>
       <c r="C454" t="s">
@@ -21121,7 +21082,7 @@
         <v>144</v>
       </c>
       <c r="B455" s="2">
-        <f t="shared" si="7"/>
+        <f>H455*0.15/0.73</f>
         <v>3.3327237626300554E-7</v>
       </c>
       <c r="C455" t="s">
@@ -21145,7 +21106,7 @@
         <v>144</v>
       </c>
       <c r="B456" s="2">
-        <f t="shared" si="7"/>
+        <f>H456*0.15/0.73</f>
         <v>8.9376882366995132E-8</v>
       </c>
       <c r="C456" t="s">
@@ -21169,7 +21130,7 @@
         <v>144</v>
       </c>
       <c r="B457" s="2">
-        <f t="shared" si="7"/>
+        <f>H457*0.15/0.73</f>
         <v>3.6937500599838283E-7</v>
       </c>
       <c r="C457" t="s">
@@ -21193,7 +21154,7 @@
         <v>144</v>
       </c>
       <c r="B458" s="2">
-        <f t="shared" si="7"/>
+        <f>H458*0.15/0.73</f>
         <v>1.8351117126246923E-8</v>
       </c>
       <c r="C458" t="s">
@@ -21217,7 +21178,7 @@
         <v>144</v>
       </c>
       <c r="B459" s="2">
-        <f t="shared" si="7"/>
+        <f>H459*0.15/0.73</f>
         <v>8.9086541278030265E-8</v>
       </c>
       <c r="C459" t="s">
@@ -21241,7 +21202,7 @@
         <v>144</v>
       </c>
       <c r="B460" s="2">
-        <f t="shared" si="7"/>
+        <f>H460*0.15/0.73</f>
         <v>1.0257929940206055E-5</v>
       </c>
       <c r="C460" t="s">
@@ -21265,7 +21226,7 @@
         <v>431</v>
       </c>
       <c r="B461" s="2">
-        <f t="shared" si="7"/>
+        <f>H461*0.15/0.73</f>
         <v>5.8742848599038621E-6</v>
       </c>
       <c r="C461" t="s">
@@ -21289,7 +21250,7 @@
         <v>432</v>
       </c>
       <c r="B462" s="2">
-        <f t="shared" si="7"/>
+        <f>H462*0.15/0.73</f>
         <v>2.3665713336657946E-6</v>
       </c>
       <c r="C462" t="s">
@@ -21313,7 +21274,7 @@
         <v>145</v>
       </c>
       <c r="B463" s="2">
-        <f t="shared" si="7"/>
+        <f>H463*0.15/0.73</f>
         <v>1.2200595921971979E-5</v>
       </c>
       <c r="C463" t="s">
@@ -21337,7 +21298,7 @@
         <v>145</v>
       </c>
       <c r="B464" s="2">
-        <f t="shared" si="7"/>
+        <f>H464*0.15/0.73</f>
         <v>1.3172404256385514E-4</v>
       </c>
       <c r="C464" t="s">
@@ -21361,7 +21322,7 @@
         <v>146</v>
       </c>
       <c r="B465" s="2">
-        <f t="shared" si="7"/>
+        <f>H465*0.15/0.73</f>
         <v>1.3455680800364815E-4</v>
       </c>
       <c r="C465" t="s">
@@ -21385,7 +21346,7 @@
         <v>433</v>
       </c>
       <c r="B466" s="2">
-        <f t="shared" si="7"/>
+        <f>H466*0.15/0.73</f>
         <v>2.3343896906124863E-6</v>
       </c>
       <c r="C466" t="s">
@@ -21409,7 +21370,7 @@
         <v>148</v>
       </c>
       <c r="B467" s="2">
-        <f t="shared" si="7"/>
+        <f>H467*0.15/0.73</f>
         <v>1.2504513654204433E-4</v>
       </c>
       <c r="C467" t="s">
@@ -21433,7 +21394,7 @@
         <v>149</v>
       </c>
       <c r="B468" s="2">
-        <f t="shared" si="7"/>
+        <f>H468*0.15/0.73</f>
         <v>1.7906122059814582E-8</v>
       </c>
       <c r="C468" t="s">
@@ -21457,7 +21418,7 @@
         <v>149</v>
       </c>
       <c r="B469" s="2">
-        <f t="shared" si="7"/>
+        <f>H469*0.15/0.73</f>
         <v>1.0820045212140165E-3</v>
       </c>
       <c r="C469" t="s">
@@ -21481,7 +21442,7 @@
         <v>150</v>
       </c>
       <c r="B470" s="2">
-        <f t="shared" si="7"/>
+        <f>H470*0.15/0.73</f>
         <v>8.3008519684910152E-4</v>
       </c>
       <c r="C470" t="s">
@@ -21505,7 +21466,7 @@
         <v>434</v>
       </c>
       <c r="B471" s="2">
-        <f t="shared" si="7"/>
+        <f>H471*0.15/0.73</f>
         <v>3.3422151203163085E-3</v>
       </c>
       <c r="C471" t="s">
@@ -21529,7 +21490,7 @@
         <v>435</v>
       </c>
       <c r="B472" s="2">
-        <f t="shared" si="7"/>
+        <f>H472*0.15/0.73</f>
         <v>1.4613462660695652E-7</v>
       </c>
       <c r="C472" t="s">
@@ -21553,7 +21514,7 @@
         <v>152</v>
       </c>
       <c r="B473" s="2">
-        <f t="shared" si="7"/>
+        <f>H473*0.15/0.73</f>
         <v>6.3810330723802192E-4</v>
       </c>
       <c r="C473" t="s">
@@ -21577,7 +21538,7 @@
         <v>436</v>
       </c>
       <c r="B474" s="2">
-        <f t="shared" si="7"/>
+        <f>H474*0.15/0.73</f>
         <v>3.9310596131344112E-5</v>
       </c>
       <c r="C474" t="s">
@@ -21601,7 +21562,7 @@
         <v>154</v>
       </c>
       <c r="B475" s="2">
-        <f t="shared" si="7"/>
+        <f>H475*0.15/0.73</f>
         <v>1.7113265828822199E-6</v>
       </c>
       <c r="C475" t="s">
@@ -21625,7 +21586,7 @@
         <v>155</v>
       </c>
       <c r="B476" s="2">
-        <f t="shared" si="7"/>
+        <f>H476*0.15/0.73</f>
         <v>1.5075206627962254E-7</v>
       </c>
       <c r="C476" t="s">
@@ -21649,7 +21610,7 @@
         <v>437</v>
       </c>
       <c r="B477" s="2">
-        <f t="shared" si="7"/>
+        <f>H477*0.15/0.73</f>
         <v>1.7479055960998048E-4</v>
       </c>
       <c r="C477" t="s">
@@ -21673,7 +21634,7 @@
         <v>438</v>
       </c>
       <c r="B478" s="2">
-        <f t="shared" si="7"/>
+        <f>H478*0.15/0.73</f>
         <v>6.2784396344495131E-4</v>
       </c>
       <c r="C478" t="s">
@@ -21697,7 +21658,7 @@
         <v>439</v>
       </c>
       <c r="B479" s="2">
-        <f t="shared" si="7"/>
+        <f>H479*0.15/0.73</f>
         <v>5.6806188392037744E-7</v>
       </c>
       <c r="C479" t="s">
@@ -21721,7 +21682,7 @@
         <v>439</v>
       </c>
       <c r="B480" s="2">
-        <f t="shared" si="7"/>
+        <f>H480*0.15/0.73</f>
         <v>2.6966615868863833E-6</v>
       </c>
       <c r="C480" t="s">
@@ -21745,7 +21706,7 @@
         <v>440</v>
       </c>
       <c r="B481" s="2">
-        <f t="shared" si="7"/>
+        <f>H481*0.15/0.73</f>
         <v>2.8504234824718153E-6</v>
       </c>
       <c r="C481" t="s">
@@ -21769,7 +21730,7 @@
         <v>156</v>
       </c>
       <c r="B482" s="2">
-        <f t="shared" ref="B482:B545" si="8">H482*0.15/0.73</f>
+        <f>H482*0.15/0.73</f>
         <v>4.9613148952829181E-6</v>
       </c>
       <c r="C482" t="s">
@@ -21793,7 +21754,7 @@
         <v>441</v>
       </c>
       <c r="B483" s="2">
-        <f t="shared" si="8"/>
+        <f>H483*0.15/0.73</f>
         <v>2.343033360496274E-7</v>
       </c>
       <c r="C483" t="s">
@@ -21817,7 +21778,7 @@
         <v>441</v>
       </c>
       <c r="B484" s="2">
-        <f t="shared" si="8"/>
+        <f>H484*0.15/0.73</f>
         <v>1.3289093920698699E-6</v>
       </c>
       <c r="C484" t="s">
@@ -21841,7 +21802,7 @@
         <v>442</v>
       </c>
       <c r="B485" s="2">
-        <f t="shared" si="8"/>
+        <f>H485*0.15/0.73</f>
         <v>6.1741138855329243E-5</v>
       </c>
       <c r="C485" t="s">
@@ -21865,7 +21826,7 @@
         <v>443</v>
       </c>
       <c r="B486" s="2">
-        <f t="shared" si="8"/>
+        <f>H486*0.15/0.73</f>
         <v>3.88937331758926E-8</v>
       </c>
       <c r="C486" t="s">
@@ -21889,7 +21850,7 @@
         <v>158</v>
       </c>
       <c r="B487" s="2">
-        <f t="shared" si="8"/>
+        <f>H487*0.15/0.73</f>
         <v>-5.6179241322078084E-6</v>
       </c>
       <c r="C487" t="s">
@@ -21913,7 +21874,7 @@
         <v>158</v>
       </c>
       <c r="B488" s="2">
-        <f t="shared" si="8"/>
+        <f>H488*0.15/0.73</f>
         <v>-1.658011993173078E-5</v>
       </c>
       <c r="C488" t="s">
@@ -21937,7 +21898,7 @@
         <v>158</v>
       </c>
       <c r="B489" s="2">
-        <f t="shared" si="8"/>
+        <f>H489*0.15/0.73</f>
         <v>-2.0443448847862209E-6</v>
       </c>
       <c r="C489" t="s">
@@ -21961,7 +21922,7 @@
         <v>158</v>
       </c>
       <c r="B490" s="2">
-        <f t="shared" si="8"/>
+        <f>H490*0.15/0.73</f>
         <v>-8.4671292078547392E-7</v>
       </c>
       <c r="C490" t="s">
@@ -21985,7 +21946,7 @@
         <v>158</v>
       </c>
       <c r="B491" s="2">
-        <f t="shared" si="8"/>
+        <f>H491*0.15/0.73</f>
         <v>-2.3340945534960821E-6</v>
       </c>
       <c r="C491" t="s">
@@ -22009,7 +21970,7 @@
         <v>158</v>
       </c>
       <c r="B492" s="2">
-        <f t="shared" si="8"/>
+        <f>H492*0.15/0.73</f>
         <v>-4.3301478268306639E-6</v>
       </c>
       <c r="C492" t="s">
@@ -22033,7 +21994,7 @@
         <v>158</v>
       </c>
       <c r="B493" s="2">
-        <f t="shared" si="8"/>
+        <f>H493*0.15/0.73</f>
         <v>-2.9779827061846441E-6</v>
       </c>
       <c r="C493" t="s">
@@ -22057,7 +22018,7 @@
         <v>158</v>
       </c>
       <c r="B494" s="2">
-        <f t="shared" si="8"/>
+        <f>H494*0.15/0.73</f>
         <v>-9.5359835413177807E-6</v>
       </c>
       <c r="C494" t="s">
@@ -22081,7 +22042,7 @@
         <v>444</v>
       </c>
       <c r="B495" s="2">
-        <f t="shared" si="8"/>
+        <f>H495*0.15/0.73</f>
         <v>7.9398887050819315E-5</v>
       </c>
       <c r="C495" t="s">
@@ -22105,7 +22066,7 @@
         <v>160</v>
       </c>
       <c r="B496" s="2">
-        <f t="shared" si="8"/>
+        <f>H496*0.15/0.73</f>
         <v>3.7077295936628016E-4</v>
       </c>
       <c r="C496" t="s">
@@ -22129,7 +22090,7 @@
         <v>160</v>
       </c>
       <c r="B497" s="2">
-        <f t="shared" si="8"/>
+        <f>H497*0.15/0.73</f>
         <v>2.8342017467512192E-3</v>
       </c>
       <c r="C497" t="s">
@@ -22153,7 +22114,7 @@
         <v>445</v>
       </c>
       <c r="B498" s="2">
-        <f t="shared" si="8"/>
+        <f>H498*0.15/0.73</f>
         <v>1.3768320404239191E-4</v>
       </c>
       <c r="C498" t="s">
@@ -22177,7 +22138,7 @@
         <v>445</v>
       </c>
       <c r="B499" s="2">
-        <f t="shared" si="8"/>
+        <f>H499*0.15/0.73</f>
         <v>2.7390200482754594E-5</v>
       </c>
       <c r="C499" t="s">
@@ -22201,7 +22162,7 @@
         <v>445</v>
       </c>
       <c r="B500" s="2">
-        <f t="shared" si="8"/>
+        <f>H500*0.15/0.73</f>
         <v>6.9067258622221024E-4</v>
       </c>
       <c r="C500" t="s">
@@ -22225,7 +22186,7 @@
         <v>445</v>
       </c>
       <c r="B501" s="2">
-        <f t="shared" si="8"/>
+        <f>H501*0.15/0.73</f>
         <v>1.7967673667795609E-5</v>
       </c>
       <c r="C501" t="s">
@@ -22249,7 +22210,7 @@
         <v>445</v>
       </c>
       <c r="B502" s="2">
-        <f t="shared" si="8"/>
+        <f>H502*0.15/0.73</f>
         <v>5.1108742879008904E-5</v>
       </c>
       <c r="C502" t="s">
@@ -22273,7 +22234,7 @@
         <v>445</v>
       </c>
       <c r="B503" s="2">
-        <f t="shared" si="8"/>
+        <f>H503*0.15/0.73</f>
         <v>7.9037171399301363E-3</v>
       </c>
       <c r="C503" t="s">
@@ -22297,7 +22258,7 @@
         <v>161</v>
       </c>
       <c r="B504" s="2">
-        <f t="shared" si="8"/>
+        <f>H504*0.15/0.73</f>
         <v>5.9018984838643766E-3</v>
       </c>
       <c r="C504" t="s">
@@ -22321,7 +22282,7 @@
         <v>377</v>
       </c>
       <c r="B505" s="2">
-        <f t="shared" si="8"/>
+        <f>H505*0.15/0.73</f>
         <v>1.1519015659593843E-3</v>
       </c>
       <c r="C505" t="s">
@@ -22345,7 +22306,7 @@
         <v>446</v>
       </c>
       <c r="B506" s="2">
-        <f t="shared" si="8"/>
+        <f>H506*0.15/0.73</f>
         <v>1.5348096219682829E-3</v>
       </c>
       <c r="C506" t="s">
@@ -22369,7 +22330,7 @@
         <v>162</v>
       </c>
       <c r="B507" s="2">
-        <f t="shared" si="8"/>
+        <f>H507*0.15/0.73</f>
         <v>3.3642827848030478E-3</v>
       </c>
       <c r="C507" t="s">
@@ -22393,7 +22354,7 @@
         <v>162</v>
       </c>
       <c r="B508" s="2">
-        <f t="shared" si="8"/>
+        <f>H508*0.15/0.73</f>
         <v>8.1390538465375467E-4</v>
       </c>
       <c r="C508" t="s">
@@ -22417,7 +22378,7 @@
         <v>162</v>
       </c>
       <c r="B509" s="2">
-        <f t="shared" si="8"/>
+        <f>H509*0.15/0.73</f>
         <v>7.5463091853303294E-3</v>
       </c>
       <c r="C509" t="s">
@@ -22441,7 +22402,7 @@
         <v>447</v>
       </c>
       <c r="B510" s="2">
-        <f t="shared" si="8"/>
+        <f>H510*0.15/0.73</f>
         <v>4.7999584600343631E-5</v>
       </c>
       <c r="C510" t="s">
@@ -22465,7 +22426,7 @@
         <v>448</v>
       </c>
       <c r="B511" s="2">
-        <f t="shared" si="8"/>
+        <f>H511*0.15/0.73</f>
         <v>6.5978788366014448E-8</v>
       </c>
       <c r="C511" t="s">
@@ -22489,7 +22450,7 @@
         <v>449</v>
       </c>
       <c r="B512" s="2">
-        <f t="shared" si="8"/>
+        <f>H512*0.15/0.73</f>
         <v>4.2499845451836777E-4</v>
       </c>
       <c r="C512" t="s">
@@ -22513,7 +22474,7 @@
         <v>450</v>
       </c>
       <c r="B513" s="2">
-        <f t="shared" si="8"/>
+        <f>H513*0.15/0.73</f>
         <v>5.2439809551873898E-3</v>
       </c>
       <c r="C513" t="s">
@@ -22537,7 +22498,7 @@
         <v>451</v>
       </c>
       <c r="B514" s="2">
-        <f t="shared" si="8"/>
+        <f>H514*0.15/0.73</f>
         <v>1.3949279803594416E-6</v>
       </c>
       <c r="C514" t="s">
@@ -22561,7 +22522,7 @@
         <v>451</v>
       </c>
       <c r="B515" s="2">
-        <f t="shared" si="8"/>
+        <f>H515*0.15/0.73</f>
         <v>2.5611180303712605E-7</v>
       </c>
       <c r="C515" t="s">
@@ -22585,7 +22546,7 @@
         <v>451</v>
       </c>
       <c r="B516" s="2">
-        <f t="shared" si="8"/>
+        <f>H516*0.15/0.73</f>
         <v>1.6335411088654868E-6</v>
       </c>
       <c r="C516" t="s">
@@ -22609,7 +22570,7 @@
         <v>453</v>
       </c>
       <c r="B517" s="2">
-        <f t="shared" si="8"/>
+        <f>H517*0.15/0.73</f>
         <v>-8.4855232768937458E-7</v>
       </c>
       <c r="C517" t="s">
@@ -22633,7 +22594,7 @@
         <v>453</v>
       </c>
       <c r="B518" s="2">
-        <f t="shared" si="8"/>
+        <f>H518*0.15/0.73</f>
         <v>-7.8209228835022194E-8</v>
       </c>
       <c r="C518" t="s">
@@ -22657,7 +22618,7 @@
         <v>453</v>
       </c>
       <c r="B519" s="2">
-        <f t="shared" si="8"/>
+        <f>H519*0.15/0.73</f>
         <v>-1.7743040797764798E-9</v>
       </c>
       <c r="C519" t="s">
@@ -22681,7 +22642,7 @@
         <v>453</v>
       </c>
       <c r="B520" s="2">
-        <f t="shared" si="8"/>
+        <f>H520*0.15/0.73</f>
         <v>-7.2968081866900891E-9</v>
       </c>
       <c r="C520" t="s">
@@ -22705,7 +22666,7 @@
         <v>453</v>
       </c>
       <c r="B521" s="2">
-        <f t="shared" si="8"/>
+        <f>H521*0.15/0.73</f>
         <v>-1.1080610414813774E-8</v>
       </c>
       <c r="C521" t="s">
@@ -22729,7 +22690,7 @@
         <v>453</v>
       </c>
       <c r="B522" s="2">
-        <f t="shared" si="8"/>
+        <f>H522*0.15/0.73</f>
         <v>-3.2650534875944593E-8</v>
       </c>
       <c r="C522" t="s">
@@ -22753,7 +22714,7 @@
         <v>454</v>
       </c>
       <c r="B523" s="2">
-        <f t="shared" si="8"/>
+        <f>H523*0.15/0.73</f>
         <v>-1.6118487483170465E-6</v>
       </c>
       <c r="C523" t="s">
@@ -22777,7 +22738,7 @@
         <v>452</v>
       </c>
       <c r="B524" s="2">
-        <f t="shared" si="8"/>
+        <f>H524*0.15/0.73</f>
         <v>-1.0256380660590697E-6</v>
       </c>
       <c r="C524" t="s">
@@ -22801,7 +22762,7 @@
         <v>455</v>
       </c>
       <c r="B525" s="2">
-        <f t="shared" si="8"/>
+        <f>H525*0.15/0.73</f>
         <v>-1.3245028097215868E-6</v>
       </c>
       <c r="C525" t="s">
@@ -22825,7 +22786,7 @@
         <v>455</v>
       </c>
       <c r="B526" s="2">
-        <f t="shared" si="8"/>
+        <f>H526*0.15/0.73</f>
         <v>-2.8019382981341096E-5</v>
       </c>
       <c r="C526" t="s">
@@ -22849,7 +22810,7 @@
         <v>455</v>
       </c>
       <c r="B527" s="2">
-        <f t="shared" si="8"/>
+        <f>H527*0.15/0.73</f>
         <v>-9.1226850730185202E-5</v>
       </c>
       <c r="C527" t="s">
@@ -22873,7 +22834,7 @@
         <v>165</v>
       </c>
       <c r="B528" s="2">
-        <f t="shared" si="8"/>
+        <f>H528*0.15/0.73</f>
         <v>-4.7569632383740068E-6</v>
       </c>
       <c r="C528" t="s">
@@ -22897,7 +22858,7 @@
         <v>165</v>
       </c>
       <c r="B529" s="2">
-        <f t="shared" si="8"/>
+        <f>H529*0.15/0.73</f>
         <v>-1.9215377972951159E-4</v>
       </c>
       <c r="C529" t="s">
@@ -22921,7 +22882,7 @@
         <v>165</v>
       </c>
       <c r="B530" s="2">
-        <f t="shared" si="8"/>
+        <f>H530*0.15/0.73</f>
         <v>-5.0312538800981914E-4</v>
       </c>
       <c r="C530" t="s">
@@ -22945,7 +22906,7 @@
         <v>166</v>
       </c>
       <c r="B531" s="2">
-        <f t="shared" si="8"/>
+        <f>H531*0.15/0.73</f>
         <v>-1.1768698212111143E-6</v>
       </c>
       <c r="C531" t="s">
@@ -22969,7 +22930,7 @@
         <v>456</v>
       </c>
       <c r="B532" s="2">
-        <f t="shared" si="8"/>
+        <f>H532*0.15/0.73</f>
         <v>-4.9847617284397603E-8</v>
       </c>
       <c r="C532" t="s">
@@ -22993,7 +22954,7 @@
         <v>456</v>
       </c>
       <c r="B533" s="2">
-        <f t="shared" si="8"/>
+        <f>H533*0.15/0.73</f>
         <v>-7.611957736402214E-9</v>
       </c>
       <c r="C533" t="s">
@@ -23017,7 +22978,7 @@
         <v>456</v>
       </c>
       <c r="B534" s="2">
-        <f t="shared" si="8"/>
+        <f>H534*0.15/0.73</f>
         <v>-6.6559670590082881E-10</v>
       </c>
       <c r="C534" t="s">
@@ -23041,7 +23002,7 @@
         <v>456</v>
       </c>
       <c r="B535" s="2">
-        <f t="shared" si="8"/>
+        <f>H535*0.15/0.73</f>
         <v>-2.7505212903496639E-8</v>
       </c>
       <c r="C535" t="s">
@@ -23065,7 +23026,7 @@
         <v>456</v>
       </c>
       <c r="B536" s="2">
-        <f t="shared" si="8"/>
+        <f>H536*0.15/0.73</f>
         <v>-2.6819868577125617E-9</v>
       </c>
       <c r="C536" t="s">
@@ -23089,7 +23050,7 @@
         <v>456</v>
       </c>
       <c r="B537" s="2">
-        <f t="shared" si="8"/>
+        <f>H537*0.15/0.73</f>
         <v>-4.9646338579451095E-9</v>
       </c>
       <c r="C537" t="s">
@@ -23113,7 +23074,7 @@
         <v>456</v>
       </c>
       <c r="B538" s="2">
-        <f t="shared" si="8"/>
+        <f>H538*0.15/0.73</f>
         <v>-9.2600023877223297E-7</v>
       </c>
       <c r="C538" t="s">
@@ -23137,7 +23098,7 @@
         <v>457</v>
       </c>
       <c r="B539" s="2">
-        <f t="shared" si="8"/>
+        <f>H539*0.15/0.73</f>
         <v>-1.224189742860945E-7</v>
       </c>
       <c r="C539" t="s">
@@ -23161,7 +23122,7 @@
         <v>458</v>
       </c>
       <c r="B540" s="2">
-        <f t="shared" si="8"/>
+        <f>H540*0.15/0.73</f>
         <v>-1.65140171545763E-6</v>
       </c>
       <c r="C540" t="s">
@@ -23185,7 +23146,7 @@
         <v>459</v>
       </c>
       <c r="B541" s="2">
-        <f t="shared" si="8"/>
+        <f>H541*0.15/0.73</f>
         <v>-7.516076245291767E-9</v>
       </c>
       <c r="C541" t="s">
@@ -23209,7 +23170,7 @@
         <v>459</v>
       </c>
       <c r="B542" s="2">
-        <f t="shared" si="8"/>
+        <f>H542*0.15/0.73</f>
         <v>-5.0219524195030057E-10</v>
       </c>
       <c r="C542" t="s">
@@ -23233,7 +23194,7 @@
         <v>459</v>
       </c>
       <c r="B543" s="2">
-        <f t="shared" si="8"/>
+        <f>H543*0.15/0.73</f>
         <v>-3.7980209058441576E-11</v>
       </c>
       <c r="C543" t="s">
@@ -23257,7 +23218,7 @@
         <v>459</v>
       </c>
       <c r="B544" s="2">
-        <f t="shared" si="8"/>
+        <f>H544*0.15/0.73</f>
         <v>-2.0742462079220754E-10</v>
       </c>
       <c r="C544" t="s">
@@ -23281,7 +23242,7 @@
         <v>459</v>
       </c>
       <c r="B545" s="2">
-        <f t="shared" si="8"/>
+        <f>H545*0.15/0.73</f>
         <v>-8.3797177738531437E-11</v>
       </c>
       <c r="C545" t="s">
@@ -23305,7 +23266,7 @@
         <v>459</v>
       </c>
       <c r="B546" s="2">
-        <f t="shared" ref="B546:B609" si="9">H546*0.15/0.73</f>
+        <f>H546*0.15/0.73</f>
         <v>-1.9696906933982711E-10</v>
       </c>
       <c r="C546" t="s">
@@ -23329,7 +23290,7 @@
         <v>459</v>
       </c>
       <c r="B547" s="2">
-        <f t="shared" si="9"/>
+        <f>H547*0.15/0.73</f>
         <v>-5.2616691462178569E-8</v>
       </c>
       <c r="C547" t="s">
@@ -23353,7 +23314,7 @@
         <v>460</v>
       </c>
       <c r="B548" s="2">
-        <f t="shared" si="9"/>
+        <f>H548*0.15/0.73</f>
         <v>-6.5140535694475482E-9</v>
       </c>
       <c r="C548" t="s">
@@ -23377,7 +23338,7 @@
         <v>461</v>
       </c>
       <c r="B549" s="2">
-        <f t="shared" si="9"/>
+        <f>H549*0.15/0.73</f>
         <v>-7.998226715083644E-6</v>
       </c>
       <c r="C549" t="s">
@@ -23401,7 +23362,7 @@
         <v>461</v>
       </c>
       <c r="B550" s="2">
-        <f t="shared" si="9"/>
+        <f>H550*0.15/0.73</f>
         <v>-5.3437561870066028E-4</v>
       </c>
       <c r="C550" t="s">
@@ -23425,7 +23386,7 @@
         <v>462</v>
       </c>
       <c r="B551" s="2">
-        <f t="shared" si="9"/>
+        <f>H551*0.15/0.73</f>
         <v>-1.6133185962305921E-5</v>
       </c>
       <c r="C551" t="s">
@@ -23449,7 +23410,7 @@
         <v>462</v>
       </c>
       <c r="B552" s="2">
-        <f t="shared" si="9"/>
+        <f>H552*0.15/0.73</f>
         <v>-2.0031783075917363E-6</v>
       </c>
       <c r="C552" t="s">
@@ -23473,7 +23434,7 @@
         <v>462</v>
       </c>
       <c r="B553" s="2">
-        <f t="shared" si="9"/>
+        <f>H553*0.15/0.73</f>
         <v>-1.4645490050509562E-7</v>
       </c>
       <c r="C553" t="s">
@@ -23497,7 +23458,7 @@
         <v>462</v>
       </c>
       <c r="B554" s="2">
-        <f t="shared" si="9"/>
+        <f>H554*0.15/0.73</f>
         <v>-5.6263230051489052E-6</v>
       </c>
       <c r="C554" t="s">
@@ -23521,7 +23482,7 @@
         <v>462</v>
       </c>
       <c r="B555" s="2">
-        <f t="shared" si="9"/>
+        <f>H555*0.15/0.73</f>
         <v>-8.5000213106120958E-7</v>
       </c>
       <c r="C555" t="s">
@@ -23545,7 +23506,7 @@
         <v>462</v>
       </c>
       <c r="B556" s="2">
-        <f t="shared" si="9"/>
+        <f>H556*0.15/0.73</f>
         <v>-1.3437824393198425E-6</v>
       </c>
       <c r="C556" t="s">
@@ -23569,7 +23530,7 @@
         <v>463</v>
       </c>
       <c r="B557" s="2">
-        <f t="shared" si="9"/>
+        <f>H557*0.15/0.73</f>
         <v>-2.5461014043342324E-5</v>
       </c>
       <c r="C557" t="s">
@@ -23593,7 +23554,7 @@
         <v>464</v>
       </c>
       <c r="B558" s="2">
-        <f t="shared" si="9"/>
+        <f>H558*0.15/0.73</f>
         <v>-2.6155145268687329E-7</v>
       </c>
       <c r="C558" t="s">
@@ -23617,7 +23578,7 @@
         <v>464</v>
       </c>
       <c r="B559" s="2">
-        <f t="shared" si="9"/>
+        <f>H559*0.15/0.73</f>
         <v>-2.4177151131083629E-6</v>
       </c>
       <c r="C559" t="s">
@@ -23641,7 +23602,7 @@
         <v>464</v>
       </c>
       <c r="B560" s="2">
-        <f t="shared" si="9"/>
+        <f>H560*0.15/0.73</f>
         <v>-5.0583798973488284E-6</v>
       </c>
       <c r="C560" t="s">
@@ -23665,7 +23626,7 @@
         <v>465</v>
       </c>
       <c r="B561" s="2">
-        <f t="shared" si="9"/>
+        <f>H561*0.15/0.73</f>
         <v>7.9825572567657948E-4</v>
       </c>
       <c r="C561" t="s">
@@ -23689,7 +23650,7 @@
         <v>465</v>
       </c>
       <c r="B562" s="2">
-        <f t="shared" si="9"/>
+        <f>H562*0.15/0.73</f>
         <v>0.22175288200139381</v>
       </c>
       <c r="C562" t="s">
@@ -23713,7 +23674,7 @@
         <v>465</v>
       </c>
       <c r="B563" s="2">
-        <f t="shared" si="9"/>
+        <f>H563*0.15/0.73</f>
         <v>0.71987998025779731</v>
       </c>
       <c r="C563" t="s">
@@ -23737,7 +23698,7 @@
         <v>466</v>
       </c>
       <c r="B564" s="2">
-        <f t="shared" si="9"/>
+        <f>H564*0.15/0.73</f>
         <v>4.2456456769868835E-4</v>
       </c>
       <c r="C564" t="s">
@@ -23761,7 +23722,7 @@
         <v>467</v>
       </c>
       <c r="B565" s="2">
-        <f t="shared" si="9"/>
+        <f>H565*0.15/0.73</f>
         <v>0.272628504245437</v>
       </c>
       <c r="C565" t="s">
@@ -23785,7 +23746,7 @@
         <v>468</v>
       </c>
       <c r="B566" s="2">
-        <f t="shared" si="9"/>
+        <f>H566*0.15/0.73</f>
         <v>7.0001604643974667E-3</v>
       </c>
       <c r="C566" t="s">
@@ -23809,7 +23770,7 @@
         <v>170</v>
       </c>
       <c r="B567" s="2">
-        <f t="shared" si="9"/>
+        <f>H567*0.15/0.73</f>
         <v>-3.418104598966952E-2</v>
       </c>
       <c r="C567" t="s">
@@ -23833,7 +23794,7 @@
         <v>487</v>
       </c>
       <c r="B568" s="2">
-        <f t="shared" si="9"/>
+        <f>H568*0.15/0.73</f>
         <v>5.7482048515646706E-8</v>
       </c>
       <c r="C568" t="s">
@@ -23854,7 +23815,7 @@
         <v>196</v>
       </c>
       <c r="B569" s="2">
-        <f t="shared" si="9"/>
+        <f>H569*0.15/0.73</f>
         <v>5.7462385751748493E-8</v>
       </c>
       <c r="C569" t="s">
@@ -23875,7 +23836,7 @@
         <v>198</v>
       </c>
       <c r="B570" s="2">
-        <f t="shared" si="9"/>
+        <f>H570*0.15/0.73</f>
         <v>5.7336659098580136E-6</v>
       </c>
       <c r="C570" t="s">
@@ -23896,7 +23857,7 @@
         <v>199</v>
       </c>
       <c r="B571" s="2">
-        <f t="shared" si="9"/>
+        <f>H571*0.15/0.73</f>
         <v>3.6101940508429519E-6</v>
       </c>
       <c r="C571" t="s">
@@ -23917,7 +23878,7 @@
         <v>199</v>
       </c>
       <c r="B572" s="2">
-        <f t="shared" si="9"/>
+        <f>H572*0.15/0.73</f>
         <v>8.269539521763022E-7</v>
       </c>
       <c r="C572" t="s">
@@ -23938,7 +23899,7 @@
         <v>200</v>
       </c>
       <c r="B573" s="2">
-        <f t="shared" si="9"/>
+        <f>H573*0.15/0.73</f>
         <v>1.174437349195019E-8</v>
       </c>
       <c r="C573" t="s">
@@ -23959,7 +23920,7 @@
         <v>200</v>
       </c>
       <c r="B574" s="2">
-        <f t="shared" si="9"/>
+        <f>H574*0.15/0.73</f>
         <v>1.4019381835901054E-7</v>
       </c>
       <c r="C574" t="s">
@@ -23980,7 +23941,7 @@
         <v>201</v>
       </c>
       <c r="B575" s="2">
-        <f t="shared" si="9"/>
+        <f>H575*0.15/0.73</f>
         <v>3.1139631569430198E-8</v>
       </c>
       <c r="C575" t="s">
@@ -24001,7 +23962,7 @@
         <v>202</v>
       </c>
       <c r="B576" s="2">
-        <f t="shared" si="9"/>
+        <f>H576*0.15/0.73</f>
         <v>1.8499716853518926E-8</v>
       </c>
       <c r="C576" t="s">
@@ -24022,7 +23983,7 @@
         <v>202</v>
       </c>
       <c r="B577" s="2">
-        <f t="shared" si="9"/>
+        <f>H577*0.15/0.73</f>
         <v>2.2657600882615685E-8</v>
       </c>
       <c r="C577" t="s">
@@ -24043,7 +24004,7 @@
         <v>204</v>
       </c>
       <c r="B578" s="2">
-        <f t="shared" si="9"/>
+        <f>H578*0.15/0.73</f>
         <v>2.0131433788666332E-9</v>
       </c>
       <c r="C578" t="s">
@@ -24064,7 +24025,7 @@
         <v>205</v>
       </c>
       <c r="B579" s="2">
-        <f t="shared" si="9"/>
+        <f>H579*0.15/0.73</f>
         <v>1.2902418928190712E-13</v>
       </c>
       <c r="C579" t="s">
@@ -24085,7 +24046,7 @@
         <v>207</v>
       </c>
       <c r="B580" s="2">
-        <f t="shared" si="9"/>
+        <f>H580*0.15/0.73</f>
         <v>1.1546463183089773E-6</v>
       </c>
       <c r="C580" t="s">
@@ -24106,7 +24067,7 @@
         <v>208</v>
       </c>
       <c r="B581" s="2">
-        <f t="shared" si="9"/>
+        <f>H581*0.15/0.73</f>
         <v>8.4407241775427066E-7</v>
       </c>
       <c r="C581" t="s">
@@ -24127,7 +24088,7 @@
         <v>210</v>
       </c>
       <c r="B582" s="2">
-        <f t="shared" si="9"/>
+        <f>H582*0.15/0.73</f>
         <v>1.5044841323650008E-8</v>
       </c>
       <c r="C582" t="s">
@@ -24148,7 +24109,7 @@
         <v>210</v>
       </c>
       <c r="B583" s="2">
-        <f t="shared" si="9"/>
+        <f>H583*0.15/0.73</f>
         <v>1.78447164911783E-8</v>
       </c>
       <c r="C583" t="s">
@@ -24169,7 +24130,7 @@
         <v>213</v>
       </c>
       <c r="B584" s="2">
-        <f t="shared" si="9"/>
+        <f>H584*0.15/0.73</f>
         <v>9.1018559633889047E-6</v>
       </c>
       <c r="C584" t="s">
@@ -24190,7 +24151,7 @@
         <v>214</v>
       </c>
       <c r="B585" s="2">
-        <f t="shared" si="9"/>
+        <f>H585*0.15/0.73</f>
         <v>3.4220077281874109E-2</v>
       </c>
       <c r="C585" t="s">
@@ -24211,7 +24172,7 @@
         <v>215</v>
       </c>
       <c r="B586" s="2">
-        <f t="shared" si="9"/>
+        <f>H586*0.15/0.73</f>
         <v>3.4040638707267536E-6</v>
       </c>
       <c r="C586" t="s">
@@ -24232,7 +24193,7 @@
         <v>216</v>
       </c>
       <c r="B587" s="2">
-        <f t="shared" si="9"/>
+        <f>H587*0.15/0.73</f>
         <v>8.850153054657061E-6</v>
       </c>
       <c r="C587" t="s">
@@ -24253,7 +24214,7 @@
         <v>217</v>
       </c>
       <c r="B588" s="2">
-        <f t="shared" si="9"/>
+        <f>H588*0.15/0.73</f>
         <v>2.7634598397553974E-5</v>
       </c>
       <c r="C588" t="s">
@@ -24274,7 +24235,7 @@
         <v>218</v>
       </c>
       <c r="B589" s="2">
-        <f t="shared" si="9"/>
+        <f>H589*0.15/0.73</f>
         <v>1.3962869164879973E-8</v>
       </c>
       <c r="C589" t="s">
@@ -24295,7 +24256,7 @@
         <v>219</v>
       </c>
       <c r="B590" s="2">
-        <f t="shared" si="9"/>
+        <f>H590*0.15/0.73</f>
         <v>7.7960337975964307E-10</v>
       </c>
       <c r="C590" t="s">
@@ -24316,7 +24277,7 @@
         <v>220</v>
       </c>
       <c r="B591" s="2">
-        <f t="shared" si="9"/>
+        <f>H591*0.15/0.73</f>
         <v>6.3427567689121227E-11</v>
       </c>
       <c r="C591" t="s">
@@ -24337,7 +24298,7 @@
         <v>222</v>
       </c>
       <c r="B592" s="2">
-        <f t="shared" si="9"/>
+        <f>H592*0.15/0.73</f>
         <v>3.9642229805700825E-11</v>
       </c>
       <c r="C592" t="s">
@@ -24358,7 +24319,7 @@
         <v>222</v>
       </c>
       <c r="B593" s="2">
-        <f t="shared" si="9"/>
+        <f>H593*0.15/0.73</f>
         <v>3.7105989393918699E-10</v>
       </c>
       <c r="C593" t="s">
@@ -24379,7 +24340,7 @@
         <v>223</v>
       </c>
       <c r="B594" s="2">
-        <f t="shared" si="9"/>
+        <f>H594*0.15/0.73</f>
         <v>3.0312755403348286E-6</v>
       </c>
       <c r="C594" t="s">
@@ -24400,7 +24361,7 @@
         <v>223</v>
       </c>
       <c r="B595" s="2">
-        <f t="shared" si="9"/>
+        <f>H595*0.15/0.73</f>
         <v>1.7638249251196028E-6</v>
       </c>
       <c r="C595" t="s">
@@ -24421,7 +24382,7 @@
         <v>224</v>
       </c>
       <c r="B596" s="2">
-        <f t="shared" si="9"/>
+        <f>H596*0.15/0.73</f>
         <v>8.0892158592415887E-8</v>
       </c>
       <c r="C596" t="s">
@@ -24442,7 +24403,7 @@
         <v>226</v>
       </c>
       <c r="B597" s="2">
-        <f t="shared" si="9"/>
+        <f>H597*0.15/0.73</f>
         <v>5.3942571190834936E-8</v>
       </c>
       <c r="C597" t="s">
@@ -24463,7 +24424,7 @@
         <v>226</v>
       </c>
       <c r="B598" s="2">
-        <f t="shared" si="9"/>
+        <f>H598*0.15/0.73</f>
         <v>5.8621773869906717E-9</v>
       </c>
       <c r="C598" t="s">
@@ -24484,7 +24445,7 @@
         <v>227</v>
       </c>
       <c r="B599" s="2">
-        <f t="shared" si="9"/>
+        <f>H599*0.15/0.73</f>
         <v>4.5813572346745065E-10</v>
       </c>
       <c r="C599" t="s">
@@ -24505,7 +24466,7 @@
         <v>227</v>
       </c>
       <c r="B600" s="2">
-        <f t="shared" si="9"/>
+        <f>H600*0.15/0.73</f>
         <v>1.9446892987298116E-10</v>
       </c>
       <c r="C600" t="s">
@@ -24526,7 +24487,7 @@
         <v>228</v>
       </c>
       <c r="B601" s="2">
-        <f t="shared" si="9"/>
+        <f>H601*0.15/0.73</f>
         <v>6.9748012422850066E-16</v>
       </c>
       <c r="C601" t="s">
@@ -24547,7 +24508,7 @@
         <v>229</v>
       </c>
       <c r="B602" s="2">
-        <f t="shared" si="9"/>
+        <f>H602*0.15/0.73</f>
         <v>5.668838862215219E-7</v>
       </c>
       <c r="C602" t="s">
@@ -24568,7 +24529,7 @@
         <v>230</v>
       </c>
       <c r="B603" s="2">
-        <f t="shared" si="9"/>
+        <f>H603*0.15/0.73</f>
         <v>1.1901498508226403E-7</v>
       </c>
       <c r="C603" t="s">
@@ -24589,7 +24550,7 @@
         <v>232</v>
       </c>
       <c r="B604" s="2">
-        <f t="shared" si="9"/>
+        <f>H604*0.15/0.73</f>
         <v>7.2061416413856777E-7</v>
       </c>
       <c r="C604" t="s">
@@ -24610,7 +24571,7 @@
         <v>232</v>
       </c>
       <c r="B605" s="2">
-        <f t="shared" si="9"/>
+        <f>H605*0.15/0.73</f>
         <v>9.6574155838421913E-7</v>
       </c>
       <c r="C605" t="s">
@@ -24631,7 +24592,7 @@
         <v>234</v>
       </c>
       <c r="B606" s="2">
-        <f t="shared" si="9"/>
+        <f>H606*0.15/0.73</f>
         <v>8.6931191360150141E-9</v>
       </c>
       <c r="C606" t="s">
@@ -24652,7 +24613,7 @@
         <v>237</v>
       </c>
       <c r="B607" s="2">
-        <f t="shared" si="9"/>
+        <f>H607*0.15/0.73</f>
         <v>4.3606452786271032E-7</v>
       </c>
       <c r="C607" t="s">
@@ -24673,7 +24634,7 @@
         <v>238</v>
       </c>
       <c r="B608" s="2">
-        <f t="shared" si="9"/>
+        <f>H608*0.15/0.73</f>
         <v>1.5653270487250828E-7</v>
       </c>
       <c r="C608" t="s">
@@ -24694,7 +24655,7 @@
         <v>241</v>
       </c>
       <c r="B609" s="2">
-        <f t="shared" si="9"/>
+        <f>H609*0.15/0.73</f>
         <v>3.5479373334625273E-7</v>
       </c>
       <c r="C609" t="s">
@@ -24715,7 +24676,7 @@
         <v>241</v>
       </c>
       <c r="B610" s="2">
-        <f t="shared" ref="B610:B659" si="10">H610*0.15/0.73</f>
+        <f>H610*0.15/0.73</f>
         <v>7.9343323388176239E-8</v>
       </c>
       <c r="C610" t="s">
@@ -24736,7 +24697,7 @@
         <v>242</v>
       </c>
       <c r="B611" s="2">
-        <f t="shared" si="10"/>
+        <f>H611*0.15/0.73</f>
         <v>7.7809598337538346E-7</v>
       </c>
       <c r="C611" t="s">
@@ -24757,7 +24718,7 @@
         <v>242</v>
       </c>
       <c r="B612" s="2">
-        <f t="shared" si="10"/>
+        <f>H612*0.15/0.73</f>
         <v>8.6774101919225144E-8</v>
       </c>
       <c r="C612" t="s">
@@ -24778,7 +24739,7 @@
         <v>242</v>
       </c>
       <c r="B613" s="2">
-        <f t="shared" si="10"/>
+        <f>H613*0.15/0.73</f>
         <v>1.0545071430986754E-8</v>
       </c>
       <c r="C613" t="s">
@@ -24799,7 +24760,7 @@
         <v>244</v>
       </c>
       <c r="B614" s="2">
-        <f t="shared" si="10"/>
+        <f>H614*0.15/0.73</f>
         <v>2.2356770961843493E-5</v>
       </c>
       <c r="C614" t="s">
@@ -24820,7 +24781,7 @@
         <v>246</v>
       </c>
       <c r="B615" s="2">
-        <f t="shared" si="10"/>
+        <f>H615*0.15/0.73</f>
         <v>2.1715027287249044E-6</v>
       </c>
       <c r="C615" t="s">
@@ -24841,7 +24802,7 @@
         <v>246</v>
       </c>
       <c r="B616" s="2">
-        <f t="shared" si="10"/>
+        <f>H616*0.15/0.73</f>
         <v>6.1481811952783965E-9</v>
       </c>
       <c r="C616" t="s">
@@ -24862,7 +24823,7 @@
         <v>248</v>
       </c>
       <c r="B617" s="2">
-        <f t="shared" si="10"/>
+        <f>H617*0.15/0.73</f>
         <v>1.6602690568065041E-9</v>
       </c>
       <c r="C617" t="s">
@@ -24883,7 +24844,7 @@
         <v>248</v>
       </c>
       <c r="B618" s="2">
-        <f t="shared" si="10"/>
+        <f>H618*0.15/0.73</f>
         <v>2.170076770954089E-9</v>
       </c>
       <c r="C618" t="s">
@@ -24904,7 +24865,7 @@
         <v>248</v>
       </c>
       <c r="B619" s="2">
-        <f t="shared" si="10"/>
+        <f>H619*0.15/0.73</f>
         <v>6.2656423250605473E-9</v>
       </c>
       <c r="C619" t="s">
@@ -24925,7 +24886,7 @@
         <v>250</v>
       </c>
       <c r="B620" s="2">
-        <f t="shared" si="10"/>
+        <f>H620*0.15/0.73</f>
         <v>5.2645420805056434E-7</v>
       </c>
       <c r="C620" t="s">
@@ -24946,7 +24907,7 @@
         <v>488</v>
       </c>
       <c r="B621" s="2">
-        <f t="shared" si="10"/>
+        <f>H621*0.15/0.73</f>
         <v>4.4100576846959171E-11</v>
       </c>
       <c r="C621" t="s">
@@ -24967,7 +24928,7 @@
         <v>252</v>
       </c>
       <c r="B622" s="2">
-        <f t="shared" si="10"/>
+        <f>H622*0.15/0.73</f>
         <v>1.517368844387168E-9</v>
       </c>
       <c r="C622" t="s">
@@ -24988,7 +24949,7 @@
         <v>254</v>
       </c>
       <c r="B623" s="2">
-        <f t="shared" si="10"/>
+        <f>H623*0.15/0.73</f>
         <v>1.516857653009246E-9</v>
       </c>
       <c r="C623" t="s">
@@ -25009,7 +24970,7 @@
         <v>254</v>
       </c>
       <c r="B624" s="2">
-        <f t="shared" si="10"/>
+        <f>H624*0.15/0.73</f>
         <v>7.5320236630831638E-11</v>
       </c>
       <c r="C624" t="s">
@@ -25030,7 +24991,7 @@
         <v>255</v>
       </c>
       <c r="B625" s="2">
-        <f t="shared" si="10"/>
+        <f>H625*0.15/0.73</f>
         <v>5.1198124649368972E-6</v>
       </c>
       <c r="C625" t="s">
@@ -25051,7 +25012,7 @@
         <v>255</v>
       </c>
       <c r="B626" s="2">
-        <f t="shared" si="10"/>
+        <f>H626*0.15/0.73</f>
         <v>1.0308053778017671E-7</v>
       </c>
       <c r="C626" t="s">
@@ -25072,7 +25033,7 @@
         <v>257</v>
       </c>
       <c r="B627" s="2">
-        <f t="shared" si="10"/>
+        <f>H627*0.15/0.73</f>
         <v>2.3283325220858631E-10</v>
       </c>
       <c r="C627" t="s">
@@ -25093,7 +25054,7 @@
         <v>257</v>
       </c>
       <c r="B628" s="2">
-        <f t="shared" si="10"/>
+        <f>H628*0.15/0.73</f>
         <v>2.0023687833301396E-6</v>
       </c>
       <c r="C628" t="s">
@@ -25114,7 +25075,7 @@
         <v>489</v>
       </c>
       <c r="B629" s="2">
-        <f t="shared" si="10"/>
+        <f>H629*0.15/0.73</f>
         <v>5.8340678961894242E-9</v>
       </c>
       <c r="C629" t="s">
@@ -25135,7 +25096,7 @@
         <v>258</v>
       </c>
       <c r="B630" s="2">
-        <f t="shared" si="10"/>
+        <f>H630*0.15/0.73</f>
         <v>1.4134689139217054E-3</v>
       </c>
       <c r="C630" t="s">
@@ -25156,7 +25117,7 @@
         <v>260</v>
       </c>
       <c r="B631" s="2">
-        <f t="shared" si="10"/>
+        <f>H631*0.15/0.73</f>
         <v>1.3554379900762829E-6</v>
       </c>
       <c r="C631" t="s">
@@ -25177,7 +25138,7 @@
         <v>261</v>
       </c>
       <c r="B632" s="2">
-        <f t="shared" si="10"/>
+        <f>H632*0.15/0.73</f>
         <v>2.6667751533512668E-11</v>
       </c>
       <c r="C632" t="s">
@@ -25198,7 +25159,7 @@
         <v>262</v>
       </c>
       <c r="B633" s="2">
-        <f t="shared" si="10"/>
+        <f>H633*0.15/0.73</f>
         <v>9.4416578001832392E-7</v>
       </c>
       <c r="C633" t="s">
@@ -25219,7 +25180,7 @@
         <v>263</v>
       </c>
       <c r="B634" s="2">
-        <f t="shared" si="10"/>
+        <f>H634*0.15/0.73</f>
         <v>3.6171833688338013E-5</v>
       </c>
       <c r="C634" t="s">
@@ -25240,7 +25201,7 @@
         <v>264</v>
       </c>
       <c r="B635" s="2">
-        <f t="shared" si="10"/>
+        <f>H635*0.15/0.73</f>
         <v>2.6604788504842602E-7</v>
       </c>
       <c r="C635" t="s">
@@ -25261,7 +25222,7 @@
         <v>490</v>
       </c>
       <c r="B636" s="2">
-        <f t="shared" si="10"/>
+        <f>H636*0.15/0.73</f>
         <v>3.5004407377136508E-10</v>
       </c>
       <c r="C636" t="s">
@@ -25282,7 +25243,7 @@
         <v>265</v>
       </c>
       <c r="B637" s="2">
-        <f t="shared" si="10"/>
+        <f>H637*0.15/0.73</f>
         <v>5.5499121727981019E-8</v>
       </c>
       <c r="C637" t="s">
@@ -25303,7 +25264,7 @@
         <v>270</v>
       </c>
       <c r="B638" s="2">
-        <f t="shared" si="10"/>
+        <f>H638*0.15/0.73</f>
         <v>6.3411853223932398E-9</v>
       </c>
       <c r="C638" t="s">
@@ -25324,7 +25285,7 @@
         <v>274</v>
       </c>
       <c r="B639" s="2">
-        <f t="shared" si="10"/>
+        <f>H639*0.15/0.73</f>
         <v>3.5749362838781094E-5</v>
       </c>
       <c r="C639" t="s">
@@ -25345,7 +25306,7 @@
         <v>276</v>
       </c>
       <c r="B640" s="2">
-        <f t="shared" si="10"/>
+        <f>H640*0.15/0.73</f>
         <v>1.8914541724920697E-4</v>
       </c>
       <c r="C640" t="s">
@@ -25366,7 +25327,7 @@
         <v>491</v>
       </c>
       <c r="B641" s="2">
-        <f t="shared" si="10"/>
+        <f>H641*0.15/0.73</f>
         <v>2.7329096922891986E-3</v>
       </c>
       <c r="C641" t="s">
@@ -25387,7 +25348,7 @@
         <v>277</v>
       </c>
       <c r="B642" s="2">
-        <f t="shared" si="10"/>
+        <f>H642*0.15/0.73</f>
         <v>6.4267920358050006E-4</v>
       </c>
       <c r="C642" t="s">
@@ -25408,7 +25369,7 @@
         <v>278</v>
       </c>
       <c r="B643" s="2">
-        <f t="shared" si="10"/>
+        <f>H643*0.15/0.73</f>
         <v>4.128942402772809E-6</v>
       </c>
       <c r="C643" t="s">
@@ -25429,7 +25390,7 @@
         <v>492</v>
       </c>
       <c r="B644" s="2">
-        <f t="shared" si="10"/>
+        <f>H644*0.15/0.73</f>
         <v>1.6345502488458616E-4</v>
       </c>
       <c r="C644" t="s">
@@ -25450,7 +25411,7 @@
         <v>492</v>
       </c>
       <c r="B645" s="2">
-        <f t="shared" si="10"/>
+        <f>H645*0.15/0.73</f>
         <v>5.1237187964331368E-6</v>
       </c>
       <c r="C645" t="s">
@@ -25471,7 +25432,7 @@
         <v>280</v>
       </c>
       <c r="B646" s="2">
-        <f t="shared" si="10"/>
+        <f>H646*0.15/0.73</f>
         <v>2.9195657292603699E-6</v>
       </c>
       <c r="C646" t="s">
@@ -25492,7 +25453,7 @@
         <v>493</v>
       </c>
       <c r="B647" s="2">
-        <f t="shared" si="10"/>
+        <f>H647*0.15/0.73</f>
         <v>4.7454032350962534E-9</v>
       </c>
       <c r="C647" t="s">
@@ -25513,7 +25474,7 @@
         <v>282</v>
       </c>
       <c r="B648" s="2">
-        <f t="shared" si="10"/>
+        <f>H648*0.15/0.73</f>
         <v>1.1901498508226403E-7</v>
       </c>
       <c r="C648" t="s">
@@ -25534,7 +25495,7 @@
         <v>284</v>
       </c>
       <c r="B649" s="2">
-        <f t="shared" si="10"/>
+        <f>H649*0.15/0.73</f>
         <v>1.2057073652124782E-8</v>
       </c>
       <c r="C649" t="s">
@@ -25555,7 +25516,7 @@
         <v>285</v>
       </c>
       <c r="B650" s="2">
-        <f t="shared" si="10"/>
+        <f>H650*0.15/0.73</f>
         <v>5.0317523840835827E-2</v>
       </c>
       <c r="C650" t="s">
@@ -25576,7 +25537,7 @@
         <v>285</v>
       </c>
       <c r="B651" s="2">
-        <f t="shared" si="10"/>
+        <f>H651*0.15/0.73</f>
         <v>8.8795630307357265E-3</v>
       </c>
       <c r="C651" t="s">
@@ -25597,7 +25558,7 @@
         <v>285</v>
       </c>
       <c r="B652" s="2">
-        <f t="shared" si="10"/>
+        <f>H652*0.15/0.73</f>
         <v>5.3398801490784046E-5</v>
       </c>
       <c r="C652" t="s">
@@ -25618,7 +25579,7 @@
         <v>286</v>
       </c>
       <c r="B653" s="2">
-        <f t="shared" si="10"/>
+        <f>H653*0.15/0.73</f>
         <v>7.5092454619788687E-3</v>
       </c>
       <c r="C653" t="s">
@@ -25639,7 +25600,7 @@
         <v>288</v>
       </c>
       <c r="B654" s="2">
-        <f t="shared" si="10"/>
+        <f>H654*0.15/0.73</f>
         <v>3.3079492386173222E-3</v>
       </c>
       <c r="C654" t="s">
@@ -25660,7 +25621,7 @@
         <v>289</v>
       </c>
       <c r="B655" s="2">
-        <f t="shared" si="10"/>
+        <f>H655*0.15/0.73</f>
         <v>4.7373015138927541E-2</v>
       </c>
       <c r="C655" t="s">
@@ -25681,7 +25642,7 @@
         <v>290</v>
       </c>
       <c r="B656" s="2">
-        <f t="shared" si="10"/>
+        <f>H656*0.15/0.73</f>
         <v>1.1085192398574946E-4</v>
       </c>
       <c r="C656" t="s">
@@ -25702,7 +25663,7 @@
         <v>291</v>
       </c>
       <c r="B657" s="2">
-        <f t="shared" si="10"/>
+        <f>H657*0.15/0.73</f>
         <v>8.3335753384035818E-6</v>
       </c>
       <c r="C657" t="s">
@@ -25723,7 +25684,7 @@
         <v>293</v>
       </c>
       <c r="B658" s="2">
-        <f t="shared" si="10"/>
+        <f>H658*0.15/0.73</f>
         <v>4.1063075435806026E-7</v>
       </c>
       <c r="C658" t="s">
@@ -25744,7 +25705,7 @@
         <v>293</v>
       </c>
       <c r="B659" s="2">
-        <f t="shared" si="10"/>
+        <f>H659*0.15/0.73</f>
         <v>7.558709511502788E-7</v>
       </c>
       <c r="C659" t="s">

--- a/premise/data/additional_inventories/lci-germanium.xlsx
+++ b/premise/data/additional_inventories/lci-germanium.xlsx
@@ -1,27 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A28CCB-238E-4CC2-8198-C2169607C30C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Allocation" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet1 (2)" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4310" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4315" uniqueCount="539">
   <si>
     <t>Allocation</t>
   </si>
@@ -1626,12 +1638,24 @@
   </si>
   <si>
     <t>Zinc II</t>
+  </si>
+  <si>
+    <t>Germanium price from USGS 2023, and converted to EUR2005 || $1,400 in 2023 is worth $897.34 in 2005 (https://www.officialdata.org/us/inflation/2023?endYear=2005&amp;amount=1400)</t>
+  </si>
+  <si>
+    <t>Multiplied original values in Ecoinvent by allocation percentage of germanium (23%) and divided by former allocation value of zinc (69%). Allocation method can be found in the "Allocation" sheet</t>
+  </si>
+  <si>
+    <t>Germanium</t>
+  </si>
+  <si>
+    <t>Added manually</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1747,7 +1771,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2035,11 +2065,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q670"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
-      <selection activeCell="A270" sqref="A270"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2074,7 +2104,7 @@
         <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>536</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2145,7 +2175,8 @@
         <v>50</v>
       </c>
       <c r="B11">
-        <v>2.0000000000000001E-4</v>
+        <f>0.0002/H11</f>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
         <v>36</v>
@@ -2158,6 +2189,9 @@
       </c>
       <c r="G11" t="s">
         <v>304</v>
+      </c>
+      <c r="H11">
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2165,8 +2199,8 @@
         <v>103</v>
       </c>
       <c r="B12" s="2">
-        <f>H12*0.24/0.69</f>
-        <v>4.9690306693737748E-6</v>
+        <f t="shared" ref="B12:B75" si="0">H12*0.21/0.69/0.0002</f>
+        <v>2.1739509178510263E-2</v>
       </c>
       <c r="C12" t="s">
         <v>36</v>
@@ -2189,8 +2223,8 @@
         <v>104</v>
       </c>
       <c r="B13" s="2">
-        <f t="shared" ref="B13:B76" si="0">H13*0.24/0.69</f>
-        <v>7.7569968014510251E-7</v>
+        <f t="shared" si="0"/>
+        <v>3.3936861006348237E-3</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
@@ -2214,7 +2248,7 @@
       </c>
       <c r="B14" s="2">
         <f t="shared" si="0"/>
-        <v>3.6823444586198613E-6</v>
+        <v>1.6110257006461893E-2</v>
       </c>
       <c r="C14" t="s">
         <v>36</v>
@@ -2238,7 +2272,7 @@
       </c>
       <c r="B15" s="2">
         <f t="shared" si="0"/>
-        <v>2.9130811840968172E-8</v>
+        <v>1.2744730180423578E-4</v>
       </c>
       <c r="C15" t="s">
         <v>36</v>
@@ -2262,7 +2296,7 @@
       </c>
       <c r="B16" s="2">
         <f t="shared" si="0"/>
-        <v>-6.6326197824014257E-9</v>
+        <v>-2.9017711548006236E-5</v>
       </c>
       <c r="C16" t="s">
         <v>36</v>
@@ -2286,7 +2320,7 @@
       </c>
       <c r="B17" s="2">
         <f t="shared" si="0"/>
-        <v>-5.2764056007556529E-7</v>
+        <v>-2.3084274503305979E-3</v>
       </c>
       <c r="C17" t="s">
         <v>36</v>
@@ -2310,7 +2344,7 @@
       </c>
       <c r="B18" s="2">
         <f t="shared" si="0"/>
-        <v>-2.5374035975555442E-7</v>
+        <v>-1.1101140739305506E-3</v>
       </c>
       <c r="C18" t="s">
         <v>36</v>
@@ -2334,7 +2368,7 @@
       </c>
       <c r="B19" s="2">
         <f t="shared" si="0"/>
-        <v>3.7664335108411823E-4</v>
+        <v>1.6478146609930175</v>
       </c>
       <c r="C19" t="s">
         <v>36</v>
@@ -2358,7 +2392,7 @@
       </c>
       <c r="B20" s="2">
         <f t="shared" si="0"/>
-        <v>5.6318716188163835E-6</v>
+        <v>2.4639438332321673E-2</v>
       </c>
       <c r="C20" t="s">
         <v>36</v>
@@ -2382,7 +2416,7 @@
       </c>
       <c r="B21" s="2">
         <f t="shared" si="0"/>
-        <v>1.6261376763025844E-6</v>
+        <v>7.1143523338238063E-3</v>
       </c>
       <c r="C21" t="s">
         <v>36</v>
@@ -2406,7 +2440,7 @@
       </c>
       <c r="B22" s="2">
         <f t="shared" si="0"/>
-        <v>5.0470766309828177E-5</v>
+        <v>0.22080960260549828</v>
       </c>
       <c r="C22" t="s">
         <v>36</v>
@@ -2430,7 +2464,7 @@
       </c>
       <c r="B23" s="2">
         <f t="shared" si="0"/>
-        <v>3.5352072851130439E-5</v>
+        <v>0.15466531872369566</v>
       </c>
       <c r="C23" t="s">
         <v>36</v>
@@ -2454,7 +2488,7 @@
       </c>
       <c r="B24" s="2">
         <f t="shared" si="0"/>
-        <v>6.9261717497650082E-4</v>
+        <v>3.030200140522191</v>
       </c>
       <c r="C24" t="s">
         <v>36</v>
@@ -2478,7 +2512,7 @@
       </c>
       <c r="B25" s="2">
         <f t="shared" si="0"/>
-        <v>1.0023423988170853E-8</v>
+        <v>4.3852479948247479E-5</v>
       </c>
       <c r="C25" t="s">
         <v>171</v>
@@ -2502,7 +2536,7 @@
       </c>
       <c r="B26" s="2">
         <f t="shared" si="0"/>
-        <v>6.2678501909822952E-11</v>
+        <v>2.7421844585547543E-7</v>
       </c>
       <c r="C26" t="s">
         <v>171</v>
@@ -2526,7 +2560,7 @@
       </c>
       <c r="B27" s="2">
         <f t="shared" si="0"/>
-        <v>4.0062525579018087E-10</v>
+        <v>1.7527354940820413E-6</v>
       </c>
       <c r="C27" t="s">
         <v>171</v>
@@ -2550,7 +2584,7 @@
       </c>
       <c r="B28" s="2">
         <f t="shared" si="0"/>
-        <v>1.6546907375545567E-7</v>
+        <v>7.2392719768011845E-4</v>
       </c>
       <c r="C28" t="s">
         <v>171</v>
@@ -2574,7 +2608,7 @@
       </c>
       <c r="B29" s="2">
         <f t="shared" si="0"/>
-        <v>8.3386493948036874E-7</v>
+        <v>3.6481591102266132E-3</v>
       </c>
       <c r="C29" t="s">
         <v>171</v>
@@ -2598,7 +2632,7 @@
       </c>
       <c r="B30" s="2">
         <f t="shared" si="0"/>
-        <v>3.5577678225021918E-8</v>
+        <v>1.5565234223447087E-4</v>
       </c>
       <c r="C30" t="s">
         <v>172</v>
@@ -2622,7 +2656,7 @@
       </c>
       <c r="B31" s="2">
         <f t="shared" si="0"/>
-        <v>2.5924564186503652E-3</v>
+        <v>11.341996831595347</v>
       </c>
       <c r="C31" t="s">
         <v>36</v>
@@ -2646,7 +2680,7 @@
       </c>
       <c r="B32" s="2">
         <f t="shared" si="0"/>
-        <v>1.7893735970115271E-5</v>
+        <v>7.8285094869254321E-2</v>
       </c>
       <c r="C32" t="s">
         <v>36</v>
@@ -2670,7 +2704,7 @@
       </c>
       <c r="B33" s="2">
         <f t="shared" si="0"/>
-        <v>5.4357043034293914E-3</v>
+        <v>23.781206327503586</v>
       </c>
       <c r="C33" t="s">
         <v>36</v>
@@ -2694,7 +2728,7 @@
       </c>
       <c r="B34" s="2">
         <f t="shared" si="0"/>
-        <v>1.470613691370414E-3</v>
+        <v>6.4339348997455605</v>
       </c>
       <c r="C34" t="s">
         <v>36</v>
@@ -2718,7 +2752,7 @@
       </c>
       <c r="B35" s="2">
         <f t="shared" si="0"/>
-        <v>2.0279590170091025E-2</v>
+        <v>88.723206994148242</v>
       </c>
       <c r="C35" t="s">
         <v>43</v>
@@ -2742,7 +2776,7 @@
       </c>
       <c r="B36" s="2">
         <f t="shared" si="0"/>
-        <v>3.3313301190411898E-2</v>
+        <v>145.74569270805205</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -2766,7 +2800,7 @@
       </c>
       <c r="B37" s="2">
         <f t="shared" si="0"/>
-        <v>1.9728804296595098E-6</v>
+        <v>8.6313518797603538E-3</v>
       </c>
       <c r="C37" t="s">
         <v>43</v>
@@ -2790,7 +2824,7 @@
       </c>
       <c r="B38" s="2">
         <f t="shared" si="0"/>
-        <v>1.381247690888727E-2</v>
+        <v>60.429586476381807</v>
       </c>
       <c r="C38" t="s">
         <v>43</v>
@@ -2814,7 +2848,7 @@
       </c>
       <c r="B39" s="2">
         <f t="shared" si="0"/>
-        <v>5.2652011138598614E-3</v>
+        <v>23.035254873136893</v>
       </c>
       <c r="C39" t="s">
         <v>43</v>
@@ -2838,7 +2872,7 @@
       </c>
       <c r="B40" s="2">
         <f t="shared" si="0"/>
-        <v>6.0040989655952004E-3</v>
+        <v>26.267932974478999</v>
       </c>
       <c r="C40" t="s">
         <v>43</v>
@@ -2862,7 +2896,7 @@
       </c>
       <c r="B41" s="2">
         <f t="shared" si="0"/>
-        <v>4.3003401976616354E-2</v>
+        <v>188.13988364769651</v>
       </c>
       <c r="C41" t="s">
         <v>43</v>
@@ -2886,7 +2920,7 @@
       </c>
       <c r="B42" s="2">
         <f t="shared" si="0"/>
-        <v>2.7568867502318399E-2</v>
+        <v>120.61379532264299</v>
       </c>
       <c r="C42" t="s">
         <v>43</v>
@@ -2910,7 +2944,7 @@
       </c>
       <c r="B43" s="2">
         <f t="shared" si="0"/>
-        <v>4.1737052017449044E-3</v>
+        <v>18.259960257633956</v>
       </c>
       <c r="C43" t="s">
         <v>43</v>
@@ -2934,7 +2968,7 @@
       </c>
       <c r="B44" s="2">
         <f t="shared" si="0"/>
-        <v>-4.8956239798073737E-4</v>
+        <v>-2.1418354911657258</v>
       </c>
       <c r="C44" t="s">
         <v>36</v>
@@ -2958,7 +2992,7 @@
       </c>
       <c r="B45" s="2">
         <f t="shared" si="0"/>
-        <v>-2.3542871489756905E-4</v>
+        <v>-1.0300006276768645</v>
       </c>
       <c r="C45" t="s">
         <v>36</v>
@@ -2982,7 +3016,7 @@
       </c>
       <c r="B46" s="2">
         <f t="shared" si="0"/>
-        <v>-6.1539644433359999E-6</v>
+        <v>-2.6923594439594998E-2</v>
       </c>
       <c r="C46" t="s">
         <v>36</v>
@@ -3006,7 +3040,7 @@
       </c>
       <c r="B47" s="2">
         <f t="shared" si="0"/>
-        <v>-1.8268872356511516E-5</v>
+        <v>-7.9926316559737864E-2</v>
       </c>
       <c r="C47" t="s">
         <v>36</v>
@@ -3030,7 +3064,7 @@
       </c>
       <c r="B48" s="2">
         <f t="shared" si="0"/>
-        <v>-1.1767441689457216E-6</v>
+        <v>-5.1482557391375324E-3</v>
       </c>
       <c r="C48" t="s">
         <v>36</v>
@@ -3054,7 +3088,7 @@
       </c>
       <c r="B49" s="2">
         <f t="shared" si="0"/>
-        <v>9.8614340878551299E-3</v>
+        <v>43.14377413436619</v>
       </c>
       <c r="C49" t="s">
         <v>173</v>
@@ -3078,7 +3112,7 @@
       </c>
       <c r="B50" s="2">
         <f t="shared" si="0"/>
-        <v>4.4594421207826439E-4</v>
+        <v>1.9510059278424066</v>
       </c>
       <c r="C50" t="s">
         <v>173</v>
@@ -3102,7 +3136,7 @@
       </c>
       <c r="B51" s="2">
         <f t="shared" si="0"/>
-        <v>2.3119923021331794E-4</v>
+        <v>1.0114966321832659</v>
       </c>
       <c r="C51" t="s">
         <v>173</v>
@@ -3126,7 +3160,7 @@
       </c>
       <c r="B52" s="2">
         <f t="shared" si="0"/>
-        <v>1.3247856075075096E-4</v>
+        <v>0.57959370328453541</v>
       </c>
       <c r="C52" t="s">
         <v>36</v>
@@ -3150,7 +3184,7 @@
       </c>
       <c r="B53" s="2">
         <f t="shared" si="0"/>
-        <v>3.3470822911790123E-6</v>
+        <v>1.4643485023908179E-2</v>
       </c>
       <c r="C53" t="s">
         <v>36</v>
@@ -3174,7 +3208,7 @@
       </c>
       <c r="B54" s="2">
         <f t="shared" si="0"/>
-        <v>7.363581040593809E-6</v>
+        <v>3.2215667052597909E-2</v>
       </c>
       <c r="C54" t="s">
         <v>36</v>
@@ -3198,7 +3232,7 @@
       </c>
       <c r="B55" s="2">
         <f t="shared" si="0"/>
-        <v>-1.9298119697789948E-7</v>
+        <v>-8.442927367783102E-4</v>
       </c>
       <c r="C55" t="s">
         <v>36</v>
@@ -3222,7 +3256,7 @@
       </c>
       <c r="B56" s="2">
         <f t="shared" si="0"/>
-        <v>-2.2406612572108038E-5</v>
+        <v>-9.802893000297265E-2</v>
       </c>
       <c r="C56" t="s">
         <v>36</v>
@@ -3246,7 +3280,7 @@
       </c>
       <c r="B57" s="2">
         <f t="shared" si="0"/>
-        <v>-7.8980430982449049E-5</v>
+        <v>-0.34553938554821451</v>
       </c>
       <c r="C57" t="s">
         <v>36</v>
@@ -3270,7 +3304,7 @@
       </c>
       <c r="B58" s="2">
         <f t="shared" si="0"/>
-        <v>-1.7231622762765044E-5</v>
+        <v>-7.5388349587097073E-2</v>
       </c>
       <c r="C58" t="s">
         <v>36</v>
@@ -3294,7 +3328,7 @@
       </c>
       <c r="B59" s="2">
         <f t="shared" si="0"/>
-        <v>7.998468434838086E-6</v>
+        <v>3.4993299402416626E-2</v>
       </c>
       <c r="C59" t="s">
         <v>36</v>
@@ -3318,7 +3352,7 @@
       </c>
       <c r="B60" s="2">
         <f t="shared" si="0"/>
-        <v>3.9501079736110958E-6</v>
+        <v>1.7281722384548542E-2</v>
       </c>
       <c r="C60" t="s">
         <v>36</v>
@@ -3342,7 +3376,7 @@
       </c>
       <c r="B61" s="2">
         <f t="shared" si="0"/>
-        <v>3.3889373907262888E-4</v>
+        <v>1.4826601084427513</v>
       </c>
       <c r="C61" t="s">
         <v>36</v>
@@ -3366,7 +3400,7 @@
       </c>
       <c r="B62" s="2">
         <f t="shared" si="0"/>
-        <v>5.3895044820149914E-6</v>
+        <v>2.357908210881559E-2</v>
       </c>
       <c r="C62" t="s">
         <v>36</v>
@@ -3390,7 +3424,7 @@
       </c>
       <c r="B63" s="2">
         <f t="shared" si="0"/>
-        <v>6.2401294901628861E-5</v>
+        <v>0.27300566519462627</v>
       </c>
       <c r="C63" t="s">
         <v>36</v>
@@ -3414,7 +3448,7 @@
       </c>
       <c r="B64" s="2">
         <f t="shared" si="0"/>
-        <v>1.6239106673579825E-5</v>
+        <v>7.1046091696911742E-2</v>
       </c>
       <c r="C64" t="s">
         <v>36</v>
@@ -3438,7 +3472,7 @@
       </c>
       <c r="B65" s="2">
         <f t="shared" si="0"/>
-        <v>1.3784291046547652E-7</v>
+        <v>6.0306273328645968E-4</v>
       </c>
       <c r="C65" t="s">
         <v>36</v>
@@ -3462,7 +3496,7 @@
       </c>
       <c r="B66" s="2">
         <f t="shared" si="0"/>
-        <v>2.0871735816635237E-9</v>
+        <v>9.1313844197779158E-6</v>
       </c>
       <c r="C66" t="s">
         <v>36</v>
@@ -3486,7 +3520,7 @@
       </c>
       <c r="B67" s="2">
         <f t="shared" si="0"/>
-        <v>2.4478439917563897E-7</v>
+        <v>1.0709317463934204E-3</v>
       </c>
       <c r="C67" t="s">
         <v>36</v>
@@ -3510,7 +3544,7 @@
       </c>
       <c r="B68" s="2">
         <f t="shared" si="0"/>
-        <v>5.8901473117621572E-4</v>
+        <v>2.5769394488959438</v>
       </c>
       <c r="C68" t="s">
         <v>36</v>
@@ -3534,7 +3568,7 @@
       </c>
       <c r="B69" s="2">
         <f t="shared" si="0"/>
-        <v>2.4084796366208972E-7</v>
+        <v>1.0537098410216426E-3</v>
       </c>
       <c r="C69" t="s">
         <v>36</v>
@@ -3558,7 +3592,7 @@
       </c>
       <c r="B70" s="2">
         <f t="shared" si="0"/>
-        <v>2.3264698195070748E-5</v>
+        <v>0.10178305460343452</v>
       </c>
       <c r="C70" t="s">
         <v>36</v>
@@ -3582,7 +3616,7 @@
       </c>
       <c r="B71" s="2">
         <f t="shared" si="0"/>
-        <v>2.705933993466515E-5</v>
+        <v>0.11838461221416002</v>
       </c>
       <c r="C71" t="s">
         <v>36</v>
@@ -3606,7 +3640,7 @@
       </c>
       <c r="B72" s="2">
         <f t="shared" si="0"/>
-        <v>1.2845410796571998E-4</v>
+        <v>0.56198672235002489</v>
       </c>
       <c r="C72" t="s">
         <v>36</v>
@@ -3630,7 +3664,7 @@
       </c>
       <c r="B73" s="2">
         <f t="shared" si="0"/>
-        <v>1.7797443932861391E-5</v>
+        <v>7.7863817206268587E-2</v>
       </c>
       <c r="C73" t="s">
         <v>36</v>
@@ -3654,7 +3688,7 @@
       </c>
       <c r="B74" s="2">
         <f t="shared" si="0"/>
-        <v>5.2238731499458093E-11</v>
+        <v>2.285444503101291E-7</v>
       </c>
       <c r="C74" t="s">
         <v>35</v>
@@ -3678,7 +3712,7 @@
       </c>
       <c r="B75" s="2">
         <f t="shared" si="0"/>
-        <v>-9.7709957189095654E-8</v>
+        <v>-4.2748106270229345E-4</v>
       </c>
       <c r="C75" t="s">
         <v>36</v>
@@ -3701,8 +3735,8 @@
         <v>139</v>
       </c>
       <c r="B76" s="2">
-        <f t="shared" si="0"/>
-        <v>-2.742508860476887E-4</v>
+        <f t="shared" ref="B76:B139" si="1">H76*0.21/0.69/0.0002</f>
+        <v>-1.199847626458638</v>
       </c>
       <c r="C76" t="s">
         <v>36</v>
@@ -3725,8 +3759,8 @@
         <v>139</v>
       </c>
       <c r="B77" s="2">
-        <f t="shared" ref="B77:B140" si="1">H77*0.24/0.69</f>
-        <v>-1.3963335715438784E-7</v>
+        <f t="shared" si="1"/>
+        <v>-6.1089593755044665E-4</v>
       </c>
       <c r="C77" t="s">
         <v>36</v>
@@ -3750,7 +3784,7 @@
       </c>
       <c r="B78" s="2">
         <f t="shared" si="1"/>
-        <v>-2.2781361268503273E-5</v>
+        <v>-9.9668455549701815E-2</v>
       </c>
       <c r="C78" t="s">
         <v>36</v>
@@ -3774,7 +3808,7 @@
       </c>
       <c r="B79" s="2">
         <f t="shared" si="1"/>
-        <v>-3.8777645334318958E-7</v>
+        <v>-1.6965219833764546E-3</v>
       </c>
       <c r="C79" t="s">
         <v>36</v>
@@ -3798,7 +3832,7 @@
       </c>
       <c r="B80" s="2">
         <f t="shared" si="1"/>
-        <v>1.0324434644674923E-5</v>
+        <v>4.5169401570452787E-2</v>
       </c>
       <c r="C80" t="s">
         <v>171</v>
@@ -3822,7 +3856,7 @@
       </c>
       <c r="B81" s="2">
         <f t="shared" si="1"/>
-        <v>-3.7057297571931485</v>
+        <v>-16212.567687720024</v>
       </c>
       <c r="C81" t="s">
         <v>36</v>
@@ -3846,7 +3880,7 @@
       </c>
       <c r="B82" s="2">
         <f t="shared" si="1"/>
-        <v>9.6891500595935995E-7</v>
+        <v>4.2390031510721998E-3</v>
       </c>
       <c r="C82" t="s">
         <v>36</v>
@@ -3870,7 +3904,7 @@
       </c>
       <c r="B83" s="2">
         <f t="shared" si="1"/>
-        <v>1.9619301910175791E-6</v>
+        <v>8.583444585701908E-3</v>
       </c>
       <c r="C83" t="s">
         <v>36</v>
@@ -3894,7 +3928,7 @@
       </c>
       <c r="B84" s="2">
         <f t="shared" si="1"/>
-        <v>3.9014946977122787E-8</v>
+        <v>1.7069039302491218E-4</v>
       </c>
       <c r="C84" t="s">
         <v>36</v>
@@ -3918,7 +3952,7 @@
       </c>
       <c r="B85" s="2">
         <f t="shared" si="1"/>
-        <v>1.4218858978100349E-7</v>
+        <v>6.2207508029189014E-4</v>
       </c>
       <c r="C85" t="s">
         <v>36</v>
@@ -3942,7 +3976,7 @@
       </c>
       <c r="B86" s="2">
         <f t="shared" si="1"/>
-        <v>9.042726975550922E-6</v>
+        <v>3.9561930518035283E-2</v>
       </c>
       <c r="C86" t="s">
         <v>36</v>
@@ -3966,7 +4000,7 @@
       </c>
       <c r="B87" s="2">
         <f t="shared" si="1"/>
-        <v>1.7749437218414468E-6</v>
+        <v>7.7653787830563288E-3</v>
       </c>
       <c r="C87" t="s">
         <v>36</v>
@@ -3990,7 +4024,7 @@
       </c>
       <c r="B88" s="2">
         <f t="shared" si="1"/>
-        <v>7.8532927663687298E-8</v>
+        <v>3.4358155852863196E-4</v>
       </c>
       <c r="C88" t="s">
         <v>36</v>
@@ -4014,7 +4048,7 @@
       </c>
       <c r="B89" s="2">
         <f t="shared" si="1"/>
-        <v>1.6177156876319479E-8</v>
+        <v>7.0775061333897717E-5</v>
       </c>
       <c r="C89" t="s">
         <v>36</v>
@@ -4038,7 +4072,7 @@
       </c>
       <c r="B90" s="2">
         <f t="shared" si="1"/>
-        <v>7.8788873572130437E-8</v>
+        <v>3.4470132187807063E-4</v>
       </c>
       <c r="C90" t="s">
         <v>36</v>
@@ -4062,7 +4096,7 @@
       </c>
       <c r="B91" s="2">
         <f t="shared" si="1"/>
-        <v>2.9379135211552245E-7</v>
+        <v>1.2853371655054105E-3</v>
       </c>
       <c r="C91" t="s">
         <v>36</v>
@@ -4086,7 +4120,7 @@
       </c>
       <c r="B92" s="2">
         <f t="shared" si="1"/>
-        <v>3.2561709334200873E-7</v>
+        <v>1.424574783371288E-3</v>
       </c>
       <c r="C92" t="s">
         <v>36</v>
@@ -4110,7 +4144,7 @@
       </c>
       <c r="B93" s="2">
         <f t="shared" si="1"/>
-        <v>7.8239356516709225E-6</v>
+        <v>3.4229718476060281E-2</v>
       </c>
       <c r="C93" t="s">
         <v>36</v>
@@ -4134,7 +4168,7 @@
       </c>
       <c r="B94" s="2">
         <f t="shared" si="1"/>
-        <v>8.4471319219872349E-5</v>
+        <v>0.36956202158694151</v>
       </c>
       <c r="C94" t="s">
         <v>36</v>
@@ -4158,7 +4192,7 @@
       </c>
       <c r="B95" s="2">
         <f t="shared" si="1"/>
-        <v>1.2423793881915409E-5</v>
+        <v>5.4354098233379909E-2</v>
       </c>
       <c r="C95" t="s">
         <v>36</v>
@@ -4182,7 +4216,7 @@
       </c>
       <c r="B96" s="2">
         <f t="shared" si="1"/>
-        <v>5.7426198585874789E-6</v>
+        <v>2.5123961881320218E-2</v>
       </c>
       <c r="C96" t="s">
         <v>36</v>
@@ -4206,7 +4240,7 @@
       </c>
       <c r="B97" s="2">
         <f t="shared" si="1"/>
-        <v>1.1628078011800802E-5</v>
+        <v>5.0872841301628495E-2</v>
       </c>
       <c r="C97" t="s">
         <v>36</v>
@@ -4230,7 +4264,7 @@
       </c>
       <c r="B98" s="2">
         <f t="shared" si="1"/>
-        <v>3.0131766965643794E-4</v>
+        <v>1.3182648047469159</v>
       </c>
       <c r="C98" t="s">
         <v>36</v>
@@ -4254,7 +4288,7 @@
       </c>
       <c r="B99" s="2">
         <f t="shared" si="1"/>
-        <v>1.1543192343584975E-3</v>
+        <v>5.0501466503184265</v>
       </c>
       <c r="C99" t="s">
         <v>36</v>
@@ -4278,7 +4312,7 @@
       </c>
       <c r="B100" s="2">
         <f t="shared" si="1"/>
-        <v>1.9102860201752036E-8</v>
+        <v>8.357501338266516E-5</v>
       </c>
       <c r="C100" t="s">
         <v>36</v>
@@ -4302,7 +4336,7 @@
       </c>
       <c r="B101" s="2">
         <f t="shared" si="1"/>
-        <v>2.8644608841976244E-5</v>
+        <v>0.12532016368364604</v>
       </c>
       <c r="C101" t="s">
         <v>36</v>
@@ -4326,7 +4360,7 @@
       </c>
       <c r="B102" s="2">
         <f t="shared" si="1"/>
-        <v>2.3938686345253739E-7</v>
+        <v>1.047317527604851E-3</v>
       </c>
       <c r="C102" t="s">
         <v>36</v>
@@ -4350,7 +4384,7 @@
       </c>
       <c r="B103" s="2">
         <f t="shared" si="1"/>
-        <v>-1.802520083056449E-7</v>
+        <v>-7.8860253633719634E-4</v>
       </c>
       <c r="C103" t="s">
         <v>36</v>
@@ -4374,7 +4408,7 @@
       </c>
       <c r="B104" s="2">
         <f t="shared" si="1"/>
-        <v>-8.0893953747128345E-6</v>
+        <v>-3.5391104764368651E-2</v>
       </c>
       <c r="C104" t="s">
         <v>36</v>
@@ -4398,7 +4432,7 @@
       </c>
       <c r="B105" s="2">
         <f t="shared" si="1"/>
-        <v>-3.8418662399078614E-6</v>
+        <v>-1.6808164799596893E-2</v>
       </c>
       <c r="C105" t="s">
         <v>36</v>
@@ -4422,7 +4456,7 @@
       </c>
       <c r="B106" s="2">
         <f t="shared" si="1"/>
-        <v>4.5487779923415305E-4</v>
+        <v>1.9900903716494192</v>
       </c>
       <c r="C106" t="s">
         <v>36</v>
@@ -4446,7 +4480,7 @@
       </c>
       <c r="B107" s="2">
         <f t="shared" si="1"/>
-        <v>8.6357390609766612E-6</v>
+        <v>3.7781358391772886E-2</v>
       </c>
       <c r="C107" t="s">
         <v>36</v>
@@ -4470,7 +4504,7 @@
       </c>
       <c r="B108" s="2">
         <f t="shared" si="1"/>
-        <v>1.7486278033958471E-5</v>
+        <v>7.6502466398568308E-2</v>
       </c>
       <c r="C108" t="s">
         <v>36</v>
@@ -4494,7 +4528,7 @@
       </c>
       <c r="B109" s="2">
         <f t="shared" si="1"/>
-        <v>1.2787944094388904E-6</v>
+        <v>5.5947255412951459E-3</v>
       </c>
       <c r="C109" t="s">
         <v>36</v>
@@ -4518,7 +4552,7 @@
       </c>
       <c r="B110" s="2">
         <f t="shared" si="1"/>
-        <v>9.0083309875601061E-6</v>
+        <v>3.9411448070575464E-2</v>
       </c>
       <c r="C110" t="s">
         <v>36</v>
@@ -4542,7 +4576,7 @@
       </c>
       <c r="B111" s="2">
         <f t="shared" si="1"/>
-        <v>2.3726791835844489E-5</v>
+        <v>0.10380471428181962</v>
       </c>
       <c r="C111" t="s">
         <v>36</v>
@@ -4566,7 +4600,7 @@
       </c>
       <c r="B112" s="2">
         <f t="shared" si="1"/>
-        <v>5.4805908546726265E-4</v>
+        <v>2.397758498919274</v>
       </c>
       <c r="C112" t="s">
         <v>36</v>
@@ -4590,7 +4624,7 @@
       </c>
       <c r="B113" s="2">
         <f t="shared" si="1"/>
-        <v>-0.16003554769519096</v>
+        <v>-700.1555211664604</v>
       </c>
       <c r="C113" t="s">
         <v>36</v>
@@ -4614,7 +4648,7 @@
       </c>
       <c r="B114" s="2">
         <f t="shared" si="1"/>
-        <v>-5.8236431396244168E-2</v>
+        <v>-254.78438735856824</v>
       </c>
       <c r="C114" t="s">
         <v>36</v>
@@ -4638,7 +4672,7 @@
       </c>
       <c r="B115" s="2">
         <f t="shared" si="1"/>
-        <v>-2.411997079875948E-2</v>
+        <v>-105.52487224457273</v>
       </c>
       <c r="C115" t="s">
         <v>36</v>
@@ -4662,7 +4696,7 @@
       </c>
       <c r="B116" s="2">
         <f t="shared" si="1"/>
-        <v>-0.47231121526087655</v>
+        <v>-2066.3615667663348</v>
       </c>
       <c r="C116" t="s">
         <v>36</v>
@@ -4686,7 +4720,7 @@
       </c>
       <c r="B117" s="2">
         <f t="shared" si="1"/>
-        <v>-0.27164773196169389</v>
+        <v>-1188.4588273324109</v>
       </c>
       <c r="C117" t="s">
         <v>36</v>
@@ -4710,7 +4744,7 @@
       </c>
       <c r="B118" s="2">
         <f t="shared" si="1"/>
-        <v>-0.12335118146133635</v>
+        <v>-539.66141889334654</v>
       </c>
       <c r="C118" t="s">
         <v>36</v>
@@ -4734,7 +4768,7 @@
       </c>
       <c r="B119" s="2">
         <f t="shared" si="1"/>
-        <v>-8.4832596915788885E-2</v>
+        <v>-371.14261150657632</v>
       </c>
       <c r="C119" t="s">
         <v>36</v>
@@ -4758,7 +4792,7 @@
       </c>
       <c r="B120" s="2">
         <f t="shared" si="1"/>
-        <v>-6.6490413798861572E-2</v>
+        <v>-290.89556037001938</v>
       </c>
       <c r="C120" t="s">
         <v>36</v>
@@ -4782,7 +4816,7 @@
       </c>
       <c r="B121" s="2">
         <f t="shared" si="1"/>
-        <v>9.3518621956086617E-5</v>
+        <v>0.40914397105787886</v>
       </c>
       <c r="C121" t="s">
         <v>36</v>
@@ -4806,7 +4840,7 @@
       </c>
       <c r="B122" s="2">
         <f t="shared" si="1"/>
-        <v>3.7570151843961044E-5</v>
+        <v>0.16436941431732957</v>
       </c>
       <c r="C122" t="s">
         <v>36</v>
@@ -4830,7 +4864,7 @@
       </c>
       <c r="B123" s="2">
         <f t="shared" si="1"/>
-        <v>1.2563193026452625E-5</v>
+        <v>5.4963969490730236E-2</v>
       </c>
       <c r="C123" t="s">
         <v>36</v>
@@ -4854,7 +4888,7 @@
       </c>
       <c r="B124" s="2">
         <f t="shared" si="1"/>
-        <v>9.603349629704176E-5</v>
+        <v>0.42014654629955767</v>
       </c>
       <c r="C124" t="s">
         <v>36</v>
@@ -4878,7 +4912,7 @@
       </c>
       <c r="B125" s="2">
         <f t="shared" si="1"/>
-        <v>1.2929610301424139</v>
+        <v>5656.7045068730613</v>
       </c>
       <c r="C125" t="s">
         <v>36</v>
@@ -4902,7 +4936,7 @@
       </c>
       <c r="B126" s="2">
         <f t="shared" si="1"/>
-        <v>4.7752280961577035E-5</v>
+        <v>0.20891622920689953</v>
       </c>
       <c r="C126" t="s">
         <v>174</v>
@@ -4926,7 +4960,7 @@
       </c>
       <c r="B127" s="2">
         <f t="shared" si="1"/>
-        <v>4.0197308321914781E-5</v>
+        <v>0.17586322390837716</v>
       </c>
       <c r="C127" t="s">
         <v>174</v>
@@ -4950,7 +4984,7 @@
       </c>
       <c r="B128" s="2">
         <f t="shared" si="1"/>
-        <v>3.7269850124442431E-4</v>
+        <v>1.6305559429443566</v>
       </c>
       <c r="C128" t="s">
         <v>174</v>
@@ -4974,7 +5008,7 @@
       </c>
       <c r="B129" s="2">
         <f t="shared" si="1"/>
-        <v>5.2249095848899829E-5</v>
+        <v>0.22858979433893675</v>
       </c>
       <c r="C129" t="s">
         <v>174</v>
@@ -4998,7 +5032,7 @@
       </c>
       <c r="B130" s="2">
         <f t="shared" si="1"/>
-        <v>-3.3377784798198164E-7</v>
+        <v>-1.4602780849211697E-3</v>
       </c>
       <c r="C130" t="s">
         <v>36</v>
@@ -5022,7 +5056,7 @@
       </c>
       <c r="B131" s="2">
         <f t="shared" si="1"/>
-        <v>-1.5297728831544873E-5</v>
+        <v>-6.6927563638008808E-2</v>
       </c>
       <c r="C131" t="s">
         <v>36</v>
@@ -5046,7 +5080,7 @@
       </c>
       <c r="B132" s="2">
         <f t="shared" si="1"/>
-        <v>-5.8425125948943653E-6</v>
+        <v>-2.5560992602662848E-2</v>
       </c>
       <c r="C132" t="s">
         <v>36</v>
@@ -5070,7 +5104,7 @@
       </c>
       <c r="B133" s="2">
         <f t="shared" si="1"/>
-        <v>-1.4463737155091234E-7</v>
+        <v>-6.3278850053524141E-4</v>
       </c>
       <c r="C133" t="s">
         <v>36</v>
@@ -5094,7 +5128,7 @@
       </c>
       <c r="B134" s="2">
         <f t="shared" si="1"/>
-        <v>-4.9374314551460182E-8</v>
+        <v>-2.1601262616263825E-4</v>
       </c>
       <c r="C134" t="s">
         <v>36</v>
@@ -5118,7 +5152,7 @@
       </c>
       <c r="B135" s="2">
         <f t="shared" si="1"/>
-        <v>-4.298533837026504E-8</v>
+        <v>-1.8806085536990957E-4</v>
       </c>
       <c r="C135" t="s">
         <v>36</v>
@@ -5142,7 +5176,7 @@
       </c>
       <c r="B136" s="2">
         <f t="shared" si="1"/>
-        <v>-4.298533837026504E-8</v>
+        <v>-1.8806085536990957E-4</v>
       </c>
       <c r="C136" t="s">
         <v>36</v>
@@ -5166,7 +5200,7 @@
       </c>
       <c r="B137" s="2">
         <f t="shared" si="1"/>
-        <v>-1.804516617565687E-9</v>
+        <v>-7.8947602018498791E-6</v>
       </c>
       <c r="C137" t="s">
         <v>36</v>
@@ -5190,7 +5224,7 @@
       </c>
       <c r="B138" s="2">
         <f t="shared" si="1"/>
-        <v>-5.8557851250859824E-6</v>
+        <v>-2.5619059922251171E-2</v>
       </c>
       <c r="C138" t="s">
         <v>36</v>
@@ -5214,7 +5248,7 @@
       </c>
       <c r="B139" s="2">
         <f t="shared" si="1"/>
-        <v>9.4940963516495995E-5</v>
+        <v>0.41536671538466996</v>
       </c>
       <c r="C139" t="s">
         <v>36</v>
@@ -5237,8 +5271,8 @@
         <v>169</v>
       </c>
       <c r="B140" s="2">
-        <f t="shared" si="1"/>
-        <v>5.0154301388710264E-4</v>
+        <f t="shared" ref="B140:B203" si="2">H140*0.21/0.69/0.0002</f>
+        <v>2.194250685756074</v>
       </c>
       <c r="C140" t="s">
         <v>36</v>
@@ -5261,8 +5295,8 @@
         <v>170</v>
       </c>
       <c r="B141" s="2">
-        <f t="shared" ref="B141:B204" si="2">H141*0.24/0.69</f>
-        <v>-2.3949769967668173E-5</v>
+        <f t="shared" si="2"/>
+        <v>-0.10478024360854826</v>
       </c>
       <c r="C141" t="s">
         <v>36</v>
@@ -5286,7 +5320,7 @@
       </c>
       <c r="B142" s="2">
         <f t="shared" si="2"/>
-        <v>1.4126897526551689E-8</v>
+        <v>6.1805176678663638E-5</v>
       </c>
       <c r="C142" t="s">
         <v>36</v>
@@ -5307,7 +5341,7 @@
       </c>
       <c r="B143" s="2">
         <f t="shared" si="2"/>
-        <v>5.1163635121567654E-4</v>
+        <v>2.2384090365685845</v>
       </c>
       <c r="C143" t="s">
         <v>36</v>
@@ -5328,7 +5362,7 @@
       </c>
       <c r="B144" s="2">
         <f t="shared" si="2"/>
-        <v>1.2149765303307307E-8</v>
+        <v>5.3155223201969455E-5</v>
       </c>
       <c r="C144" t="s">
         <v>36</v>
@@ -5349,7 +5383,7 @@
       </c>
       <c r="B145" s="2">
         <f t="shared" si="2"/>
-        <v>3.0256669427984106E-7</v>
+        <v>1.3237292874743046E-3</v>
       </c>
       <c r="C145" t="s">
         <v>36</v>
@@ -5370,7 +5404,7 @@
       </c>
       <c r="B146" s="2">
         <f t="shared" si="2"/>
-        <v>1.3037604400240139E-7</v>
+        <v>5.7039519251050614E-4</v>
       </c>
       <c r="C146" t="s">
         <v>36</v>
@@ -5391,7 +5425,7 @@
       </c>
       <c r="B147" s="2">
         <f t="shared" si="2"/>
-        <v>7.6504565918818427E-7</v>
+        <v>3.3470747589483063E-3</v>
       </c>
       <c r="C147" t="s">
         <v>36</v>
@@ -5412,7 +5446,7 @@
       </c>
       <c r="B148" s="2">
         <f t="shared" si="2"/>
-        <v>8.768143215035721E-8</v>
+        <v>3.8360626565781285E-4</v>
       </c>
       <c r="C148" t="s">
         <v>36</v>
@@ -5433,7 +5467,7 @@
       </c>
       <c r="B149" s="2">
         <f t="shared" si="2"/>
-        <v>2.09840716328016E-8</v>
+        <v>9.1805313393506993E-5</v>
       </c>
       <c r="C149" t="s">
         <v>36</v>
@@ -5454,7 +5488,7 @@
       </c>
       <c r="B150" s="2">
         <f t="shared" si="2"/>
-        <v>7.708665670722435E-7</v>
+        <v>3.372541230941065E-3</v>
       </c>
       <c r="C150" t="s">
         <v>36</v>
@@ -5475,7 +5509,7 @@
       </c>
       <c r="B151" s="2">
         <f t="shared" si="2"/>
-        <v>5.7471522810551301E-10</v>
+        <v>2.514379122961619E-6</v>
       </c>
       <c r="C151" t="s">
         <v>36</v>
@@ -5496,7 +5530,7 @@
       </c>
       <c r="B152" s="2">
         <f t="shared" si="2"/>
-        <v>3.6290166991285915E-11</v>
+        <v>1.5876948058687586E-7</v>
       </c>
       <c r="C152" t="s">
         <v>36</v>
@@ -5517,7 +5551,7 @@
       </c>
       <c r="B153" s="2">
         <f t="shared" si="2"/>
-        <v>5.9921847843650092E-6</v>
+        <v>2.6215808431596911E-2</v>
       </c>
       <c r="C153" t="s">
         <v>36</v>
@@ -5538,7 +5572,7 @@
       </c>
       <c r="B154" s="2">
         <f t="shared" si="2"/>
-        <v>2.7196052934743133E-6</v>
+        <v>1.189827315895012E-2</v>
       </c>
       <c r="C154" t="s">
         <v>36</v>
@@ -5559,7 +5593,7 @@
       </c>
       <c r="B155" s="2">
         <f t="shared" si="2"/>
-        <v>2.4653653913581848E-7</v>
+        <v>1.0785973587192057E-3</v>
       </c>
       <c r="C155" t="s">
         <v>36</v>
@@ -5580,7 +5614,7 @@
       </c>
       <c r="B156" s="2">
         <f t="shared" si="2"/>
-        <v>1.580069175509266E-11</v>
+        <v>6.912802642853039E-8</v>
       </c>
       <c r="C156" t="s">
         <v>36</v>
@@ -5601,7 +5635,7 @@
       </c>
       <c r="B157" s="2">
         <f t="shared" si="2"/>
-        <v>5.8101096781282782E-9</v>
+        <v>2.5419229841811214E-5</v>
       </c>
       <c r="C157" t="s">
         <v>36</v>
@@ -5622,7 +5656,7 @@
       </c>
       <c r="B158" s="2">
         <f t="shared" si="2"/>
-        <v>3.6254976409460873E-10</v>
+        <v>1.586155217913913E-6</v>
       </c>
       <c r="C158" t="s">
         <v>36</v>
@@ -5643,7 +5677,7 @@
       </c>
       <c r="B159" s="2">
         <f t="shared" si="2"/>
-        <v>2.652285228380421E-7</v>
+        <v>1.160374787416434E-3</v>
       </c>
       <c r="C159" t="s">
         <v>36</v>
@@ -5664,7 +5698,7 @@
       </c>
       <c r="B160" s="2">
         <f t="shared" si="2"/>
-        <v>1.6826280287045775E-5</v>
+        <v>7.3614976255825262E-2</v>
       </c>
       <c r="C160" t="s">
         <v>36</v>
@@ -5685,7 +5719,7 @@
       </c>
       <c r="B161" s="2">
         <f t="shared" si="2"/>
-        <v>1.4529058388023791E-7</v>
+        <v>6.3564630447604086E-4</v>
       </c>
       <c r="C161" t="s">
         <v>36</v>
@@ -5706,7 +5740,7 @@
       </c>
       <c r="B162" s="2">
         <f t="shared" si="2"/>
-        <v>2.0702619287616696E-9</v>
+        <v>9.0573959383323048E-6</v>
       </c>
       <c r="C162" t="s">
         <v>36</v>
@@ -5727,7 +5761,7 @@
       </c>
       <c r="B163" s="2">
         <f t="shared" si="2"/>
-        <v>1.1280075869466367E-8</v>
+        <v>4.9350331928915343E-5</v>
       </c>
       <c r="C163" t="s">
         <v>36</v>
@@ -5748,7 +5782,7 @@
       </c>
       <c r="B164" s="2">
         <f t="shared" si="2"/>
-        <v>5.1962750566652875E-7</v>
+        <v>2.273370337291063E-3</v>
       </c>
       <c r="C164" t="s">
         <v>36</v>
@@ -5769,7 +5803,7 @@
       </c>
       <c r="B165" s="2">
         <f t="shared" si="2"/>
-        <v>5.946340615439653E-9</v>
+        <v>2.6015240192548479E-5</v>
       </c>
       <c r="C165" t="s">
         <v>36</v>
@@ -5790,7 +5824,7 @@
       </c>
       <c r="B166" s="2">
         <f t="shared" si="2"/>
-        <v>1.7781072599308556E-2</v>
+        <v>77.792192621974934</v>
       </c>
       <c r="C166" t="s">
         <v>36</v>
@@ -5811,7 +5845,7 @@
       </c>
       <c r="B167" s="2">
         <f t="shared" si="2"/>
-        <v>3.5170720839040691E-4</v>
+        <v>1.5387190367080303</v>
       </c>
       <c r="C167" t="s">
         <v>36</v>
@@ -5832,7 +5866,7 @@
       </c>
       <c r="B168" s="2">
         <f t="shared" si="2"/>
-        <v>2.8637199816525568E-2</v>
+        <v>125.28774919729935</v>
       </c>
       <c r="C168" t="s">
         <v>36</v>
@@ -5853,7 +5887,7 @@
       </c>
       <c r="B169" s="2">
         <f t="shared" si="2"/>
-        <v>4.168722118945948E-4</v>
+        <v>1.8238159270388521</v>
       </c>
       <c r="C169" t="s">
         <v>36</v>
@@ -5874,7 +5908,7 @@
       </c>
       <c r="B170" s="2">
         <f t="shared" si="2"/>
-        <v>5.6607184273398958E-5</v>
+        <v>0.24765643119612046</v>
       </c>
       <c r="C170" t="s">
         <v>36</v>
@@ -5895,7 +5929,7 @@
       </c>
       <c r="B171" s="2">
         <f t="shared" si="2"/>
-        <v>4.888044124899931E-6</v>
+        <v>2.1385193046437195E-2</v>
       </c>
       <c r="C171" t="s">
         <v>36</v>
@@ -5916,7 +5950,7 @@
       </c>
       <c r="B172" s="2">
         <f t="shared" si="2"/>
-        <v>1.5664340302090124E-5</v>
+        <v>6.8531488821644282E-2</v>
       </c>
       <c r="C172" t="s">
         <v>36</v>
@@ -5937,7 +5971,7 @@
       </c>
       <c r="B173" s="2">
         <f t="shared" si="2"/>
-        <v>6.3196259173046954E-7</v>
+        <v>2.764836338820804E-3</v>
       </c>
       <c r="C173" t="s">
         <v>36</v>
@@ -5958,7 +5992,7 @@
       </c>
       <c r="B174" s="2">
         <f t="shared" si="2"/>
-        <v>2.6388597803828211E-8</v>
+        <v>1.154501153917484E-4</v>
       </c>
       <c r="C174" t="s">
         <v>36</v>
@@ -5979,7 +6013,7 @@
       </c>
       <c r="B175" s="2">
         <f t="shared" si="2"/>
-        <v>8.8873573367522783E-12</v>
+        <v>3.888218834829121E-8</v>
       </c>
       <c r="C175" t="s">
         <v>36</v>
@@ -6000,7 +6034,7 @@
       </c>
       <c r="B176" s="2">
         <f t="shared" si="2"/>
-        <v>2.1724664658249078E-9</v>
+        <v>9.5045407879839728E-6</v>
       </c>
       <c r="C176" t="s">
         <v>36</v>
@@ -6021,7 +6055,7 @@
       </c>
       <c r="B177" s="2">
         <f t="shared" si="2"/>
-        <v>2.7103978946680597E-5</v>
+        <v>0.11857990789172759</v>
       </c>
       <c r="C177" t="s">
         <v>36</v>
@@ -6042,7 +6076,7 @@
       </c>
       <c r="B178" s="2">
         <f t="shared" si="2"/>
-        <v>1.8810113182719861E-7</v>
+        <v>8.2294245174399378E-4</v>
       </c>
       <c r="C178" t="s">
         <v>36</v>
@@ -6063,7 +6097,7 @@
       </c>
       <c r="B179" s="2">
         <f t="shared" si="2"/>
-        <v>1.8127488204730574E-9</v>
+        <v>7.9307760895696258E-6</v>
       </c>
       <c r="C179" t="s">
         <v>36</v>
@@ -6084,7 +6118,7 @@
       </c>
       <c r="B180" s="2">
         <f t="shared" si="2"/>
-        <v>1.7255870519830751E-6</v>
+        <v>7.5494433524259524E-3</v>
       </c>
       <c r="C180" t="s">
         <v>36</v>
@@ -6105,7 +6139,7 @@
       </c>
       <c r="B181" s="2">
         <f t="shared" si="2"/>
-        <v>3.9598766211956871E-3</v>
+        <v>17.324460217731133</v>
       </c>
       <c r="C181" t="s">
         <v>36</v>
@@ -6126,7 +6160,7 @@
       </c>
       <c r="B182" s="2">
         <f t="shared" si="2"/>
-        <v>1.4867876202210956E-5</v>
+        <v>6.504695838467292E-2</v>
       </c>
       <c r="C182" t="s">
         <v>36</v>
@@ -6147,7 +6181,7 @@
       </c>
       <c r="B183" s="2">
         <f t="shared" si="2"/>
-        <v>5.3596461276307133E-7</v>
+        <v>2.3448451808384366E-3</v>
       </c>
       <c r="C183" t="s">
         <v>36</v>
@@ -6168,7 +6202,7 @@
       </c>
       <c r="B184" s="2">
         <f t="shared" si="2"/>
-        <v>2.6760750258196172E-11</v>
+        <v>1.1707828237960825E-7</v>
       </c>
       <c r="C184" t="s">
         <v>36</v>
@@ -6189,7 +6223,7 @@
       </c>
       <c r="B185" s="2">
         <f t="shared" si="2"/>
-        <v>2.170914223722494E-6</v>
+        <v>9.4977497287859099E-3</v>
       </c>
       <c r="C185" t="s">
         <v>36</v>
@@ -6210,7 +6244,7 @@
       </c>
       <c r="B186" s="2">
         <f t="shared" si="2"/>
-        <v>9.521631419439617E-9</v>
+        <v>4.1657137460048326E-5</v>
       </c>
       <c r="C186" t="s">
         <v>36</v>
@@ -6231,7 +6265,7 @@
       </c>
       <c r="B187" s="2">
         <f t="shared" si="2"/>
-        <v>1.568863626543228E-16</v>
+        <v>6.8637783661266221E-13</v>
       </c>
       <c r="C187" t="s">
         <v>36</v>
@@ -6252,7 +6286,7 @@
       </c>
       <c r="B188" s="2">
         <f t="shared" si="2"/>
-        <v>1.0895818819076175E-3</v>
+        <v>4.7669207333458257</v>
       </c>
       <c r="C188" t="s">
         <v>36</v>
@@ -6273,7 +6307,7 @@
       </c>
       <c r="B189" s="2">
         <f t="shared" si="2"/>
-        <v>6.7138845202705739E-10</v>
+        <v>2.9373244776183764E-6</v>
       </c>
       <c r="C189" t="s">
         <v>36</v>
@@ -6294,7 +6328,7 @@
       </c>
       <c r="B190" s="2">
         <f t="shared" si="2"/>
-        <v>4.5918165559762078E-8</v>
+        <v>2.008919743239591E-4</v>
       </c>
       <c r="C190" t="s">
         <v>36</v>
@@ -6315,7 +6349,7 @@
       </c>
       <c r="B191" s="2">
         <f t="shared" si="2"/>
-        <v>5.431160138777705E-7</v>
+        <v>2.3761325607152459E-3</v>
       </c>
       <c r="C191" t="s">
         <v>36</v>
@@ -6336,7 +6370,7 @@
       </c>
       <c r="B192" s="2">
         <f t="shared" si="2"/>
-        <v>3.1609337545803342E-7</v>
+        <v>1.3829085176288961E-3</v>
       </c>
       <c r="C192" t="s">
         <v>36</v>
@@ -6357,7 +6391,7 @@
       </c>
       <c r="B193" s="2">
         <f t="shared" si="2"/>
-        <v>2.2237699955608003E-8</v>
+        <v>9.7289937305784999E-5</v>
       </c>
       <c r="C193" t="s">
         <v>36</v>
@@ -6378,7 +6412,7 @@
       </c>
       <c r="B194" s="2">
         <f t="shared" si="2"/>
-        <v>4.4924634201663313E-7</v>
+        <v>1.96545274632277E-3</v>
       </c>
       <c r="C194" t="s">
         <v>36</v>
@@ -6399,7 +6433,7 @@
       </c>
       <c r="B195" s="2">
         <f t="shared" si="2"/>
-        <v>5.673227956084522E-7</v>
+        <v>2.4820372307869784E-3</v>
       </c>
       <c r="C195" t="s">
         <v>36</v>
@@ -6420,7 +6454,7 @@
       </c>
       <c r="B196" s="2">
         <f t="shared" si="2"/>
-        <v>1.0645874096193741E-6</v>
+        <v>4.6575699170847609E-3</v>
       </c>
       <c r="C196" t="s">
         <v>36</v>
@@ -6441,7 +6475,7 @@
       </c>
       <c r="B197" s="2">
         <f t="shared" si="2"/>
-        <v>4.7898403279543302</v>
+        <v>20955.551434800193</v>
       </c>
       <c r="C197" t="s">
         <v>36</v>
@@ -6462,7 +6496,7 @@
       </c>
       <c r="B198" s="2">
         <f t="shared" si="2"/>
-        <v>2.506726376571614E-7</v>
+        <v>1.0966927897500811E-3</v>
       </c>
       <c r="C198" t="s">
         <v>36</v>
@@ -6483,7 +6517,7 @@
       </c>
       <c r="B199" s="2">
         <f t="shared" si="2"/>
-        <v>1.5727852071342681E-7</v>
+        <v>6.8809352812124224E-4</v>
       </c>
       <c r="C199" t="s">
         <v>36</v>
@@ -6504,7 +6538,7 @@
       </c>
       <c r="B200" s="2">
         <f t="shared" si="2"/>
-        <v>4.9307066795781221E-8</v>
+        <v>2.157184172315428E-4</v>
       </c>
       <c r="C200" t="s">
         <v>36</v>
@@ -6525,7 +6559,7 @@
       </c>
       <c r="B201" s="2">
         <f t="shared" si="2"/>
-        <v>3.7919539136057394E-8</v>
+        <v>1.6589798372025109E-4</v>
       </c>
       <c r="C201" t="s">
         <v>36</v>
@@ -6546,7 +6580,7 @@
       </c>
       <c r="B202" s="2">
         <f t="shared" si="2"/>
-        <v>6.4174653760333219E-4</v>
+        <v>2.8076411020145784</v>
       </c>
       <c r="C202" t="s">
         <v>36</v>
@@ -6567,7 +6601,7 @@
       </c>
       <c r="B203" s="2">
         <f t="shared" si="2"/>
-        <v>2.98030483663776E-5</v>
+        <v>0.130388336602902</v>
       </c>
       <c r="C203" t="s">
         <v>36</v>
@@ -6587,8 +6621,8 @@
         <v>242</v>
       </c>
       <c r="B204" s="2">
-        <f t="shared" si="2"/>
-        <v>3.0610637510741081E-2</v>
+        <f t="shared" ref="B204:B267" si="3">H204*0.21/0.69/0.0002</f>
+        <v>133.92153910949222</v>
       </c>
       <c r="C204" t="s">
         <v>36</v>
@@ -6608,8 +6642,8 @@
         <v>516</v>
       </c>
       <c r="B205" s="2">
-        <f t="shared" ref="B205:B268" si="3">H205*0.24/0.69</f>
-        <v>1.4020000108473843E-5</v>
+        <f t="shared" si="3"/>
+        <v>6.1337500474573051E-2</v>
       </c>
       <c r="C205" t="s">
         <v>36</v>
@@ -6630,7 +6664,7 @@
       </c>
       <c r="B206" s="2">
         <f t="shared" si="3"/>
-        <v>4.8238574677767656E-9</v>
+        <v>2.1104376421523346E-5</v>
       </c>
       <c r="C206" t="s">
         <v>36</v>
@@ -6651,7 +6685,7 @@
       </c>
       <c r="B207" s="2">
         <f t="shared" si="3"/>
-        <v>2.3064196565729533E-7</v>
+        <v>1.0090585997506668E-3</v>
       </c>
       <c r="C207" t="s">
         <v>36</v>
@@ -6672,7 +6706,7 @@
       </c>
       <c r="B208" s="2">
         <f t="shared" si="3"/>
-        <v>6.9527912556331483E-7</v>
+        <v>3.041846174339502E-3</v>
       </c>
       <c r="C208" t="s">
         <v>36</v>
@@ -6693,7 +6727,7 @@
       </c>
       <c r="B209" s="2">
         <f t="shared" si="3"/>
-        <v>2.4318138229333009E-5</v>
+        <v>0.1063918547533319</v>
       </c>
       <c r="C209" t="s">
         <v>36</v>
@@ -6714,7 +6748,7 @@
       </c>
       <c r="B210" s="2">
         <f t="shared" si="3"/>
-        <v>1.0164246393113599E-2</v>
+        <v>44.468577969871994</v>
       </c>
       <c r="C210" t="s">
         <v>36</v>
@@ -6735,7 +6769,7 @@
       </c>
       <c r="B211" s="2">
         <f t="shared" si="3"/>
-        <v>3.7010850824550258E-5</v>
+        <v>0.16192247235740739</v>
       </c>
       <c r="C211" t="s">
         <v>36</v>
@@ -6756,7 +6790,7 @@
       </c>
       <c r="B212" s="2">
         <f t="shared" si="3"/>
-        <v>1.0101962678754191E-6</v>
+        <v>4.419608671954958E-3</v>
       </c>
       <c r="C212" t="s">
         <v>36</v>
@@ -6777,7 +6811,7 @@
       </c>
       <c r="B213" s="2">
         <f t="shared" si="3"/>
-        <v>2.9915851053323343E-7</v>
+        <v>1.3088184835828962E-3</v>
       </c>
       <c r="C213" t="s">
         <v>36</v>
@@ -6798,7 +6832,7 @@
       </c>
       <c r="B214" s="2">
         <f t="shared" si="3"/>
-        <v>2.3995903374252381E-9</v>
+        <v>1.0498207726235415E-5</v>
       </c>
       <c r="C214" t="s">
         <v>36</v>
@@ -6819,7 +6853,7 @@
       </c>
       <c r="B215" s="2">
         <f t="shared" si="3"/>
-        <v>3.5627089658406264E-6</v>
+        <v>1.5586851725552738E-2</v>
       </c>
       <c r="C215" t="s">
         <v>36</v>
@@ -6840,7 +6874,7 @@
       </c>
       <c r="B216" s="2">
         <f t="shared" si="3"/>
-        <v>5.2141836883748527E-9</v>
+        <v>2.2812053636639978E-5</v>
       </c>
       <c r="C216" t="s">
         <v>36</v>
@@ -6861,7 +6895,7 @@
       </c>
       <c r="B217" s="2">
         <f t="shared" si="3"/>
-        <v>8.2936970419930785E-9</v>
+        <v>3.6284924558719718E-5</v>
       </c>
       <c r="C217" t="s">
         <v>36</v>
@@ -6882,7 +6916,7 @@
       </c>
       <c r="B218" s="2">
         <f t="shared" si="3"/>
-        <v>8.3936286531206263E-11</v>
+        <v>3.6722125357402737E-7</v>
       </c>
       <c r="C218" t="s">
         <v>36</v>
@@ -6903,7 +6937,7 @@
       </c>
       <c r="B219" s="2">
         <f t="shared" si="3"/>
-        <v>2.1352126553669357E-12</v>
+        <v>9.3415553672303425E-9</v>
       </c>
       <c r="C219" t="s">
         <v>36</v>
@@ -6924,7 +6958,7 @@
       </c>
       <c r="B220" s="2">
         <f t="shared" si="3"/>
-        <v>3.3833816173628279E-8</v>
+        <v>1.4802294575962373E-4</v>
       </c>
       <c r="C220" t="s">
         <v>36</v>
@@ -6945,7 +6979,7 @@
       </c>
       <c r="B221" s="2">
         <f t="shared" si="3"/>
-        <v>1.6453091397733671E-6</v>
+        <v>7.19822748650848E-3</v>
       </c>
       <c r="C221" t="s">
         <v>36</v>
@@ -6966,7 +7000,7 @@
       </c>
       <c r="B222" s="2">
         <f t="shared" si="3"/>
-        <v>6.4051679549051831E-6</v>
+        <v>2.802260980271017E-2</v>
       </c>
       <c r="C222" t="s">
         <v>36</v>
@@ -6987,7 +7021,7 @@
       </c>
       <c r="B223" s="2">
         <f t="shared" si="3"/>
-        <v>3.8543810416376698E-7</v>
+        <v>1.6862917057164802E-3</v>
       </c>
       <c r="C223" t="s">
         <v>36</v>
@@ -7008,7 +7042,7 @@
       </c>
       <c r="B224" s="2">
         <f t="shared" si="3"/>
-        <v>1.4877879004579025E-7</v>
+        <v>6.5090720645033225E-4</v>
       </c>
       <c r="C224" t="s">
         <v>36</v>
@@ -7029,7 +7063,7 @@
       </c>
       <c r="B225" s="2">
         <f t="shared" si="3"/>
-        <v>2.067793767406278E-9</v>
+        <v>9.0465977324024666E-6</v>
       </c>
       <c r="C225" t="s">
         <v>36</v>
@@ -7050,7 +7084,7 @@
       </c>
       <c r="B226" s="2">
         <f t="shared" si="3"/>
-        <v>1.9107835146214193E-11</v>
+        <v>8.3596778764687084E-8</v>
       </c>
       <c r="C226" t="s">
         <v>36</v>
@@ -7071,7 +7105,7 @@
       </c>
       <c r="B227" s="2">
         <f t="shared" si="3"/>
-        <v>6.5659117838028531E-8</v>
+        <v>2.872586405413748E-4</v>
       </c>
       <c r="C227" t="s">
         <v>36</v>
@@ -7092,7 +7126,7 @@
       </c>
       <c r="B228" s="2">
         <f t="shared" si="3"/>
-        <v>3.09139620076871E-5</v>
+        <v>0.13524858378363105</v>
       </c>
       <c r="C228" t="s">
         <v>36</v>
@@ -7113,7 +7147,7 @@
       </c>
       <c r="B229" s="2">
         <f t="shared" si="3"/>
-        <v>1.0545725556822053E-8</v>
+        <v>4.6137549311096476E-5</v>
       </c>
       <c r="C229" t="s">
         <v>36</v>
@@ -7134,7 +7168,7 @@
       </c>
       <c r="B230" s="2">
         <f t="shared" si="3"/>
-        <v>4.009195498529217E-7</v>
+        <v>1.7540230306065325E-3</v>
       </c>
       <c r="C230" t="s">
         <v>36</v>
@@ -7155,7 +7189,7 @@
       </c>
       <c r="B231" s="2">
         <f t="shared" si="3"/>
-        <v>2.460906310784473E-6</v>
+        <v>1.0766465109682068E-2</v>
       </c>
       <c r="C231" t="s">
         <v>36</v>
@@ -7176,7 +7210,7 @@
       </c>
       <c r="B232" s="2">
         <f t="shared" si="3"/>
-        <v>3.0498014151143825E-4</v>
+        <v>1.3342881191125422</v>
       </c>
       <c r="C232" t="s">
         <v>36</v>
@@ -7197,7 +7231,7 @@
       </c>
       <c r="B233" s="2">
         <f t="shared" si="3"/>
-        <v>4.888044124899931E-6</v>
+        <v>2.1385193046437195E-2</v>
       </c>
       <c r="C233" t="s">
         <v>36</v>
@@ -7218,7 +7252,7 @@
       </c>
       <c r="B234" s="2">
         <f t="shared" si="3"/>
-        <v>1.4088886877553115E-5</v>
+        <v>6.1638880089294877E-2</v>
       </c>
       <c r="C234" t="s">
         <v>36</v>
@@ -7239,7 +7273,7 @@
       </c>
       <c r="B235" s="2">
         <f t="shared" si="3"/>
-        <v>2.2106337852220352E-10</v>
+        <v>9.6715228103464009E-7</v>
       </c>
       <c r="C235" t="s">
         <v>36</v>
@@ -7260,7 +7294,7 @@
       </c>
       <c r="B236" s="2">
         <f t="shared" si="3"/>
-        <v>3.1392891364441673E-6</v>
+        <v>1.3734389971943232E-2</v>
       </c>
       <c r="C236" t="s">
         <v>36</v>
@@ -7281,7 +7315,7 @@
       </c>
       <c r="B237" s="2">
         <f t="shared" si="3"/>
-        <v>2.5630240765500592E-4</v>
+        <v>1.121323033490651</v>
       </c>
       <c r="C237" t="s">
         <v>36</v>
@@ -7302,7 +7336,7 @@
       </c>
       <c r="B238" s="2">
         <f t="shared" si="3"/>
-        <v>7.03006591681861E-5</v>
+        <v>0.30756538386081417</v>
       </c>
       <c r="C238" t="s">
         <v>36</v>
@@ -7323,7 +7357,7 @@
       </c>
       <c r="B239" s="2">
         <f t="shared" si="3"/>
-        <v>3.0964819629365599E-7</v>
+        <v>1.3547108587847448E-3</v>
       </c>
       <c r="C239" t="s">
         <v>36</v>
@@ -7344,7 +7378,7 @@
       </c>
       <c r="B240" s="2">
         <f t="shared" si="3"/>
-        <v>4.3728877513762091E-6</v>
+        <v>1.913138391227091E-2</v>
       </c>
       <c r="C240" t="s">
         <v>36</v>
@@ -7365,7 +7399,7 @@
       </c>
       <c r="B241" s="2">
         <f t="shared" si="3"/>
-        <v>6.4076819122232346E-4</v>
+        <v>2.803360836597665</v>
       </c>
       <c r="C241" t="s">
         <v>36</v>
@@ -7386,7 +7420,7 @@
       </c>
       <c r="B242" s="2">
         <f t="shared" si="3"/>
-        <v>1.3057826933220381E-5</v>
+        <v>5.7127992832839168E-2</v>
       </c>
       <c r="C242" t="s">
         <v>36</v>
@@ -7407,7 +7441,7 @@
       </c>
       <c r="B243" s="2">
         <f t="shared" si="3"/>
-        <v>2.5724074282654399E-5</v>
+        <v>0.11254282498661299</v>
       </c>
       <c r="C243" t="s">
         <v>36</v>
@@ -7428,7 +7462,7 @@
       </c>
       <c r="B244" s="2">
         <f t="shared" si="3"/>
-        <v>7.6307884310810429E-9</v>
+        <v>3.3384699385979568E-5</v>
       </c>
       <c r="C244" t="s">
         <v>36</v>
@@ -7449,7 +7483,7 @@
       </c>
       <c r="B245" s="2">
         <f t="shared" si="3"/>
-        <v>8.7974526311310268E-10</v>
+        <v>3.8488855261198237E-6</v>
       </c>
       <c r="C245" t="s">
         <v>36</v>
@@ -7470,7 +7504,7 @@
       </c>
       <c r="B246" s="2">
         <f t="shared" si="3"/>
-        <v>5.2282358179665742E-5</v>
+        <v>0.22873531703603761</v>
       </c>
       <c r="C246" t="s">
         <v>36</v>
@@ -7491,7 +7525,7 @@
       </c>
       <c r="B247" s="2">
         <f t="shared" si="3"/>
-        <v>1.9790050370853463E-10</v>
+        <v>8.6581470372483892E-7</v>
       </c>
       <c r="C247" t="s">
         <v>36</v>
@@ -7512,7 +7546,7 @@
       </c>
       <c r="B248" s="2">
         <f t="shared" si="3"/>
-        <v>1.9565433225629707E-5</v>
+        <v>8.5598770362129956E-2</v>
       </c>
       <c r="C248" t="s">
         <v>36</v>
@@ -7533,7 +7567,7 @@
       </c>
       <c r="B249" s="2">
         <f t="shared" si="3"/>
-        <v>3.164597431592247E-5</v>
+        <v>0.1384511376321608</v>
       </c>
       <c r="C249" t="s">
         <v>36</v>
@@ -7554,7 +7588,7 @@
       </c>
       <c r="B250" s="2">
         <f t="shared" si="3"/>
-        <v>6.8968237686485227E-6</v>
+        <v>3.0173603987837288E-2</v>
       </c>
       <c r="C250" t="s">
         <v>36</v>
@@ -7575,7 +7609,7 @@
       </c>
       <c r="B251" s="2">
         <f t="shared" si="3"/>
-        <v>3.370004375641701E-9</v>
+        <v>1.4743769143432441E-5</v>
       </c>
       <c r="C251" t="s">
         <v>36</v>
@@ -7596,7 +7630,7 @@
       </c>
       <c r="B252" s="2">
         <f t="shared" si="3"/>
-        <v>1.0026828376244103E-3</v>
+        <v>4.3867374146067961</v>
       </c>
       <c r="C252" t="s">
         <v>36</v>
@@ -7617,7 +7651,7 @@
       </c>
       <c r="B253" s="2">
         <f t="shared" si="3"/>
-        <v>1.6845844804352138E-3</v>
+        <v>7.3700571019040604</v>
       </c>
       <c r="C253" t="s">
         <v>36</v>
@@ -7638,7 +7672,7 @@
       </c>
       <c r="B254" s="2">
         <f t="shared" si="3"/>
-        <v>1.9270844670106053E-5</v>
+        <v>8.4309945431713981E-2</v>
       </c>
       <c r="C254" t="s">
         <v>36</v>
@@ -7659,7 +7693,7 @@
       </c>
       <c r="B255" s="2">
         <f t="shared" si="3"/>
-        <v>4.6430598278665394E-7</v>
+        <v>2.0313386746916109E-3</v>
       </c>
       <c r="C255" t="s">
         <v>36</v>
@@ -7680,7 +7714,7 @@
       </c>
       <c r="B256" s="2">
         <f t="shared" si="3"/>
-        <v>3.4485324000154545E-5</v>
+        <v>0.1508732925006761</v>
       </c>
       <c r="C256" t="s">
         <v>36</v>
@@ -7701,7 +7735,7 @@
       </c>
       <c r="B257" s="2">
         <f t="shared" si="3"/>
-        <v>5.8937957740845915E-5</v>
+        <v>0.25785356511620089</v>
       </c>
       <c r="C257" t="s">
         <v>36</v>
@@ -7722,7 +7756,7 @@
       </c>
       <c r="B258" s="2">
         <f t="shared" si="3"/>
-        <v>2.4163396081856172E-5</v>
+        <v>0.10571485785812075</v>
       </c>
       <c r="C258" t="s">
         <v>36</v>
@@ -7743,7 +7777,7 @@
       </c>
       <c r="B259" s="2">
         <f t="shared" si="3"/>
-        <v>6.7138845202705739E-10</v>
+        <v>2.9373244776183764E-6</v>
       </c>
       <c r="C259" t="s">
         <v>36</v>
@@ -7764,7 +7798,7 @@
       </c>
       <c r="B260" s="2">
         <f t="shared" si="3"/>
-        <v>4.5918165559762078E-8</v>
+        <v>2.008919743239591E-4</v>
       </c>
       <c r="C260" t="s">
         <v>36</v>
@@ -7785,7 +7819,7 @@
       </c>
       <c r="B261" s="2">
         <f t="shared" si="3"/>
-        <v>6.5446287127402091E-7</v>
+        <v>2.8632750618238414E-3</v>
       </c>
       <c r="C261" t="s">
         <v>36</v>
@@ -7806,7 +7840,7 @@
       </c>
       <c r="B262" s="2">
         <f t="shared" si="3"/>
-        <v>6.8061718657419482E-7</v>
+        <v>2.9777001912621023E-3</v>
       </c>
       <c r="C262" t="s">
         <v>36</v>
@@ -7827,7 +7861,7 @@
       </c>
       <c r="B263" s="2">
         <f t="shared" si="3"/>
-        <v>2.0718436964062294E-3</v>
+        <v>9.0643161717772536</v>
       </c>
       <c r="C263" t="s">
         <v>171</v>
@@ -7848,7 +7882,7 @@
       </c>
       <c r="B264" s="2">
         <f t="shared" si="3"/>
-        <v>3.9045637754455999E-5</v>
+        <v>0.17082466517574499</v>
       </c>
       <c r="C264" t="s">
         <v>171</v>
@@ -7869,7 +7903,7 @@
       </c>
       <c r="B265" s="2">
         <f t="shared" si="3"/>
-        <v>1.1740447612968628E-2</v>
+        <v>51.364458306737745</v>
       </c>
       <c r="C265" t="s">
         <v>171</v>
@@ -7890,7 +7924,7 @@
       </c>
       <c r="B266" s="2">
         <f t="shared" si="3"/>
-        <v>9.8828916656385738E-4</v>
+        <v>4.3237651037168767</v>
       </c>
       <c r="C266" t="s">
         <v>171</v>
@@ -7911,7 +7945,7 @@
       </c>
       <c r="B267" s="2">
         <f t="shared" si="3"/>
-        <v>1.7490538673699027E-4</v>
+        <v>0.76521106697433239</v>
       </c>
       <c r="C267" t="s">
         <v>171</v>
@@ -7931,8 +7965,8 @@
         <v>288</v>
       </c>
       <c r="B268" s="2">
-        <f t="shared" si="3"/>
-        <v>1.974970171744595E-5</v>
+        <f t="shared" ref="B268:B274" si="4">H268*0.21/0.69/0.0002</f>
+        <v>8.6404945013826021E-2</v>
       </c>
       <c r="C268" t="s">
         <v>171</v>
@@ -7952,8 +7986,8 @@
         <v>289</v>
       </c>
       <c r="B269" s="2">
-        <f t="shared" ref="B269:B275" si="4">H269*0.24/0.69</f>
-        <v>1.0857908921195409E-2</v>
+        <f t="shared" si="4"/>
+        <v>47.503351530229914</v>
       </c>
       <c r="C269" t="s">
         <v>171</v>
@@ -7974,7 +8008,7 @@
       </c>
       <c r="B270" s="2">
         <f t="shared" si="4"/>
-        <v>4.7833473233430606E-4</v>
+        <v>2.0927144539625893</v>
       </c>
       <c r="C270" t="s">
         <v>171</v>
@@ -7995,7 +8029,7 @@
       </c>
       <c r="B271" s="2">
         <f t="shared" si="4"/>
-        <v>0.14316541259226018</v>
+        <v>626.34868009113825</v>
       </c>
       <c r="C271" t="s">
         <v>36</v>
@@ -8016,7 +8050,7 @@
       </c>
       <c r="B272" s="2">
         <f t="shared" si="4"/>
-        <v>1.3872970965232626E-5</v>
+        <v>6.0694247972892731E-2</v>
       </c>
       <c r="C272" t="s">
         <v>36</v>
@@ -8037,7 +8071,7 @@
       </c>
       <c r="B273" s="2">
         <f t="shared" si="4"/>
-        <v>1.3844481055837357E-6</v>
+        <v>6.0569604619288434E-3</v>
       </c>
       <c r="C273" t="s">
         <v>36</v>
@@ -8058,7 +8092,7 @@
       </c>
       <c r="B274" s="2">
         <f t="shared" si="4"/>
-        <v>1.2741087593657602E-6</v>
+        <v>5.5742258222251997E-3</v>
       </c>
       <c r="C274" t="s">
         <v>36</v>
@@ -8078,8 +8112,8 @@
         <v>534</v>
       </c>
       <c r="B275" s="2">
-        <f t="shared" si="4"/>
-        <v>1.0236578705803722E-4</v>
+        <f>H275*0.21/0.69/0.0002</f>
+        <v>0.44785031837891276</v>
       </c>
       <c r="C275" t="s">
         <v>36</v>
@@ -8092,6 +8126,26 @@
       </c>
       <c r="H275">
         <v>2.9430163779185699E-4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>537</v>
+      </c>
+      <c r="B276">
+        <v>1</v>
+      </c>
+      <c r="C276" t="s">
+        <v>36</v>
+      </c>
+      <c r="D276" t="s">
+        <v>296</v>
+      </c>
+      <c r="F276" t="s">
+        <v>294</v>
+      </c>
+      <c r="H276" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="278" spans="1:17" x14ac:dyDescent="0.25">
@@ -9521,11 +9575,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T71"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9583,7 +9637,7 @@
       </c>
       <c r="E5" s="4">
         <f>D5/SUM($D$5:$D$13)</f>
-        <v>0.52660182000906308</v>
+        <v>0.54826135938395404</v>
       </c>
       <c r="H5" s="4"/>
       <c r="P5" t="s">
@@ -9620,7 +9674,7 @@
       </c>
       <c r="E6" s="4">
         <f t="shared" ref="E6:E13" si="2">D6/SUM($D$5:$D$13)</f>
-        <v>7.5360919399914371E-3</v>
+        <v>7.8460572190788367E-3</v>
       </c>
       <c r="H6" s="4"/>
       <c r="P6" t="s">
@@ -9657,7 +9711,7 @@
       </c>
       <c r="E7" s="4">
         <f t="shared" si="2"/>
-        <v>9.4939473133169208E-2</v>
+        <v>9.8844406953040698E-2</v>
       </c>
       <c r="H7" s="4"/>
       <c r="P7" t="s">
@@ -9694,7 +9748,7 @@
       </c>
       <c r="E8" s="4">
         <f t="shared" si="2"/>
-        <v>2.0069427781615342E-3</v>
+        <v>2.0894898839159248E-3</v>
       </c>
       <c r="H8" s="4"/>
       <c r="P8" t="s">
@@ -9731,7 +9785,7 @@
       </c>
       <c r="E9" s="4">
         <f t="shared" si="2"/>
-        <v>8.7668116677403554E-2</v>
+        <v>9.1273973993020258E-2</v>
       </c>
       <c r="H9" s="4"/>
       <c r="P9" t="s">
@@ -9768,7 +9822,7 @@
       </c>
       <c r="E10" s="4">
         <f t="shared" si="2"/>
-        <v>2.9008096840223985E-2</v>
+        <v>3.0201222256483778E-2</v>
       </c>
       <c r="H10" s="4"/>
       <c r="P10" t="s">
@@ -9805,7 +9859,7 @@
       </c>
       <c r="E11" s="4">
         <f t="shared" si="2"/>
-        <v>1.175795157921973E-2</v>
+        <v>1.2241565204394414E-2</v>
       </c>
       <c r="H11" s="4"/>
       <c r="P11" t="s">
@@ -9842,7 +9896,7 @@
       </c>
       <c r="E12" s="4">
         <f t="shared" si="2"/>
-        <v>4.065088891617331E-4</v>
+        <v>4.2322891358339225E-4</v>
       </c>
       <c r="H12" s="4"/>
       <c r="P12" t="s">
@@ -9872,16 +9926,16 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="C13">
-        <f>AVERAGE(1084,913,724,770,840)</f>
-        <v>866.2</v>
+        <f>897.34/1.24</f>
+        <v>723.66129032258073</v>
       </c>
       <c r="D13">
         <f>B13*C13</f>
-        <v>0.17324000000000001</v>
+        <v>0.14473225806451614</v>
       </c>
       <c r="E13" s="6">
         <f t="shared" si="2"/>
-        <v>0.24007499815360553</v>
+        <v>0.20881869619252857</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>27</v>
@@ -9901,7 +9955,7 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>535</v>
       </c>
       <c r="E14" s="4"/>
       <c r="H14" t="s">
@@ -10916,8 +10970,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1"/>
-    <hyperlink ref="Q13" r:id="rId2"/>
+    <hyperlink ref="B14" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="Q13" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
@@ -10925,11 +10979,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K659"/>
   <sheetViews>
-    <sheetView topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="B281" sqref="B281"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11060,7 +11114,7 @@
         <v>103</v>
       </c>
       <c r="B14" s="2">
-        <f>H14*0.24/0.69</f>
+        <f t="shared" ref="B14:B77" si="0">H14*0.24/0.69</f>
         <v>4.9690306693738087E-6</v>
       </c>
       <c r="C14" t="s">
@@ -11084,7 +11138,7 @@
         <v>104</v>
       </c>
       <c r="B15" s="2">
-        <f>H15*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>7.7569968014510251E-7</v>
       </c>
       <c r="C15" t="s">
@@ -11108,7 +11162,7 @@
         <v>104</v>
       </c>
       <c r="B16" s="2">
-        <f>H16*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>3.6823444586198613E-6</v>
       </c>
       <c r="C16" t="s">
@@ -11132,7 +11186,7 @@
         <v>105</v>
       </c>
       <c r="B17" s="2">
-        <f>H17*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>2.9130811840968172E-8</v>
       </c>
       <c r="C17" t="s">
@@ -11156,7 +11210,7 @@
         <v>106</v>
       </c>
       <c r="B18" s="2">
-        <f>H18*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>-2.5374035975555479E-7</v>
       </c>
       <c r="C18" t="s">
@@ -11180,7 +11234,7 @@
         <v>106</v>
       </c>
       <c r="B19" s="2">
-        <f>H19*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>-6.6326197824014613E-9</v>
       </c>
       <c r="C19" t="s">
@@ -11204,7 +11258,7 @@
         <v>106</v>
       </c>
       <c r="B20" s="2">
-        <f>H20*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>-5.2764056007556868E-7</v>
       </c>
       <c r="C20" t="s">
@@ -11228,7 +11282,7 @@
         <v>107</v>
       </c>
       <c r="B21" s="2">
-        <f>H21*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>3.766433510841217E-4</v>
       </c>
       <c r="C21" t="s">
@@ -11252,7 +11306,7 @@
         <v>108</v>
       </c>
       <c r="B22" s="2">
-        <f>H22*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>1.6261376763025878E-6</v>
       </c>
       <c r="C22" t="s">
@@ -11276,7 +11330,7 @@
         <v>108</v>
       </c>
       <c r="B23" s="2">
-        <f>H23*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>5.6318716188164165E-6</v>
       </c>
       <c r="C23" t="s">
@@ -11300,7 +11354,7 @@
         <v>109</v>
       </c>
       <c r="B24" s="2">
-        <f>H24*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>5.0470766309828177E-5</v>
       </c>
       <c r="C24" t="s">
@@ -11324,7 +11378,7 @@
         <v>110</v>
       </c>
       <c r="B25" s="2">
-        <f>H25*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>3.5352072851130784E-5</v>
       </c>
       <c r="C25" t="s">
@@ -11348,7 +11402,7 @@
         <v>111</v>
       </c>
       <c r="B26" s="2">
-        <f>H26*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>6.9261717497650082E-4</v>
       </c>
       <c r="C26" t="s">
@@ -11372,7 +11426,7 @@
         <v>112</v>
       </c>
       <c r="B27" s="2">
-        <f>H27*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>1.8923971519837181E-8</v>
       </c>
       <c r="C27" t="s">
@@ -11396,7 +11450,7 @@
         <v>112</v>
       </c>
       <c r="B28" s="2">
-        <f>H28*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>1.1833542973412661E-10</v>
       </c>
       <c r="C28" t="s">
@@ -11420,7 +11474,7 @@
         <v>112</v>
       </c>
       <c r="B29" s="2">
-        <f>H29*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>7.5637037200542613E-10</v>
       </c>
       <c r="C29" t="s">
@@ -11444,7 +11498,7 @@
         <v>112</v>
       </c>
       <c r="B30" s="2">
-        <f>H30*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>1.5615712417974991E-7</v>
       </c>
       <c r="C30" t="s">
@@ -11468,7 +11522,7 @@
         <v>113</v>
       </c>
       <c r="B31" s="2">
-        <f>H31*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>8.3386493948037213E-7</v>
       </c>
       <c r="C31" t="s">
@@ -11492,7 +11546,7 @@
         <v>114</v>
       </c>
       <c r="B32" s="2">
-        <f>H32*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>3.5577678225022263E-8</v>
       </c>
       <c r="C32" t="s">
@@ -11516,7 +11570,7 @@
         <v>115</v>
       </c>
       <c r="B33" s="2">
-        <f>H33*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>2.5924564186503652E-3</v>
       </c>
       <c r="C33" t="s">
@@ -11540,7 +11594,7 @@
         <v>116</v>
       </c>
       <c r="B34" s="2">
-        <f>H34*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>1.7893735970115271E-5</v>
       </c>
       <c r="C34" t="s">
@@ -11564,7 +11618,7 @@
         <v>117</v>
       </c>
       <c r="B35" s="2">
-        <f>H35*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>1.4706136913704175E-3</v>
       </c>
       <c r="C35" t="s">
@@ -11588,7 +11642,7 @@
         <v>117</v>
       </c>
       <c r="B36" s="2">
-        <f>H36*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>5.4357043034293914E-3</v>
       </c>
       <c r="C36" t="s">
@@ -11612,7 +11666,7 @@
         <v>118</v>
       </c>
       <c r="B37" s="2">
-        <f>H37*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>2.0279590170091063E-2</v>
       </c>
       <c r="C37" t="s">
@@ -11636,7 +11690,7 @@
         <v>42</v>
       </c>
       <c r="B38" s="2">
-        <f>H38*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>4.3003401976616701E-2</v>
       </c>
       <c r="C38" t="s">
@@ -11660,7 +11714,7 @@
         <v>42</v>
       </c>
       <c r="B39" s="2">
-        <f>H39*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>3.3313301190411898E-2</v>
       </c>
       <c r="C39" t="s">
@@ -11684,7 +11738,7 @@
         <v>42</v>
       </c>
       <c r="B40" s="2">
-        <f>H40*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>4.1737052017449044E-3</v>
       </c>
       <c r="C40" t="s">
@@ -11708,7 +11762,7 @@
         <v>42</v>
       </c>
       <c r="B41" s="2">
-        <f>H41*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>1.9728804296595128E-6</v>
       </c>
       <c r="C41" t="s">
@@ -11732,7 +11786,7 @@
         <v>119</v>
       </c>
       <c r="B42" s="2">
-        <f>H42*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>3.3572966467913634E-2</v>
       </c>
       <c r="C42" t="s">
@@ -11756,7 +11810,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="2">
-        <f>H43*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>5.2652011138598961E-3</v>
       </c>
       <c r="C43" t="s">
@@ -11780,7 +11834,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="2">
-        <f>H44*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>1.381247690888727E-2</v>
       </c>
       <c r="C44" t="s">
@@ -11804,7 +11858,7 @@
         <v>120</v>
       </c>
       <c r="B45" s="2">
-        <f>H45*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>-2.3542871489756943E-4</v>
       </c>
       <c r="C45" t="s">
@@ -11828,7 +11882,7 @@
         <v>120</v>
       </c>
       <c r="B46" s="2">
-        <f>H46*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>-6.1539644433359999E-6</v>
       </c>
       <c r="C46" t="s">
@@ -11852,7 +11906,7 @@
         <v>120</v>
       </c>
       <c r="B47" s="2">
-        <f>H47*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>-4.8956239798073737E-4</v>
       </c>
       <c r="C47" t="s">
@@ -11876,7 +11930,7 @@
         <v>121</v>
       </c>
       <c r="B48" s="2">
-        <f>H48*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>-1.1767441689457252E-6</v>
       </c>
       <c r="C48" t="s">
@@ -11900,7 +11954,7 @@
         <v>121</v>
       </c>
       <c r="B49" s="2">
-        <f>H49*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>-1.8268872356511516E-5</v>
       </c>
       <c r="C49" t="s">
@@ -11924,7 +11978,7 @@
         <v>122</v>
       </c>
       <c r="B50" s="2">
-        <f>H50*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>9.8614340878551299E-3</v>
       </c>
       <c r="C50" t="s">
@@ -11948,7 +12002,7 @@
         <v>123</v>
       </c>
       <c r="B51" s="2">
-        <f>H51*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>4.4594421207826785E-4</v>
       </c>
       <c r="C51" t="s">
@@ -11972,7 +12026,7 @@
         <v>124</v>
       </c>
       <c r="B52" s="2">
-        <f>H52*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>2.3119923021331794E-4</v>
       </c>
       <c r="C52" t="s">
@@ -11996,7 +12050,7 @@
         <v>125</v>
       </c>
       <c r="B53" s="2">
-        <f>H53*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>1.3247856075075096E-4</v>
       </c>
       <c r="C53" t="s">
@@ -12020,7 +12074,7 @@
         <v>126</v>
       </c>
       <c r="B54" s="2">
-        <f>H54*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>3.3470822911790157E-6</v>
       </c>
       <c r="C54" t="s">
@@ -12044,7 +12098,7 @@
         <v>126</v>
       </c>
       <c r="B55" s="2">
-        <f>H55*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>7.3635810405938437E-6</v>
       </c>
       <c r="C55" t="s">
@@ -12068,7 +12122,7 @@
         <v>127</v>
       </c>
       <c r="B56" s="2">
-        <f>H56*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>-2.2406612572108038E-5</v>
       </c>
       <c r="C56" t="s">
@@ -12092,7 +12146,7 @@
         <v>127</v>
       </c>
       <c r="B57" s="2">
-        <f>H57*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>-1.9298119697789948E-7</v>
       </c>
       <c r="C57" t="s">
@@ -12116,7 +12170,7 @@
         <v>127</v>
       </c>
       <c r="B58" s="2">
-        <f>H58*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>-7.8980430982449049E-5</v>
       </c>
       <c r="C58" t="s">
@@ -12140,7 +12194,7 @@
         <v>128</v>
       </c>
       <c r="B59" s="2">
-        <f>H59*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>-1.7231622762765078E-5</v>
       </c>
       <c r="C59" t="s">
@@ -12164,7 +12218,7 @@
         <v>129</v>
       </c>
       <c r="B60" s="2">
-        <f>H60*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>3.9501079736111306E-6</v>
       </c>
       <c r="C60" t="s">
@@ -12188,7 +12242,7 @@
         <v>129</v>
       </c>
       <c r="B61" s="2">
-        <f>H61*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>7.998468434838086E-6</v>
       </c>
       <c r="C61" t="s">
@@ -12212,7 +12266,7 @@
         <v>130</v>
       </c>
       <c r="B62" s="2">
-        <f>H62*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>3.3889373907262888E-4</v>
       </c>
       <c r="C62" t="s">
@@ -12236,7 +12290,7 @@
         <v>131</v>
       </c>
       <c r="B63" s="2">
-        <f>H63*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>5.3895044820149914E-6</v>
       </c>
       <c r="C63" t="s">
@@ -12260,7 +12314,7 @@
         <v>131</v>
       </c>
       <c r="B64" s="2">
-        <f>H64*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>6.2401294901628861E-5</v>
       </c>
       <c r="C64" t="s">
@@ -12284,7 +12338,7 @@
         <v>132</v>
       </c>
       <c r="B65" s="2">
-        <f>H65*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>1.3784291046547652E-7</v>
       </c>
       <c r="C65" t="s">
@@ -12308,7 +12362,7 @@
         <v>132</v>
       </c>
       <c r="B66" s="2">
-        <f>H66*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>1.6239106673579863E-5</v>
       </c>
       <c r="C66" t="s">
@@ -12332,7 +12386,7 @@
         <v>133</v>
       </c>
       <c r="B67" s="2">
-        <f>H67*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>2.087173581663527E-9</v>
       </c>
       <c r="C67" t="s">
@@ -12356,7 +12410,7 @@
         <v>133</v>
       </c>
       <c r="B68" s="2">
-        <f>H68*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>2.4478439917563897E-7</v>
       </c>
       <c r="C68" t="s">
@@ -12380,7 +12434,7 @@
         <v>134</v>
       </c>
       <c r="B69" s="2">
-        <f>H69*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>2.3264698195070789E-5</v>
       </c>
       <c r="C69" t="s">
@@ -12404,7 +12458,7 @@
         <v>134</v>
       </c>
       <c r="B70" s="2">
-        <f>H70*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>2.4084796366208972E-7</v>
       </c>
       <c r="C70" t="s">
@@ -12428,7 +12482,7 @@
         <v>134</v>
       </c>
       <c r="B71" s="2">
-        <f>H71*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>5.8901473117621919E-4</v>
       </c>
       <c r="C71" t="s">
@@ -12452,7 +12506,7 @@
         <v>135</v>
       </c>
       <c r="B72" s="2">
-        <f>H72*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>2.7059339934665181E-5</v>
       </c>
       <c r="C72" t="s">
@@ -12476,7 +12530,7 @@
         <v>135</v>
       </c>
       <c r="B73" s="2">
-        <f>H73*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>1.2845410796571998E-4</v>
       </c>
       <c r="C73" t="s">
@@ -12500,7 +12554,7 @@
         <v>136</v>
       </c>
       <c r="B74" s="2">
-        <f>H74*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>1.7797443932861391E-5</v>
       </c>
       <c r="C74" t="s">
@@ -12524,7 +12578,7 @@
         <v>137</v>
       </c>
       <c r="B75" s="2">
-        <f>H75*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>5.2238731499458436E-11</v>
       </c>
       <c r="C75" t="s">
@@ -12548,7 +12602,7 @@
         <v>138</v>
       </c>
       <c r="B76" s="2">
-        <f>H76*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>-2.2781361268503307E-5</v>
       </c>
       <c r="C76" t="s">
@@ -12572,7 +12626,7 @@
         <v>139</v>
       </c>
       <c r="B77" s="2">
-        <f>H77*0.24/0.69</f>
+        <f t="shared" si="0"/>
         <v>-1.3963335715438784E-7</v>
       </c>
       <c r="C77" t="s">
@@ -12596,7 +12650,7 @@
         <v>139</v>
       </c>
       <c r="B78" s="2">
-        <f>H78*0.24/0.69</f>
+        <f t="shared" ref="B78:B141" si="1">H78*0.24/0.69</f>
         <v>-9.7709957189095654E-8</v>
       </c>
       <c r="C78" t="s">
@@ -12620,7 +12674,7 @@
         <v>139</v>
       </c>
       <c r="B79" s="2">
-        <f>H79*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>-3.8777645334319302E-7</v>
       </c>
       <c r="C79" t="s">
@@ -12644,7 +12698,7 @@
         <v>139</v>
       </c>
       <c r="B80" s="2">
-        <f>H80*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>-2.742508860476887E-4</v>
       </c>
       <c r="C80" t="s">
@@ -12668,7 +12722,7 @@
         <v>140</v>
       </c>
       <c r="B81" s="2">
-        <f>H81*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>1.0324434644674923E-5</v>
       </c>
       <c r="C81" t="s">
@@ -12692,7 +12746,7 @@
         <v>141</v>
       </c>
       <c r="B82" s="2">
-        <f>H82*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>-3.7057297571931831</v>
       </c>
       <c r="C82" t="s">
@@ -12716,7 +12770,7 @@
         <v>142</v>
       </c>
       <c r="B83" s="2">
-        <f>H83*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>9.6891500595936355E-7</v>
       </c>
       <c r="C83" t="s">
@@ -12740,7 +12794,7 @@
         <v>142</v>
       </c>
       <c r="B84" s="2">
-        <f>H84*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>1.9619301910175791E-6</v>
       </c>
       <c r="C84" t="s">
@@ -12764,7 +12818,7 @@
         <v>143</v>
       </c>
       <c r="B85" s="2">
-        <f>H85*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>3.9014946977122787E-8</v>
       </c>
       <c r="C85" t="s">
@@ -12788,7 +12842,7 @@
         <v>143</v>
       </c>
       <c r="B86" s="2">
-        <f>H86*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>1.4218858978100384E-7</v>
       </c>
       <c r="C86" t="s">
@@ -12812,7 +12866,7 @@
         <v>144</v>
       </c>
       <c r="B87" s="2">
-        <f>H87*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>1.7749437218414468E-6</v>
       </c>
       <c r="C87" t="s">
@@ -12836,7 +12890,7 @@
         <v>144</v>
       </c>
       <c r="B88" s="2">
-        <f>H88*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>7.8788873572130781E-8</v>
       </c>
       <c r="C88" t="s">
@@ -12860,7 +12914,7 @@
         <v>144</v>
       </c>
       <c r="B89" s="2">
-        <f>H89*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>3.2561709334200873E-7</v>
       </c>
       <c r="C89" t="s">
@@ -12884,7 +12938,7 @@
         <v>144</v>
       </c>
       <c r="B90" s="2">
-        <f>H90*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>7.8532927663687655E-8</v>
       </c>
       <c r="C90" t="s">
@@ -12908,7 +12962,7 @@
         <v>144</v>
       </c>
       <c r="B91" s="2">
-        <f>H91*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>2.9379135211552245E-7</v>
       </c>
       <c r="C91" t="s">
@@ -12932,7 +12986,7 @@
         <v>144</v>
       </c>
       <c r="B92" s="2">
-        <f>H92*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>1.6177156876319479E-8</v>
       </c>
       <c r="C92" t="s">
@@ -12956,7 +13010,7 @@
         <v>144</v>
       </c>
       <c r="B93" s="2">
-        <f>H93*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>9.042726975550922E-6</v>
       </c>
       <c r="C93" t="s">
@@ -12980,7 +13034,7 @@
         <v>145</v>
       </c>
       <c r="B94" s="2">
-        <f>H94*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>7.8239356516709564E-6</v>
       </c>
       <c r="C94" t="s">
@@ -13004,7 +13058,7 @@
         <v>145</v>
       </c>
       <c r="B95" s="2">
-        <f>H95*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>8.4471319219872349E-5</v>
       </c>
       <c r="C95" t="s">
@@ -13028,7 +13082,7 @@
         <v>146</v>
       </c>
       <c r="B96" s="2">
-        <f>H96*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>1.2423793881915409E-5</v>
       </c>
       <c r="C96" t="s">
@@ -13052,7 +13106,7 @@
         <v>147</v>
       </c>
       <c r="B97" s="2">
-        <f>H97*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>5.7426198585875136E-6</v>
       </c>
       <c r="C97" t="s">
@@ -13076,7 +13130,7 @@
         <v>147</v>
       </c>
       <c r="B98" s="2">
-        <f>H98*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>1.1628078011800802E-5</v>
       </c>
       <c r="C98" t="s">
@@ -13100,7 +13154,7 @@
         <v>148</v>
       </c>
       <c r="B99" s="2">
-        <f>H99*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>3.0131766965643794E-4</v>
       </c>
       <c r="C99" t="s">
@@ -13124,7 +13178,7 @@
         <v>149</v>
       </c>
       <c r="B100" s="2">
-        <f>H100*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>1.9102860201751999E-8</v>
       </c>
       <c r="C100" t="s">
@@ -13148,7 +13202,7 @@
         <v>149</v>
       </c>
       <c r="B101" s="2">
-        <f>H101*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>1.1543192343584975E-3</v>
       </c>
       <c r="C101" t="s">
@@ -13172,7 +13226,7 @@
         <v>150</v>
       </c>
       <c r="B102" s="2">
-        <f>H102*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>2.3938686345253882E-7</v>
       </c>
       <c r="C102" t="s">
@@ -13196,7 +13250,7 @@
         <v>150</v>
       </c>
       <c r="B103" s="2">
-        <f>H103*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>2.8644608841976281E-5</v>
       </c>
       <c r="C103" t="s">
@@ -13220,7 +13274,7 @@
         <v>151</v>
       </c>
       <c r="B104" s="2">
-        <f>H104*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>-3.8418662399078614E-6</v>
       </c>
       <c r="C104" t="s">
@@ -13244,7 +13298,7 @@
         <v>151</v>
       </c>
       <c r="B105" s="2">
-        <f>H105*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>-1.802520083056449E-7</v>
       </c>
       <c r="C105" t="s">
@@ -13268,7 +13322,7 @@
         <v>151</v>
       </c>
       <c r="B106" s="2">
-        <f>H106*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>-8.0893953747128345E-6</v>
       </c>
       <c r="C106" t="s">
@@ -13292,7 +13346,7 @@
         <v>152</v>
       </c>
       <c r="B107" s="2">
-        <f>H107*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>4.5487779923415657E-4</v>
       </c>
       <c r="C107" t="s">
@@ -13316,7 +13370,7 @@
         <v>153</v>
       </c>
       <c r="B108" s="2">
-        <f>H108*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>8.6357390609766967E-6</v>
       </c>
       <c r="C108" t="s">
@@ -13340,7 +13394,7 @@
         <v>153</v>
       </c>
       <c r="B109" s="2">
-        <f>H109*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>1.7486278033958471E-5</v>
       </c>
       <c r="C109" t="s">
@@ -13364,7 +13418,7 @@
         <v>154</v>
       </c>
       <c r="B110" s="2">
-        <f>H110*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>1.2787944094388904E-6</v>
       </c>
       <c r="C110" t="s">
@@ -13388,7 +13442,7 @@
         <v>155</v>
       </c>
       <c r="B111" s="2">
-        <f>H111*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>9.0083309875601061E-6</v>
       </c>
       <c r="C111" t="s">
@@ -13412,7 +13466,7 @@
         <v>156</v>
       </c>
       <c r="B112" s="2">
-        <f>H112*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>2.3726791835844489E-5</v>
       </c>
       <c r="C112" t="s">
@@ -13436,7 +13490,7 @@
         <v>157</v>
       </c>
       <c r="B113" s="2">
-        <f>H113*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>5.4805908546726612E-4</v>
       </c>
       <c r="C113" t="s">
@@ -13460,7 +13514,7 @@
         <v>158</v>
       </c>
       <c r="B114" s="2">
-        <f>H114*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>-0.47231121526087999</v>
       </c>
       <c r="C114" t="s">
@@ -13484,7 +13538,7 @@
         <v>158</v>
       </c>
       <c r="B115" s="2">
-        <f>H115*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>-6.6490413798861572E-2</v>
       </c>
       <c r="C115" t="s">
@@ -13508,7 +13562,7 @@
         <v>158</v>
       </c>
       <c r="B116" s="2">
-        <f>H116*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>-5.8236431396244522E-2</v>
       </c>
       <c r="C116" t="s">
@@ -13532,7 +13586,7 @@
         <v>158</v>
       </c>
       <c r="B117" s="2">
-        <f>H117*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>-0.12335118146133635</v>
       </c>
       <c r="C117" t="s">
@@ -13556,7 +13610,7 @@
         <v>158</v>
       </c>
       <c r="B118" s="2">
-        <f>H118*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>-2.411997079875948E-2</v>
       </c>
       <c r="C118" t="s">
@@ -13580,7 +13634,7 @@
         <v>158</v>
       </c>
       <c r="B119" s="2">
-        <f>H119*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>-0.16003554769519129</v>
       </c>
       <c r="C119" t="s">
@@ -13604,7 +13658,7 @@
         <v>158</v>
       </c>
       <c r="B120" s="2">
-        <f>H120*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>-8.4832596915788885E-2</v>
       </c>
       <c r="C120" t="s">
@@ -13628,7 +13682,7 @@
         <v>158</v>
       </c>
       <c r="B121" s="2">
-        <f>H121*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>-0.27164773196169428</v>
       </c>
       <c r="C121" t="s">
@@ -13652,7 +13706,7 @@
         <v>159</v>
       </c>
       <c r="B122" s="2">
-        <f>H122*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>3.7570151843961397E-5</v>
       </c>
       <c r="C122" t="s">
@@ -13676,7 +13730,7 @@
         <v>159</v>
       </c>
       <c r="B123" s="2">
-        <f>H123*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>9.3518621956086617E-5</v>
       </c>
       <c r="C123" t="s">
@@ -13700,7 +13754,7 @@
         <v>160</v>
       </c>
       <c r="B124" s="2">
-        <f>H124*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>1.2563193026452662E-5</v>
       </c>
       <c r="C124" t="s">
@@ -13724,7 +13778,7 @@
         <v>160</v>
       </c>
       <c r="B125" s="2">
-        <f>H125*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>9.603349629704176E-5</v>
       </c>
       <c r="C125" t="s">
@@ -13748,7 +13802,7 @@
         <v>161</v>
       </c>
       <c r="B126" s="2">
-        <f>H126*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>1.2929610301424139</v>
       </c>
       <c r="C126" t="s">
@@ -13772,7 +13826,7 @@
         <v>162</v>
       </c>
       <c r="B127" s="2">
-        <f>H127*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>4.7752280961577394E-5</v>
       </c>
       <c r="C127" t="s">
@@ -13796,7 +13850,7 @@
         <v>162</v>
       </c>
       <c r="B128" s="2">
-        <f>H128*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>4.0197308321915126E-5</v>
       </c>
       <c r="C128" t="s">
@@ -13820,7 +13874,7 @@
         <v>162</v>
       </c>
       <c r="B129" s="2">
-        <f>H129*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>3.7269850124442431E-4</v>
       </c>
       <c r="C129" t="s">
@@ -13844,7 +13898,7 @@
         <v>163</v>
       </c>
       <c r="B130" s="2">
-        <f>H130*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>5.2249095848899829E-5</v>
       </c>
       <c r="C130" t="s">
@@ -13868,7 +13922,7 @@
         <v>164</v>
       </c>
       <c r="B131" s="2">
-        <f>H131*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>-3.3377784798198164E-7</v>
       </c>
       <c r="C131" t="s">
@@ -13892,7 +13946,7 @@
         <v>165</v>
       </c>
       <c r="B132" s="2">
-        <f>H132*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>-5.8425125948943653E-6</v>
       </c>
       <c r="C132" t="s">
@@ -13916,7 +13970,7 @@
         <v>165</v>
       </c>
       <c r="B133" s="2">
-        <f>H133*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>-1.4463737155091271E-7</v>
       </c>
       <c r="C133" t="s">
@@ -13940,7 +13994,7 @@
         <v>165</v>
       </c>
       <c r="B134" s="2">
-        <f>H134*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>-1.5297728831544903E-5</v>
       </c>
       <c r="C134" t="s">
@@ -13964,7 +14018,7 @@
         <v>166</v>
       </c>
       <c r="B135" s="2">
-        <f>H135*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>-4.9374314551460526E-8</v>
       </c>
       <c r="C135" t="s">
@@ -13988,7 +14042,7 @@
         <v>167</v>
       </c>
       <c r="B136" s="2">
-        <f>H136*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>-4.2985338370265391E-8</v>
       </c>
       <c r="C136" t="s">
@@ -14012,7 +14066,7 @@
         <v>167</v>
       </c>
       <c r="B137" s="2">
-        <f>H137*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>-1.8045166175656903E-9</v>
       </c>
       <c r="C137" t="s">
@@ -14036,7 +14090,7 @@
         <v>167</v>
       </c>
       <c r="B138" s="2">
-        <f>H138*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>-4.2985338370265391E-8</v>
       </c>
       <c r="C138" t="s">
@@ -14060,7 +14114,7 @@
         <v>168</v>
       </c>
       <c r="B139" s="2">
-        <f>H139*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>-5.8557851250860179E-6</v>
       </c>
       <c r="C139" t="s">
@@ -14084,7 +14138,7 @@
         <v>169</v>
       </c>
       <c r="B140" s="2">
-        <f>H140*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>9.4940963516495995E-5</v>
       </c>
       <c r="C140" t="s">
@@ -14108,7 +14162,7 @@
         <v>169</v>
       </c>
       <c r="B141" s="2">
-        <f>H141*0.24/0.69</f>
+        <f t="shared" si="1"/>
         <v>5.0154301388710264E-4</v>
       </c>
       <c r="C141" t="s">
@@ -14132,7 +14186,7 @@
         <v>170</v>
       </c>
       <c r="B142" s="2">
-        <f>H142*0.24/0.69</f>
+        <f t="shared" ref="B142:B205" si="2">H142*0.24/0.69</f>
         <v>-2.3949769967668173E-5</v>
       </c>
       <c r="C142" t="s">
@@ -14156,7 +14210,7 @@
         <v>195</v>
       </c>
       <c r="B143" s="2">
-        <f>H143*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>1.4126897526551689E-8</v>
       </c>
       <c r="C143" t="s">
@@ -14177,7 +14231,7 @@
         <v>196</v>
       </c>
       <c r="B144" s="2">
-        <f>H144*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>1.2149765303307307E-8</v>
       </c>
       <c r="C144" t="s">
@@ -14198,7 +14252,7 @@
         <v>197</v>
       </c>
       <c r="B145" s="2">
-        <f>H145*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>5.1163635121568001E-4</v>
       </c>
       <c r="C145" t="s">
@@ -14219,7 +14273,7 @@
         <v>198</v>
       </c>
       <c r="B146" s="2">
-        <f>H146*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>1.3037604400240174E-7</v>
       </c>
       <c r="C146" t="s">
@@ -14240,7 +14294,7 @@
         <v>198</v>
       </c>
       <c r="B147" s="2">
-        <f>H147*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>3.0256669427984138E-7</v>
       </c>
       <c r="C147" t="s">
@@ -14261,7 +14315,7 @@
         <v>199</v>
       </c>
       <c r="B148" s="2">
-        <f>H148*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>7.6504565918818787E-7</v>
       </c>
       <c r="C148" t="s">
@@ -14282,7 +14336,7 @@
         <v>200</v>
       </c>
       <c r="B149" s="2">
-        <f>H149*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>2.09840716328016E-8</v>
       </c>
       <c r="C149" t="s">
@@ -14303,7 +14357,7 @@
         <v>200</v>
       </c>
       <c r="B150" s="2">
-        <f>H150*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>8.768143215035721E-8</v>
       </c>
       <c r="C150" t="s">
@@ -14324,7 +14378,7 @@
         <v>201</v>
       </c>
       <c r="B151" s="2">
-        <f>H151*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>5.7471522810551652E-10</v>
       </c>
       <c r="C151" t="s">
@@ -14345,7 +14399,7 @@
         <v>201</v>
       </c>
       <c r="B152" s="2">
-        <f>H152*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>7.708665670722435E-7</v>
       </c>
       <c r="C152" t="s">
@@ -14366,7 +14420,7 @@
         <v>202</v>
       </c>
       <c r="B153" s="2">
-        <f>H153*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>5.9921847843650431E-6</v>
       </c>
       <c r="C153" t="s">
@@ -14387,7 +14441,7 @@
         <v>202</v>
       </c>
       <c r="B154" s="2">
-        <f>H154*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>3.6290166991286264E-11</v>
       </c>
       <c r="C154" t="s">
@@ -14408,7 +14462,7 @@
         <v>203</v>
       </c>
       <c r="B155" s="2">
-        <f>H155*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>2.7196052934743133E-6</v>
       </c>
       <c r="C155" t="s">
@@ -14429,7 +14483,7 @@
         <v>204</v>
       </c>
       <c r="B156" s="2">
-        <f>H156*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>2.4653653913581848E-7</v>
       </c>
       <c r="C156" t="s">
@@ -14450,7 +14504,7 @@
         <v>205</v>
       </c>
       <c r="B157" s="2">
-        <f>H157*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>1.5800691755092696E-11</v>
       </c>
       <c r="C157" t="s">
@@ -14471,7 +14525,7 @@
         <v>206</v>
       </c>
       <c r="B158" s="2">
-        <f>H158*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>5.8101096781282782E-9</v>
       </c>
       <c r="C158" t="s">
@@ -14492,7 +14546,7 @@
         <v>207</v>
       </c>
       <c r="B159" s="2">
-        <f>H159*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>2.6522852283804242E-7</v>
       </c>
       <c r="C159" t="s">
@@ -14513,7 +14567,7 @@
         <v>207</v>
       </c>
       <c r="B160" s="2">
-        <f>H160*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>3.6254976409461219E-10</v>
       </c>
       <c r="C160" t="s">
@@ -14534,7 +14588,7 @@
         <v>208</v>
       </c>
       <c r="B161" s="2">
-        <f>H161*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>1.4529058388023791E-7</v>
       </c>
       <c r="C161" t="s">
@@ -14555,7 +14609,7 @@
         <v>208</v>
       </c>
       <c r="B162" s="2">
-        <f>H162*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>2.0702619287616729E-9</v>
       </c>
       <c r="C162" t="s">
@@ -14576,7 +14630,7 @@
         <v>209</v>
       </c>
       <c r="B163" s="2">
-        <f>H163*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>1.6826280287045775E-5</v>
       </c>
       <c r="C163" t="s">
@@ -14597,7 +14651,7 @@
         <v>210</v>
       </c>
       <c r="B164" s="2">
-        <f>H164*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>1.12800758694664E-8</v>
       </c>
       <c r="C164" t="s">
@@ -14618,7 +14672,7 @@
         <v>210</v>
       </c>
       <c r="B165" s="2">
-        <f>H165*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>5.1962750566653214E-7</v>
       </c>
       <c r="C165" t="s">
@@ -14639,7 +14693,7 @@
         <v>211</v>
       </c>
       <c r="B166" s="2">
-        <f>H166*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>5.946340615439653E-9</v>
       </c>
       <c r="C166" t="s">
@@ -14660,7 +14714,7 @@
         <v>212</v>
       </c>
       <c r="B167" s="2">
-        <f>H167*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>1.7781072599308556E-2</v>
       </c>
       <c r="C167" t="s">
@@ -14681,7 +14735,7 @@
         <v>213</v>
       </c>
       <c r="B168" s="2">
-        <f>H168*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>3.5170720839041049E-4</v>
       </c>
       <c r="C168" t="s">
@@ -14702,7 +14756,7 @@
         <v>214</v>
       </c>
       <c r="B169" s="2">
-        <f>H169*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>2.8637199816525568E-2</v>
       </c>
       <c r="C169" t="s">
@@ -14723,7 +14777,7 @@
         <v>215</v>
       </c>
       <c r="B170" s="2">
-        <f>H170*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>4.168722118945948E-4</v>
       </c>
       <c r="C170" t="s">
@@ -14744,7 +14798,7 @@
         <v>216</v>
       </c>
       <c r="B171" s="2">
-        <f>H171*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>5.6607184273398958E-5</v>
       </c>
       <c r="C171" t="s">
@@ -14765,7 +14819,7 @@
         <v>217</v>
       </c>
       <c r="B172" s="2">
-        <f>H172*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>4.888044124899931E-6</v>
       </c>
       <c r="C172" t="s">
@@ -14786,7 +14840,7 @@
         <v>218</v>
       </c>
       <c r="B173" s="2">
-        <f>H173*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>1.5664340302090124E-5</v>
       </c>
       <c r="C173" t="s">
@@ -14807,7 +14861,7 @@
         <v>219</v>
       </c>
       <c r="B174" s="2">
-        <f>H174*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>8.8873573367523138E-12</v>
       </c>
       <c r="C174" t="s">
@@ -14828,7 +14882,7 @@
         <v>219</v>
       </c>
       <c r="B175" s="2">
-        <f>H175*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>2.6388597803828245E-8</v>
       </c>
       <c r="C175" t="s">
@@ -14849,7 +14903,7 @@
         <v>220</v>
       </c>
       <c r="B176" s="2">
-        <f>H176*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>2.1724664658249078E-9</v>
       </c>
       <c r="C176" t="s">
@@ -14870,7 +14924,7 @@
         <v>220</v>
       </c>
       <c r="B177" s="2">
-        <f>H177*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>2.7103978946680597E-5</v>
       </c>
       <c r="C177" t="s">
@@ -14891,7 +14945,7 @@
         <v>221</v>
       </c>
       <c r="B178" s="2">
-        <f>H178*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>6.3196259173046954E-7</v>
       </c>
       <c r="C178" t="s">
@@ -14912,7 +14966,7 @@
         <v>222</v>
       </c>
       <c r="B179" s="2">
-        <f>H179*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>1.8810113182719861E-7</v>
       </c>
       <c r="C179" t="s">
@@ -14933,7 +14987,7 @@
         <v>223</v>
       </c>
       <c r="B180" s="2">
-        <f>H180*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>1.8127488204730574E-9</v>
       </c>
       <c r="C180" t="s">
@@ -14954,7 +15008,7 @@
         <v>223</v>
       </c>
       <c r="B181" s="2">
-        <f>H181*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>1.7255870519830751E-6</v>
       </c>
       <c r="C181" t="s">
@@ -14975,7 +15029,7 @@
         <v>224</v>
       </c>
       <c r="B182" s="2">
-        <f>H182*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>5.3596461276307133E-7</v>
       </c>
       <c r="C182" t="s">
@@ -14996,7 +15050,7 @@
         <v>224</v>
       </c>
       <c r="B183" s="2">
-        <f>H183*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>1.4867876202210993E-5</v>
       </c>
       <c r="C183" t="s">
@@ -15017,7 +15071,7 @@
         <v>225</v>
       </c>
       <c r="B184" s="2">
-        <f>H184*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>3.9598766211957218E-3</v>
       </c>
       <c r="C184" t="s">
@@ -15038,7 +15092,7 @@
         <v>226</v>
       </c>
       <c r="B185" s="2">
-        <f>H185*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>2.6760750258196172E-11</v>
       </c>
       <c r="C185" t="s">
@@ -15059,7 +15113,7 @@
         <v>226</v>
       </c>
       <c r="B186" s="2">
-        <f>H186*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>2.170914223722494E-6</v>
       </c>
       <c r="C186" t="s">
@@ -15080,7 +15134,7 @@
         <v>227</v>
       </c>
       <c r="B187" s="2">
-        <f>H187*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>9.521631419439617E-9</v>
       </c>
       <c r="C187" t="s">
@@ -15101,7 +15155,7 @@
         <v>228</v>
       </c>
       <c r="B188" s="2">
-        <f>H188*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C188" t="s">
@@ -15122,7 +15176,7 @@
         <v>229</v>
       </c>
       <c r="B189" s="2">
-        <f>H189*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>1.0895818819076175E-3</v>
       </c>
       <c r="C189" t="s">
@@ -15143,7 +15197,7 @@
         <v>230</v>
       </c>
       <c r="B190" s="2">
-        <f>H190*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>6.7138845202705739E-10</v>
       </c>
       <c r="C190" t="s">
@@ -15164,7 +15218,7 @@
         <v>230</v>
       </c>
       <c r="B191" s="2">
-        <f>H191*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>4.5918165559762436E-8</v>
       </c>
       <c r="C191" t="s">
@@ -15185,7 +15239,7 @@
         <v>231</v>
       </c>
       <c r="B192" s="2">
-        <f>H192*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>5.431160138777705E-7</v>
       </c>
       <c r="C192" t="s">
@@ -15206,7 +15260,7 @@
         <v>232</v>
       </c>
       <c r="B193" s="2">
-        <f>H193*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>2.2237699955608003E-8</v>
       </c>
       <c r="C193" t="s">
@@ -15227,7 +15281,7 @@
         <v>232</v>
       </c>
       <c r="B194" s="2">
-        <f>H194*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>3.1609337545803342E-7</v>
       </c>
       <c r="C194" t="s">
@@ -15248,7 +15302,7 @@
         <v>232</v>
       </c>
       <c r="B195" s="2">
-        <f>H195*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>4.4924634201663657E-7</v>
       </c>
       <c r="C195" t="s">
@@ -15269,7 +15323,7 @@
         <v>233</v>
       </c>
       <c r="B196" s="2">
-        <f>H196*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>5.673227956084522E-7</v>
       </c>
       <c r="C196" t="s">
@@ -15290,7 +15344,7 @@
         <v>234</v>
       </c>
       <c r="B197" s="2">
-        <f>H197*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>1.0645874096193775E-6</v>
       </c>
       <c r="C197" t="s">
@@ -15311,7 +15365,7 @@
         <v>235</v>
       </c>
       <c r="B198" s="2">
-        <f>H198*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>4.7898403279543302</v>
       </c>
       <c r="C198" t="s">
@@ -15332,7 +15386,7 @@
         <v>236</v>
       </c>
       <c r="B199" s="2">
-        <f>H199*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>2.5067263765716177E-7</v>
       </c>
       <c r="C199" t="s">
@@ -15353,7 +15407,7 @@
         <v>237</v>
       </c>
       <c r="B200" s="2">
-        <f>H200*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>1.5727852071342713E-7</v>
       </c>
       <c r="C200" t="s">
@@ -15374,7 +15428,7 @@
         <v>238</v>
       </c>
       <c r="B201" s="2">
-        <f>H201*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>4.9307066795781221E-8</v>
       </c>
       <c r="C201" t="s">
@@ -15395,7 +15449,7 @@
         <v>239</v>
       </c>
       <c r="B202" s="2">
-        <f>H202*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>3.7919539136057738E-8</v>
       </c>
       <c r="C202" t="s">
@@ -15416,7 +15470,7 @@
         <v>240</v>
       </c>
       <c r="B203" s="2">
-        <f>H203*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>6.4174653760333566E-4</v>
       </c>
       <c r="C203" t="s">
@@ -15437,7 +15491,7 @@
         <v>241</v>
       </c>
       <c r="B204" s="2">
-        <f>H204*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>2.98030483663776E-5</v>
       </c>
       <c r="C204" t="s">
@@ -15458,7 +15512,7 @@
         <v>242</v>
       </c>
       <c r="B205" s="2">
-        <f>H205*0.24/0.69</f>
+        <f t="shared" si="2"/>
         <v>6.9527912556331483E-7</v>
       </c>
       <c r="C205" t="s">
@@ -15479,7 +15533,7 @@
         <v>242</v>
       </c>
       <c r="B206" s="2">
-        <f>H206*0.24/0.69</f>
+        <f t="shared" ref="B206:B269" si="3">H206*0.24/0.69</f>
         <v>2.3064196565729562E-7</v>
       </c>
       <c r="C206" t="s">
@@ -15500,7 +15554,7 @@
         <v>242</v>
       </c>
       <c r="B207" s="2">
-        <f>H207*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>4.8238574677767656E-9</v>
       </c>
       <c r="C207" t="s">
@@ -15521,7 +15575,7 @@
         <v>242</v>
       </c>
       <c r="B208" s="2">
-        <f>H208*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>1.402000010847388E-5</v>
       </c>
       <c r="C208" t="s">
@@ -15542,7 +15596,7 @@
         <v>243</v>
       </c>
       <c r="B209" s="2">
-        <f>H209*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>3.0610637510741112E-2</v>
       </c>
       <c r="C209" t="s">
@@ -15563,7 +15617,7 @@
         <v>244</v>
       </c>
       <c r="B210" s="2">
-        <f>H210*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>2.4318138229333009E-5</v>
       </c>
       <c r="C210" t="s">
@@ -15584,7 +15638,7 @@
         <v>245</v>
       </c>
       <c r="B211" s="2">
-        <f>H211*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>1.0164246393113599E-2</v>
       </c>
       <c r="C211" t="s">
@@ -15605,7 +15659,7 @@
         <v>246</v>
       </c>
       <c r="B212" s="2">
-        <f>H212*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>1.0101962678754191E-6</v>
       </c>
       <c r="C212" t="s">
@@ -15626,7 +15680,7 @@
         <v>246</v>
       </c>
       <c r="B213" s="2">
-        <f>H213*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>3.5627089658406612E-6</v>
       </c>
       <c r="C213" t="s">
@@ -15647,7 +15701,7 @@
         <v>246</v>
       </c>
       <c r="B214" s="2">
-        <f>H214*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>2.9915851053323343E-7</v>
       </c>
       <c r="C214" t="s">
@@ -15668,7 +15722,7 @@
         <v>246</v>
       </c>
       <c r="B215" s="2">
-        <f>H215*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>2.3995903374252381E-9</v>
       </c>
       <c r="C215" t="s">
@@ -15689,7 +15743,7 @@
         <v>247</v>
       </c>
       <c r="B216" s="2">
-        <f>H216*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>3.7010850824550611E-5</v>
       </c>
       <c r="C216" t="s">
@@ -15710,7 +15764,7 @@
         <v>248</v>
       </c>
       <c r="B217" s="2">
-        <f>H217*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>8.2936970419930785E-9</v>
       </c>
       <c r="C217" t="s">
@@ -15731,7 +15785,7 @@
         <v>248</v>
       </c>
       <c r="B218" s="2">
-        <f>H218*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>2.1352126553669357E-12</v>
       </c>
       <c r="C218" t="s">
@@ -15752,7 +15806,7 @@
         <v>248</v>
       </c>
       <c r="B219" s="2">
-        <f>H219*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>3.3833816173628319E-8</v>
       </c>
       <c r="C219" t="s">
@@ -15773,7 +15827,7 @@
         <v>248</v>
       </c>
       <c r="B220" s="2">
-        <f>H220*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>8.3936286531206263E-11</v>
       </c>
       <c r="C220" t="s">
@@ -15794,7 +15848,7 @@
         <v>249</v>
       </c>
       <c r="B221" s="2">
-        <f>H221*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>5.2141836883748527E-9</v>
       </c>
       <c r="C221" t="s">
@@ -15815,7 +15869,7 @@
         <v>250</v>
       </c>
       <c r="B222" s="2">
-        <f>H222*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>1.6453091397733705E-6</v>
       </c>
       <c r="C222" t="s">
@@ -15836,7 +15890,7 @@
         <v>251</v>
       </c>
       <c r="B223" s="2">
-        <f>H223*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>6.405167954905217E-6</v>
       </c>
       <c r="C223" t="s">
@@ -15857,7 +15911,7 @@
         <v>252</v>
       </c>
       <c r="B224" s="2">
-        <f>H224*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>2.067793767406278E-9</v>
       </c>
       <c r="C224" t="s">
@@ -15878,7 +15932,7 @@
         <v>252</v>
       </c>
       <c r="B225" s="2">
-        <f>H225*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>1.4877879004579025E-7</v>
       </c>
       <c r="C225" t="s">
@@ -15899,7 +15953,7 @@
         <v>253</v>
       </c>
       <c r="B226" s="2">
-        <f>H226*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>3.8543810416377048E-7</v>
       </c>
       <c r="C226" t="s">
@@ -15920,7 +15974,7 @@
         <v>254</v>
       </c>
       <c r="B227" s="2">
-        <f>H227*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>6.5659117838028531E-8</v>
       </c>
       <c r="C227" t="s">
@@ -15941,7 +15995,7 @@
         <v>254</v>
       </c>
       <c r="B228" s="2">
-        <f>H228*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>1.9107835146214225E-11</v>
       </c>
       <c r="C228" t="s">
@@ -15962,7 +16016,7 @@
         <v>255</v>
       </c>
       <c r="B229" s="2">
-        <f>H229*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>3.09139620076871E-5</v>
       </c>
       <c r="C229" t="s">
@@ -15983,7 +16037,7 @@
         <v>256</v>
       </c>
       <c r="B230" s="2">
-        <f>H230*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>1.0545725556822086E-8</v>
       </c>
       <c r="C230" t="s">
@@ -16004,7 +16058,7 @@
         <v>257</v>
       </c>
       <c r="B231" s="2">
-        <f>H231*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>2.4609063107844764E-6</v>
       </c>
       <c r="C231" t="s">
@@ -16025,7 +16079,7 @@
         <v>257</v>
       </c>
       <c r="B232" s="2">
-        <f>H232*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>4.009195498529217E-7</v>
       </c>
       <c r="C232" t="s">
@@ -16046,7 +16100,7 @@
         <v>258</v>
       </c>
       <c r="B233" s="2">
-        <f>H233*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>3.0498014151143863E-4</v>
       </c>
       <c r="C233" t="s">
@@ -16067,7 +16121,7 @@
         <v>259</v>
       </c>
       <c r="B234" s="2">
-        <f>H234*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>4.888044124899931E-6</v>
       </c>
       <c r="C234" t="s">
@@ -16088,7 +16142,7 @@
         <v>260</v>
       </c>
       <c r="B235" s="2">
-        <f>H235*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>1.4088886877553115E-5</v>
       </c>
       <c r="C235" t="s">
@@ -16109,7 +16163,7 @@
         <v>261</v>
       </c>
       <c r="B236" s="2">
-        <f>H236*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>2.2106337852220352E-10</v>
       </c>
       <c r="C236" t="s">
@@ -16130,7 +16184,7 @@
         <v>262</v>
       </c>
       <c r="B237" s="2">
-        <f>H237*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>3.1392891364441707E-6</v>
       </c>
       <c r="C237" t="s">
@@ -16151,7 +16205,7 @@
         <v>263</v>
       </c>
       <c r="B238" s="2">
-        <f>H238*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>2.5630240765500624E-4</v>
       </c>
       <c r="C238" t="s">
@@ -16172,7 +16226,7 @@
         <v>264</v>
       </c>
       <c r="B239" s="2">
-        <f>H239*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>7.03006591681861E-5</v>
       </c>
       <c r="C239" t="s">
@@ -16193,7 +16247,7 @@
         <v>265</v>
       </c>
       <c r="B240" s="2">
-        <f>H240*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>3.0964819629365599E-7</v>
       </c>
       <c r="C240" t="s">
@@ -16214,7 +16268,7 @@
         <v>266</v>
       </c>
       <c r="B241" s="2">
-        <f>H241*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>4.372887751376243E-6</v>
       </c>
       <c r="C241" t="s">
@@ -16235,7 +16289,7 @@
         <v>267</v>
       </c>
       <c r="B242" s="2">
-        <f>H242*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>6.4076819122232346E-4</v>
       </c>
       <c r="C242" t="s">
@@ -16256,7 +16310,7 @@
         <v>268</v>
       </c>
       <c r="B243" s="2">
-        <f>H243*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>1.3057826933220381E-5</v>
       </c>
       <c r="C243" t="s">
@@ -16277,7 +16331,7 @@
         <v>269</v>
       </c>
       <c r="B244" s="2">
-        <f>H244*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>2.5724074282654399E-5</v>
       </c>
       <c r="C244" t="s">
@@ -16298,7 +16352,7 @@
         <v>270</v>
       </c>
       <c r="B245" s="2">
-        <f>H245*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>7.6307884310810776E-9</v>
       </c>
       <c r="C245" t="s">
@@ -16319,7 +16373,7 @@
         <v>270</v>
       </c>
       <c r="B246" s="2">
-        <f>H246*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>8.7974526311310268E-10</v>
       </c>
       <c r="C246" t="s">
@@ -16340,7 +16394,7 @@
         <v>271</v>
       </c>
       <c r="B247" s="2">
-        <f>H247*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>5.2282358179666087E-5</v>
       </c>
       <c r="C247" t="s">
@@ -16361,7 +16415,7 @@
         <v>272</v>
       </c>
       <c r="B248" s="2">
-        <f>H248*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>1.9790050370853463E-10</v>
       </c>
       <c r="C248" t="s">
@@ -16382,7 +16436,7 @@
         <v>273</v>
       </c>
       <c r="B249" s="2">
-        <f>H249*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>1.9565433225629707E-5</v>
       </c>
       <c r="C249" t="s">
@@ -16403,7 +16457,7 @@
         <v>274</v>
       </c>
       <c r="B250" s="2">
-        <f>H250*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>3.164597431592247E-5</v>
       </c>
       <c r="C250" t="s">
@@ -16424,7 +16478,7 @@
         <v>275</v>
       </c>
       <c r="B251" s="2">
-        <f>H251*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>6.8968237686485566E-6</v>
       </c>
       <c r="C251" t="s">
@@ -16445,7 +16499,7 @@
         <v>276</v>
       </c>
       <c r="B252" s="2">
-        <f>H252*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>1.0026828376244103E-3</v>
       </c>
       <c r="C252" t="s">
@@ -16466,7 +16520,7 @@
         <v>276</v>
       </c>
       <c r="B253" s="2">
-        <f>H253*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>3.370004375641701E-9</v>
       </c>
       <c r="C253" t="s">
@@ -16487,7 +16541,7 @@
         <v>277</v>
       </c>
       <c r="B254" s="2">
-        <f>H254*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>1.9270844670106086E-5</v>
       </c>
       <c r="C254" t="s">
@@ -16508,7 +16562,7 @@
         <v>278</v>
       </c>
       <c r="B255" s="2">
-        <f>H255*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>4.6430598278665394E-7</v>
       </c>
       <c r="C255" t="s">
@@ -16529,7 +16583,7 @@
         <v>279</v>
       </c>
       <c r="B256" s="2">
-        <f>H256*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>1.6845844804352177E-3</v>
       </c>
       <c r="C256" t="s">
@@ -16550,7 +16604,7 @@
         <v>280</v>
       </c>
       <c r="B257" s="2">
-        <f>H257*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>3.4485324000154545E-5</v>
       </c>
       <c r="C257" t="s">
@@ -16571,7 +16625,7 @@
         <v>280</v>
       </c>
       <c r="B258" s="2">
-        <f>H258*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>5.8937957740845915E-5</v>
       </c>
       <c r="C258" t="s">
@@ -16592,7 +16646,7 @@
         <v>281</v>
       </c>
       <c r="B259" s="2">
-        <f>H259*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>2.4163396081856212E-5</v>
       </c>
       <c r="C259" t="s">
@@ -16613,7 +16667,7 @@
         <v>282</v>
       </c>
       <c r="B260" s="2">
-        <f>H260*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>4.5918165559762436E-8</v>
       </c>
       <c r="C260" t="s">
@@ -16634,7 +16688,7 @@
         <v>282</v>
       </c>
       <c r="B261" s="2">
-        <f>H261*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>6.7138845202705739E-10</v>
       </c>
       <c r="C261" t="s">
@@ -16655,7 +16709,7 @@
         <v>283</v>
       </c>
       <c r="B262" s="2">
-        <f>H262*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>6.5446287127402441E-7</v>
       </c>
       <c r="C262" t="s">
@@ -16676,7 +16730,7 @@
         <v>284</v>
       </c>
       <c r="B263" s="2">
-        <f>H263*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>6.8061718657419482E-7</v>
       </c>
       <c r="C263" t="s">
@@ -16697,7 +16751,7 @@
         <v>285</v>
       </c>
       <c r="B264" s="2">
-        <f>H264*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>1.1740447612968628E-2</v>
       </c>
       <c r="C264" t="s">
@@ -16718,7 +16772,7 @@
         <v>285</v>
       </c>
       <c r="B265" s="2">
-        <f>H265*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>3.9045637754455999E-5</v>
       </c>
       <c r="C265" t="s">
@@ -16739,7 +16793,7 @@
         <v>285</v>
       </c>
       <c r="B266" s="2">
-        <f>H266*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>2.0718436964062294E-3</v>
       </c>
       <c r="C266" t="s">
@@ -16760,7 +16814,7 @@
         <v>286</v>
       </c>
       <c r="B267" s="2">
-        <f>H267*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>9.8828916656386085E-4</v>
       </c>
       <c r="C267" t="s">
@@ -16781,7 +16835,7 @@
         <v>287</v>
       </c>
       <c r="B268" s="2">
-        <f>H268*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>1.7490538673699027E-4</v>
       </c>
       <c r="C268" t="s">
@@ -16802,7 +16856,7 @@
         <v>288</v>
       </c>
       <c r="B269" s="2">
-        <f>H269*0.24/0.69</f>
+        <f t="shared" si="3"/>
         <v>1.974970171744595E-5</v>
       </c>
       <c r="C269" t="s">
@@ -16823,7 +16877,7 @@
         <v>289</v>
       </c>
       <c r="B270" s="2">
-        <f>H270*0.24/0.69</f>
+        <f t="shared" ref="B270:B276" si="4">H270*0.24/0.69</f>
         <v>1.0857908921195444E-2</v>
       </c>
       <c r="C270" t="s">
@@ -16844,7 +16898,7 @@
         <v>290</v>
       </c>
       <c r="B271" s="2">
-        <f>H271*0.24/0.69</f>
+        <f t="shared" si="4"/>
         <v>4.7833473233430606E-4</v>
       </c>
       <c r="C271" t="s">
@@ -16865,7 +16919,7 @@
         <v>291</v>
       </c>
       <c r="B272" s="2">
-        <f>H272*0.24/0.69</f>
+        <f t="shared" si="4"/>
         <v>1.384448105583739E-6</v>
       </c>
       <c r="C272" t="s">
@@ -16886,7 +16940,7 @@
         <v>291</v>
       </c>
       <c r="B273" s="2">
-        <f>H273*0.24/0.69</f>
+        <f t="shared" si="4"/>
         <v>1.3872970965232662E-5</v>
       </c>
       <c r="C273" t="s">
@@ -16907,7 +16961,7 @@
         <v>292</v>
       </c>
       <c r="B274" s="2">
-        <f>H274*0.24/0.69</f>
+        <f t="shared" si="4"/>
         <v>0.14316541259226018</v>
       </c>
       <c r="C274" t="s">
@@ -16928,7 +16982,7 @@
         <v>293</v>
       </c>
       <c r="B275" s="2">
-        <f>H275*0.24/0.69</f>
+        <f t="shared" si="4"/>
         <v>1.0236578705803722E-4</v>
       </c>
       <c r="C275" t="s">
@@ -16949,7 +17003,7 @@
         <v>293</v>
       </c>
       <c r="B276" s="2">
-        <f>H276*0.24/0.69</f>
+        <f t="shared" si="4"/>
         <v>1.2741087593657602E-6</v>
       </c>
       <c r="C276" t="s">
@@ -17115,7 +17169,7 @@
         <v>103</v>
       </c>
       <c r="B290" s="2">
-        <f>H290*0.15/0.73</f>
+        <f t="shared" ref="B290:B353" si="5">H290*0.15/0.73</f>
         <v>1.0016990186071438E-5</v>
       </c>
       <c r="C290" t="s">
@@ -17140,7 +17194,7 @@
         <v>386</v>
       </c>
       <c r="B291" s="2">
-        <f>H291*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>5.348673447226459E-4</v>
       </c>
       <c r="C291" t="s">
@@ -17165,7 +17219,7 @@
         <v>387</v>
       </c>
       <c r="B292" s="2">
-        <f>H292*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>-6.6167278603737537E-6</v>
       </c>
       <c r="C292" t="s">
@@ -17190,7 +17244,7 @@
         <v>388</v>
       </c>
       <c r="B293" s="2">
-        <f>H293*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>-1.0218917227107165E-6</v>
       </c>
       <c r="C293" t="s">
@@ -17215,7 +17269,7 @@
         <v>389</v>
       </c>
       <c r="B294" s="2">
-        <f>H294*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>1.5603141473489423E-6</v>
       </c>
       <c r="C294" t="s">
@@ -17240,7 +17294,7 @@
         <v>389</v>
       </c>
       <c r="B295" s="2">
-        <f>H295*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>7.4070085385645142E-6</v>
       </c>
       <c r="C295" t="s">
@@ -17265,7 +17319,7 @@
         <v>390</v>
       </c>
       <c r="B296" s="2">
-        <f>H296*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>2.4091641414995339E-5</v>
       </c>
       <c r="C296" t="s">
@@ -17290,7 +17344,7 @@
         <v>391</v>
       </c>
       <c r="B297" s="2">
-        <f>H297*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>2.3233644831405204E-4</v>
       </c>
       <c r="C297" t="s">
@@ -17314,7 +17368,7 @@
         <v>392</v>
       </c>
       <c r="B298" s="2">
-        <f>H298*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>7.3560228944372053E-4</v>
       </c>
       <c r="C298" t="s">
@@ -17338,7 +17392,7 @@
         <v>392</v>
       </c>
       <c r="B299" s="2">
-        <f>H299*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>6.3233836682542811E-5</v>
       </c>
       <c r="C299" t="s">
@@ -17362,7 +17416,7 @@
         <v>392</v>
       </c>
       <c r="B300" s="2">
-        <f>H300*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>4.2263316012630615E-4</v>
       </c>
       <c r="C300" t="s">
@@ -17386,7 +17440,7 @@
         <v>392</v>
       </c>
       <c r="B301" s="2">
-        <f>H301*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>9.8375562835046913E-5</v>
       </c>
       <c r="C301" t="s">
@@ -17410,7 +17464,7 @@
         <v>392</v>
       </c>
       <c r="B302" s="2">
-        <f>H302*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>1.9096707171487991E-4</v>
       </c>
       <c r="C302" t="s">
@@ -17434,7 +17488,7 @@
         <v>392</v>
       </c>
       <c r="B303" s="2">
-        <f>H303*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>2.0015403298936704E-5</v>
       </c>
       <c r="C303" t="s">
@@ -17458,7 +17512,7 @@
         <v>392</v>
       </c>
       <c r="B304" s="2">
-        <f>H304*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>8.9476249405106914E-5</v>
       </c>
       <c r="C304" t="s">
@@ -17482,7 +17536,7 @@
         <v>392</v>
       </c>
       <c r="B305" s="2">
-        <f>H305*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>2.1167475489708904E-3</v>
       </c>
       <c r="C305" t="s">
@@ -17506,7 +17560,7 @@
         <v>393</v>
       </c>
       <c r="B306" s="2">
-        <f>H306*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>1.4391451439894692E-4</v>
       </c>
       <c r="C306" t="s">
@@ -17530,7 +17584,7 @@
         <v>394</v>
       </c>
       <c r="B307" s="2">
-        <f>H307*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>9.8790216375474037E-6</v>
       </c>
       <c r="C307" t="s">
@@ -17554,7 +17608,7 @@
         <v>395</v>
       </c>
       <c r="B308" s="2">
-        <f>H308*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>6.7972006355389313E-7</v>
       </c>
       <c r="C308" t="s">
@@ -17578,7 +17632,7 @@
         <v>396</v>
       </c>
       <c r="B309" s="2">
-        <f>H309*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>1.7502203688568253E-5</v>
       </c>
       <c r="C309" t="s">
@@ -17602,7 +17656,7 @@
         <v>397</v>
       </c>
       <c r="B310" s="2">
-        <f>H310*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>-2.9844257787753699E-5</v>
       </c>
       <c r="C310" t="s">
@@ -17626,7 +17680,7 @@
         <v>397</v>
       </c>
       <c r="B311" s="2">
-        <f>H311*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>-1.7455687114125473E-5</v>
       </c>
       <c r="C311" t="s">
@@ -17650,7 +17704,7 @@
         <v>397</v>
       </c>
       <c r="B312" s="2">
-        <f>H312*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>-4.4345952446161639E-6</v>
       </c>
       <c r="C312" t="s">
@@ -17674,7 +17728,7 @@
         <v>397</v>
       </c>
       <c r="B313" s="2">
-        <f>H313*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>-1.9650582309966739E-4</v>
       </c>
       <c r="C313" t="s">
@@ -17698,7 +17752,7 @@
         <v>398</v>
       </c>
       <c r="B314" s="2">
-        <f>H314*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>5.471553123348719E-6</v>
       </c>
       <c r="C314" t="s">
@@ -17722,7 +17776,7 @@
         <v>108</v>
       </c>
       <c r="B315" s="2">
-        <f>H315*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>1.4648696719149737E-5</v>
       </c>
       <c r="C315" t="s">
@@ -17746,7 +17800,7 @@
         <v>108</v>
       </c>
       <c r="B316" s="2">
-        <f>H316*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>5.0733452958799317E-5</v>
       </c>
       <c r="C316" t="s">
@@ -17770,7 +17824,7 @@
         <v>399</v>
       </c>
       <c r="B317" s="2">
-        <f>H317*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>1.0718936719388239E-4</v>
       </c>
       <c r="C317" t="s">
@@ -17794,7 +17848,7 @@
         <v>399</v>
       </c>
       <c r="B318" s="2">
-        <f>H318*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>2.2302924598904791E-5</v>
       </c>
       <c r="C318" t="s">
@@ -17818,7 +17872,7 @@
         <v>399</v>
       </c>
       <c r="B319" s="2">
-        <f>H319*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>1.8487954658105217E-6</v>
       </c>
       <c r="C319" t="s">
@@ -17842,7 +17896,7 @@
         <v>399</v>
       </c>
       <c r="B320" s="2">
-        <f>H320*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>4.6561123369497129E-6</v>
       </c>
       <c r="C320" t="s">
@@ -17866,7 +17920,7 @@
         <v>399</v>
       </c>
       <c r="B321" s="2">
-        <f>H321*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>1.0529951051547267E-4</v>
       </c>
       <c r="C321" t="s">
@@ -17890,7 +17944,7 @@
         <v>399</v>
       </c>
       <c r="B322" s="2">
-        <f>H322*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>3.0992716743185137E-6</v>
       </c>
       <c r="C322" t="s">
@@ -17914,7 +17968,7 @@
         <v>399</v>
       </c>
       <c r="B323" s="2">
-        <f>H323*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>3.4039185141754728E-5</v>
       </c>
       <c r="C323" t="s">
@@ -17938,7 +17992,7 @@
         <v>399</v>
       </c>
       <c r="B324" s="2">
-        <f>H324*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>4.1183600269012395E-6</v>
       </c>
       <c r="C324" t="s">
@@ -17962,7 +18016,7 @@
         <v>399</v>
       </c>
       <c r="B325" s="2">
-        <f>H325*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>4.5999224599431785E-4</v>
       </c>
       <c r="C325" t="s">
@@ -17986,7 +18040,7 @@
         <v>110</v>
       </c>
       <c r="B326" s="2">
-        <f>H326*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>3.8151306399266298E-5</v>
       </c>
       <c r="C326" t="s">
@@ -18010,7 +18064,7 @@
         <v>111</v>
       </c>
       <c r="B327" s="2">
-        <f>H327*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>2.8947121441855887E-6</v>
       </c>
       <c r="C327" t="s">
@@ -18034,7 +18088,7 @@
         <v>400</v>
       </c>
       <c r="B328" s="2">
-        <f>H328*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>6.3175026048149174E-8</v>
       </c>
       <c r="C328" t="s">
@@ -18058,7 +18112,7 @@
         <v>400</v>
       </c>
       <c r="B329" s="2">
-        <f>H329*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>3.1581594592833497E-7</v>
       </c>
       <c r="C329" t="s">
@@ -18082,7 +18136,7 @@
         <v>401</v>
       </c>
       <c r="B330" s="2">
-        <f>H330*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>2.2876298178305343E-4</v>
       </c>
       <c r="C330" t="s">
@@ -18106,7 +18160,7 @@
         <v>401</v>
       </c>
       <c r="B331" s="2">
-        <f>H331*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>4.8185759426681094E-5</v>
       </c>
       <c r="C331" t="s">
@@ -18130,7 +18184,7 @@
         <v>401</v>
       </c>
       <c r="B332" s="2">
-        <f>H332*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>3.4882697664902262E-6</v>
       </c>
       <c r="C332" t="s">
@@ -18154,7 +18208,7 @@
         <v>401</v>
       </c>
       <c r="B333" s="2">
-        <f>H333*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>1.1176885560380732E-5</v>
       </c>
       <c r="C333" t="s">
@@ -18178,7 +18232,7 @@
         <v>401</v>
       </c>
       <c r="B334" s="2">
-        <f>H334*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>2.1379717923649931E-4</v>
       </c>
       <c r="C334" t="s">
@@ -18202,7 +18256,7 @@
         <v>401</v>
       </c>
       <c r="B335" s="2">
-        <f>H335*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>8.5754836265577754E-6</v>
       </c>
       <c r="C335" t="s">
@@ -18226,7 +18280,7 @@
         <v>401</v>
       </c>
       <c r="B336" s="2">
-        <f>H336*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>1.4328332499211912E-5</v>
       </c>
       <c r="C336" t="s">
@@ -18250,7 +18304,7 @@
         <v>401</v>
       </c>
       <c r="B337" s="2">
-        <f>H337*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>6.8595045462322606E-4</v>
       </c>
       <c r="C337" t="s">
@@ -18274,7 +18328,7 @@
         <v>402</v>
       </c>
       <c r="B338" s="2">
-        <f>H338*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>0.10188144719597549</v>
       </c>
       <c r="C338" t="s">
@@ -18298,7 +18352,7 @@
         <v>403</v>
       </c>
       <c r="B339" s="2">
-        <f>H339*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>-2.0454579361436894E-6</v>
       </c>
       <c r="C339" t="s">
@@ -18322,7 +18376,7 @@
         <v>115</v>
       </c>
       <c r="B340" s="2">
-        <f>H340*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>1.4965356993430931E-5</v>
       </c>
       <c r="C340" t="s">
@@ -18346,7 +18400,7 @@
         <v>116</v>
       </c>
       <c r="B341" s="2">
-        <f>H341*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>2.3310601686014386E-6</v>
       </c>
       <c r="C341" t="s">
@@ -18370,7 +18424,7 @@
         <v>404</v>
       </c>
       <c r="B342" s="2">
-        <f>H342*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>6.9420355477530817E-5</v>
       </c>
       <c r="C342" t="s">
@@ -18394,7 +18448,7 @@
         <v>404</v>
       </c>
       <c r="B343" s="2">
-        <f>H343*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>7.9166779442927052E-5</v>
       </c>
       <c r="C343" t="s">
@@ -18418,7 +18472,7 @@
         <v>404</v>
       </c>
       <c r="B344" s="2">
-        <f>H344*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>3.8058741624827668E-6</v>
       </c>
       <c r="C344" t="s">
@@ -18442,7 +18496,7 @@
         <v>404</v>
       </c>
       <c r="B345" s="2">
-        <f>H345*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>1.5977666524407574E-4</v>
       </c>
       <c r="C345" t="s">
@@ -18466,7 +18520,7 @@
         <v>404</v>
       </c>
       <c r="B346" s="2">
-        <f>H346*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>1.1191701858027204E-5</v>
       </c>
       <c r="C346" t="s">
@@ -18490,7 +18544,7 @@
         <v>404</v>
       </c>
       <c r="B347" s="2">
-        <f>H347*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>1.6176284663882834E-5</v>
       </c>
       <c r="C347" t="s">
@@ -18514,7 +18568,7 @@
         <v>404</v>
       </c>
       <c r="B348" s="2">
-        <f>H348*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>1.5777140807255879E-3</v>
       </c>
       <c r="C348" t="s">
@@ -18538,7 +18592,7 @@
         <v>117</v>
       </c>
       <c r="B349" s="2">
-        <f>H349*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>3.3386891967157394E-4</v>
       </c>
       <c r="C349" t="s">
@@ -18562,7 +18616,7 @@
         <v>405</v>
       </c>
       <c r="B350" s="2">
-        <f>H350*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>3.7093470409404042E-5</v>
       </c>
       <c r="C350" t="s">
@@ -18586,7 +18640,7 @@
         <v>42</v>
       </c>
       <c r="B351" s="2">
-        <f>H351*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>4.6655843335435689E-2</v>
       </c>
       <c r="C351" t="s">
@@ -18610,7 +18664,7 @@
         <v>42</v>
       </c>
       <c r="B352" s="2">
-        <f>H352*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>6.4366924249892044E-2</v>
       </c>
       <c r="C352" t="s">
@@ -18634,7 +18688,7 @@
         <v>42</v>
       </c>
       <c r="B353" s="2">
-        <f>H353*0.15/0.73</f>
+        <f t="shared" si="5"/>
         <v>4.7520185600486098E-2</v>
       </c>
       <c r="C353" t="s">
@@ -18658,7 +18712,7 @@
         <v>42</v>
       </c>
       <c r="B354" s="2">
-        <f>H354*0.15/0.73</f>
+        <f t="shared" ref="B354:B417" si="6">H354*0.15/0.73</f>
         <v>1.8909530170657315E-2</v>
       </c>
       <c r="C354" t="s">
@@ -18682,7 +18736,7 @@
         <v>42</v>
       </c>
       <c r="B355" s="2">
-        <f>H355*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>7.681982878683391E-2</v>
       </c>
       <c r="C355" t="s">
@@ -18706,7 +18760,7 @@
         <v>42</v>
       </c>
       <c r="B356" s="2">
-        <f>H356*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>1.8784546756579354E-2</v>
       </c>
       <c r="C356" t="s">
@@ -18730,7 +18784,7 @@
         <v>42</v>
       </c>
       <c r="B357" s="2">
-        <f>H357*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>2.7107087928923217E-3</v>
       </c>
       <c r="C357" t="s">
@@ -18754,7 +18808,7 @@
         <v>42</v>
       </c>
       <c r="B358" s="2">
-        <f>H358*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>3.6142792394426096E-2</v>
       </c>
       <c r="C358" t="s">
@@ -18778,7 +18832,7 @@
         <v>42</v>
       </c>
       <c r="B359" s="2">
-        <f>H359*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>2.2159440602143355E-2</v>
       </c>
       <c r="C359" t="s">
@@ -18802,7 +18856,7 @@
         <v>42</v>
       </c>
       <c r="B360" s="2">
-        <f>H360*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>7.7770887201006375E-2</v>
       </c>
       <c r="C360" t="s">
@@ -18826,7 +18880,7 @@
         <v>42</v>
       </c>
       <c r="B361" s="2">
-        <f>H361*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>5.5531232434975063E-2</v>
       </c>
       <c r="C361" t="s">
@@ -18850,7 +18904,7 @@
         <v>119</v>
       </c>
       <c r="B362" s="2">
-        <f>H362*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>0.11981400002669856</v>
       </c>
       <c r="C362" t="s">
@@ -18874,7 +18928,7 @@
         <v>119</v>
       </c>
       <c r="B363" s="2">
-        <f>H363*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>1.9181172767281394E-2</v>
       </c>
       <c r="C363" t="s">
@@ -18898,7 +18952,7 @@
         <v>119</v>
       </c>
       <c r="B364" s="2">
-        <f>H364*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>7.7392895160763161E-3</v>
       </c>
       <c r="C364" t="s">
@@ -18922,7 +18976,7 @@
         <v>406</v>
       </c>
       <c r="B365" s="2">
-        <f>H365*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>6.3592707090007192E-8</v>
       </c>
       <c r="C365" t="s">
@@ -18946,7 +19000,7 @@
         <v>406</v>
       </c>
       <c r="B366" s="2">
-        <f>H366*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>1.2659108981468733E-7</v>
       </c>
       <c r="C366" t="s">
@@ -18970,7 +19024,7 @@
         <v>407</v>
       </c>
       <c r="B367" s="2">
-        <f>H367*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>5.118973476047856E-6</v>
       </c>
       <c r="C367" t="s">
@@ -18994,7 +19048,7 @@
         <v>407</v>
       </c>
       <c r="B368" s="2">
-        <f>H368*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>1.1398370462029973E-5</v>
       </c>
       <c r="C368" t="s">
@@ -19018,7 +19072,7 @@
         <v>408</v>
       </c>
       <c r="B369" s="2">
-        <f>H369*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>1.031794704007087E-6</v>
       </c>
       <c r="C369" t="s">
@@ -19042,7 +19096,7 @@
         <v>409</v>
       </c>
       <c r="B370" s="2">
-        <f>H370*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>1.0620337198223199E-6</v>
       </c>
       <c r="C370" t="s">
@@ -19066,7 +19120,7 @@
         <v>410</v>
       </c>
       <c r="B371" s="2">
-        <f>H371*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>1.1814536583461115E-4</v>
       </c>
       <c r="C371" t="s">
@@ -19090,7 +19144,7 @@
         <v>411</v>
       </c>
       <c r="B372" s="2">
-        <f>H372*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>1.761992524407785E-3</v>
       </c>
       <c r="C372" t="s">
@@ -19114,7 +19168,7 @@
         <v>411</v>
       </c>
       <c r="B373" s="2">
-        <f>H373*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>2.2442205198561164E-4</v>
       </c>
       <c r="C373" t="s">
@@ -19138,7 +19192,7 @@
         <v>411</v>
       </c>
       <c r="B374" s="2">
-        <f>H374*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>1.3583395515829604E-4</v>
       </c>
       <c r="C374" t="s">
@@ -19162,7 +19216,7 @@
         <v>411</v>
       </c>
       <c r="B375" s="2">
-        <f>H375*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>2.1991889620774109E-4</v>
       </c>
       <c r="C375" t="s">
@@ -19186,7 +19240,7 @@
         <v>411</v>
       </c>
       <c r="B376" s="2">
-        <f>H376*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>3.6552304600253016E-4</v>
       </c>
       <c r="C376" t="s">
@@ -19210,7 +19264,7 @@
         <v>411</v>
       </c>
       <c r="B377" s="2">
-        <f>H377*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>5.2185150029867052E-5</v>
       </c>
       <c r="C377" t="s">
@@ -19234,7 +19288,7 @@
         <v>411</v>
       </c>
       <c r="B378" s="2">
-        <f>H378*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>1.7122604403432327E-4</v>
       </c>
       <c r="C378" t="s">
@@ -19258,7 +19312,7 @@
         <v>411</v>
       </c>
       <c r="B379" s="2">
-        <f>H379*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>9.5437881223544996E-5</v>
       </c>
       <c r="C379" t="s">
@@ -19282,7 +19336,7 @@
         <v>411</v>
       </c>
       <c r="B380" s="2">
-        <f>H380*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>4.8500668775034865E-4</v>
       </c>
       <c r="C380" t="s">
@@ -19306,7 +19360,7 @@
         <v>120</v>
       </c>
       <c r="B381" s="2">
-        <f>H381*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>-4.7812390428084862E-6</v>
       </c>
       <c r="C381" t="s">
@@ -19330,7 +19384,7 @@
         <v>120</v>
       </c>
       <c r="B382" s="2">
-        <f>H382*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>-1.8291314059921436E-4</v>
       </c>
       <c r="C382" t="s">
@@ -19354,7 +19408,7 @@
         <v>120</v>
       </c>
       <c r="B383" s="2">
-        <f>H383*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>-3.8035885203255613E-4</v>
       </c>
       <c r="C383" t="s">
@@ -19378,7 +19432,7 @@
         <v>121</v>
       </c>
       <c r="B384" s="2">
-        <f>H384*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>-1.8346608076013485E-3</v>
       </c>
       <c r="C384" t="s">
@@ -19402,7 +19456,7 @@
         <v>412</v>
       </c>
       <c r="B385" s="2">
-        <f>H385*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>2.1285076033956987E-2</v>
       </c>
       <c r="C385" t="s">
@@ -19426,7 +19480,7 @@
         <v>124</v>
       </c>
       <c r="B386" s="2">
-        <f>H386*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>1.1815992053914601E-3</v>
       </c>
       <c r="C386" t="s">
@@ -19450,7 +19504,7 @@
         <v>123</v>
       </c>
       <c r="B387" s="2">
-        <f>H387*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>3.4683752618771714E-5</v>
       </c>
       <c r="C387" t="s">
@@ -19474,7 +19528,7 @@
         <v>125</v>
       </c>
       <c r="B388" s="2">
-        <f>H388*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>6.9810013788336162E-6</v>
       </c>
       <c r="C388" t="s">
@@ -19498,7 +19552,7 @@
         <v>125</v>
       </c>
       <c r="B389" s="2">
-        <f>H389*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>1.8186446417846609E-6</v>
       </c>
       <c r="C389" t="s">
@@ -19522,7 +19576,7 @@
         <v>125</v>
       </c>
       <c r="B390" s="2">
-        <f>H390*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>5.3838587518377327E-6</v>
       </c>
       <c r="C390" t="s">
@@ -19546,7 +19600,7 @@
         <v>125</v>
       </c>
       <c r="B391" s="2">
-        <f>H391*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>1.0590205487878645E-6</v>
       </c>
       <c r="C391" t="s">
@@ -19570,7 +19624,7 @@
         <v>125</v>
       </c>
       <c r="B392" s="2">
-        <f>H392*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>1.3585675367855074E-6</v>
       </c>
       <c r="C392" t="s">
@@ -19594,7 +19648,7 @@
         <v>125</v>
       </c>
       <c r="B393" s="2">
-        <f>H393*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>1.2585575397587177E-4</v>
       </c>
       <c r="C393" t="s">
@@ -19618,7 +19672,7 @@
         <v>413</v>
       </c>
       <c r="B394" s="2">
-        <f>H394*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>2.5929102328792807E-5</v>
       </c>
       <c r="C394" t="s">
@@ -19642,7 +19696,7 @@
         <v>414</v>
       </c>
       <c r="B395" s="2">
-        <f>H395*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>6.8979579431653979E-6</v>
       </c>
       <c r="C395" t="s">
@@ -19666,7 +19720,7 @@
         <v>414</v>
       </c>
       <c r="B396" s="2">
-        <f>H396*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>3.085317691641267E-5</v>
       </c>
       <c r="C396" t="s">
@@ -19690,7 +19744,7 @@
         <v>415</v>
       </c>
       <c r="B397" s="2">
-        <f>H397*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>9.36941181895387E-6</v>
       </c>
       <c r="C397" t="s">
@@ -19714,7 +19768,7 @@
         <v>416</v>
       </c>
       <c r="B398" s="2">
-        <f>H398*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>7.6526358365963212E-5</v>
       </c>
       <c r="C398" t="s">
@@ -19738,7 +19792,7 @@
         <v>127</v>
       </c>
       <c r="B399" s="2">
-        <f>H399*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>-6.8913472854167045E-7</v>
       </c>
       <c r="C399" t="s">
@@ -19762,7 +19816,7 @@
         <v>127</v>
       </c>
       <c r="B400" s="2">
-        <f>H400*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>-8.0013882773182402E-5</v>
       </c>
       <c r="C400" t="s">
@@ -19786,7 +19840,7 @@
         <v>127</v>
       </c>
       <c r="B401" s="2">
-        <f>H401*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>-2.8203865826071847E-4</v>
       </c>
       <c r="C401" t="s">
@@ -19810,7 +19864,7 @@
         <v>128</v>
       </c>
       <c r="B402" s="2">
-        <f>H402*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>-1.6396496461100753E-4</v>
       </c>
       <c r="C402" t="s">
@@ -19834,7 +19888,7 @@
         <v>129</v>
       </c>
       <c r="B403" s="2">
-        <f>H403*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>2.3433025260462536E-5</v>
       </c>
       <c r="C403" t="s">
@@ -19858,7 +19912,7 @@
         <v>129</v>
       </c>
       <c r="B404" s="2">
-        <f>H404*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>4.7448908771784655E-5</v>
       </c>
       <c r="C404" t="s">
@@ -19882,7 +19936,7 @@
         <v>417</v>
       </c>
       <c r="B405" s="2">
-        <f>H405*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>1.0267337519676514E-5</v>
       </c>
       <c r="C405" t="s">
@@ -19906,7 +19960,7 @@
         <v>418</v>
       </c>
       <c r="B406" s="2">
-        <f>H406*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>4.2783164572055758E-5</v>
       </c>
       <c r="C406" t="s">
@@ -19930,7 +19984,7 @@
         <v>419</v>
       </c>
       <c r="B407" s="2">
-        <f>H407*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>5.8449011375930548E-5</v>
       </c>
       <c r="C407" t="s">
@@ -19954,7 +20008,7 @@
         <v>420</v>
       </c>
       <c r="B408" s="2">
-        <f>H408*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>3.0546106016698768E-3</v>
       </c>
       <c r="C408" t="s">
@@ -19978,7 +20032,7 @@
         <v>130</v>
       </c>
       <c r="B409" s="2">
-        <f>H409*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>1.7911554798637666E-4</v>
       </c>
       <c r="C409" t="s">
@@ -20002,7 +20056,7 @@
         <v>130</v>
       </c>
       <c r="B410" s="2">
-        <f>H410*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>4.0715578423015889E-6</v>
       </c>
       <c r="C410" t="s">
@@ -20026,7 +20080,7 @@
         <v>130</v>
       </c>
       <c r="B411" s="2">
-        <f>H411*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>5.8718408054800684E-7</v>
       </c>
       <c r="C411" t="s">
@@ -20050,7 +20104,7 @@
         <v>130</v>
       </c>
       <c r="B412" s="2">
-        <f>H412*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>8.2173733341130284E-6</v>
       </c>
       <c r="C412" t="s">
@@ -20074,7 +20128,7 @@
         <v>130</v>
       </c>
       <c r="B413" s="2">
-        <f>H413*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>5.4529498916168019E-7</v>
       </c>
       <c r="C413" t="s">
@@ -20098,7 +20152,7 @@
         <v>130</v>
       </c>
       <c r="B414" s="2">
-        <f>H414*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>7.9011239812677324E-7</v>
       </c>
       <c r="C414" t="s">
@@ -20122,7 +20176,7 @@
         <v>130</v>
       </c>
       <c r="B415" s="2">
-        <f>H415*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>8.2788091636181913E-5</v>
       </c>
       <c r="C415" t="s">
@@ -20146,7 +20200,7 @@
         <v>421</v>
       </c>
       <c r="B416" s="2">
-        <f>H416*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>1.7774231755681499E-5</v>
       </c>
       <c r="C416" t="s">
@@ -20170,7 +20224,7 @@
         <v>132</v>
       </c>
       <c r="B417" s="2">
-        <f>H417*0.15/0.73</f>
+        <f t="shared" si="6"/>
         <v>4.4259307728889108E-6</v>
       </c>
       <c r="C417" t="s">
@@ -20194,7 +20248,7 @@
         <v>132</v>
       </c>
       <c r="B418" s="2">
-        <f>H418*0.15/0.73</f>
+        <f t="shared" ref="B418:B481" si="7">H418*0.15/0.73</f>
         <v>5.2141355480754667E-4</v>
       </c>
       <c r="C418" t="s">
@@ -20218,7 +20272,7 @@
         <v>134</v>
       </c>
       <c r="B419" s="2">
-        <f>H419*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>1.695901697160906E-6</v>
       </c>
       <c r="C419" t="s">
@@ -20242,7 +20296,7 @@
         <v>134</v>
       </c>
       <c r="B420" s="2">
-        <f>H420*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>1.6381554800401683E-4</v>
       </c>
       <c r="C420" t="s">
@@ -20266,7 +20320,7 @@
         <v>134</v>
       </c>
       <c r="B421" s="2">
-        <f>H421*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>4.1474757231329384E-3</v>
       </c>
       <c r="C421" t="s">
@@ -20290,7 +20344,7 @@
         <v>422</v>
       </c>
       <c r="B422" s="2">
-        <f>H422*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>1.2443265263617624E-7</v>
       </c>
       <c r="C422" t="s">
@@ -20314,7 +20368,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="2">
-        <f>H423*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>1.1949915751178856E-6</v>
       </c>
       <c r="C423" t="s">
@@ -20338,7 +20392,7 @@
         <v>422</v>
       </c>
       <c r="B424" s="2">
-        <f>H424*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>5.2958912080211297E-8</v>
       </c>
       <c r="C424" t="s">
@@ -20362,7 +20416,7 @@
         <v>422</v>
       </c>
       <c r="B425" s="2">
-        <f>H425*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>1.0413098676168926E-5</v>
       </c>
       <c r="C425" t="s">
@@ -20386,7 +20440,7 @@
         <v>422</v>
       </c>
       <c r="B426" s="2">
-        <f>H426*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>4.2444099683396917E-6</v>
       </c>
       <c r="C426" t="s">
@@ -20410,7 +20464,7 @@
         <v>422</v>
       </c>
       <c r="B427" s="2">
-        <f>H427*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>3.7513685571560338E-7</v>
       </c>
       <c r="C427" t="s">
@@ -20434,7 +20488,7 @@
         <v>422</v>
       </c>
       <c r="B428" s="2">
-        <f>H428*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>8.3496678737569523E-8</v>
       </c>
       <c r="C428" t="s">
@@ -20458,7 +20512,7 @@
         <v>422</v>
       </c>
       <c r="B429" s="2">
-        <f>H429*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>1.7763287299731944E-5</v>
       </c>
       <c r="C429" t="s">
@@ -20482,7 +20536,7 @@
         <v>135</v>
       </c>
       <c r="B430" s="2">
-        <f>H430*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>8.3872293541468564E-6</v>
       </c>
       <c r="C430" t="s">
@@ -20506,7 +20560,7 @@
         <v>423</v>
       </c>
       <c r="B431" s="2">
-        <f>H431*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>1.0477208065836699E-6</v>
       </c>
       <c r="C431" t="s">
@@ -20530,7 +20584,7 @@
         <v>424</v>
       </c>
       <c r="B432" s="2">
-        <f>H432*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>2.098953682477685E-4</v>
       </c>
       <c r="C432" t="s">
@@ -20554,7 +20608,7 @@
         <v>425</v>
       </c>
       <c r="B433" s="2">
-        <f>H433*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>6.3427567689121236E-7</v>
       </c>
       <c r="C433" t="s">
@@ -20578,7 +20632,7 @@
         <v>426</v>
       </c>
       <c r="B434" s="2">
-        <f>H434*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>8.4451472912549999E-10</v>
       </c>
       <c r="C434" t="s">
@@ -20602,7 +20656,7 @@
         <v>426</v>
       </c>
       <c r="B435" s="2">
-        <f>H435*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>5.0088532434316435E-7</v>
       </c>
       <c r="C435" t="s">
@@ -20626,7 +20680,7 @@
         <v>139</v>
       </c>
       <c r="B436" s="2">
-        <f>H436*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>-7.3859408661702943E-8</v>
       </c>
       <c r="C436" t="s">
@@ -20650,7 +20704,7 @@
         <v>139</v>
       </c>
       <c r="B437" s="2">
-        <f>H437*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>-1.0554950064006802E-7</v>
       </c>
       <c r="C437" t="s">
@@ -20674,7 +20728,7 @@
         <v>139</v>
       </c>
       <c r="B438" s="2">
-        <f>H438*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>-2.0730751349352737E-4</v>
       </c>
       <c r="C438" t="s">
@@ -20698,7 +20752,7 @@
         <v>138</v>
       </c>
       <c r="B439" s="2">
-        <f>H439*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>-1.7220536373216798E-5</v>
       </c>
       <c r="C439" t="s">
@@ -20722,7 +20776,7 @@
         <v>427</v>
       </c>
       <c r="B440" s="2">
-        <f>H440*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>-2.1907236100479042E-2</v>
       </c>
       <c r="C440" t="s">
@@ -20746,7 +20800,7 @@
         <v>428</v>
       </c>
       <c r="B441" s="2">
-        <f>H441*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>-4.8617232468244932E-3</v>
       </c>
       <c r="C441" t="s">
@@ -20770,7 +20824,7 @@
         <v>429</v>
       </c>
       <c r="B442" s="2">
-        <f>H442*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>1.8007832171732546E-4</v>
       </c>
       <c r="C442" t="s">
@@ -20794,7 +20848,7 @@
         <v>429</v>
       </c>
       <c r="B443" s="2">
-        <f>H443*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>5.0851985944923494E-3</v>
       </c>
       <c r="C443" t="s">
@@ -20818,7 +20872,7 @@
         <v>429</v>
       </c>
       <c r="B444" s="2">
-        <f>H444*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>7.3908442327886515E-5</v>
       </c>
       <c r="C444" t="s">
@@ -20842,7 +20896,7 @@
         <v>429</v>
       </c>
       <c r="B445" s="2">
-        <f>H445*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>5.4203184281702663E-6</v>
       </c>
       <c r="C445" t="s">
@@ -20866,7 +20920,7 @@
         <v>429</v>
       </c>
       <c r="B446" s="2">
-        <f>H446*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>5.3965282689171158E-7</v>
       </c>
       <c r="C446" t="s">
@@ -20890,7 +20944,7 @@
         <v>429</v>
       </c>
       <c r="B447" s="2">
-        <f>H447*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>8.0993739344491854E-6</v>
       </c>
       <c r="C447" t="s">
@@ -20914,7 +20968,7 @@
         <v>429</v>
       </c>
       <c r="B448" s="2">
-        <f>H448*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>1.3483167186354843E-5</v>
       </c>
       <c r="C448" t="s">
@@ -20938,7 +20992,7 @@
         <v>429</v>
       </c>
       <c r="B449" s="2">
-        <f>H449*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>7.6002327121614446E-5</v>
       </c>
       <c r="C449" t="s">
@@ -20962,7 +21016,7 @@
         <v>429</v>
       </c>
       <c r="B450" s="2">
-        <f>H450*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>2.5272491785195889E-4</v>
       </c>
       <c r="C450" t="s">
@@ -20986,7 +21040,7 @@
         <v>140</v>
       </c>
       <c r="B451" s="2">
-        <f>H451*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>8.3581836971211357E-5</v>
       </c>
       <c r="C451" t="s">
@@ -21010,7 +21064,7 @@
         <v>430</v>
       </c>
       <c r="B452" s="2">
-        <f>H452*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>9.1222295679167461E-4</v>
       </c>
       <c r="C452" t="s">
@@ -21034,7 +21088,7 @@
         <v>143</v>
       </c>
       <c r="B453" s="2">
-        <f>H453*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>2.3774218518657738E-2</v>
       </c>
       <c r="C453" t="s">
@@ -21058,7 +21112,7 @@
         <v>144</v>
       </c>
       <c r="B454" s="2">
-        <f>H454*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>3.8896528781239723E-6</v>
       </c>
       <c r="C454" t="s">
@@ -21082,7 +21136,7 @@
         <v>144</v>
       </c>
       <c r="B455" s="2">
-        <f>H455*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>3.3327237626300554E-7</v>
       </c>
       <c r="C455" t="s">
@@ -21106,7 +21160,7 @@
         <v>144</v>
       </c>
       <c r="B456" s="2">
-        <f>H456*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>8.9376882366995132E-8</v>
       </c>
       <c r="C456" t="s">
@@ -21130,7 +21184,7 @@
         <v>144</v>
       </c>
       <c r="B457" s="2">
-        <f>H457*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>3.6937500599838283E-7</v>
       </c>
       <c r="C457" t="s">
@@ -21154,7 +21208,7 @@
         <v>144</v>
       </c>
       <c r="B458" s="2">
-        <f>H458*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>1.8351117126246923E-8</v>
       </c>
       <c r="C458" t="s">
@@ -21178,7 +21232,7 @@
         <v>144</v>
       </c>
       <c r="B459" s="2">
-        <f>H459*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>8.9086541278030265E-8</v>
       </c>
       <c r="C459" t="s">
@@ -21202,7 +21256,7 @@
         <v>144</v>
       </c>
       <c r="B460" s="2">
-        <f>H460*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>1.0257929940206055E-5</v>
       </c>
       <c r="C460" t="s">
@@ -21226,7 +21280,7 @@
         <v>431</v>
       </c>
       <c r="B461" s="2">
-        <f>H461*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>5.8742848599038621E-6</v>
       </c>
       <c r="C461" t="s">
@@ -21250,7 +21304,7 @@
         <v>432</v>
       </c>
       <c r="B462" s="2">
-        <f>H462*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>2.3665713336657946E-6</v>
       </c>
       <c r="C462" t="s">
@@ -21274,7 +21328,7 @@
         <v>145</v>
       </c>
       <c r="B463" s="2">
-        <f>H463*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>1.2200595921971979E-5</v>
       </c>
       <c r="C463" t="s">
@@ -21298,7 +21352,7 @@
         <v>145</v>
       </c>
       <c r="B464" s="2">
-        <f>H464*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>1.3172404256385514E-4</v>
       </c>
       <c r="C464" t="s">
@@ -21322,7 +21376,7 @@
         <v>146</v>
       </c>
       <c r="B465" s="2">
-        <f>H465*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>1.3455680800364815E-4</v>
       </c>
       <c r="C465" t="s">
@@ -21346,7 +21400,7 @@
         <v>433</v>
       </c>
       <c r="B466" s="2">
-        <f>H466*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>2.3343896906124863E-6</v>
       </c>
       <c r="C466" t="s">
@@ -21370,7 +21424,7 @@
         <v>148</v>
       </c>
       <c r="B467" s="2">
-        <f>H467*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>1.2504513654204433E-4</v>
       </c>
       <c r="C467" t="s">
@@ -21394,7 +21448,7 @@
         <v>149</v>
       </c>
       <c r="B468" s="2">
-        <f>H468*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>1.7906122059814582E-8</v>
       </c>
       <c r="C468" t="s">
@@ -21418,7 +21472,7 @@
         <v>149</v>
       </c>
       <c r="B469" s="2">
-        <f>H469*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>1.0820045212140165E-3</v>
       </c>
       <c r="C469" t="s">
@@ -21442,7 +21496,7 @@
         <v>150</v>
       </c>
       <c r="B470" s="2">
-        <f>H470*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>8.3008519684910152E-4</v>
       </c>
       <c r="C470" t="s">
@@ -21466,7 +21520,7 @@
         <v>434</v>
       </c>
       <c r="B471" s="2">
-        <f>H471*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>3.3422151203163085E-3</v>
       </c>
       <c r="C471" t="s">
@@ -21490,7 +21544,7 @@
         <v>435</v>
       </c>
       <c r="B472" s="2">
-        <f>H472*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>1.4613462660695652E-7</v>
       </c>
       <c r="C472" t="s">
@@ -21514,7 +21568,7 @@
         <v>152</v>
       </c>
       <c r="B473" s="2">
-        <f>H473*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>6.3810330723802192E-4</v>
       </c>
       <c r="C473" t="s">
@@ -21538,7 +21592,7 @@
         <v>436</v>
       </c>
       <c r="B474" s="2">
-        <f>H474*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>3.9310596131344112E-5</v>
       </c>
       <c r="C474" t="s">
@@ -21562,7 +21616,7 @@
         <v>154</v>
       </c>
       <c r="B475" s="2">
-        <f>H475*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>1.7113265828822199E-6</v>
       </c>
       <c r="C475" t="s">
@@ -21586,7 +21640,7 @@
         <v>155</v>
       </c>
       <c r="B476" s="2">
-        <f>H476*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>1.5075206627962254E-7</v>
       </c>
       <c r="C476" t="s">
@@ -21610,7 +21664,7 @@
         <v>437</v>
       </c>
       <c r="B477" s="2">
-        <f>H477*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>1.7479055960998048E-4</v>
       </c>
       <c r="C477" t="s">
@@ -21634,7 +21688,7 @@
         <v>438</v>
       </c>
       <c r="B478" s="2">
-        <f>H478*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>6.2784396344495131E-4</v>
       </c>
       <c r="C478" t="s">
@@ -21658,7 +21712,7 @@
         <v>439</v>
       </c>
       <c r="B479" s="2">
-        <f>H479*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>5.6806188392037744E-7</v>
       </c>
       <c r="C479" t="s">
@@ -21682,7 +21736,7 @@
         <v>439</v>
       </c>
       <c r="B480" s="2">
-        <f>H480*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>2.6966615868863833E-6</v>
       </c>
       <c r="C480" t="s">
@@ -21706,7 +21760,7 @@
         <v>440</v>
       </c>
       <c r="B481" s="2">
-        <f>H481*0.15/0.73</f>
+        <f t="shared" si="7"/>
         <v>2.8504234824718153E-6</v>
       </c>
       <c r="C481" t="s">
@@ -21730,7 +21784,7 @@
         <v>156</v>
       </c>
       <c r="B482" s="2">
-        <f>H482*0.15/0.73</f>
+        <f t="shared" ref="B482:B545" si="8">H482*0.15/0.73</f>
         <v>4.9613148952829181E-6</v>
       </c>
       <c r="C482" t="s">
@@ -21754,7 +21808,7 @@
         <v>441</v>
       </c>
       <c r="B483" s="2">
-        <f>H483*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>2.343033360496274E-7</v>
       </c>
       <c r="C483" t="s">
@@ -21778,7 +21832,7 @@
         <v>441</v>
       </c>
       <c r="B484" s="2">
-        <f>H484*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>1.3289093920698699E-6</v>
       </c>
       <c r="C484" t="s">
@@ -21802,7 +21856,7 @@
         <v>442</v>
       </c>
       <c r="B485" s="2">
-        <f>H485*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>6.1741138855329243E-5</v>
       </c>
       <c r="C485" t="s">
@@ -21826,7 +21880,7 @@
         <v>443</v>
       </c>
       <c r="B486" s="2">
-        <f>H486*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>3.88937331758926E-8</v>
       </c>
       <c r="C486" t="s">
@@ -21850,7 +21904,7 @@
         <v>158</v>
       </c>
       <c r="B487" s="2">
-        <f>H487*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-5.6179241322078084E-6</v>
       </c>
       <c r="C487" t="s">
@@ -21874,7 +21928,7 @@
         <v>158</v>
       </c>
       <c r="B488" s="2">
-        <f>H488*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-1.658011993173078E-5</v>
       </c>
       <c r="C488" t="s">
@@ -21898,7 +21952,7 @@
         <v>158</v>
       </c>
       <c r="B489" s="2">
-        <f>H489*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-2.0443448847862209E-6</v>
       </c>
       <c r="C489" t="s">
@@ -21922,7 +21976,7 @@
         <v>158</v>
       </c>
       <c r="B490" s="2">
-        <f>H490*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-8.4671292078547392E-7</v>
       </c>
       <c r="C490" t="s">
@@ -21946,7 +22000,7 @@
         <v>158</v>
       </c>
       <c r="B491" s="2">
-        <f>H491*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-2.3340945534960821E-6</v>
       </c>
       <c r="C491" t="s">
@@ -21970,7 +22024,7 @@
         <v>158</v>
       </c>
       <c r="B492" s="2">
-        <f>H492*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-4.3301478268306639E-6</v>
       </c>
       <c r="C492" t="s">
@@ -21994,7 +22048,7 @@
         <v>158</v>
       </c>
       <c r="B493" s="2">
-        <f>H493*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-2.9779827061846441E-6</v>
       </c>
       <c r="C493" t="s">
@@ -22018,7 +22072,7 @@
         <v>158</v>
       </c>
       <c r="B494" s="2">
-        <f>H494*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-9.5359835413177807E-6</v>
       </c>
       <c r="C494" t="s">
@@ -22042,7 +22096,7 @@
         <v>444</v>
       </c>
       <c r="B495" s="2">
-        <f>H495*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>7.9398887050819315E-5</v>
       </c>
       <c r="C495" t="s">
@@ -22066,7 +22120,7 @@
         <v>160</v>
       </c>
       <c r="B496" s="2">
-        <f>H496*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>3.7077295936628016E-4</v>
       </c>
       <c r="C496" t="s">
@@ -22090,7 +22144,7 @@
         <v>160</v>
       </c>
       <c r="B497" s="2">
-        <f>H497*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>2.8342017467512192E-3</v>
       </c>
       <c r="C497" t="s">
@@ -22114,7 +22168,7 @@
         <v>445</v>
       </c>
       <c r="B498" s="2">
-        <f>H498*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>1.3768320404239191E-4</v>
       </c>
       <c r="C498" t="s">
@@ -22138,7 +22192,7 @@
         <v>445</v>
       </c>
       <c r="B499" s="2">
-        <f>H499*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>2.7390200482754594E-5</v>
       </c>
       <c r="C499" t="s">
@@ -22162,7 +22216,7 @@
         <v>445</v>
       </c>
       <c r="B500" s="2">
-        <f>H500*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>6.9067258622221024E-4</v>
       </c>
       <c r="C500" t="s">
@@ -22186,7 +22240,7 @@
         <v>445</v>
       </c>
       <c r="B501" s="2">
-        <f>H501*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>1.7967673667795609E-5</v>
       </c>
       <c r="C501" t="s">
@@ -22210,7 +22264,7 @@
         <v>445</v>
       </c>
       <c r="B502" s="2">
-        <f>H502*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>5.1108742879008904E-5</v>
       </c>
       <c r="C502" t="s">
@@ -22234,7 +22288,7 @@
         <v>445</v>
       </c>
       <c r="B503" s="2">
-        <f>H503*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>7.9037171399301363E-3</v>
       </c>
       <c r="C503" t="s">
@@ -22258,7 +22312,7 @@
         <v>161</v>
       </c>
       <c r="B504" s="2">
-        <f>H504*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>5.9018984838643766E-3</v>
       </c>
       <c r="C504" t="s">
@@ -22282,7 +22336,7 @@
         <v>377</v>
       </c>
       <c r="B505" s="2">
-        <f>H505*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>1.1519015659593843E-3</v>
       </c>
       <c r="C505" t="s">
@@ -22306,7 +22360,7 @@
         <v>446</v>
       </c>
       <c r="B506" s="2">
-        <f>H506*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>1.5348096219682829E-3</v>
       </c>
       <c r="C506" t="s">
@@ -22330,7 +22384,7 @@
         <v>162</v>
       </c>
       <c r="B507" s="2">
-        <f>H507*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>3.3642827848030478E-3</v>
       </c>
       <c r="C507" t="s">
@@ -22354,7 +22408,7 @@
         <v>162</v>
       </c>
       <c r="B508" s="2">
-        <f>H508*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>8.1390538465375467E-4</v>
       </c>
       <c r="C508" t="s">
@@ -22378,7 +22432,7 @@
         <v>162</v>
       </c>
       <c r="B509" s="2">
-        <f>H509*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>7.5463091853303294E-3</v>
       </c>
       <c r="C509" t="s">
@@ -22402,7 +22456,7 @@
         <v>447</v>
       </c>
       <c r="B510" s="2">
-        <f>H510*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>4.7999584600343631E-5</v>
       </c>
       <c r="C510" t="s">
@@ -22426,7 +22480,7 @@
         <v>448</v>
       </c>
       <c r="B511" s="2">
-        <f>H511*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>6.5978788366014448E-8</v>
       </c>
       <c r="C511" t="s">
@@ -22450,7 +22504,7 @@
         <v>449</v>
       </c>
       <c r="B512" s="2">
-        <f>H512*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>4.2499845451836777E-4</v>
       </c>
       <c r="C512" t="s">
@@ -22474,7 +22528,7 @@
         <v>450</v>
       </c>
       <c r="B513" s="2">
-        <f>H513*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>5.2439809551873898E-3</v>
       </c>
       <c r="C513" t="s">
@@ -22498,7 +22552,7 @@
         <v>451</v>
       </c>
       <c r="B514" s="2">
-        <f>H514*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>1.3949279803594416E-6</v>
       </c>
       <c r="C514" t="s">
@@ -22522,7 +22576,7 @@
         <v>451</v>
       </c>
       <c r="B515" s="2">
-        <f>H515*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>2.5611180303712605E-7</v>
       </c>
       <c r="C515" t="s">
@@ -22546,7 +22600,7 @@
         <v>451</v>
       </c>
       <c r="B516" s="2">
-        <f>H516*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>1.6335411088654868E-6</v>
       </c>
       <c r="C516" t="s">
@@ -22570,7 +22624,7 @@
         <v>453</v>
       </c>
       <c r="B517" s="2">
-        <f>H517*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-8.4855232768937458E-7</v>
       </c>
       <c r="C517" t="s">
@@ -22594,7 +22648,7 @@
         <v>453</v>
       </c>
       <c r="B518" s="2">
-        <f>H518*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-7.8209228835022194E-8</v>
       </c>
       <c r="C518" t="s">
@@ -22618,7 +22672,7 @@
         <v>453</v>
       </c>
       <c r="B519" s="2">
-        <f>H519*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-1.7743040797764798E-9</v>
       </c>
       <c r="C519" t="s">
@@ -22642,7 +22696,7 @@
         <v>453</v>
       </c>
       <c r="B520" s="2">
-        <f>H520*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-7.2968081866900891E-9</v>
       </c>
       <c r="C520" t="s">
@@ -22666,7 +22720,7 @@
         <v>453</v>
       </c>
       <c r="B521" s="2">
-        <f>H521*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-1.1080610414813774E-8</v>
       </c>
       <c r="C521" t="s">
@@ -22690,7 +22744,7 @@
         <v>453</v>
       </c>
       <c r="B522" s="2">
-        <f>H522*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-3.2650534875944593E-8</v>
       </c>
       <c r="C522" t="s">
@@ -22714,7 +22768,7 @@
         <v>454</v>
       </c>
       <c r="B523" s="2">
-        <f>H523*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-1.6118487483170465E-6</v>
       </c>
       <c r="C523" t="s">
@@ -22738,7 +22792,7 @@
         <v>452</v>
       </c>
       <c r="B524" s="2">
-        <f>H524*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-1.0256380660590697E-6</v>
       </c>
       <c r="C524" t="s">
@@ -22762,7 +22816,7 @@
         <v>455</v>
       </c>
       <c r="B525" s="2">
-        <f>H525*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-1.3245028097215868E-6</v>
       </c>
       <c r="C525" t="s">
@@ -22786,7 +22840,7 @@
         <v>455</v>
       </c>
       <c r="B526" s="2">
-        <f>H526*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-2.8019382981341096E-5</v>
       </c>
       <c r="C526" t="s">
@@ -22810,7 +22864,7 @@
         <v>455</v>
       </c>
       <c r="B527" s="2">
-        <f>H527*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-9.1226850730185202E-5</v>
       </c>
       <c r="C527" t="s">
@@ -22834,7 +22888,7 @@
         <v>165</v>
       </c>
       <c r="B528" s="2">
-        <f>H528*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-4.7569632383740068E-6</v>
       </c>
       <c r="C528" t="s">
@@ -22858,7 +22912,7 @@
         <v>165</v>
       </c>
       <c r="B529" s="2">
-        <f>H529*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-1.9215377972951159E-4</v>
       </c>
       <c r="C529" t="s">
@@ -22882,7 +22936,7 @@
         <v>165</v>
       </c>
       <c r="B530" s="2">
-        <f>H530*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-5.0312538800981914E-4</v>
       </c>
       <c r="C530" t="s">
@@ -22906,7 +22960,7 @@
         <v>166</v>
       </c>
       <c r="B531" s="2">
-        <f>H531*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-1.1768698212111143E-6</v>
       </c>
       <c r="C531" t="s">
@@ -22930,7 +22984,7 @@
         <v>456</v>
       </c>
       <c r="B532" s="2">
-        <f>H532*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-4.9847617284397603E-8</v>
       </c>
       <c r="C532" t="s">
@@ -22954,7 +23008,7 @@
         <v>456</v>
       </c>
       <c r="B533" s="2">
-        <f>H533*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-7.611957736402214E-9</v>
       </c>
       <c r="C533" t="s">
@@ -22978,7 +23032,7 @@
         <v>456</v>
       </c>
       <c r="B534" s="2">
-        <f>H534*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-6.6559670590082881E-10</v>
       </c>
       <c r="C534" t="s">
@@ -23002,7 +23056,7 @@
         <v>456</v>
       </c>
       <c r="B535" s="2">
-        <f>H535*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-2.7505212903496639E-8</v>
       </c>
       <c r="C535" t="s">
@@ -23026,7 +23080,7 @@
         <v>456</v>
       </c>
       <c r="B536" s="2">
-        <f>H536*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-2.6819868577125617E-9</v>
       </c>
       <c r="C536" t="s">
@@ -23050,7 +23104,7 @@
         <v>456</v>
       </c>
       <c r="B537" s="2">
-        <f>H537*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-4.9646338579451095E-9</v>
       </c>
       <c r="C537" t="s">
@@ -23074,7 +23128,7 @@
         <v>456</v>
       </c>
       <c r="B538" s="2">
-        <f>H538*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-9.2600023877223297E-7</v>
       </c>
       <c r="C538" t="s">
@@ -23098,7 +23152,7 @@
         <v>457</v>
       </c>
       <c r="B539" s="2">
-        <f>H539*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-1.224189742860945E-7</v>
       </c>
       <c r="C539" t="s">
@@ -23122,7 +23176,7 @@
         <v>458</v>
       </c>
       <c r="B540" s="2">
-        <f>H540*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-1.65140171545763E-6</v>
       </c>
       <c r="C540" t="s">
@@ -23146,7 +23200,7 @@
         <v>459</v>
       </c>
       <c r="B541" s="2">
-        <f>H541*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-7.516076245291767E-9</v>
       </c>
       <c r="C541" t="s">
@@ -23170,7 +23224,7 @@
         <v>459</v>
       </c>
       <c r="B542" s="2">
-        <f>H542*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-5.0219524195030057E-10</v>
       </c>
       <c r="C542" t="s">
@@ -23194,7 +23248,7 @@
         <v>459</v>
       </c>
       <c r="B543" s="2">
-        <f>H543*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-3.7980209058441576E-11</v>
       </c>
       <c r="C543" t="s">
@@ -23218,7 +23272,7 @@
         <v>459</v>
       </c>
       <c r="B544" s="2">
-        <f>H544*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-2.0742462079220754E-10</v>
       </c>
       <c r="C544" t="s">
@@ -23242,7 +23296,7 @@
         <v>459</v>
       </c>
       <c r="B545" s="2">
-        <f>H545*0.15/0.73</f>
+        <f t="shared" si="8"/>
         <v>-8.3797177738531437E-11</v>
       </c>
       <c r="C545" t="s">
@@ -23266,7 +23320,7 @@
         <v>459</v>
       </c>
       <c r="B546" s="2">
-        <f>H546*0.15/0.73</f>
+        <f t="shared" ref="B546:B609" si="9">H546*0.15/0.73</f>
         <v>-1.9696906933982711E-10</v>
       </c>
       <c r="C546" t="s">
@@ -23290,7 +23344,7 @@
         <v>459</v>
       </c>
       <c r="B547" s="2">
-        <f>H547*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>-5.2616691462178569E-8</v>
       </c>
       <c r="C547" t="s">
@@ -23314,7 +23368,7 @@
         <v>460</v>
       </c>
       <c r="B548" s="2">
-        <f>H548*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>-6.5140535694475482E-9</v>
       </c>
       <c r="C548" t="s">
@@ -23338,7 +23392,7 @@
         <v>461</v>
       </c>
       <c r="B549" s="2">
-        <f>H549*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>-7.998226715083644E-6</v>
       </c>
       <c r="C549" t="s">
@@ -23362,7 +23416,7 @@
         <v>461</v>
       </c>
       <c r="B550" s="2">
-        <f>H550*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>-5.3437561870066028E-4</v>
       </c>
       <c r="C550" t="s">
@@ -23386,7 +23440,7 @@
         <v>462</v>
       </c>
       <c r="B551" s="2">
-        <f>H551*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>-1.6133185962305921E-5</v>
       </c>
       <c r="C551" t="s">
@@ -23410,7 +23464,7 @@
         <v>462</v>
       </c>
       <c r="B552" s="2">
-        <f>H552*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>-2.0031783075917363E-6</v>
       </c>
       <c r="C552" t="s">
@@ -23434,7 +23488,7 @@
         <v>462</v>
       </c>
       <c r="B553" s="2">
-        <f>H553*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>-1.4645490050509562E-7</v>
       </c>
       <c r="C553" t="s">
@@ -23458,7 +23512,7 @@
         <v>462</v>
       </c>
       <c r="B554" s="2">
-        <f>H554*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>-5.6263230051489052E-6</v>
       </c>
       <c r="C554" t="s">
@@ -23482,7 +23536,7 @@
         <v>462</v>
       </c>
       <c r="B555" s="2">
-        <f>H555*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>-8.5000213106120958E-7</v>
       </c>
       <c r="C555" t="s">
@@ -23506,7 +23560,7 @@
         <v>462</v>
       </c>
       <c r="B556" s="2">
-        <f>H556*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>-1.3437824393198425E-6</v>
       </c>
       <c r="C556" t="s">
@@ -23530,7 +23584,7 @@
         <v>463</v>
       </c>
       <c r="B557" s="2">
-        <f>H557*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>-2.5461014043342324E-5</v>
       </c>
       <c r="C557" t="s">
@@ -23554,7 +23608,7 @@
         <v>464</v>
       </c>
       <c r="B558" s="2">
-        <f>H558*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>-2.6155145268687329E-7</v>
       </c>
       <c r="C558" t="s">
@@ -23578,7 +23632,7 @@
         <v>464</v>
       </c>
       <c r="B559" s="2">
-        <f>H559*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>-2.4177151131083629E-6</v>
       </c>
       <c r="C559" t="s">
@@ -23602,7 +23656,7 @@
         <v>464</v>
       </c>
       <c r="B560" s="2">
-        <f>H560*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>-5.0583798973488284E-6</v>
       </c>
       <c r="C560" t="s">
@@ -23626,7 +23680,7 @@
         <v>465</v>
       </c>
       <c r="B561" s="2">
-        <f>H561*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>7.9825572567657948E-4</v>
       </c>
       <c r="C561" t="s">
@@ -23650,7 +23704,7 @@
         <v>465</v>
       </c>
       <c r="B562" s="2">
-        <f>H562*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>0.22175288200139381</v>
       </c>
       <c r="C562" t="s">
@@ -23674,7 +23728,7 @@
         <v>465</v>
       </c>
       <c r="B563" s="2">
-        <f>H563*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>0.71987998025779731</v>
       </c>
       <c r="C563" t="s">
@@ -23698,7 +23752,7 @@
         <v>466</v>
       </c>
       <c r="B564" s="2">
-        <f>H564*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>4.2456456769868835E-4</v>
       </c>
       <c r="C564" t="s">
@@ -23722,7 +23776,7 @@
         <v>467</v>
       </c>
       <c r="B565" s="2">
-        <f>H565*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>0.272628504245437</v>
       </c>
       <c r="C565" t="s">
@@ -23746,7 +23800,7 @@
         <v>468</v>
       </c>
       <c r="B566" s="2">
-        <f>H566*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>7.0001604643974667E-3</v>
       </c>
       <c r="C566" t="s">
@@ -23770,7 +23824,7 @@
         <v>170</v>
       </c>
       <c r="B567" s="2">
-        <f>H567*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>-3.418104598966952E-2</v>
       </c>
       <c r="C567" t="s">
@@ -23794,7 +23848,7 @@
         <v>487</v>
       </c>
       <c r="B568" s="2">
-        <f>H568*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>5.7482048515646706E-8</v>
       </c>
       <c r="C568" t="s">
@@ -23815,7 +23869,7 @@
         <v>196</v>
       </c>
       <c r="B569" s="2">
-        <f>H569*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>5.7462385751748493E-8</v>
       </c>
       <c r="C569" t="s">
@@ -23836,7 +23890,7 @@
         <v>198</v>
       </c>
       <c r="B570" s="2">
-        <f>H570*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>5.7336659098580136E-6</v>
       </c>
       <c r="C570" t="s">
@@ -23857,7 +23911,7 @@
         <v>199</v>
       </c>
       <c r="B571" s="2">
-        <f>H571*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>3.6101940508429519E-6</v>
       </c>
       <c r="C571" t="s">
@@ -23878,7 +23932,7 @@
         <v>199</v>
       </c>
       <c r="B572" s="2">
-        <f>H572*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>8.269539521763022E-7</v>
       </c>
       <c r="C572" t="s">
@@ -23899,7 +23953,7 @@
         <v>200</v>
       </c>
       <c r="B573" s="2">
-        <f>H573*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>1.174437349195019E-8</v>
       </c>
       <c r="C573" t="s">
@@ -23920,7 +23974,7 @@
         <v>200</v>
       </c>
       <c r="B574" s="2">
-        <f>H574*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>1.4019381835901054E-7</v>
       </c>
       <c r="C574" t="s">
@@ -23941,7 +23995,7 @@
         <v>201</v>
       </c>
       <c r="B575" s="2">
-        <f>H575*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>3.1139631569430198E-8</v>
       </c>
       <c r="C575" t="s">
@@ -23962,7 +24016,7 @@
         <v>202</v>
       </c>
       <c r="B576" s="2">
-        <f>H576*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>1.8499716853518926E-8</v>
       </c>
       <c r="C576" t="s">
@@ -23983,7 +24037,7 @@
         <v>202</v>
       </c>
       <c r="B577" s="2">
-        <f>H577*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>2.2657600882615685E-8</v>
       </c>
       <c r="C577" t="s">
@@ -24004,7 +24058,7 @@
         <v>204</v>
       </c>
       <c r="B578" s="2">
-        <f>H578*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>2.0131433788666332E-9</v>
       </c>
       <c r="C578" t="s">
@@ -24025,7 +24079,7 @@
         <v>205</v>
       </c>
       <c r="B579" s="2">
-        <f>H579*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>1.2902418928190712E-13</v>
       </c>
       <c r="C579" t="s">
@@ -24046,7 +24100,7 @@
         <v>207</v>
       </c>
       <c r="B580" s="2">
-        <f>H580*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>1.1546463183089773E-6</v>
       </c>
       <c r="C580" t="s">
@@ -24067,7 +24121,7 @@
         <v>208</v>
       </c>
       <c r="B581" s="2">
-        <f>H581*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>8.4407241775427066E-7</v>
       </c>
       <c r="C581" t="s">
@@ -24088,7 +24142,7 @@
         <v>210</v>
       </c>
       <c r="B582" s="2">
-        <f>H582*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>1.5044841323650008E-8</v>
       </c>
       <c r="C582" t="s">
@@ -24109,7 +24163,7 @@
         <v>210</v>
       </c>
       <c r="B583" s="2">
-        <f>H583*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>1.78447164911783E-8</v>
       </c>
       <c r="C583" t="s">
@@ -24130,7 +24184,7 @@
         <v>213</v>
       </c>
       <c r="B584" s="2">
-        <f>H584*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>9.1018559633889047E-6</v>
       </c>
       <c r="C584" t="s">
@@ -24151,7 +24205,7 @@
         <v>214</v>
       </c>
       <c r="B585" s="2">
-        <f>H585*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>3.4220077281874109E-2</v>
       </c>
       <c r="C585" t="s">
@@ -24172,7 +24226,7 @@
         <v>215</v>
       </c>
       <c r="B586" s="2">
-        <f>H586*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>3.4040638707267536E-6</v>
       </c>
       <c r="C586" t="s">
@@ -24193,7 +24247,7 @@
         <v>216</v>
       </c>
       <c r="B587" s="2">
-        <f>H587*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>8.850153054657061E-6</v>
       </c>
       <c r="C587" t="s">
@@ -24214,7 +24268,7 @@
         <v>217</v>
       </c>
       <c r="B588" s="2">
-        <f>H588*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>2.7634598397553974E-5</v>
       </c>
       <c r="C588" t="s">
@@ -24235,7 +24289,7 @@
         <v>218</v>
       </c>
       <c r="B589" s="2">
-        <f>H589*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>1.3962869164879973E-8</v>
       </c>
       <c r="C589" t="s">
@@ -24256,7 +24310,7 @@
         <v>219</v>
       </c>
       <c r="B590" s="2">
-        <f>H590*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>7.7960337975964307E-10</v>
       </c>
       <c r="C590" t="s">
@@ -24277,7 +24331,7 @@
         <v>220</v>
       </c>
       <c r="B591" s="2">
-        <f>H591*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>6.3427567689121227E-11</v>
       </c>
       <c r="C591" t="s">
@@ -24298,7 +24352,7 @@
         <v>222</v>
       </c>
       <c r="B592" s="2">
-        <f>H592*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>3.9642229805700825E-11</v>
       </c>
       <c r="C592" t="s">
@@ -24319,7 +24373,7 @@
         <v>222</v>
       </c>
       <c r="B593" s="2">
-        <f>H593*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>3.7105989393918699E-10</v>
       </c>
       <c r="C593" t="s">
@@ -24340,7 +24394,7 @@
         <v>223</v>
       </c>
       <c r="B594" s="2">
-        <f>H594*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>3.0312755403348286E-6</v>
       </c>
       <c r="C594" t="s">
@@ -24361,7 +24415,7 @@
         <v>223</v>
       </c>
       <c r="B595" s="2">
-        <f>H595*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>1.7638249251196028E-6</v>
       </c>
       <c r="C595" t="s">
@@ -24382,7 +24436,7 @@
         <v>224</v>
       </c>
       <c r="B596" s="2">
-        <f>H596*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>8.0892158592415887E-8</v>
       </c>
       <c r="C596" t="s">
@@ -24403,7 +24457,7 @@
         <v>226</v>
       </c>
       <c r="B597" s="2">
-        <f>H597*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>5.3942571190834936E-8</v>
       </c>
       <c r="C597" t="s">
@@ -24424,7 +24478,7 @@
         <v>226</v>
       </c>
       <c r="B598" s="2">
-        <f>H598*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>5.8621773869906717E-9</v>
       </c>
       <c r="C598" t="s">
@@ -24445,7 +24499,7 @@
         <v>227</v>
       </c>
       <c r="B599" s="2">
-        <f>H599*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>4.5813572346745065E-10</v>
       </c>
       <c r="C599" t="s">
@@ -24466,7 +24520,7 @@
         <v>227</v>
       </c>
       <c r="B600" s="2">
-        <f>H600*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>1.9446892987298116E-10</v>
       </c>
       <c r="C600" t="s">
@@ -24487,7 +24541,7 @@
         <v>228</v>
       </c>
       <c r="B601" s="2">
-        <f>H601*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>6.9748012422850066E-16</v>
       </c>
       <c r="C601" t="s">
@@ -24508,7 +24562,7 @@
         <v>229</v>
       </c>
       <c r="B602" s="2">
-        <f>H602*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>5.668838862215219E-7</v>
       </c>
       <c r="C602" t="s">
@@ -24529,7 +24583,7 @@
         <v>230</v>
       </c>
       <c r="B603" s="2">
-        <f>H603*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>1.1901498508226403E-7</v>
       </c>
       <c r="C603" t="s">
@@ -24550,7 +24604,7 @@
         <v>232</v>
       </c>
       <c r="B604" s="2">
-        <f>H604*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>7.2061416413856777E-7</v>
       </c>
       <c r="C604" t="s">
@@ -24571,7 +24625,7 @@
         <v>232</v>
       </c>
       <c r="B605" s="2">
-        <f>H605*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>9.6574155838421913E-7</v>
       </c>
       <c r="C605" t="s">
@@ -24592,7 +24646,7 @@
         <v>234</v>
       </c>
       <c r="B606" s="2">
-        <f>H606*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>8.6931191360150141E-9</v>
       </c>
       <c r="C606" t="s">
@@ -24613,7 +24667,7 @@
         <v>237</v>
       </c>
       <c r="B607" s="2">
-        <f>H607*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>4.3606452786271032E-7</v>
       </c>
       <c r="C607" t="s">
@@ -24634,7 +24688,7 @@
         <v>238</v>
       </c>
       <c r="B608" s="2">
-        <f>H608*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>1.5653270487250828E-7</v>
       </c>
       <c r="C608" t="s">
@@ -24655,7 +24709,7 @@
         <v>241</v>
       </c>
       <c r="B609" s="2">
-        <f>H609*0.15/0.73</f>
+        <f t="shared" si="9"/>
         <v>3.5479373334625273E-7</v>
       </c>
       <c r="C609" t="s">
@@ -24676,7 +24730,7 @@
         <v>241</v>
       </c>
       <c r="B610" s="2">
-        <f>H610*0.15/0.73</f>
+        <f t="shared" ref="B610:B659" si="10">H610*0.15/0.73</f>
         <v>7.9343323388176239E-8</v>
       </c>
       <c r="C610" t="s">
@@ -24697,7 +24751,7 @@
         <v>242</v>
       </c>
       <c r="B611" s="2">
-        <f>H611*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>7.7809598337538346E-7</v>
       </c>
       <c r="C611" t="s">
@@ -24718,7 +24772,7 @@
         <v>242</v>
       </c>
       <c r="B612" s="2">
-        <f>H612*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>8.6774101919225144E-8</v>
       </c>
       <c r="C612" t="s">
@@ -24739,7 +24793,7 @@
         <v>242</v>
       </c>
       <c r="B613" s="2">
-        <f>H613*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>1.0545071430986754E-8</v>
       </c>
       <c r="C613" t="s">
@@ -24760,7 +24814,7 @@
         <v>244</v>
       </c>
       <c r="B614" s="2">
-        <f>H614*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>2.2356770961843493E-5</v>
       </c>
       <c r="C614" t="s">
@@ -24781,7 +24835,7 @@
         <v>246</v>
       </c>
       <c r="B615" s="2">
-        <f>H615*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>2.1715027287249044E-6</v>
       </c>
       <c r="C615" t="s">
@@ -24802,7 +24856,7 @@
         <v>246</v>
       </c>
       <c r="B616" s="2">
-        <f>H616*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>6.1481811952783965E-9</v>
       </c>
       <c r="C616" t="s">
@@ -24823,7 +24877,7 @@
         <v>248</v>
       </c>
       <c r="B617" s="2">
-        <f>H617*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>1.6602690568065041E-9</v>
       </c>
       <c r="C617" t="s">
@@ -24844,7 +24898,7 @@
         <v>248</v>
       </c>
       <c r="B618" s="2">
-        <f>H618*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>2.170076770954089E-9</v>
       </c>
       <c r="C618" t="s">
@@ -24865,7 +24919,7 @@
         <v>248</v>
       </c>
       <c r="B619" s="2">
-        <f>H619*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>6.2656423250605473E-9</v>
       </c>
       <c r="C619" t="s">
@@ -24886,7 +24940,7 @@
         <v>250</v>
       </c>
       <c r="B620" s="2">
-        <f>H620*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>5.2645420805056434E-7</v>
       </c>
       <c r="C620" t="s">
@@ -24907,7 +24961,7 @@
         <v>488</v>
       </c>
       <c r="B621" s="2">
-        <f>H621*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>4.4100576846959171E-11</v>
       </c>
       <c r="C621" t="s">
@@ -24928,7 +24982,7 @@
         <v>252</v>
       </c>
       <c r="B622" s="2">
-        <f>H622*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>1.517368844387168E-9</v>
       </c>
       <c r="C622" t="s">
@@ -24949,7 +25003,7 @@
         <v>254</v>
       </c>
       <c r="B623" s="2">
-        <f>H623*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>1.516857653009246E-9</v>
       </c>
       <c r="C623" t="s">
@@ -24970,7 +25024,7 @@
         <v>254</v>
       </c>
       <c r="B624" s="2">
-        <f>H624*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>7.5320236630831638E-11</v>
       </c>
       <c r="C624" t="s">
@@ -24991,7 +25045,7 @@
         <v>255</v>
       </c>
       <c r="B625" s="2">
-        <f>H625*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>5.1198124649368972E-6</v>
       </c>
       <c r="C625" t="s">
@@ -25012,7 +25066,7 @@
         <v>255</v>
       </c>
       <c r="B626" s="2">
-        <f>H626*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>1.0308053778017671E-7</v>
       </c>
       <c r="C626" t="s">
@@ -25033,7 +25087,7 @@
         <v>257</v>
       </c>
       <c r="B627" s="2">
-        <f>H627*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>2.3283325220858631E-10</v>
       </c>
       <c r="C627" t="s">
@@ -25054,7 +25108,7 @@
         <v>257</v>
       </c>
       <c r="B628" s="2">
-        <f>H628*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>2.0023687833301396E-6</v>
       </c>
       <c r="C628" t="s">
@@ -25075,7 +25129,7 @@
         <v>489</v>
       </c>
       <c r="B629" s="2">
-        <f>H629*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>5.8340678961894242E-9</v>
       </c>
       <c r="C629" t="s">
@@ -25096,7 +25150,7 @@
         <v>258</v>
       </c>
       <c r="B630" s="2">
-        <f>H630*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>1.4134689139217054E-3</v>
       </c>
       <c r="C630" t="s">
@@ -25117,7 +25171,7 @@
         <v>260</v>
       </c>
       <c r="B631" s="2">
-        <f>H631*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>1.3554379900762829E-6</v>
       </c>
       <c r="C631" t="s">
@@ -25138,7 +25192,7 @@
         <v>261</v>
       </c>
       <c r="B632" s="2">
-        <f>H632*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>2.6667751533512668E-11</v>
       </c>
       <c r="C632" t="s">
@@ -25159,7 +25213,7 @@
         <v>262</v>
       </c>
       <c r="B633" s="2">
-        <f>H633*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>9.4416578001832392E-7</v>
       </c>
       <c r="C633" t="s">
@@ -25180,7 +25234,7 @@
         <v>263</v>
       </c>
       <c r="B634" s="2">
-        <f>H634*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>3.6171833688338013E-5</v>
       </c>
       <c r="C634" t="s">
@@ -25201,7 +25255,7 @@
         <v>264</v>
       </c>
       <c r="B635" s="2">
-        <f>H635*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>2.6604788504842602E-7</v>
       </c>
       <c r="C635" t="s">
@@ -25222,7 +25276,7 @@
         <v>490</v>
       </c>
       <c r="B636" s="2">
-        <f>H636*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>3.5004407377136508E-10</v>
       </c>
       <c r="C636" t="s">
@@ -25243,7 +25297,7 @@
         <v>265</v>
       </c>
       <c r="B637" s="2">
-        <f>H637*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>5.5499121727981019E-8</v>
       </c>
       <c r="C637" t="s">
@@ -25264,7 +25318,7 @@
         <v>270</v>
       </c>
       <c r="B638" s="2">
-        <f>H638*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>6.3411853223932398E-9</v>
       </c>
       <c r="C638" t="s">
@@ -25285,7 +25339,7 @@
         <v>274</v>
       </c>
       <c r="B639" s="2">
-        <f>H639*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>3.5749362838781094E-5</v>
       </c>
       <c r="C639" t="s">
@@ -25306,7 +25360,7 @@
         <v>276</v>
       </c>
       <c r="B640" s="2">
-        <f>H640*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>1.8914541724920697E-4</v>
       </c>
       <c r="C640" t="s">
@@ -25327,7 +25381,7 @@
         <v>491</v>
       </c>
       <c r="B641" s="2">
-        <f>H641*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>2.7329096922891986E-3</v>
       </c>
       <c r="C641" t="s">
@@ -25348,7 +25402,7 @@
         <v>277</v>
       </c>
       <c r="B642" s="2">
-        <f>H642*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>6.4267920358050006E-4</v>
       </c>
       <c r="C642" t="s">
@@ -25369,7 +25423,7 @@
         <v>278</v>
       </c>
       <c r="B643" s="2">
-        <f>H643*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>4.128942402772809E-6</v>
       </c>
       <c r="C643" t="s">
@@ -25390,7 +25444,7 @@
         <v>492</v>
       </c>
       <c r="B644" s="2">
-        <f>H644*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>1.6345502488458616E-4</v>
       </c>
       <c r="C644" t="s">
@@ -25411,7 +25465,7 @@
         <v>492</v>
       </c>
       <c r="B645" s="2">
-        <f>H645*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>5.1237187964331368E-6</v>
       </c>
       <c r="C645" t="s">
@@ -25432,7 +25486,7 @@
         <v>280</v>
       </c>
       <c r="B646" s="2">
-        <f>H646*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>2.9195657292603699E-6</v>
       </c>
       <c r="C646" t="s">
@@ -25453,7 +25507,7 @@
         <v>493</v>
       </c>
       <c r="B647" s="2">
-        <f>H647*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>4.7454032350962534E-9</v>
       </c>
       <c r="C647" t="s">
@@ -25474,7 +25528,7 @@
         <v>282</v>
       </c>
       <c r="B648" s="2">
-        <f>H648*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>1.1901498508226403E-7</v>
       </c>
       <c r="C648" t="s">
@@ -25495,7 +25549,7 @@
         <v>284</v>
       </c>
       <c r="B649" s="2">
-        <f>H649*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>1.2057073652124782E-8</v>
       </c>
       <c r="C649" t="s">
@@ -25516,7 +25570,7 @@
         <v>285</v>
       </c>
       <c r="B650" s="2">
-        <f>H650*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>5.0317523840835827E-2</v>
       </c>
       <c r="C650" t="s">
@@ -25537,7 +25591,7 @@
         <v>285</v>
       </c>
       <c r="B651" s="2">
-        <f>H651*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>8.8795630307357265E-3</v>
       </c>
       <c r="C651" t="s">
@@ -25558,7 +25612,7 @@
         <v>285</v>
       </c>
       <c r="B652" s="2">
-        <f>H652*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>5.3398801490784046E-5</v>
       </c>
       <c r="C652" t="s">
@@ -25579,7 +25633,7 @@
         <v>286</v>
       </c>
       <c r="B653" s="2">
-        <f>H653*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>7.5092454619788687E-3</v>
       </c>
       <c r="C653" t="s">
@@ -25600,7 +25654,7 @@
         <v>288</v>
       </c>
       <c r="B654" s="2">
-        <f>H654*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>3.3079492386173222E-3</v>
       </c>
       <c r="C654" t="s">
@@ -25621,7 +25675,7 @@
         <v>289</v>
       </c>
       <c r="B655" s="2">
-        <f>H655*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>4.7373015138927541E-2</v>
       </c>
       <c r="C655" t="s">
@@ -25642,7 +25696,7 @@
         <v>290</v>
       </c>
       <c r="B656" s="2">
-        <f>H656*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>1.1085192398574946E-4</v>
       </c>
       <c r="C656" t="s">
@@ -25663,7 +25717,7 @@
         <v>291</v>
       </c>
       <c r="B657" s="2">
-        <f>H657*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>8.3335753384035818E-6</v>
       </c>
       <c r="C657" t="s">
@@ -25684,7 +25738,7 @@
         <v>293</v>
       </c>
       <c r="B658" s="2">
-        <f>H658*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>4.1063075435806026E-7</v>
       </c>
       <c r="C658" t="s">
@@ -25705,7 +25759,7 @@
         <v>293</v>
       </c>
       <c r="B659" s="2">
-        <f>H659*0.15/0.73</f>
+        <f t="shared" si="10"/>
         <v>7.558709511502788E-7</v>
       </c>
       <c r="C659" t="s">
